--- a/app/xlsx/18003198194881_4PJ.xlsx
+++ b/app/xlsx/18003198194881_4PJ.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyGo\rolemaster0.5\RoleMaserV0.5\app\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luiha\OneDrive\デスクトップ\MyGo\rolemaster0.5\RoleMaserV0.5\app\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{9835913E-B5E2-48F8-B5D1-FBE3DA2498E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6771DDD0-4DAB-465D-9AC5-434CA464F381}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276"/>
+    <workbookView xWindow="12015" yWindow="0" windowWidth="16785" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="PJシフト" sheetId="3" r:id="rId1"/>
+    <sheet name="PJシフト4月" sheetId="4" r:id="rId1"/>
+    <sheet name="PJシフト" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1054" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1700" uniqueCount="191">
   <si>
     <t>ミエルココン</t>
   </si>
@@ -702,7 +703,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_ ;[Red]\-0\ "/>
   </numFmts>
@@ -1352,7 +1353,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1402,7 +1403,7 @@
     <xf numFmtId="176" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="20" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1459,7 +1460,7 @@
     <xf numFmtId="176" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1528,18 +1529,6 @@
     <xf numFmtId="176" fontId="3" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -1591,16 +1580,25 @@
     <xf numFmtId="176" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1610,15 +1608,6 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1643,7 +1632,67 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="30">
+    <dxf>
+      <font>
+        <color theme="8"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="8"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="8"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="8"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color theme="8"/>
@@ -2004,26 +2053,2769 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EE3DD89-42D5-4E57-AB52-235C4D14B7E6}">
+  <dimension ref="A2:O69"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14:K14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="4.5" style="4" customWidth="1"/>
+    <col min="2" max="3" width="16.75" style="3" customWidth="1"/>
+    <col min="4" max="15" width="16.75" style="4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:15" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="3"/>
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="B4" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="6"/>
+      <c r="B5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="15" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="89"/>
+      <c r="B6" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="83" t="s">
+        <v>167</v>
+      </c>
+      <c r="D6" s="8">
+        <v>1</v>
+      </c>
+      <c r="E6" s="8">
+        <v>8</v>
+      </c>
+      <c r="F6" s="8">
+        <v>9</v>
+      </c>
+      <c r="G6" s="8">
+        <v>15</v>
+      </c>
+      <c r="H6" s="8">
+        <v>15</v>
+      </c>
+      <c r="I6" s="76" t="s">
+        <v>167</v>
+      </c>
+      <c r="J6" s="8">
+        <v>22</v>
+      </c>
+      <c r="K6" s="8">
+        <v>22</v>
+      </c>
+      <c r="L6" s="8">
+        <v>28</v>
+      </c>
+      <c r="M6" s="8">
+        <v>29</v>
+      </c>
+      <c r="N6" s="8">
+        <v>29</v>
+      </c>
+      <c r="O6" s="25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A7" s="90"/>
+      <c r="B7" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="84"/>
+      <c r="D7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="I7" s="77"/>
+      <c r="J7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="M7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="N7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="O7" s="26" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A8" s="90"/>
+      <c r="B8" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="84"/>
+      <c r="D8" s="7">
+        <v>68</v>
+      </c>
+      <c r="E8" s="7">
+        <v>93</v>
+      </c>
+      <c r="F8" s="7">
+        <v>59</v>
+      </c>
+      <c r="G8" s="7">
+        <v>60</v>
+      </c>
+      <c r="H8" s="7"/>
+      <c r="I8" s="77"/>
+      <c r="J8" s="7">
+        <v>90</v>
+      </c>
+      <c r="K8" s="7">
+        <v>39</v>
+      </c>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7">
+        <v>62</v>
+      </c>
+      <c r="N8" s="7">
+        <v>38</v>
+      </c>
+      <c r="O8" s="26">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A9" s="90"/>
+      <c r="B9" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="84"/>
+      <c r="D9" s="17">
+        <v>14</v>
+      </c>
+      <c r="E9" s="17">
+        <v>19</v>
+      </c>
+      <c r="F9" s="17">
+        <v>12</v>
+      </c>
+      <c r="G9" s="17">
+        <v>12</v>
+      </c>
+      <c r="H9" s="17">
+        <v>10</v>
+      </c>
+      <c r="I9" s="77"/>
+      <c r="J9" s="17">
+        <v>18</v>
+      </c>
+      <c r="K9" s="17">
+        <v>10</v>
+      </c>
+      <c r="L9" s="17"/>
+      <c r="M9" s="17">
+        <v>13</v>
+      </c>
+      <c r="N9" s="17">
+        <v>10</v>
+      </c>
+      <c r="O9" s="36">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A10" s="90"/>
+      <c r="B10" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="84"/>
+      <c r="D10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="7"/>
+      <c r="I10" s="77"/>
+      <c r="J10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="N10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="O10" s="26" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A11" s="90"/>
+      <c r="B11" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="C11" s="84"/>
+      <c r="D11" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="I11" s="77"/>
+      <c r="J11" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="N11" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="O11" s="26" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A12" s="90"/>
+      <c r="B12" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="84"/>
+      <c r="D12" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" s="18">
+        <v>0.6875</v>
+      </c>
+      <c r="I12" s="77"/>
+      <c r="J12" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L12" s="18">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="M12" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="N12" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="O12" s="26" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="91"/>
+      <c r="B13" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="85"/>
+      <c r="D13" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="I13" s="78"/>
+      <c r="J13" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="M13" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="N13" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="O13" s="26" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="15" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="41">
+        <v>1</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="42" t="s">
+        <v>154</v>
+      </c>
+      <c r="D14" s="43" t="s">
+        <v>82</v>
+      </c>
+      <c r="E14" s="43" t="s">
+        <v>83</v>
+      </c>
+      <c r="F14" s="43" t="s">
+        <v>85</v>
+      </c>
+      <c r="G14" s="43" t="s">
+        <v>92</v>
+      </c>
+      <c r="H14" s="43"/>
+      <c r="I14" s="42" t="s">
+        <v>154</v>
+      </c>
+      <c r="J14" s="71" t="s">
+        <v>88</v>
+      </c>
+      <c r="K14" s="71" t="s">
+        <v>25</v>
+      </c>
+      <c r="L14" s="43"/>
+      <c r="M14" s="71" t="s">
+        <v>82</v>
+      </c>
+      <c r="N14" s="71" t="s">
+        <v>23</v>
+      </c>
+      <c r="O14" s="44" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A15" s="33">
+        <v>2</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="H15" s="7"/>
+      <c r="I15" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="J15" s="72" t="s">
+        <v>82</v>
+      </c>
+      <c r="K15" s="72" t="s">
+        <v>28</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="M15" s="72" t="s">
+        <v>82</v>
+      </c>
+      <c r="N15" s="72" t="s">
+        <v>25</v>
+      </c>
+      <c r="O15" s="26" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A16" s="37">
+        <v>3</v>
+      </c>
+      <c r="B16" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="38" t="s">
+        <v>166</v>
+      </c>
+      <c r="D16" s="39" t="s">
+        <v>82</v>
+      </c>
+      <c r="E16" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="F16" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="G16" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="H16" s="39"/>
+      <c r="I16" s="38" t="s">
+        <v>166</v>
+      </c>
+      <c r="J16" s="73" t="s">
+        <v>87</v>
+      </c>
+      <c r="K16" s="73" t="s">
+        <v>23</v>
+      </c>
+      <c r="L16" s="39"/>
+      <c r="M16" s="73" t="s">
+        <v>87</v>
+      </c>
+      <c r="N16" s="73" t="s">
+        <v>23</v>
+      </c>
+      <c r="O16" s="40" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A17" s="33">
+        <v>4</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="H17" s="7"/>
+      <c r="I17" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="J17" s="72" t="s">
+        <v>92</v>
+      </c>
+      <c r="K17" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="L17" s="7"/>
+      <c r="M17" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="N17" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="O17" s="26" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A18" s="37">
+        <v>5</v>
+      </c>
+      <c r="B18" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="38" t="s">
+        <v>157</v>
+      </c>
+      <c r="D18" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="E18" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="F18" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="G18" s="39" t="s">
+        <v>82</v>
+      </c>
+      <c r="H18" s="39"/>
+      <c r="I18" s="38" t="s">
+        <v>157</v>
+      </c>
+      <c r="J18" s="73" t="s">
+        <v>87</v>
+      </c>
+      <c r="K18" s="73" t="s">
+        <v>23</v>
+      </c>
+      <c r="L18" s="39"/>
+      <c r="M18" s="73" t="s">
+        <v>91</v>
+      </c>
+      <c r="N18" s="73" t="s">
+        <v>24</v>
+      </c>
+      <c r="O18" s="40" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A19" s="33">
+        <v>6</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="H19" s="7"/>
+      <c r="I19" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="J19" s="72" t="s">
+        <v>86</v>
+      </c>
+      <c r="K19" s="72" t="s">
+        <v>34</v>
+      </c>
+      <c r="L19" s="7"/>
+      <c r="M19" s="72" t="s">
+        <v>82</v>
+      </c>
+      <c r="N19" s="72" t="s">
+        <v>28</v>
+      </c>
+      <c r="O19" s="26" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A20" s="37">
+        <v>7</v>
+      </c>
+      <c r="B20" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="D20" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="E20" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="F20" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="G20" s="39" t="s">
+        <v>82</v>
+      </c>
+      <c r="H20" s="39"/>
+      <c r="I20" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="J20" s="73" t="s">
+        <v>87</v>
+      </c>
+      <c r="K20" s="73" t="s">
+        <v>23</v>
+      </c>
+      <c r="L20" s="39"/>
+      <c r="M20" s="73" t="s">
+        <v>87</v>
+      </c>
+      <c r="N20" s="73" t="s">
+        <v>23</v>
+      </c>
+      <c r="O20" s="40" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A21" s="33">
+        <v>8</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="H21" s="7"/>
+      <c r="I21" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="J21" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="K21" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="L21" s="7"/>
+      <c r="M21" s="72" t="s">
+        <v>87</v>
+      </c>
+      <c r="N21" s="72" t="s">
+        <v>23</v>
+      </c>
+      <c r="O21" s="26" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A22" s="37">
+        <v>9</v>
+      </c>
+      <c r="B22" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="38" t="s">
+        <v>110</v>
+      </c>
+      <c r="D22" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="E22" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="F22" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="G22" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="H22" s="39"/>
+      <c r="I22" s="38" t="s">
+        <v>110</v>
+      </c>
+      <c r="J22" s="73" t="s">
+        <v>82</v>
+      </c>
+      <c r="K22" s="73" t="s">
+        <v>25</v>
+      </c>
+      <c r="L22" s="39"/>
+      <c r="M22" s="73" t="s">
+        <v>83</v>
+      </c>
+      <c r="N22" s="73" t="s">
+        <v>38</v>
+      </c>
+      <c r="O22" s="40" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A23" s="33">
+        <v>10</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="H23" s="7"/>
+      <c r="I23" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="J23" s="72" t="s">
+        <v>87</v>
+      </c>
+      <c r="K23" s="72" t="s">
+        <v>23</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="M23" s="72" t="s">
+        <v>83</v>
+      </c>
+      <c r="N23" s="72" t="s">
+        <v>38</v>
+      </c>
+      <c r="O23" s="26" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A24" s="37">
+        <v>11</v>
+      </c>
+      <c r="B24" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" s="38" t="s">
+        <v>112</v>
+      </c>
+      <c r="D24" s="39" t="s">
+        <v>82</v>
+      </c>
+      <c r="E24" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="F24" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="G24" s="39" t="s">
+        <v>82</v>
+      </c>
+      <c r="H24" s="39"/>
+      <c r="I24" s="38" t="s">
+        <v>112</v>
+      </c>
+      <c r="J24" s="73" t="s">
+        <v>91</v>
+      </c>
+      <c r="K24" s="73" t="s">
+        <v>24</v>
+      </c>
+      <c r="L24" s="39"/>
+      <c r="M24" s="73" t="s">
+        <v>82</v>
+      </c>
+      <c r="N24" s="73" t="s">
+        <v>25</v>
+      </c>
+      <c r="O24" s="40" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A25" s="33">
+        <v>12</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="H25" s="7"/>
+      <c r="I25" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="J25" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="K25" s="72" t="s">
+        <v>30</v>
+      </c>
+      <c r="L25" s="7"/>
+      <c r="M25" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="N25" s="72" t="s">
+        <v>30</v>
+      </c>
+      <c r="O25" s="26" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A26" s="37">
+        <v>13</v>
+      </c>
+      <c r="B26" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" s="38" t="s">
+        <v>114</v>
+      </c>
+      <c r="D26" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="E26" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="F26" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="G26" s="39" t="s">
+        <v>82</v>
+      </c>
+      <c r="H26" s="39"/>
+      <c r="I26" s="38" t="s">
+        <v>114</v>
+      </c>
+      <c r="J26" s="73" t="s">
+        <v>87</v>
+      </c>
+      <c r="K26" s="73" t="s">
+        <v>23</v>
+      </c>
+      <c r="L26" s="39" t="s">
+        <v>81</v>
+      </c>
+      <c r="M26" s="73" t="s">
+        <v>87</v>
+      </c>
+      <c r="N26" s="73" t="s">
+        <v>23</v>
+      </c>
+      <c r="O26" s="40" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A27" s="33">
+        <v>14</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C27" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="H27" s="7"/>
+      <c r="I27" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="J27" s="72" t="s">
+        <v>89</v>
+      </c>
+      <c r="K27" s="72" t="s">
+        <v>44</v>
+      </c>
+      <c r="L27" s="7"/>
+      <c r="M27" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="N27" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="O27" s="26" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A28" s="37">
+        <v>15</v>
+      </c>
+      <c r="B28" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="C28" s="38" t="s">
+        <v>116</v>
+      </c>
+      <c r="D28" s="39" t="s">
+        <v>82</v>
+      </c>
+      <c r="E28" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="F28" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="G28" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="H28" s="39"/>
+      <c r="I28" s="38" t="s">
+        <v>116</v>
+      </c>
+      <c r="J28" s="73" t="s">
+        <v>87</v>
+      </c>
+      <c r="K28" s="73" t="s">
+        <v>23</v>
+      </c>
+      <c r="L28" s="39" t="s">
+        <v>81</v>
+      </c>
+      <c r="M28" s="73" t="s">
+        <v>82</v>
+      </c>
+      <c r="N28" s="73" t="s">
+        <v>25</v>
+      </c>
+      <c r="O28" s="40" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A29" s="33">
+        <v>16</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="H29" s="7"/>
+      <c r="I29" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="J29" s="72" t="s">
+        <v>87</v>
+      </c>
+      <c r="K29" s="72" t="s">
+        <v>23</v>
+      </c>
+      <c r="L29" s="7"/>
+      <c r="M29" s="72" t="s">
+        <v>87</v>
+      </c>
+      <c r="N29" s="72" t="s">
+        <v>23</v>
+      </c>
+      <c r="O29" s="26" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A30" s="37">
+        <v>17</v>
+      </c>
+      <c r="B30" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30" s="38" t="s">
+        <v>160</v>
+      </c>
+      <c r="D30" s="39" t="s">
+        <v>82</v>
+      </c>
+      <c r="E30" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="F30" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="G30" s="39" t="s">
+        <v>82</v>
+      </c>
+      <c r="H30" s="39"/>
+      <c r="I30" s="38" t="s">
+        <v>160</v>
+      </c>
+      <c r="J30" s="73" t="s">
+        <v>87</v>
+      </c>
+      <c r="K30" s="73" t="s">
+        <v>23</v>
+      </c>
+      <c r="L30" s="39"/>
+      <c r="M30" s="73" t="s">
+        <v>91</v>
+      </c>
+      <c r="N30" s="73" t="s">
+        <v>26</v>
+      </c>
+      <c r="O30" s="40" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A31" s="33">
+        <v>18</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C31" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="H31" s="7"/>
+      <c r="I31" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="J31" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="K31" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="L31" s="7"/>
+      <c r="M31" s="72" t="s">
+        <v>82</v>
+      </c>
+      <c r="N31" s="72" t="s">
+        <v>28</v>
+      </c>
+      <c r="O31" s="26" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A32" s="37">
+        <v>19</v>
+      </c>
+      <c r="B32" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="C32" s="38" t="s">
+        <v>163</v>
+      </c>
+      <c r="D32" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="E32" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="F32" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="G32" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="H32" s="39"/>
+      <c r="I32" s="38" t="s">
+        <v>163</v>
+      </c>
+      <c r="J32" s="73" t="s">
+        <v>91</v>
+      </c>
+      <c r="K32" s="73" t="s">
+        <v>24</v>
+      </c>
+      <c r="L32" s="39"/>
+      <c r="M32" s="73" t="s">
+        <v>91</v>
+      </c>
+      <c r="N32" s="73" t="s">
+        <v>24</v>
+      </c>
+      <c r="O32" s="40" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A33" s="33">
+        <v>20</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C33" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="H33" s="7"/>
+      <c r="I33" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="J33" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="K33" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="L33" s="7"/>
+      <c r="M33" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="N33" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="O33" s="26" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A34" s="37">
+        <v>21</v>
+      </c>
+      <c r="B34" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="C34" s="38" t="s">
+        <v>121</v>
+      </c>
+      <c r="D34" s="39" t="s">
+        <v>82</v>
+      </c>
+      <c r="E34" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="F34" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="G34" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="H34" s="39"/>
+      <c r="I34" s="38" t="s">
+        <v>121</v>
+      </c>
+      <c r="J34" s="73" t="s">
+        <v>91</v>
+      </c>
+      <c r="K34" s="73" t="s">
+        <v>24</v>
+      </c>
+      <c r="L34" s="39"/>
+      <c r="M34" s="73" t="s">
+        <v>91</v>
+      </c>
+      <c r="N34" s="73" t="s">
+        <v>24</v>
+      </c>
+      <c r="O34" s="40" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A35" s="33">
+        <v>22</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C35" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="H35" s="7"/>
+      <c r="I35" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="J35" s="72" t="s">
+        <v>82</v>
+      </c>
+      <c r="K35" s="72" t="s">
+        <v>25</v>
+      </c>
+      <c r="L35" s="7"/>
+      <c r="M35" s="72" t="s">
+        <v>87</v>
+      </c>
+      <c r="N35" s="72" t="s">
+        <v>23</v>
+      </c>
+      <c r="O35" s="26" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A36" s="37">
+        <v>23</v>
+      </c>
+      <c r="B36" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C36" s="38" t="s">
+        <v>123</v>
+      </c>
+      <c r="D36" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="E36" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="F36" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="G36" s="39" t="s">
+        <v>82</v>
+      </c>
+      <c r="H36" s="39"/>
+      <c r="I36" s="38" t="s">
+        <v>123</v>
+      </c>
+      <c r="J36" s="73" t="s">
+        <v>91</v>
+      </c>
+      <c r="K36" s="73" t="s">
+        <v>24</v>
+      </c>
+      <c r="L36" s="39"/>
+      <c r="M36" s="73" t="s">
+        <v>82</v>
+      </c>
+      <c r="N36" s="73" t="s">
+        <v>25</v>
+      </c>
+      <c r="O36" s="40" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A37" s="33">
+        <v>24</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C37" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="H37" s="7"/>
+      <c r="I37" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="J37" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="K37" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="L37" s="7"/>
+      <c r="M37" s="72" t="s">
+        <v>87</v>
+      </c>
+      <c r="N37" s="72" t="s">
+        <v>23</v>
+      </c>
+      <c r="O37" s="26" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A38" s="37">
+        <v>25</v>
+      </c>
+      <c r="B38" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="C38" s="38" t="s">
+        <v>124</v>
+      </c>
+      <c r="D38" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="E38" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="F38" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="G38" s="39" t="s">
+        <v>82</v>
+      </c>
+      <c r="H38" s="39"/>
+      <c r="I38" s="38" t="s">
+        <v>124</v>
+      </c>
+      <c r="J38" s="73" t="s">
+        <v>87</v>
+      </c>
+      <c r="K38" s="73" t="s">
+        <v>23</v>
+      </c>
+      <c r="L38" s="39"/>
+      <c r="M38" s="73" t="s">
+        <v>87</v>
+      </c>
+      <c r="N38" s="73" t="s">
+        <v>23</v>
+      </c>
+      <c r="O38" s="40" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A39" s="33">
+        <v>26</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C39" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="H39" s="7"/>
+      <c r="I39" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="J39" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="K39" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="L39" s="7"/>
+      <c r="M39" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="N39" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="O39" s="26" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="45">
+        <v>27</v>
+      </c>
+      <c r="B40" s="46" t="s">
+        <v>57</v>
+      </c>
+      <c r="C40" s="47" t="s">
+        <v>127</v>
+      </c>
+      <c r="D40" s="48" t="s">
+        <v>92</v>
+      </c>
+      <c r="E40" s="48" t="s">
+        <v>92</v>
+      </c>
+      <c r="F40" s="48" t="s">
+        <v>92</v>
+      </c>
+      <c r="G40" s="48" t="s">
+        <v>92</v>
+      </c>
+      <c r="H40" s="48"/>
+      <c r="I40" s="47" t="s">
+        <v>127</v>
+      </c>
+      <c r="J40" s="74" t="s">
+        <v>91</v>
+      </c>
+      <c r="K40" s="74" t="s">
+        <v>30</v>
+      </c>
+      <c r="L40" s="48" t="s">
+        <v>81</v>
+      </c>
+      <c r="M40" s="74" t="s">
+        <v>91</v>
+      </c>
+      <c r="N40" s="74" t="s">
+        <v>24</v>
+      </c>
+      <c r="O40" s="49" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" ht="15" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="35">
+        <v>28</v>
+      </c>
+      <c r="B41" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="C41" s="30" t="s">
+        <v>128</v>
+      </c>
+      <c r="D41" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="E41" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="F41" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="G41" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="H41" s="31"/>
+      <c r="I41" s="30" t="s">
+        <v>128</v>
+      </c>
+      <c r="J41" s="75" t="s">
+        <v>87</v>
+      </c>
+      <c r="K41" s="75" t="s">
+        <v>23</v>
+      </c>
+      <c r="L41" s="31"/>
+      <c r="M41" s="75" t="s">
+        <v>91</v>
+      </c>
+      <c r="N41" s="75" t="s">
+        <v>24</v>
+      </c>
+      <c r="O41" s="32" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A42" s="37">
+        <v>29</v>
+      </c>
+      <c r="B42" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="C42" s="38" t="s">
+        <v>129</v>
+      </c>
+      <c r="D42" s="39" t="s">
+        <v>82</v>
+      </c>
+      <c r="E42" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="F42" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="G42" s="39" t="s">
+        <v>82</v>
+      </c>
+      <c r="H42" s="39"/>
+      <c r="I42" s="38" t="s">
+        <v>129</v>
+      </c>
+      <c r="J42" s="73" t="s">
+        <v>91</v>
+      </c>
+      <c r="K42" s="73" t="s">
+        <v>26</v>
+      </c>
+      <c r="L42" s="39"/>
+      <c r="M42" s="73" t="s">
+        <v>91</v>
+      </c>
+      <c r="N42" s="73" t="s">
+        <v>24</v>
+      </c>
+      <c r="O42" s="40" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A43" s="33">
+        <v>30</v>
+      </c>
+      <c r="B43" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C43" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="H43" s="7"/>
+      <c r="I43" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="J43" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="K43" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="L43" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="M43" s="72" t="s">
+        <v>82</v>
+      </c>
+      <c r="N43" s="72" t="s">
+        <v>25</v>
+      </c>
+      <c r="O43" s="26" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A44" s="37">
+        <v>31</v>
+      </c>
+      <c r="B44" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="C44" s="38" t="s">
+        <v>146</v>
+      </c>
+      <c r="D44" s="39" t="s">
+        <v>82</v>
+      </c>
+      <c r="E44" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="F44" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="G44" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="H44" s="39"/>
+      <c r="I44" s="38" t="s">
+        <v>146</v>
+      </c>
+      <c r="J44" s="73" t="s">
+        <v>82</v>
+      </c>
+      <c r="K44" s="73" t="s">
+        <v>25</v>
+      </c>
+      <c r="L44" s="39"/>
+      <c r="M44" s="73" t="s">
+        <v>83</v>
+      </c>
+      <c r="N44" s="73" t="s">
+        <v>38</v>
+      </c>
+      <c r="O44" s="40" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A45" s="33">
+        <v>32</v>
+      </c>
+      <c r="B45" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C45" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="H45" s="7"/>
+      <c r="I45" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="J45" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="K45" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="L45" s="7"/>
+      <c r="M45" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="N45" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="O45" s="26" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A46" s="37">
+        <v>33</v>
+      </c>
+      <c r="B46" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="C46" s="38" t="s">
+        <v>131</v>
+      </c>
+      <c r="D46" s="39" t="s">
+        <v>82</v>
+      </c>
+      <c r="E46" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="F46" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="G46" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="H46" s="39"/>
+      <c r="I46" s="38" t="s">
+        <v>131</v>
+      </c>
+      <c r="J46" s="73" t="s">
+        <v>91</v>
+      </c>
+      <c r="K46" s="73" t="s">
+        <v>24</v>
+      </c>
+      <c r="L46" s="39"/>
+      <c r="M46" s="73" t="s">
+        <v>87</v>
+      </c>
+      <c r="N46" s="73" t="s">
+        <v>23</v>
+      </c>
+      <c r="O46" s="40" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A47" s="33">
+        <v>34</v>
+      </c>
+      <c r="B47" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C47" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="H47" s="7"/>
+      <c r="I47" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="J47" s="72" t="s">
+        <v>87</v>
+      </c>
+      <c r="K47" s="72" t="s">
+        <v>23</v>
+      </c>
+      <c r="L47" s="7"/>
+      <c r="M47" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="N47" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="O47" s="26" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A48" s="37">
+        <v>35</v>
+      </c>
+      <c r="B48" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="C48" s="38" t="s">
+        <v>148</v>
+      </c>
+      <c r="D48" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="E48" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="F48" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="G48" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="H48" s="39"/>
+      <c r="I48" s="38" t="s">
+        <v>148</v>
+      </c>
+      <c r="J48" s="73" t="s">
+        <v>91</v>
+      </c>
+      <c r="K48" s="73" t="s">
+        <v>24</v>
+      </c>
+      <c r="L48" s="39"/>
+      <c r="M48" s="73" t="s">
+        <v>87</v>
+      </c>
+      <c r="N48" s="73" t="s">
+        <v>66</v>
+      </c>
+      <c r="O48" s="40" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A49" s="33">
+        <v>36</v>
+      </c>
+      <c r="B49" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C49" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="H49" s="7"/>
+      <c r="I49" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="J49" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="K49" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="L49" s="7"/>
+      <c r="M49" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="N49" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="O49" s="26" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A50" s="37">
+        <v>37</v>
+      </c>
+      <c r="B50" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="C50" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="D50" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="E50" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="F50" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="G50" s="39" t="s">
+        <v>82</v>
+      </c>
+      <c r="H50" s="39"/>
+      <c r="I50" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="J50" s="73" t="s">
+        <v>91</v>
+      </c>
+      <c r="K50" s="73" t="s">
+        <v>24</v>
+      </c>
+      <c r="L50" s="39"/>
+      <c r="M50" s="73" t="s">
+        <v>83</v>
+      </c>
+      <c r="N50" s="73" t="s">
+        <v>38</v>
+      </c>
+      <c r="O50" s="40" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A51" s="33">
+        <v>38</v>
+      </c>
+      <c r="B51" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="C51" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="H51" s="7"/>
+      <c r="I51" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="J51" s="72" t="s">
+        <v>83</v>
+      </c>
+      <c r="K51" s="72" t="s">
+        <v>38</v>
+      </c>
+      <c r="L51" s="7"/>
+      <c r="M51" s="72" t="s">
+        <v>83</v>
+      </c>
+      <c r="N51" s="72" t="s">
+        <v>38</v>
+      </c>
+      <c r="O51" s="26" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A52" s="37">
+        <v>39</v>
+      </c>
+      <c r="B52" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="C52" s="38" t="s">
+        <v>150</v>
+      </c>
+      <c r="D52" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="E52" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="F52" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="G52" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="H52" s="39"/>
+      <c r="I52" s="38" t="s">
+        <v>150</v>
+      </c>
+      <c r="J52" s="73" t="s">
+        <v>90</v>
+      </c>
+      <c r="K52" s="73" t="s">
+        <v>71</v>
+      </c>
+      <c r="L52" s="39" t="s">
+        <v>81</v>
+      </c>
+      <c r="M52" s="73" t="s">
+        <v>91</v>
+      </c>
+      <c r="N52" s="73" t="s">
+        <v>24</v>
+      </c>
+      <c r="O52" s="40" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A53" s="33">
+        <v>40</v>
+      </c>
+      <c r="B53" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="C53" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F53" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G53" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="H53" s="7"/>
+      <c r="I53" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="J53" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="K53" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="L53" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="M53" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="N53" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="O53" s="26" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A54" s="37">
+        <v>41</v>
+      </c>
+      <c r="B54" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="C54" s="38" t="s">
+        <v>152</v>
+      </c>
+      <c r="D54" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="E54" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="F54" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="G54" s="39" t="s">
+        <v>82</v>
+      </c>
+      <c r="H54" s="39"/>
+      <c r="I54" s="38" t="s">
+        <v>152</v>
+      </c>
+      <c r="J54" s="73" t="s">
+        <v>83</v>
+      </c>
+      <c r="K54" s="73" t="s">
+        <v>38</v>
+      </c>
+      <c r="L54" s="39"/>
+      <c r="M54" s="73" t="s">
+        <v>82</v>
+      </c>
+      <c r="N54" s="73" t="s">
+        <v>25</v>
+      </c>
+      <c r="O54" s="40" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A55" s="33">
+        <v>42</v>
+      </c>
+      <c r="B55" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="C55" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F55" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G55" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="H55" s="7"/>
+      <c r="I55" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J55" s="72" t="s">
+        <v>87</v>
+      </c>
+      <c r="K55" s="72" t="s">
+        <v>23</v>
+      </c>
+      <c r="L55" s="7"/>
+      <c r="M55" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="N55" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="O55" s="26" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A56" s="37">
+        <v>43</v>
+      </c>
+      <c r="B56" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="C56" s="38" t="s">
+        <v>173</v>
+      </c>
+      <c r="D56" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="E56" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="F56" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="G56" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="H56" s="39"/>
+      <c r="I56" s="38" t="s">
+        <v>173</v>
+      </c>
+      <c r="J56" s="73" t="s">
+        <v>91</v>
+      </c>
+      <c r="K56" s="73" t="s">
+        <v>26</v>
+      </c>
+      <c r="L56" s="39"/>
+      <c r="M56" s="73" t="s">
+        <v>91</v>
+      </c>
+      <c r="N56" s="73" t="s">
+        <v>24</v>
+      </c>
+      <c r="O56" s="40" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A57" s="33">
+        <v>44</v>
+      </c>
+      <c r="B57" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C57" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F57" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G57" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="H57" s="7"/>
+      <c r="I57" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="J57" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="K57" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="L57" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="M57" s="72" t="s">
+        <v>82</v>
+      </c>
+      <c r="N57" s="72" t="s">
+        <v>25</v>
+      </c>
+      <c r="O57" s="26" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A58" s="37">
+        <v>45</v>
+      </c>
+      <c r="B58" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C58" s="38" t="s">
+        <v>169</v>
+      </c>
+      <c r="D58" s="39" t="s">
+        <v>82</v>
+      </c>
+      <c r="E58" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="F58" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="G58" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="H58" s="39"/>
+      <c r="I58" s="38" t="s">
+        <v>169</v>
+      </c>
+      <c r="J58" s="73" t="s">
+        <v>82</v>
+      </c>
+      <c r="K58" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="L58" s="39"/>
+      <c r="M58" s="73" t="s">
+        <v>83</v>
+      </c>
+      <c r="N58" s="73" t="s">
+        <v>78</v>
+      </c>
+      <c r="O58" s="40" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A59" s="33">
+        <v>46</v>
+      </c>
+      <c r="B59" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="C59" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="E59" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F59" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G59" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="H59" s="7"/>
+      <c r="I59" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="J59" s="72" t="s">
+        <v>83</v>
+      </c>
+      <c r="K59" s="72" t="s">
+        <v>38</v>
+      </c>
+      <c r="L59" s="7"/>
+      <c r="M59" s="72" t="s">
+        <v>82</v>
+      </c>
+      <c r="N59" s="72" t="s">
+        <v>25</v>
+      </c>
+      <c r="O59" s="26" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A60" s="37">
+        <v>47</v>
+      </c>
+      <c r="B60" s="24"/>
+      <c r="C60" s="50"/>
+      <c r="D60" s="51"/>
+      <c r="E60" s="51"/>
+      <c r="F60" s="51"/>
+      <c r="G60" s="51"/>
+      <c r="H60" s="51"/>
+      <c r="I60" s="50"/>
+      <c r="J60" s="81"/>
+      <c r="K60" s="82"/>
+      <c r="L60" s="51"/>
+      <c r="M60" s="81"/>
+      <c r="N60" s="82"/>
+      <c r="O60" s="52"/>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A61" s="33">
+        <v>48</v>
+      </c>
+      <c r="B61" s="29"/>
+      <c r="C61" s="30"/>
+      <c r="D61" s="31"/>
+      <c r="E61" s="31"/>
+      <c r="F61" s="31"/>
+      <c r="G61" s="31"/>
+      <c r="H61" s="31"/>
+      <c r="I61" s="30"/>
+      <c r="J61" s="79"/>
+      <c r="K61" s="80"/>
+      <c r="L61" s="31"/>
+      <c r="M61" s="79"/>
+      <c r="N61" s="80"/>
+      <c r="O61" s="32"/>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A62" s="37">
+        <v>49</v>
+      </c>
+      <c r="B62" s="24"/>
+      <c r="C62" s="50"/>
+      <c r="D62" s="51"/>
+      <c r="E62" s="51"/>
+      <c r="F62" s="51"/>
+      <c r="G62" s="51"/>
+      <c r="H62" s="51"/>
+      <c r="I62" s="50"/>
+      <c r="J62" s="81"/>
+      <c r="K62" s="82"/>
+      <c r="L62" s="51"/>
+      <c r="M62" s="81"/>
+      <c r="N62" s="82"/>
+      <c r="O62" s="52"/>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A63" s="33">
+        <v>50</v>
+      </c>
+      <c r="B63" s="29"/>
+      <c r="C63" s="30"/>
+      <c r="D63" s="31"/>
+      <c r="E63" s="31"/>
+      <c r="F63" s="31"/>
+      <c r="G63" s="31"/>
+      <c r="H63" s="31"/>
+      <c r="I63" s="30"/>
+      <c r="J63" s="79"/>
+      <c r="K63" s="80"/>
+      <c r="L63" s="31"/>
+      <c r="M63" s="79"/>
+      <c r="N63" s="80"/>
+      <c r="O63" s="32"/>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A64" s="37">
+        <v>51</v>
+      </c>
+      <c r="B64" s="24"/>
+      <c r="C64" s="50"/>
+      <c r="D64" s="51"/>
+      <c r="E64" s="51"/>
+      <c r="F64" s="51"/>
+      <c r="G64" s="51"/>
+      <c r="H64" s="51"/>
+      <c r="I64" s="50"/>
+      <c r="J64" s="81"/>
+      <c r="K64" s="82"/>
+      <c r="L64" s="51"/>
+      <c r="M64" s="81"/>
+      <c r="N64" s="82"/>
+      <c r="O64" s="52"/>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A65" s="33">
+        <v>52</v>
+      </c>
+      <c r="B65" s="29"/>
+      <c r="C65" s="30"/>
+      <c r="D65" s="31"/>
+      <c r="E65" s="31"/>
+      <c r="F65" s="31"/>
+      <c r="G65" s="31"/>
+      <c r="H65" s="31"/>
+      <c r="I65" s="30"/>
+      <c r="J65" s="79"/>
+      <c r="K65" s="80"/>
+      <c r="L65" s="31"/>
+      <c r="M65" s="79"/>
+      <c r="N65" s="80"/>
+      <c r="O65" s="32"/>
+    </row>
+    <row r="66" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="45">
+        <v>53</v>
+      </c>
+      <c r="B66" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="C66" s="38" t="s">
+        <v>163</v>
+      </c>
+      <c r="D66" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="E66" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="F66" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="G66" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="H66" s="70"/>
+      <c r="I66" s="38" t="s">
+        <v>163</v>
+      </c>
+      <c r="J66" s="73" t="s">
+        <v>91</v>
+      </c>
+      <c r="K66" s="73" t="s">
+        <v>24</v>
+      </c>
+      <c r="L66" s="39"/>
+      <c r="M66" s="73" t="s">
+        <v>91</v>
+      </c>
+      <c r="N66" s="73" t="s">
+        <v>24</v>
+      </c>
+      <c r="O66" s="40" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" ht="15" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A67" s="35"/>
+      <c r="B67" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="C67" s="20"/>
+      <c r="D67" s="15"/>
+      <c r="E67" s="15"/>
+      <c r="F67" s="15"/>
+      <c r="G67" s="15"/>
+      <c r="H67" s="15"/>
+      <c r="I67" s="15"/>
+      <c r="J67" s="15"/>
+      <c r="K67" s="15"/>
+      <c r="L67" s="15"/>
+      <c r="M67" s="15"/>
+      <c r="N67" s="15"/>
+      <c r="O67" s="27"/>
+    </row>
+    <row r="68" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="34"/>
+      <c r="B68" s="13"/>
+      <c r="C68" s="21"/>
+      <c r="D68" s="9"/>
+      <c r="E68" s="9"/>
+      <c r="F68" s="9"/>
+      <c r="G68" s="9"/>
+      <c r="H68" s="9"/>
+      <c r="I68" s="9"/>
+      <c r="J68" s="9"/>
+      <c r="K68" s="9"/>
+      <c r="L68" s="9"/>
+      <c r="M68" s="9"/>
+      <c r="N68" s="9"/>
+      <c r="O68" s="28"/>
+    </row>
+    <row r="69" spans="1:15" ht="15" thickTop="1" x14ac:dyDescent="0.15"/>
+  </sheetData>
+  <mergeCells count="109">
+    <mergeCell ref="J64:K64"/>
+    <mergeCell ref="M64:N64"/>
+    <mergeCell ref="J65:K65"/>
+    <mergeCell ref="M65:N65"/>
+    <mergeCell ref="J66:K66"/>
+    <mergeCell ref="M66:N66"/>
+    <mergeCell ref="J61:K61"/>
+    <mergeCell ref="M61:N61"/>
+    <mergeCell ref="J62:K62"/>
+    <mergeCell ref="M62:N62"/>
+    <mergeCell ref="J63:K63"/>
+    <mergeCell ref="M63:N63"/>
+    <mergeCell ref="J58:K58"/>
+    <mergeCell ref="M58:N58"/>
+    <mergeCell ref="J59:K59"/>
+    <mergeCell ref="M59:N59"/>
+    <mergeCell ref="J60:K60"/>
+    <mergeCell ref="M60:N60"/>
+    <mergeCell ref="J55:K55"/>
+    <mergeCell ref="M55:N55"/>
+    <mergeCell ref="J56:K56"/>
+    <mergeCell ref="M56:N56"/>
+    <mergeCell ref="J57:K57"/>
+    <mergeCell ref="M57:N57"/>
+    <mergeCell ref="J52:K52"/>
+    <mergeCell ref="M52:N52"/>
+    <mergeCell ref="J53:K53"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="J54:K54"/>
+    <mergeCell ref="M54:N54"/>
+    <mergeCell ref="J49:K49"/>
+    <mergeCell ref="M49:N49"/>
+    <mergeCell ref="J50:K50"/>
+    <mergeCell ref="M50:N50"/>
+    <mergeCell ref="J51:K51"/>
+    <mergeCell ref="M51:N51"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="M46:N46"/>
+    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="M47:N47"/>
+    <mergeCell ref="J48:K48"/>
+    <mergeCell ref="M48:N48"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="M43:N43"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="M44:N44"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="A6:A13"/>
+    <mergeCell ref="C6:C13"/>
+    <mergeCell ref="I6:I13"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="M15:N15"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <conditionalFormatting sqref="A6:F6 I6:N6">
+    <cfRule type="expression" dxfId="11" priority="4" stopIfTrue="1">
+      <formula>B$5="1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="5" stopIfTrue="1">
+      <formula>B$7="日"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="9" priority="6" stopIfTrue="1">
+      <formula>B$7="土"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7 D7:H7 J7:O7">
+    <cfRule type="expression" dxfId="8" priority="1" stopIfTrue="1">
+      <formula>B$5="1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="7" priority="2" stopIfTrue="1">
+      <formula>B$7="日"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="3" stopIfTrue="1">
+      <formula>B$7="土"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G6:H6">
+    <cfRule type="expression" dxfId="5" priority="10" stopIfTrue="1">
+      <formula>I$5="1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="11" stopIfTrue="1">
+      <formula>I$7="日"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="12" stopIfTrue="1">
+      <formula>I$7="土"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O6">
+    <cfRule type="expression" dxfId="2" priority="7" stopIfTrue="1">
+      <formula>X$5="1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="8" stopIfTrue="1">
+      <formula>X$7="日"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="9" stopIfTrue="1">
+      <formula>X$7="土"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:Z69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="52" zoomScaleNormal="52" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6:P13"/>
+    <sheetView topLeftCell="A24" zoomScale="52" zoomScaleNormal="52" workbookViewId="0">
+      <selection sqref="A1:O1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.19921875" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="14.25" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4.46484375" style="4" customWidth="1"/>
-    <col min="2" max="3" width="16.796875" style="3" customWidth="1"/>
-    <col min="4" max="26" width="16.796875" style="4" customWidth="1"/>
-    <col min="27" max="16384" width="14.19921875" style="4"/>
+    <col min="1" max="1" width="4.5" style="4" customWidth="1"/>
+    <col min="2" max="3" width="16.75" style="3" customWidth="1"/>
+    <col min="4" max="26" width="16.75" style="4" customWidth="1"/>
+    <col min="27" max="16384" width="14.25" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="4.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:26" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:26" ht="4.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="2" spans="1:26" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2034,13 +4826,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="8.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:26" ht="22.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:26" ht="8.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="4" spans="1:26" ht="22.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:26" s="6" customFormat="1" ht="6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" s="6" customFormat="1" ht="6" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="5" t="s">
         <v>3</v>
       </c>
@@ -2087,12 +4879,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="25.05" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="93"/>
+    <row r="6" spans="1:26" ht="25.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="89"/>
       <c r="B6" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="84" t="s">
+      <c r="C6" s="83" t="s">
         <v>167</v>
       </c>
       <c r="D6" s="8">
@@ -2110,7 +4902,7 @@
       <c r="H6" s="8">
         <v>15</v>
       </c>
-      <c r="I6" s="87" t="s">
+      <c r="I6" s="76" t="s">
         <v>167</v>
       </c>
       <c r="J6" s="8">
@@ -2131,7 +4923,7 @@
       <c r="O6" s="25">
         <v>30</v>
       </c>
-      <c r="P6" s="87" t="s">
+      <c r="P6" s="76" t="s">
         <v>167</v>
       </c>
       <c r="Q6" s="8">
@@ -2158,19 +4950,19 @@
       <c r="X6" s="8">
         <v>6</v>
       </c>
-      <c r="Y6" s="72">
+      <c r="Y6" s="68">
         <v>7</v>
       </c>
-      <c r="Z6" s="90" t="s">
+      <c r="Z6" s="86" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="7" spans="1:26" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="94"/>
+    <row r="7" spans="1:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="90"/>
       <c r="B7" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="85"/>
+      <c r="C7" s="84"/>
       <c r="D7" s="7" t="s">
         <v>8</v>
       </c>
@@ -2186,7 +4978,7 @@
       <c r="H7" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="I7" s="88"/>
+      <c r="I7" s="77"/>
       <c r="J7" s="7" t="s">
         <v>8</v>
       </c>
@@ -2205,7 +4997,7 @@
       <c r="O7" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="P7" s="88"/>
+      <c r="P7" s="77"/>
       <c r="Q7" s="7" t="s">
         <v>176</v>
       </c>
@@ -2230,15 +5022,15 @@
       <c r="X7" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="Y7" s="73"/>
-      <c r="Z7" s="91"/>
-    </row>
-    <row r="8" spans="1:26" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="94"/>
+      <c r="Y7" s="69"/>
+      <c r="Z7" s="87"/>
+    </row>
+    <row r="8" spans="1:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="90"/>
       <c r="B8" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="85"/>
+      <c r="C8" s="84"/>
       <c r="D8" s="7">
         <v>68</v>
       </c>
@@ -2252,7 +5044,7 @@
         <v>60</v>
       </c>
       <c r="H8" s="7"/>
-      <c r="I8" s="88"/>
+      <c r="I8" s="77"/>
       <c r="J8" s="7">
         <v>90</v>
       </c>
@@ -2269,7 +5061,7 @@
       <c r="O8" s="26">
         <v>59</v>
       </c>
-      <c r="P8" s="88"/>
+      <c r="P8" s="77"/>
       <c r="Q8" s="7">
         <v>12</v>
       </c>
@@ -2290,15 +5082,15 @@
       <c r="X8" s="7">
         <v>11</v>
       </c>
-      <c r="Y8" s="73"/>
-      <c r="Z8" s="91"/>
-    </row>
-    <row r="9" spans="1:26" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="94"/>
+      <c r="Y8" s="69"/>
+      <c r="Z8" s="87"/>
+    </row>
+    <row r="9" spans="1:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="90"/>
       <c r="B9" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="85"/>
+      <c r="C9" s="84"/>
       <c r="D9" s="17">
         <v>14</v>
       </c>
@@ -2314,7 +5106,7 @@
       <c r="H9" s="17">
         <v>10</v>
       </c>
-      <c r="I9" s="88"/>
+      <c r="I9" s="77"/>
       <c r="J9" s="17">
         <v>18</v>
       </c>
@@ -2331,7 +5123,7 @@
       <c r="O9" s="36">
         <v>12</v>
       </c>
-      <c r="P9" s="88"/>
+      <c r="P9" s="77"/>
       <c r="Q9" s="7">
         <v>6</v>
       </c>
@@ -2352,15 +5144,15 @@
       <c r="X9" s="7">
         <v>6</v>
       </c>
-      <c r="Y9" s="73"/>
-      <c r="Z9" s="91"/>
-    </row>
-    <row r="10" spans="1:26" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="94"/>
+      <c r="Y9" s="69"/>
+      <c r="Z9" s="87"/>
+    </row>
+    <row r="10" spans="1:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="90"/>
       <c r="B10" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="85"/>
+      <c r="C10" s="84"/>
       <c r="D10" s="7" t="s">
         <v>13</v>
       </c>
@@ -2374,7 +5166,7 @@
         <v>13</v>
       </c>
       <c r="H10" s="7"/>
-      <c r="I10" s="88"/>
+      <c r="I10" s="77"/>
       <c r="J10" s="7" t="s">
         <v>13</v>
       </c>
@@ -2391,7 +5183,7 @@
       <c r="O10" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="P10" s="88"/>
+      <c r="P10" s="77"/>
       <c r="Q10" s="7" t="s">
         <v>179</v>
       </c>
@@ -2412,15 +5204,15 @@
       <c r="X10" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="Y10" s="73"/>
-      <c r="Z10" s="91"/>
-    </row>
-    <row r="11" spans="1:26" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="94"/>
+      <c r="Y10" s="69"/>
+      <c r="Z10" s="87"/>
+    </row>
+    <row r="11" spans="1:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="90"/>
       <c r="B11" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="C11" s="85"/>
+      <c r="C11" s="84"/>
       <c r="D11" s="7" t="s">
         <v>94</v>
       </c>
@@ -2436,7 +5228,7 @@
       <c r="H11" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="I11" s="88"/>
+      <c r="I11" s="77"/>
       <c r="J11" s="7" t="s">
         <v>97</v>
       </c>
@@ -2453,7 +5245,7 @@
       <c r="O11" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="P11" s="88"/>
+      <c r="P11" s="77"/>
       <c r="Q11" s="7"/>
       <c r="R11" s="7"/>
       <c r="S11" s="7"/>
@@ -2462,15 +5254,15 @@
       <c r="V11" s="7"/>
       <c r="W11" s="7"/>
       <c r="X11" s="7"/>
-      <c r="Y11" s="73"/>
-      <c r="Z11" s="91"/>
-    </row>
-    <row r="12" spans="1:26" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="94"/>
+      <c r="Y11" s="69"/>
+      <c r="Z11" s="87"/>
+    </row>
+    <row r="12" spans="1:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="90"/>
       <c r="B12" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="85"/>
+      <c r="C12" s="84"/>
       <c r="D12" s="7" t="s">
         <v>17</v>
       </c>
@@ -2486,7 +5278,7 @@
       <c r="H12" s="18">
         <v>0.6875</v>
       </c>
-      <c r="I12" s="88"/>
+      <c r="I12" s="77"/>
       <c r="J12" s="7" t="s">
         <v>17</v>
       </c>
@@ -2505,7 +5297,7 @@
       <c r="O12" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="P12" s="88"/>
+      <c r="P12" s="77"/>
       <c r="Q12" s="7" t="s">
         <v>180</v>
       </c>
@@ -2526,15 +5318,15 @@
       <c r="X12" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="Y12" s="73"/>
-      <c r="Z12" s="91"/>
-    </row>
-    <row r="13" spans="1:26" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="95"/>
+      <c r="Y12" s="69"/>
+      <c r="Z12" s="87"/>
+    </row>
+    <row r="13" spans="1:26" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="91"/>
       <c r="B13" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="86"/>
+      <c r="C13" s="85"/>
       <c r="D13" s="7" t="s">
         <v>21</v>
       </c>
@@ -2550,7 +5342,7 @@
       <c r="H13" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="I13" s="89"/>
+      <c r="I13" s="78"/>
       <c r="J13" s="7" t="s">
         <v>21</v>
       </c>
@@ -2569,7 +5361,7 @@
       <c r="O13" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="P13" s="89"/>
+      <c r="P13" s="78"/>
       <c r="Q13" s="7" t="s">
         <v>21</v>
       </c>
@@ -2597,9 +5389,9 @@
       <c r="Y13" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="Z13" s="92"/>
-    </row>
-    <row r="14" spans="1:26" ht="25.05" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="Z13" s="88"/>
+    </row>
+    <row r="14" spans="1:26" ht="25.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A14" s="41">
         <v>1</v>
       </c>
@@ -2621,47 +5413,47 @@
       <c r="G14" s="43" t="s">
         <v>92</v>
       </c>
-      <c r="H14" s="62"/>
+      <c r="H14" s="43"/>
       <c r="I14" s="42" t="s">
         <v>154</v>
       </c>
-      <c r="J14" s="75" t="s">
+      <c r="J14" s="71" t="s">
         <v>88</v>
       </c>
-      <c r="K14" s="75" t="s">
+      <c r="K14" s="71" t="s">
         <v>25</v>
       </c>
       <c r="L14" s="43"/>
-      <c r="M14" s="75" t="s">
-        <v>82</v>
-      </c>
-      <c r="N14" s="75" t="s">
+      <c r="M14" s="71" t="s">
+        <v>82</v>
+      </c>
+      <c r="N14" s="71" t="s">
         <v>23</v>
       </c>
       <c r="O14" s="44" t="s">
         <v>91</v>
       </c>
-      <c r="P14" s="65" t="s">
+      <c r="P14" s="61" t="s">
         <v>154</v>
       </c>
-      <c r="Q14" s="62" t="s">
-        <v>92</v>
-      </c>
-      <c r="R14" s="62"/>
-      <c r="S14" s="62"/>
-      <c r="T14" s="75" t="s">
+      <c r="Q14" s="43" t="s">
+        <v>92</v>
+      </c>
+      <c r="R14" s="43"/>
+      <c r="S14" s="43"/>
+      <c r="T14" s="71" t="s">
         <v>87</v>
       </c>
-      <c r="U14" s="75" t="s">
+      <c r="U14" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="V14" s="63" t="s">
+      <c r="V14" s="59" t="s">
         <v>83</v>
       </c>
-      <c r="W14" s="75" t="s">
+      <c r="W14" s="71" t="s">
         <v>87</v>
       </c>
-      <c r="X14" s="75" t="s">
+      <c r="X14" s="71" t="s">
         <v>23</v>
       </c>
       <c r="Y14" s="44"/>
@@ -2669,7 +5461,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="15" spans="1:26" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="33">
         <v>2</v>
       </c>
@@ -2695,25 +5487,25 @@
       <c r="I15" s="19" t="s">
         <v>155</v>
       </c>
-      <c r="J15" s="76" t="s">
-        <v>82</v>
-      </c>
-      <c r="K15" s="76" t="s">
+      <c r="J15" s="72" t="s">
+        <v>82</v>
+      </c>
+      <c r="K15" s="72" t="s">
         <v>28</v>
       </c>
       <c r="L15" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="M15" s="76" t="s">
-        <v>82</v>
-      </c>
-      <c r="N15" s="76" t="s">
+      <c r="M15" s="72" t="s">
+        <v>82</v>
+      </c>
+      <c r="N15" s="72" t="s">
         <v>25</v>
       </c>
       <c r="O15" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="P15" s="66" t="s">
+      <c r="P15" s="62" t="s">
         <v>155</v>
       </c>
       <c r="Q15" s="7" t="s">
@@ -2721,19 +5513,19 @@
       </c>
       <c r="R15" s="7"/>
       <c r="S15" s="7"/>
-      <c r="T15" s="76" t="s">
+      <c r="T15" s="72" t="s">
         <v>87</v>
       </c>
-      <c r="U15" s="76" t="s">
+      <c r="U15" s="72" t="s">
         <v>23</v>
       </c>
       <c r="V15" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="W15" s="76" t="s">
+      <c r="W15" s="72" t="s">
         <v>87</v>
       </c>
-      <c r="X15" s="76" t="s">
+      <c r="X15" s="72" t="s">
         <v>23</v>
       </c>
       <c r="Y15" s="26"/>
@@ -2741,7 +5533,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="16" spans="1:26" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="37">
         <v>3</v>
       </c>
@@ -2763,55 +5555,55 @@
       <c r="G16" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="H16" s="60"/>
+      <c r="H16" s="39"/>
       <c r="I16" s="38" t="s">
         <v>166</v>
       </c>
-      <c r="J16" s="77" t="s">
+      <c r="J16" s="73" t="s">
         <v>87</v>
       </c>
-      <c r="K16" s="77" t="s">
+      <c r="K16" s="73" t="s">
         <v>23</v>
       </c>
       <c r="L16" s="39"/>
-      <c r="M16" s="77" t="s">
+      <c r="M16" s="73" t="s">
         <v>87</v>
       </c>
-      <c r="N16" s="77" t="s">
+      <c r="N16" s="73" t="s">
         <v>23</v>
       </c>
       <c r="O16" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="P16" s="67" t="s">
+      <c r="P16" s="63" t="s">
         <v>166</v>
       </c>
-      <c r="Q16" s="60" t="s">
-        <v>92</v>
-      </c>
-      <c r="R16" s="60"/>
-      <c r="S16" s="60"/>
-      <c r="T16" s="77" t="s">
-        <v>91</v>
-      </c>
-      <c r="U16" s="77" t="s">
+      <c r="Q16" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="R16" s="39"/>
+      <c r="S16" s="39"/>
+      <c r="T16" s="73" t="s">
+        <v>91</v>
+      </c>
+      <c r="U16" s="73" t="s">
         <v>30</v>
       </c>
-      <c r="V16" s="60" t="s">
+      <c r="V16" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="W16" s="77" t="s">
+      <c r="W16" s="73" t="s">
         <v>181</v>
       </c>
-      <c r="X16" s="77" t="s">
+      <c r="X16" s="73" t="s">
         <v>182</v>
       </c>
-      <c r="Y16" s="59"/>
+      <c r="Y16" s="40"/>
       <c r="Z16" s="55" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="17" spans="1:26" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="33">
         <v>4</v>
       </c>
@@ -2837,23 +5629,23 @@
       <c r="I17" s="19" t="s">
         <v>156</v>
       </c>
-      <c r="J17" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="K17" s="76" t="s">
+      <c r="J17" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="K17" s="72" t="s">
         <v>24</v>
       </c>
       <c r="L17" s="7"/>
-      <c r="M17" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="N17" s="76" t="s">
+      <c r="M17" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="N17" s="72" t="s">
         <v>24</v>
       </c>
       <c r="O17" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="P17" s="66" t="s">
+      <c r="P17" s="62" t="s">
         <v>156</v>
       </c>
       <c r="Q17" s="7" t="s">
@@ -2861,19 +5653,19 @@
       </c>
       <c r="R17" s="7"/>
       <c r="S17" s="7"/>
-      <c r="T17" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="U17" s="76" t="s">
+      <c r="T17" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="U17" s="72" t="s">
         <v>30</v>
       </c>
       <c r="V17" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="W17" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="X17" s="76" t="s">
+      <c r="W17" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="X17" s="72" t="s">
         <v>30</v>
       </c>
       <c r="Y17" s="26"/>
@@ -2881,7 +5673,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="18" spans="1:26" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="37">
         <v>5</v>
       </c>
@@ -2903,55 +5695,55 @@
       <c r="G18" s="39" t="s">
         <v>82</v>
       </c>
-      <c r="H18" s="60"/>
+      <c r="H18" s="39"/>
       <c r="I18" s="38" t="s">
         <v>157</v>
       </c>
-      <c r="J18" s="77" t="s">
+      <c r="J18" s="73" t="s">
         <v>87</v>
       </c>
-      <c r="K18" s="77" t="s">
+      <c r="K18" s="73" t="s">
         <v>23</v>
       </c>
       <c r="L18" s="39"/>
-      <c r="M18" s="77" t="s">
-        <v>91</v>
-      </c>
-      <c r="N18" s="77" t="s">
+      <c r="M18" s="73" t="s">
+        <v>91</v>
+      </c>
+      <c r="N18" s="73" t="s">
         <v>24</v>
       </c>
       <c r="O18" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="P18" s="67" t="s">
+      <c r="P18" s="63" t="s">
         <v>157</v>
       </c>
-      <c r="Q18" s="60" t="s">
-        <v>92</v>
-      </c>
-      <c r="R18" s="60"/>
-      <c r="S18" s="60"/>
-      <c r="T18" s="77" t="s">
-        <v>92</v>
-      </c>
-      <c r="U18" s="77" t="s">
+      <c r="Q18" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="R18" s="39"/>
+      <c r="S18" s="39"/>
+      <c r="T18" s="73" t="s">
+        <v>92</v>
+      </c>
+      <c r="U18" s="73" t="s">
         <v>30</v>
       </c>
-      <c r="V18" s="60" t="s">
-        <v>92</v>
-      </c>
-      <c r="W18" s="77" t="s">
-        <v>91</v>
-      </c>
-      <c r="X18" s="77" t="s">
+      <c r="V18" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="W18" s="73" t="s">
+        <v>91</v>
+      </c>
+      <c r="X18" s="73" t="s">
         <v>30</v>
       </c>
-      <c r="Y18" s="59"/>
+      <c r="Y18" s="40"/>
       <c r="Z18" s="55" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="19" spans="1:26" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="33">
         <v>6</v>
       </c>
@@ -2977,23 +5769,23 @@
       <c r="I19" s="19" t="s">
         <v>158</v>
       </c>
-      <c r="J19" s="76" t="s">
+      <c r="J19" s="72" t="s">
         <v>86</v>
       </c>
-      <c r="K19" s="76" t="s">
+      <c r="K19" s="72" t="s">
         <v>34</v>
       </c>
       <c r="L19" s="7"/>
-      <c r="M19" s="76" t="s">
-        <v>82</v>
-      </c>
-      <c r="N19" s="76" t="s">
+      <c r="M19" s="72" t="s">
+        <v>82</v>
+      </c>
+      <c r="N19" s="72" t="s">
         <v>28</v>
       </c>
       <c r="O19" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="P19" s="66" t="s">
+      <c r="P19" s="62" t="s">
         <v>158</v>
       </c>
       <c r="Q19" s="7" t="s">
@@ -3001,19 +5793,19 @@
       </c>
       <c r="R19" s="7"/>
       <c r="S19" s="7"/>
-      <c r="T19" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="U19" s="76" t="s">
+      <c r="T19" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="U19" s="72" t="s">
         <v>24</v>
       </c>
       <c r="V19" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="W19" s="76" t="s">
+      <c r="W19" s="72" t="s">
         <v>87</v>
       </c>
-      <c r="X19" s="76" t="s">
+      <c r="X19" s="72" t="s">
         <v>23</v>
       </c>
       <c r="Y19" s="26"/>
@@ -3021,7 +5813,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="20" spans="1:26" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="37">
         <v>7</v>
       </c>
@@ -3043,55 +5835,55 @@
       <c r="G20" s="39" t="s">
         <v>82</v>
       </c>
-      <c r="H20" s="60"/>
+      <c r="H20" s="39"/>
       <c r="I20" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="J20" s="77" t="s">
+      <c r="J20" s="73" t="s">
         <v>87</v>
       </c>
-      <c r="K20" s="77" t="s">
+      <c r="K20" s="73" t="s">
         <v>23</v>
       </c>
       <c r="L20" s="39"/>
-      <c r="M20" s="77" t="s">
+      <c r="M20" s="73" t="s">
         <v>87</v>
       </c>
-      <c r="N20" s="77" t="s">
+      <c r="N20" s="73" t="s">
         <v>23</v>
       </c>
       <c r="O20" s="40" t="s">
         <v>91</v>
       </c>
-      <c r="P20" s="67" t="s">
+      <c r="P20" s="63" t="s">
         <v>108</v>
       </c>
-      <c r="Q20" s="60" t="s">
-        <v>92</v>
-      </c>
-      <c r="R20" s="60"/>
-      <c r="S20" s="60"/>
-      <c r="T20" s="77" t="s">
-        <v>91</v>
-      </c>
-      <c r="U20" s="77" t="s">
+      <c r="Q20" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="R20" s="39"/>
+      <c r="S20" s="39"/>
+      <c r="T20" s="73" t="s">
+        <v>91</v>
+      </c>
+      <c r="U20" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="V20" s="60" t="s">
-        <v>92</v>
-      </c>
-      <c r="W20" s="77" t="s">
-        <v>91</v>
-      </c>
-      <c r="X20" s="77" t="s">
+      <c r="V20" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="W20" s="73" t="s">
+        <v>91</v>
+      </c>
+      <c r="X20" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="Y20" s="59"/>
+      <c r="Y20" s="40"/>
       <c r="Z20" s="55" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="21" spans="1:26" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="33">
         <v>8</v>
       </c>
@@ -3117,23 +5909,23 @@
       <c r="I21" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="J21" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="K21" s="76" t="s">
+      <c r="J21" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="K21" s="72" t="s">
         <v>24</v>
       </c>
       <c r="L21" s="7"/>
-      <c r="M21" s="76" t="s">
+      <c r="M21" s="72" t="s">
         <v>87</v>
       </c>
-      <c r="N21" s="76" t="s">
+      <c r="N21" s="72" t="s">
         <v>23</v>
       </c>
       <c r="O21" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="P21" s="66" t="s">
+      <c r="P21" s="62" t="s">
         <v>109</v>
       </c>
       <c r="Q21" s="7" t="s">
@@ -3141,19 +5933,19 @@
       </c>
       <c r="R21" s="7"/>
       <c r="S21" s="7"/>
-      <c r="T21" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="U21" s="76" t="s">
+      <c r="T21" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="U21" s="72" t="s">
         <v>26</v>
       </c>
       <c r="V21" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="W21" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="X21" s="76" t="s">
+      <c r="W21" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="X21" s="72" t="s">
         <v>24</v>
       </c>
       <c r="Y21" s="26"/>
@@ -3161,7 +5953,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="22" spans="1:26" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="37">
         <v>9</v>
       </c>
@@ -3183,55 +5975,55 @@
       <c r="G22" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="H22" s="60"/>
+      <c r="H22" s="39"/>
       <c r="I22" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="J22" s="77" t="s">
-        <v>82</v>
-      </c>
-      <c r="K22" s="77" t="s">
+      <c r="J22" s="73" t="s">
+        <v>82</v>
+      </c>
+      <c r="K22" s="73" t="s">
         <v>25</v>
       </c>
       <c r="L22" s="39"/>
-      <c r="M22" s="77" t="s">
+      <c r="M22" s="73" t="s">
         <v>83</v>
       </c>
-      <c r="N22" s="77" t="s">
+      <c r="N22" s="73" t="s">
         <v>38</v>
       </c>
       <c r="O22" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="P22" s="67" t="s">
+      <c r="P22" s="63" t="s">
         <v>110</v>
       </c>
-      <c r="Q22" s="60" t="s">
+      <c r="Q22" s="39" t="s">
         <v>183</v>
       </c>
-      <c r="R22" s="60"/>
-      <c r="S22" s="60"/>
-      <c r="T22" s="77" t="s">
+      <c r="R22" s="39"/>
+      <c r="S22" s="39"/>
+      <c r="T22" s="73" t="s">
         <v>87</v>
       </c>
-      <c r="U22" s="77" t="s">
+      <c r="U22" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="V22" s="60" t="s">
+      <c r="V22" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="W22" s="77" t="s">
+      <c r="W22" s="73" t="s">
         <v>87</v>
       </c>
-      <c r="X22" s="77" t="s">
+      <c r="X22" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="Y22" s="59"/>
+      <c r="Y22" s="40"/>
       <c r="Z22" s="55" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="23" spans="1:26" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="33">
         <v>10</v>
       </c>
@@ -3257,25 +6049,25 @@
       <c r="I23" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="J23" s="76" t="s">
+      <c r="J23" s="72" t="s">
         <v>87</v>
       </c>
-      <c r="K23" s="76" t="s">
+      <c r="K23" s="72" t="s">
         <v>23</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="M23" s="76" t="s">
+      <c r="M23" s="72" t="s">
         <v>83</v>
       </c>
-      <c r="N23" s="76" t="s">
+      <c r="N23" s="72" t="s">
         <v>38</v>
       </c>
       <c r="O23" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="P23" s="66" t="s">
+      <c r="P23" s="62" t="s">
         <v>111</v>
       </c>
       <c r="Q23" s="7" t="s">
@@ -3283,19 +6075,19 @@
       </c>
       <c r="R23" s="7"/>
       <c r="S23" s="7"/>
-      <c r="T23" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="U23" s="76" t="s">
+      <c r="T23" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="U23" s="72" t="s">
         <v>30</v>
       </c>
       <c r="V23" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="W23" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="X23" s="76" t="s">
+      <c r="W23" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="X23" s="72" t="s">
         <v>30</v>
       </c>
       <c r="Y23" s="26"/>
@@ -3303,7 +6095,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="24" spans="1:26" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="37">
         <v>11</v>
       </c>
@@ -3325,55 +6117,55 @@
       <c r="G24" s="39" t="s">
         <v>82</v>
       </c>
-      <c r="H24" s="60"/>
+      <c r="H24" s="39"/>
       <c r="I24" s="38" t="s">
         <v>112</v>
       </c>
-      <c r="J24" s="77" t="s">
-        <v>91</v>
-      </c>
-      <c r="K24" s="77" t="s">
+      <c r="J24" s="73" t="s">
+        <v>91</v>
+      </c>
+      <c r="K24" s="73" t="s">
         <v>24</v>
       </c>
       <c r="L24" s="39"/>
-      <c r="M24" s="77" t="s">
-        <v>82</v>
-      </c>
-      <c r="N24" s="77" t="s">
+      <c r="M24" s="73" t="s">
+        <v>82</v>
+      </c>
+      <c r="N24" s="73" t="s">
         <v>25</v>
       </c>
       <c r="O24" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="P24" s="67" t="s">
+      <c r="P24" s="63" t="s">
         <v>112</v>
       </c>
-      <c r="Q24" s="60" t="s">
-        <v>92</v>
-      </c>
-      <c r="R24" s="60"/>
-      <c r="S24" s="60"/>
-      <c r="T24" s="77" t="s">
-        <v>91</v>
-      </c>
-      <c r="U24" s="77" t="s">
+      <c r="Q24" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="R24" s="39"/>
+      <c r="S24" s="39"/>
+      <c r="T24" s="73" t="s">
+        <v>91</v>
+      </c>
+      <c r="U24" s="73" t="s">
         <v>30</v>
       </c>
-      <c r="V24" s="60" t="s">
-        <v>92</v>
-      </c>
-      <c r="W24" s="77" t="s">
-        <v>91</v>
-      </c>
-      <c r="X24" s="77" t="s">
+      <c r="V24" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="W24" s="73" t="s">
+        <v>91</v>
+      </c>
+      <c r="X24" s="73" t="s">
         <v>30</v>
       </c>
-      <c r="Y24" s="59"/>
+      <c r="Y24" s="40"/>
       <c r="Z24" s="55" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="25" spans="1:26" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="33">
         <v>12</v>
       </c>
@@ -3399,23 +6191,23 @@
       <c r="I25" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="J25" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="K25" s="76" t="s">
+      <c r="J25" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="K25" s="72" t="s">
         <v>30</v>
       </c>
       <c r="L25" s="7"/>
-      <c r="M25" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="N25" s="76" t="s">
+      <c r="M25" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="N25" s="72" t="s">
         <v>30</v>
       </c>
       <c r="O25" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="P25" s="66" t="s">
+      <c r="P25" s="62" t="s">
         <v>113</v>
       </c>
       <c r="Q25" s="7" t="s">
@@ -3423,19 +6215,19 @@
       </c>
       <c r="R25" s="7"/>
       <c r="S25" s="7"/>
-      <c r="T25" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="U25" s="76" t="s">
+      <c r="T25" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="U25" s="72" t="s">
         <v>30</v>
       </c>
       <c r="V25" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="W25" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="X25" s="76" t="s">
+      <c r="W25" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="X25" s="72" t="s">
         <v>30</v>
       </c>
       <c r="Y25" s="26"/>
@@ -3443,7 +6235,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="26" spans="1:26" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="37">
         <v>13</v>
       </c>
@@ -3465,57 +6257,57 @@
       <c r="G26" s="39" t="s">
         <v>82</v>
       </c>
-      <c r="H26" s="60"/>
+      <c r="H26" s="39"/>
       <c r="I26" s="38" t="s">
         <v>114</v>
       </c>
-      <c r="J26" s="77" t="s">
+      <c r="J26" s="73" t="s">
         <v>87</v>
       </c>
-      <c r="K26" s="77" t="s">
+      <c r="K26" s="73" t="s">
         <v>23</v>
       </c>
       <c r="L26" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="M26" s="77" t="s">
+      <c r="M26" s="73" t="s">
         <v>87</v>
       </c>
-      <c r="N26" s="77" t="s">
+      <c r="N26" s="73" t="s">
         <v>23</v>
       </c>
       <c r="O26" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="P26" s="67" t="s">
+      <c r="P26" s="63" t="s">
         <v>114</v>
       </c>
-      <c r="Q26" s="60" t="s">
+      <c r="Q26" s="39" t="s">
         <v>183</v>
       </c>
-      <c r="R26" s="60"/>
-      <c r="S26" s="60"/>
-      <c r="T26" s="77" t="s">
-        <v>91</v>
-      </c>
-      <c r="U26" s="77" t="s">
+      <c r="R26" s="39"/>
+      <c r="S26" s="39"/>
+      <c r="T26" s="73" t="s">
+        <v>91</v>
+      </c>
+      <c r="U26" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="V26" s="60" t="s">
-        <v>92</v>
-      </c>
-      <c r="W26" s="77" t="s">
-        <v>91</v>
-      </c>
-      <c r="X26" s="77" t="s">
+      <c r="V26" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="W26" s="73" t="s">
+        <v>91</v>
+      </c>
+      <c r="X26" s="73" t="s">
         <v>30</v>
       </c>
-      <c r="Y26" s="59"/>
+      <c r="Y26" s="40"/>
       <c r="Z26" s="55" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="27" spans="1:26" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="33">
         <v>14</v>
       </c>
@@ -3541,23 +6333,23 @@
       <c r="I27" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="J27" s="76" t="s">
+      <c r="J27" s="72" t="s">
         <v>89</v>
       </c>
-      <c r="K27" s="76" t="s">
+      <c r="K27" s="72" t="s">
         <v>44</v>
       </c>
       <c r="L27" s="7"/>
-      <c r="M27" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="N27" s="76" t="s">
+      <c r="M27" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="N27" s="72" t="s">
         <v>24</v>
       </c>
       <c r="O27" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="P27" s="66" t="s">
+      <c r="P27" s="62" t="s">
         <v>115</v>
       </c>
       <c r="Q27" s="7" t="s">
@@ -3565,19 +6357,19 @@
       </c>
       <c r="R27" s="7"/>
       <c r="S27" s="7"/>
-      <c r="T27" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="U27" s="76" t="s">
+      <c r="T27" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="U27" s="72" t="s">
         <v>30</v>
       </c>
       <c r="V27" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="W27" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="X27" s="76" t="s">
+      <c r="W27" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="X27" s="72" t="s">
         <v>30</v>
       </c>
       <c r="Y27" s="26"/>
@@ -3585,7 +6377,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="28" spans="1:26" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="37">
         <v>15</v>
       </c>
@@ -3607,57 +6399,57 @@
       <c r="G28" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="H28" s="60"/>
+      <c r="H28" s="39"/>
       <c r="I28" s="38" t="s">
         <v>116</v>
       </c>
-      <c r="J28" s="77" t="s">
+      <c r="J28" s="73" t="s">
         <v>87</v>
       </c>
-      <c r="K28" s="77" t="s">
+      <c r="K28" s="73" t="s">
         <v>23</v>
       </c>
       <c r="L28" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="M28" s="77" t="s">
-        <v>82</v>
-      </c>
-      <c r="N28" s="77" t="s">
+      <c r="M28" s="73" t="s">
+        <v>82</v>
+      </c>
+      <c r="N28" s="73" t="s">
         <v>25</v>
       </c>
       <c r="O28" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="P28" s="67" t="s">
+      <c r="P28" s="63" t="s">
         <v>116</v>
       </c>
-      <c r="Q28" s="60" t="s">
+      <c r="Q28" s="39" t="s">
         <v>183</v>
       </c>
-      <c r="R28" s="60"/>
-      <c r="S28" s="60"/>
-      <c r="T28" s="77" t="s">
-        <v>91</v>
-      </c>
-      <c r="U28" s="77" t="s">
+      <c r="R28" s="39"/>
+      <c r="S28" s="39"/>
+      <c r="T28" s="73" t="s">
+        <v>91</v>
+      </c>
+      <c r="U28" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="V28" s="60" t="s">
+      <c r="V28" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="W28" s="77" t="s">
+      <c r="W28" s="73" t="s">
         <v>87</v>
       </c>
-      <c r="X28" s="77" t="s">
+      <c r="X28" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="Y28" s="59"/>
+      <c r="Y28" s="40"/>
       <c r="Z28" s="55" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="29" spans="1:26" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="33">
         <v>16</v>
       </c>
@@ -3683,43 +6475,43 @@
       <c r="I29" s="19" t="s">
         <v>159</v>
       </c>
-      <c r="J29" s="76" t="s">
+      <c r="J29" s="72" t="s">
         <v>87</v>
       </c>
-      <c r="K29" s="76" t="s">
+      <c r="K29" s="72" t="s">
         <v>23</v>
       </c>
       <c r="L29" s="7"/>
-      <c r="M29" s="76" t="s">
+      <c r="M29" s="72" t="s">
         <v>87</v>
       </c>
-      <c r="N29" s="76" t="s">
+      <c r="N29" s="72" t="s">
         <v>23</v>
       </c>
       <c r="O29" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="P29" s="66" t="s">
+      <c r="P29" s="62" t="s">
         <v>159</v>
       </c>
-      <c r="Q29" s="64" t="s">
+      <c r="Q29" s="60" t="s">
         <v>183</v>
       </c>
-      <c r="R29" s="64"/>
-      <c r="S29" s="64"/>
-      <c r="T29" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="U29" s="76" t="s">
+      <c r="R29" s="60"/>
+      <c r="S29" s="60"/>
+      <c r="T29" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="U29" s="72" t="s">
         <v>24</v>
       </c>
       <c r="V29" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="W29" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="X29" s="76" t="s">
+      <c r="W29" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="X29" s="72" t="s">
         <v>30</v>
       </c>
       <c r="Y29" s="26"/>
@@ -3727,7 +6519,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="30" spans="1:26" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="37">
         <v>17</v>
       </c>
@@ -3749,55 +6541,55 @@
       <c r="G30" s="39" t="s">
         <v>82</v>
       </c>
-      <c r="H30" s="60"/>
+      <c r="H30" s="39"/>
       <c r="I30" s="38" t="s">
         <v>160</v>
       </c>
-      <c r="J30" s="77" t="s">
+      <c r="J30" s="73" t="s">
         <v>87</v>
       </c>
-      <c r="K30" s="77" t="s">
+      <c r="K30" s="73" t="s">
         <v>23</v>
       </c>
       <c r="L30" s="39"/>
-      <c r="M30" s="77" t="s">
-        <v>91</v>
-      </c>
-      <c r="N30" s="77" t="s">
+      <c r="M30" s="73" t="s">
+        <v>91</v>
+      </c>
+      <c r="N30" s="73" t="s">
         <v>26</v>
       </c>
       <c r="O30" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="P30" s="67" t="s">
+      <c r="P30" s="63" t="s">
         <v>160</v>
       </c>
-      <c r="Q30" s="60" t="s">
-        <v>92</v>
-      </c>
-      <c r="R30" s="60"/>
-      <c r="S30" s="60"/>
-      <c r="T30" s="77" t="s">
-        <v>91</v>
-      </c>
-      <c r="U30" s="77" t="s">
+      <c r="Q30" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="R30" s="39"/>
+      <c r="S30" s="39"/>
+      <c r="T30" s="73" t="s">
+        <v>91</v>
+      </c>
+      <c r="U30" s="73" t="s">
         <v>30</v>
       </c>
-      <c r="V30" s="60" t="s">
-        <v>92</v>
-      </c>
-      <c r="W30" s="77" t="s">
-        <v>91</v>
-      </c>
-      <c r="X30" s="77" t="s">
+      <c r="V30" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="W30" s="73" t="s">
+        <v>91</v>
+      </c>
+      <c r="X30" s="73" t="s">
         <v>30</v>
       </c>
-      <c r="Y30" s="59"/>
+      <c r="Y30" s="40"/>
       <c r="Z30" s="55" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="31" spans="1:26" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="33">
         <v>18</v>
       </c>
@@ -3823,23 +6615,23 @@
       <c r="I31" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="J31" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="K31" s="76" t="s">
+      <c r="J31" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="K31" s="72" t="s">
         <v>24</v>
       </c>
       <c r="L31" s="7"/>
-      <c r="M31" s="76" t="s">
-        <v>82</v>
-      </c>
-      <c r="N31" s="76" t="s">
+      <c r="M31" s="72" t="s">
+        <v>82</v>
+      </c>
+      <c r="N31" s="72" t="s">
         <v>28</v>
       </c>
       <c r="O31" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="P31" s="66" t="s">
+      <c r="P31" s="62" t="s">
         <v>161</v>
       </c>
       <c r="Q31" s="7" t="s">
@@ -3847,19 +6639,19 @@
       </c>
       <c r="R31" s="7"/>
       <c r="S31" s="7"/>
-      <c r="T31" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="U31" s="76" t="s">
+      <c r="T31" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="U31" s="72" t="s">
         <v>30</v>
       </c>
       <c r="V31" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="W31" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="X31" s="76" t="s">
+      <c r="W31" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="X31" s="72" t="s">
         <v>30</v>
       </c>
       <c r="Y31" s="26"/>
@@ -3867,7 +6659,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="32" spans="1:26" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="37">
         <v>19</v>
       </c>
@@ -3889,55 +6681,55 @@
       <c r="G32" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="H32" s="60"/>
+      <c r="H32" s="39"/>
       <c r="I32" s="38" t="s">
         <v>163</v>
       </c>
-      <c r="J32" s="77" t="s">
-        <v>91</v>
-      </c>
-      <c r="K32" s="77" t="s">
+      <c r="J32" s="73" t="s">
+        <v>91</v>
+      </c>
+      <c r="K32" s="73" t="s">
         <v>24</v>
       </c>
       <c r="L32" s="39"/>
-      <c r="M32" s="77" t="s">
-        <v>91</v>
-      </c>
-      <c r="N32" s="77" t="s">
+      <c r="M32" s="73" t="s">
+        <v>91</v>
+      </c>
+      <c r="N32" s="73" t="s">
         <v>24</v>
       </c>
       <c r="O32" s="40" t="s">
         <v>91</v>
       </c>
-      <c r="P32" s="67" t="s">
+      <c r="P32" s="63" t="s">
         <v>163</v>
       </c>
-      <c r="Q32" s="60" t="s">
-        <v>92</v>
-      </c>
-      <c r="R32" s="60"/>
-      <c r="S32" s="60"/>
-      <c r="T32" s="77" t="s">
-        <v>91</v>
-      </c>
-      <c r="U32" s="77" t="s">
+      <c r="Q32" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="R32" s="39"/>
+      <c r="S32" s="39"/>
+      <c r="T32" s="73" t="s">
+        <v>91</v>
+      </c>
+      <c r="U32" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="V32" s="60" t="s">
-        <v>92</v>
-      </c>
-      <c r="W32" s="77" t="s">
-        <v>91</v>
-      </c>
-      <c r="X32" s="77" t="s">
+      <c r="V32" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="W32" s="73" t="s">
+        <v>91</v>
+      </c>
+      <c r="X32" s="73" t="s">
         <v>30</v>
       </c>
-      <c r="Y32" s="59"/>
+      <c r="Y32" s="40"/>
       <c r="Z32" s="55" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="33" spans="1:26" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="33">
         <v>20</v>
       </c>
@@ -3963,23 +6755,23 @@
       <c r="I33" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="J33" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="K33" s="76" t="s">
+      <c r="J33" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="K33" s="72" t="s">
         <v>24</v>
       </c>
       <c r="L33" s="7"/>
-      <c r="M33" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="N33" s="76" t="s">
+      <c r="M33" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="N33" s="72" t="s">
         <v>24</v>
       </c>
       <c r="O33" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="P33" s="66" t="s">
+      <c r="P33" s="62" t="s">
         <v>120</v>
       </c>
       <c r="Q33" s="7" t="s">
@@ -3987,19 +6779,19 @@
       </c>
       <c r="R33" s="7"/>
       <c r="S33" s="7"/>
-      <c r="T33" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="U33" s="76" t="s">
+      <c r="T33" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="U33" s="72" t="s">
         <v>30</v>
       </c>
       <c r="V33" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="W33" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="X33" s="76" t="s">
+      <c r="W33" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="X33" s="72" t="s">
         <v>30</v>
       </c>
       <c r="Y33" s="26"/>
@@ -4007,7 +6799,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="34" spans="1:26" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="37">
         <v>21</v>
       </c>
@@ -4029,55 +6821,55 @@
       <c r="G34" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="H34" s="60"/>
+      <c r="H34" s="39"/>
       <c r="I34" s="38" t="s">
         <v>121</v>
       </c>
-      <c r="J34" s="77" t="s">
-        <v>91</v>
-      </c>
-      <c r="K34" s="77" t="s">
+      <c r="J34" s="73" t="s">
+        <v>91</v>
+      </c>
+      <c r="K34" s="73" t="s">
         <v>24</v>
       </c>
       <c r="L34" s="39"/>
-      <c r="M34" s="77" t="s">
-        <v>91</v>
-      </c>
-      <c r="N34" s="77" t="s">
+      <c r="M34" s="73" t="s">
+        <v>91</v>
+      </c>
+      <c r="N34" s="73" t="s">
         <v>24</v>
       </c>
       <c r="O34" s="40" t="s">
         <v>91</v>
       </c>
-      <c r="P34" s="67" t="s">
+      <c r="P34" s="63" t="s">
         <v>121</v>
       </c>
-      <c r="Q34" s="60" t="s">
-        <v>92</v>
-      </c>
-      <c r="R34" s="60"/>
-      <c r="S34" s="60"/>
-      <c r="T34" s="77" t="s">
+      <c r="Q34" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="R34" s="39"/>
+      <c r="S34" s="39"/>
+      <c r="T34" s="73" t="s">
         <v>87</v>
       </c>
-      <c r="U34" s="77" t="s">
+      <c r="U34" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="V34" s="60" t="s">
-        <v>92</v>
-      </c>
-      <c r="W34" s="77" t="s">
-        <v>91</v>
-      </c>
-      <c r="X34" s="77" t="s">
+      <c r="V34" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="W34" s="73" t="s">
+        <v>91</v>
+      </c>
+      <c r="X34" s="73" t="s">
         <v>30</v>
       </c>
-      <c r="Y34" s="59"/>
+      <c r="Y34" s="40"/>
       <c r="Z34" s="55" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="35" spans="1:26" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="33">
         <v>22</v>
       </c>
@@ -4103,43 +6895,43 @@
       <c r="I35" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="J35" s="76" t="s">
-        <v>82</v>
-      </c>
-      <c r="K35" s="76" t="s">
+      <c r="J35" s="72" t="s">
+        <v>82</v>
+      </c>
+      <c r="K35" s="72" t="s">
         <v>25</v>
       </c>
       <c r="L35" s="7"/>
-      <c r="M35" s="76" t="s">
+      <c r="M35" s="72" t="s">
         <v>87</v>
       </c>
-      <c r="N35" s="76" t="s">
+      <c r="N35" s="72" t="s">
         <v>23</v>
       </c>
       <c r="O35" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="P35" s="66" t="s">
+      <c r="P35" s="62" t="s">
         <v>122</v>
       </c>
-      <c r="Q35" s="64" t="s">
+      <c r="Q35" s="60" t="s">
         <v>183</v>
       </c>
-      <c r="R35" s="64"/>
-      <c r="S35" s="64"/>
-      <c r="T35" s="76" t="s">
+      <c r="R35" s="60"/>
+      <c r="S35" s="60"/>
+      <c r="T35" s="72" t="s">
         <v>87</v>
       </c>
-      <c r="U35" s="76" t="s">
+      <c r="U35" s="72" t="s">
         <v>23</v>
       </c>
       <c r="V35" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="W35" s="76" t="s">
+      <c r="W35" s="72" t="s">
         <v>87</v>
       </c>
-      <c r="X35" s="76" t="s">
+      <c r="X35" s="72" t="s">
         <v>23</v>
       </c>
       <c r="Y35" s="26"/>
@@ -4147,7 +6939,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="36" spans="1:26" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="37">
         <v>23</v>
       </c>
@@ -4169,55 +6961,55 @@
       <c r="G36" s="39" t="s">
         <v>82</v>
       </c>
-      <c r="H36" s="60"/>
+      <c r="H36" s="39"/>
       <c r="I36" s="38" t="s">
         <v>123</v>
       </c>
-      <c r="J36" s="77" t="s">
-        <v>91</v>
-      </c>
-      <c r="K36" s="77" t="s">
+      <c r="J36" s="73" t="s">
+        <v>91</v>
+      </c>
+      <c r="K36" s="73" t="s">
         <v>24</v>
       </c>
       <c r="L36" s="39"/>
-      <c r="M36" s="77" t="s">
-        <v>82</v>
-      </c>
-      <c r="N36" s="77" t="s">
+      <c r="M36" s="73" t="s">
+        <v>82</v>
+      </c>
+      <c r="N36" s="73" t="s">
         <v>25</v>
       </c>
       <c r="O36" s="40" t="s">
         <v>91</v>
       </c>
-      <c r="P36" s="67" t="s">
+      <c r="P36" s="63" t="s">
         <v>123</v>
       </c>
-      <c r="Q36" s="60" t="s">
-        <v>92</v>
-      </c>
-      <c r="R36" s="60"/>
-      <c r="S36" s="60"/>
-      <c r="T36" s="77" t="s">
-        <v>91</v>
-      </c>
-      <c r="U36" s="77" t="s">
+      <c r="Q36" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="R36" s="39"/>
+      <c r="S36" s="39"/>
+      <c r="T36" s="73" t="s">
+        <v>91</v>
+      </c>
+      <c r="U36" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="V36" s="60" t="s">
-        <v>92</v>
-      </c>
-      <c r="W36" s="77" t="s">
+      <c r="V36" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="W36" s="73" t="s">
         <v>87</v>
       </c>
-      <c r="X36" s="77" t="s">
+      <c r="X36" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="Y36" s="59"/>
+      <c r="Y36" s="40"/>
       <c r="Z36" s="55" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="37" spans="1:26" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="33">
         <v>24</v>
       </c>
@@ -4243,23 +7035,23 @@
       <c r="I37" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="J37" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="K37" s="76" t="s">
+      <c r="J37" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="K37" s="72" t="s">
         <v>24</v>
       </c>
       <c r="L37" s="7"/>
-      <c r="M37" s="76" t="s">
+      <c r="M37" s="72" t="s">
         <v>87</v>
       </c>
-      <c r="N37" s="76" t="s">
+      <c r="N37" s="72" t="s">
         <v>23</v>
       </c>
       <c r="O37" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="P37" s="66" t="s">
+      <c r="P37" s="62" t="s">
         <v>125</v>
       </c>
       <c r="Q37" s="7" t="s">
@@ -4267,19 +7059,19 @@
       </c>
       <c r="R37" s="7"/>
       <c r="S37" s="7"/>
-      <c r="T37" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="U37" s="76" t="s">
+      <c r="T37" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="U37" s="72" t="s">
         <v>24</v>
       </c>
       <c r="V37" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="W37" s="76" t="s">
+      <c r="W37" s="72" t="s">
         <v>87</v>
       </c>
-      <c r="X37" s="76" t="s">
+      <c r="X37" s="72" t="s">
         <v>23</v>
       </c>
       <c r="Y37" s="26"/>
@@ -4287,7 +7079,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="38" spans="1:26" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="37">
         <v>25</v>
       </c>
@@ -4309,55 +7101,55 @@
       <c r="G38" s="39" t="s">
         <v>82</v>
       </c>
-      <c r="H38" s="60"/>
+      <c r="H38" s="39"/>
       <c r="I38" s="38" t="s">
         <v>124</v>
       </c>
-      <c r="J38" s="77" t="s">
+      <c r="J38" s="73" t="s">
         <v>87</v>
       </c>
-      <c r="K38" s="77" t="s">
+      <c r="K38" s="73" t="s">
         <v>23</v>
       </c>
       <c r="L38" s="39"/>
-      <c r="M38" s="77" t="s">
+      <c r="M38" s="73" t="s">
         <v>87</v>
       </c>
-      <c r="N38" s="77" t="s">
+      <c r="N38" s="73" t="s">
         <v>23</v>
       </c>
       <c r="O38" s="40" t="s">
         <v>91</v>
       </c>
-      <c r="P38" s="67" t="s">
+      <c r="P38" s="63" t="s">
         <v>124</v>
       </c>
-      <c r="Q38" s="60" t="s">
+      <c r="Q38" s="39" t="s">
         <v>183</v>
       </c>
-      <c r="R38" s="60"/>
-      <c r="S38" s="60"/>
-      <c r="T38" s="77" t="s">
-        <v>91</v>
-      </c>
-      <c r="U38" s="77" t="s">
+      <c r="R38" s="39"/>
+      <c r="S38" s="39"/>
+      <c r="T38" s="73" t="s">
+        <v>91</v>
+      </c>
+      <c r="U38" s="73" t="s">
         <v>30</v>
       </c>
-      <c r="V38" s="60" t="s">
+      <c r="V38" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="W38" s="77" t="s">
+      <c r="W38" s="73" t="s">
         <v>87</v>
       </c>
-      <c r="X38" s="77" t="s">
+      <c r="X38" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="Y38" s="59"/>
+      <c r="Y38" s="40"/>
       <c r="Z38" s="55" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="39" spans="1:26" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="33">
         <v>26</v>
       </c>
@@ -4383,23 +7175,23 @@
       <c r="I39" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="J39" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="K39" s="76" t="s">
+      <c r="J39" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="K39" s="72" t="s">
         <v>24</v>
       </c>
       <c r="L39" s="7"/>
-      <c r="M39" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="N39" s="76" t="s">
+      <c r="M39" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="N39" s="72" t="s">
         <v>24</v>
       </c>
       <c r="O39" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="P39" s="66" t="s">
+      <c r="P39" s="62" t="s">
         <v>126</v>
       </c>
       <c r="Q39" s="7" t="s">
@@ -4407,19 +7199,19 @@
       </c>
       <c r="R39" s="7"/>
       <c r="S39" s="7"/>
-      <c r="T39" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="U39" s="76" t="s">
+      <c r="T39" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="U39" s="72" t="s">
         <v>24</v>
       </c>
       <c r="V39" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="W39" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="X39" s="76" t="s">
+      <c r="W39" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="X39" s="72" t="s">
         <v>30</v>
       </c>
       <c r="Y39" s="26"/>
@@ -4427,7 +7219,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="40" spans="1:26" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:26" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A40" s="45">
         <v>27</v>
       </c>
@@ -4449,49 +7241,49 @@
       <c r="G40" s="48" t="s">
         <v>92</v>
       </c>
-      <c r="H40" s="61"/>
+      <c r="H40" s="48"/>
       <c r="I40" s="47" t="s">
         <v>127</v>
       </c>
-      <c r="J40" s="78" t="s">
-        <v>91</v>
-      </c>
-      <c r="K40" s="78" t="s">
+      <c r="J40" s="74" t="s">
+        <v>91</v>
+      </c>
+      <c r="K40" s="74" t="s">
         <v>30</v>
       </c>
       <c r="L40" s="48" t="s">
         <v>81</v>
       </c>
-      <c r="M40" s="78" t="s">
-        <v>91</v>
-      </c>
-      <c r="N40" s="78" t="s">
+      <c r="M40" s="74" t="s">
+        <v>91</v>
+      </c>
+      <c r="N40" s="74" t="s">
         <v>24</v>
       </c>
       <c r="O40" s="49" t="s">
         <v>91</v>
       </c>
-      <c r="P40" s="68" t="s">
+      <c r="P40" s="64" t="s">
         <v>127</v>
       </c>
-      <c r="Q40" s="61" t="s">
-        <v>92</v>
-      </c>
-      <c r="R40" s="61"/>
-      <c r="S40" s="61"/>
-      <c r="T40" s="78" t="s">
-        <v>91</v>
-      </c>
-      <c r="U40" s="78" t="s">
+      <c r="Q40" s="48" t="s">
+        <v>92</v>
+      </c>
+      <c r="R40" s="48"/>
+      <c r="S40" s="48"/>
+      <c r="T40" s="74" t="s">
+        <v>91</v>
+      </c>
+      <c r="U40" s="74" t="s">
         <v>30</v>
       </c>
-      <c r="V40" s="61" t="s">
-        <v>92</v>
-      </c>
-      <c r="W40" s="78" t="s">
-        <v>91</v>
-      </c>
-      <c r="X40" s="78" t="s">
+      <c r="V40" s="48" t="s">
+        <v>92</v>
+      </c>
+      <c r="W40" s="74" t="s">
+        <v>91</v>
+      </c>
+      <c r="X40" s="74" t="s">
         <v>30</v>
       </c>
       <c r="Y40" s="49"/>
@@ -4499,7 +7291,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="41" spans="1:26" ht="25.05" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:26" ht="25.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A41" s="35">
         <v>28</v>
       </c>
@@ -4525,23 +7317,23 @@
       <c r="I41" s="30" t="s">
         <v>128</v>
       </c>
-      <c r="J41" s="79" t="s">
+      <c r="J41" s="75" t="s">
         <v>87</v>
       </c>
-      <c r="K41" s="79" t="s">
+      <c r="K41" s="75" t="s">
         <v>23</v>
       </c>
       <c r="L41" s="31"/>
-      <c r="M41" s="79" t="s">
-        <v>91</v>
-      </c>
-      <c r="N41" s="79" t="s">
+      <c r="M41" s="75" t="s">
+        <v>91</v>
+      </c>
+      <c r="N41" s="75" t="s">
         <v>24</v>
       </c>
       <c r="O41" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="P41" s="69" t="s">
+      <c r="P41" s="65" t="s">
         <v>128</v>
       </c>
       <c r="Q41" s="31" t="s">
@@ -4549,19 +7341,19 @@
       </c>
       <c r="R41" s="31"/>
       <c r="S41" s="31"/>
-      <c r="T41" s="79" t="s">
+      <c r="T41" s="75" t="s">
         <v>87</v>
       </c>
-      <c r="U41" s="79" t="s">
+      <c r="U41" s="75" t="s">
         <v>23</v>
       </c>
       <c r="V41" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="W41" s="79" t="s">
-        <v>91</v>
-      </c>
-      <c r="X41" s="79" t="s">
+      <c r="W41" s="75" t="s">
+        <v>91</v>
+      </c>
+      <c r="X41" s="75" t="s">
         <v>30</v>
       </c>
       <c r="Y41" s="32"/>
@@ -4569,7 +7361,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="42" spans="1:26" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="37">
         <v>29</v>
       </c>
@@ -4591,55 +7383,55 @@
       <c r="G42" s="39" t="s">
         <v>82</v>
       </c>
-      <c r="H42" s="60"/>
+      <c r="H42" s="39"/>
       <c r="I42" s="38" t="s">
         <v>129</v>
       </c>
-      <c r="J42" s="77" t="s">
-        <v>91</v>
-      </c>
-      <c r="K42" s="77" t="s">
+      <c r="J42" s="73" t="s">
+        <v>91</v>
+      </c>
+      <c r="K42" s="73" t="s">
         <v>26</v>
       </c>
       <c r="L42" s="39"/>
-      <c r="M42" s="77" t="s">
-        <v>91</v>
-      </c>
-      <c r="N42" s="77" t="s">
+      <c r="M42" s="73" t="s">
+        <v>91</v>
+      </c>
+      <c r="N42" s="73" t="s">
         <v>24</v>
       </c>
       <c r="O42" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="P42" s="67" t="s">
+      <c r="P42" s="63" t="s">
         <v>129</v>
       </c>
-      <c r="Q42" s="60" t="s">
-        <v>92</v>
-      </c>
-      <c r="R42" s="60"/>
-      <c r="S42" s="60"/>
-      <c r="T42" s="77" t="s">
+      <c r="Q42" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="R42" s="39"/>
+      <c r="S42" s="39"/>
+      <c r="T42" s="73" t="s">
         <v>83</v>
       </c>
-      <c r="U42" s="77" t="s">
+      <c r="U42" s="73" t="s">
         <v>38</v>
       </c>
-      <c r="V42" s="60" t="s">
-        <v>92</v>
-      </c>
-      <c r="W42" s="77" t="s">
-        <v>91</v>
-      </c>
-      <c r="X42" s="77" t="s">
+      <c r="V42" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="W42" s="73" t="s">
+        <v>91</v>
+      </c>
+      <c r="X42" s="73" t="s">
         <v>30</v>
       </c>
-      <c r="Y42" s="59"/>
+      <c r="Y42" s="40"/>
       <c r="Z42" s="55" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="43" spans="1:26" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="33">
         <v>30</v>
       </c>
@@ -4665,25 +7457,25 @@
       <c r="I43" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="J43" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="K43" s="76" t="s">
+      <c r="J43" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="K43" s="72" t="s">
         <v>26</v>
       </c>
       <c r="L43" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="M43" s="76" t="s">
-        <v>82</v>
-      </c>
-      <c r="N43" s="76" t="s">
+      <c r="M43" s="72" t="s">
+        <v>82</v>
+      </c>
+      <c r="N43" s="72" t="s">
         <v>25</v>
       </c>
       <c r="O43" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="P43" s="66" t="s">
+      <c r="P43" s="62" t="s">
         <v>130</v>
       </c>
       <c r="Q43" s="7" t="s">
@@ -4691,19 +7483,19 @@
       </c>
       <c r="R43" s="7"/>
       <c r="S43" s="7"/>
-      <c r="T43" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="U43" s="76" t="s">
+      <c r="T43" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="U43" s="72" t="s">
         <v>24</v>
       </c>
       <c r="V43" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="W43" s="76" t="s">
+      <c r="W43" s="72" t="s">
         <v>87</v>
       </c>
-      <c r="X43" s="76" t="s">
+      <c r="X43" s="72" t="s">
         <v>23</v>
       </c>
       <c r="Y43" s="26"/>
@@ -4711,7 +7503,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="44" spans="1:26" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="37">
         <v>31</v>
       </c>
@@ -4733,55 +7525,55 @@
       <c r="G44" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="H44" s="60"/>
+      <c r="H44" s="39"/>
       <c r="I44" s="38" t="s">
         <v>146</v>
       </c>
-      <c r="J44" s="77" t="s">
-        <v>82</v>
-      </c>
-      <c r="K44" s="77" t="s">
+      <c r="J44" s="73" t="s">
+        <v>82</v>
+      </c>
+      <c r="K44" s="73" t="s">
         <v>25</v>
       </c>
       <c r="L44" s="39"/>
-      <c r="M44" s="77" t="s">
+      <c r="M44" s="73" t="s">
         <v>83</v>
       </c>
-      <c r="N44" s="77" t="s">
+      <c r="N44" s="73" t="s">
         <v>38</v>
       </c>
       <c r="O44" s="40" t="s">
         <v>91</v>
       </c>
-      <c r="P44" s="67" t="s">
+      <c r="P44" s="63" t="s">
         <v>146</v>
       </c>
-      <c r="Q44" s="60" t="s">
-        <v>92</v>
-      </c>
-      <c r="R44" s="60"/>
-      <c r="S44" s="60"/>
-      <c r="T44" s="77" t="s">
-        <v>91</v>
-      </c>
-      <c r="U44" s="77" t="s">
+      <c r="Q44" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="R44" s="39"/>
+      <c r="S44" s="39"/>
+      <c r="T44" s="73" t="s">
+        <v>91</v>
+      </c>
+      <c r="U44" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="V44" s="60" t="s">
+      <c r="V44" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="W44" s="77" t="s">
-        <v>91</v>
-      </c>
-      <c r="X44" s="77" t="s">
+      <c r="W44" s="73" t="s">
+        <v>91</v>
+      </c>
+      <c r="X44" s="73" t="s">
         <v>30</v>
       </c>
-      <c r="Y44" s="59"/>
+      <c r="Y44" s="40"/>
       <c r="Z44" s="55" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="45" spans="1:26" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="33">
         <v>32</v>
       </c>
@@ -4807,23 +7599,23 @@
       <c r="I45" s="19" t="s">
         <v>147</v>
       </c>
-      <c r="J45" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="K45" s="76" t="s">
+      <c r="J45" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="K45" s="72" t="s">
         <v>24</v>
       </c>
       <c r="L45" s="7"/>
-      <c r="M45" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="N45" s="76" t="s">
+      <c r="M45" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="N45" s="72" t="s">
         <v>24</v>
       </c>
       <c r="O45" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="P45" s="66" t="s">
+      <c r="P45" s="62" t="s">
         <v>147</v>
       </c>
       <c r="Q45" s="7" t="s">
@@ -4831,19 +7623,19 @@
       </c>
       <c r="R45" s="7"/>
       <c r="S45" s="7"/>
-      <c r="T45" s="76" t="s">
+      <c r="T45" s="72" t="s">
         <v>181</v>
       </c>
-      <c r="U45" s="76" t="s">
+      <c r="U45" s="72" t="s">
         <v>182</v>
       </c>
       <c r="V45" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="W45" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="X45" s="76" t="s">
+      <c r="W45" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="X45" s="72" t="s">
         <v>30</v>
       </c>
       <c r="Y45" s="26"/>
@@ -4851,7 +7643,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="46" spans="1:26" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="37">
         <v>33</v>
       </c>
@@ -4873,55 +7665,55 @@
       <c r="G46" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="H46" s="60"/>
+      <c r="H46" s="39"/>
       <c r="I46" s="38" t="s">
         <v>131</v>
       </c>
-      <c r="J46" s="77" t="s">
-        <v>91</v>
-      </c>
-      <c r="K46" s="77" t="s">
+      <c r="J46" s="73" t="s">
+        <v>91</v>
+      </c>
+      <c r="K46" s="73" t="s">
         <v>24</v>
       </c>
       <c r="L46" s="39"/>
-      <c r="M46" s="77" t="s">
+      <c r="M46" s="73" t="s">
         <v>87</v>
       </c>
-      <c r="N46" s="77" t="s">
+      <c r="N46" s="73" t="s">
         <v>23</v>
       </c>
       <c r="O46" s="40" t="s">
         <v>91</v>
       </c>
-      <c r="P46" s="67" t="s">
+      <c r="P46" s="63" t="s">
         <v>131</v>
       </c>
-      <c r="Q46" s="60" t="s">
-        <v>92</v>
-      </c>
-      <c r="R46" s="60"/>
-      <c r="S46" s="60"/>
-      <c r="T46" s="77" t="s">
-        <v>91</v>
-      </c>
-      <c r="U46" s="77" t="s">
+      <c r="Q46" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="R46" s="39"/>
+      <c r="S46" s="39"/>
+      <c r="T46" s="73" t="s">
+        <v>91</v>
+      </c>
+      <c r="U46" s="73" t="s">
         <v>30</v>
       </c>
-      <c r="V46" s="60" t="s">
-        <v>92</v>
-      </c>
-      <c r="W46" s="77" t="s">
-        <v>91</v>
-      </c>
-      <c r="X46" s="77" t="s">
+      <c r="V46" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="W46" s="73" t="s">
+        <v>91</v>
+      </c>
+      <c r="X46" s="73" t="s">
         <v>30</v>
       </c>
-      <c r="Y46" s="59"/>
+      <c r="Y46" s="40"/>
       <c r="Z46" s="55" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="47" spans="1:26" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="33">
         <v>34</v>
       </c>
@@ -4947,23 +7739,23 @@
       <c r="I47" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="J47" s="76" t="s">
+      <c r="J47" s="72" t="s">
         <v>87</v>
       </c>
-      <c r="K47" s="76" t="s">
+      <c r="K47" s="72" t="s">
         <v>23</v>
       </c>
       <c r="L47" s="7"/>
-      <c r="M47" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="N47" s="76" t="s">
+      <c r="M47" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="N47" s="72" t="s">
         <v>24</v>
       </c>
       <c r="O47" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="P47" s="66" t="s">
+      <c r="P47" s="62" t="s">
         <v>132</v>
       </c>
       <c r="Q47" s="7" t="s">
@@ -4971,19 +7763,19 @@
       </c>
       <c r="R47" s="7"/>
       <c r="S47" s="7"/>
-      <c r="T47" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="U47" s="76" t="s">
+      <c r="T47" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="U47" s="72" t="s">
         <v>24</v>
       </c>
       <c r="V47" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="W47" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="X47" s="76" t="s">
+      <c r="W47" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="X47" s="72" t="s">
         <v>30</v>
       </c>
       <c r="Y47" s="26"/>
@@ -4991,7 +7783,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="48" spans="1:26" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="37">
         <v>35</v>
       </c>
@@ -5013,55 +7805,55 @@
       <c r="G48" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="H48" s="60"/>
+      <c r="H48" s="39"/>
       <c r="I48" s="38" t="s">
         <v>148</v>
       </c>
-      <c r="J48" s="77" t="s">
-        <v>91</v>
-      </c>
-      <c r="K48" s="77" t="s">
+      <c r="J48" s="73" t="s">
+        <v>91</v>
+      </c>
+      <c r="K48" s="73" t="s">
         <v>24</v>
       </c>
       <c r="L48" s="39"/>
-      <c r="M48" s="77" t="s">
+      <c r="M48" s="73" t="s">
         <v>87</v>
       </c>
-      <c r="N48" s="77" t="s">
+      <c r="N48" s="73" t="s">
         <v>66</v>
       </c>
       <c r="O48" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="P48" s="67" t="s">
+      <c r="P48" s="63" t="s">
         <v>148</v>
       </c>
-      <c r="Q48" s="60" t="s">
-        <v>92</v>
-      </c>
-      <c r="R48" s="60"/>
-      <c r="S48" s="60"/>
-      <c r="T48" s="77" t="s">
-        <v>91</v>
-      </c>
-      <c r="U48" s="77" t="s">
+      <c r="Q48" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="R48" s="39"/>
+      <c r="S48" s="39"/>
+      <c r="T48" s="73" t="s">
+        <v>91</v>
+      </c>
+      <c r="U48" s="73" t="s">
         <v>30</v>
       </c>
-      <c r="V48" s="60" t="s">
-        <v>92</v>
-      </c>
-      <c r="W48" s="77" t="s">
-        <v>91</v>
-      </c>
-      <c r="X48" s="77" t="s">
+      <c r="V48" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="W48" s="73" t="s">
+        <v>91</v>
+      </c>
+      <c r="X48" s="73" t="s">
         <v>30</v>
       </c>
-      <c r="Y48" s="59"/>
+      <c r="Y48" s="40"/>
       <c r="Z48" s="55" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="49" spans="1:26" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="33">
         <v>36</v>
       </c>
@@ -5087,23 +7879,23 @@
       <c r="I49" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="J49" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="K49" s="76" t="s">
+      <c r="J49" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="K49" s="72" t="s">
         <v>24</v>
       </c>
       <c r="L49" s="7"/>
-      <c r="M49" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="N49" s="76" t="s">
+      <c r="M49" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="N49" s="72" t="s">
         <v>24</v>
       </c>
       <c r="O49" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="P49" s="66" t="s">
+      <c r="P49" s="62" t="s">
         <v>133</v>
       </c>
       <c r="Q49" s="7" t="s">
@@ -5111,19 +7903,19 @@
       </c>
       <c r="R49" s="7"/>
       <c r="S49" s="7"/>
-      <c r="T49" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="U49" s="76" t="s">
+      <c r="T49" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="U49" s="72" t="s">
         <v>26</v>
       </c>
       <c r="V49" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="W49" s="76" t="s">
+      <c r="W49" s="72" t="s">
         <v>87</v>
       </c>
-      <c r="X49" s="76" t="s">
+      <c r="X49" s="72" t="s">
         <v>23</v>
       </c>
       <c r="Y49" s="26"/>
@@ -5131,7 +7923,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="50" spans="1:26" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="37">
         <v>37</v>
       </c>
@@ -5153,55 +7945,55 @@
       <c r="G50" s="39" t="s">
         <v>82</v>
       </c>
-      <c r="H50" s="60"/>
+      <c r="H50" s="39"/>
       <c r="I50" s="38" t="s">
         <v>134</v>
       </c>
-      <c r="J50" s="77" t="s">
-        <v>91</v>
-      </c>
-      <c r="K50" s="77" t="s">
+      <c r="J50" s="73" t="s">
+        <v>91</v>
+      </c>
+      <c r="K50" s="73" t="s">
         <v>24</v>
       </c>
       <c r="L50" s="39"/>
-      <c r="M50" s="77" t="s">
+      <c r="M50" s="73" t="s">
         <v>83</v>
       </c>
-      <c r="N50" s="77" t="s">
+      <c r="N50" s="73" t="s">
         <v>38</v>
       </c>
       <c r="O50" s="40" t="s">
         <v>91</v>
       </c>
-      <c r="P50" s="67" t="s">
+      <c r="P50" s="63" t="s">
         <v>134</v>
       </c>
-      <c r="Q50" s="60" t="s">
-        <v>92</v>
-      </c>
-      <c r="R50" s="60"/>
-      <c r="S50" s="60"/>
-      <c r="T50" s="77" t="s">
-        <v>91</v>
-      </c>
-      <c r="U50" s="77" t="s">
+      <c r="Q50" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="R50" s="39"/>
+      <c r="S50" s="39"/>
+      <c r="T50" s="73" t="s">
+        <v>91</v>
+      </c>
+      <c r="U50" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="V50" s="60" t="s">
-        <v>92</v>
-      </c>
-      <c r="W50" s="77" t="s">
+      <c r="V50" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="W50" s="73" t="s">
         <v>87</v>
       </c>
-      <c r="X50" s="77" t="s">
+      <c r="X50" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="Y50" s="59"/>
+      <c r="Y50" s="40"/>
       <c r="Z50" s="55" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="51" spans="1:26" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="33">
         <v>38</v>
       </c>
@@ -5227,23 +8019,23 @@
       <c r="I51" s="19" t="s">
         <v>149</v>
       </c>
-      <c r="J51" s="76" t="s">
+      <c r="J51" s="72" t="s">
         <v>83</v>
       </c>
-      <c r="K51" s="76" t="s">
+      <c r="K51" s="72" t="s">
         <v>38</v>
       </c>
       <c r="L51" s="7"/>
-      <c r="M51" s="76" t="s">
+      <c r="M51" s="72" t="s">
         <v>83</v>
       </c>
-      <c r="N51" s="76" t="s">
+      <c r="N51" s="72" t="s">
         <v>38</v>
       </c>
       <c r="O51" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="P51" s="66" t="s">
+      <c r="P51" s="62" t="s">
         <v>149</v>
       </c>
       <c r="Q51" s="7" t="s">
@@ -5251,19 +8043,19 @@
       </c>
       <c r="R51" s="7"/>
       <c r="S51" s="7"/>
-      <c r="T51" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="U51" s="76" t="s">
+      <c r="T51" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="U51" s="72" t="s">
         <v>24</v>
       </c>
       <c r="V51" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="W51" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="X51" s="76" t="s">
+      <c r="W51" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="X51" s="72" t="s">
         <v>30</v>
       </c>
       <c r="Y51" s="26"/>
@@ -5271,7 +8063,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="52" spans="1:26" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="37">
         <v>39</v>
       </c>
@@ -5293,57 +8085,57 @@
       <c r="G52" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="H52" s="60"/>
+      <c r="H52" s="39"/>
       <c r="I52" s="38" t="s">
         <v>150</v>
       </c>
-      <c r="J52" s="77" t="s">
+      <c r="J52" s="73" t="s">
         <v>90</v>
       </c>
-      <c r="K52" s="77" t="s">
+      <c r="K52" s="73" t="s">
         <v>71</v>
       </c>
       <c r="L52" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="M52" s="77" t="s">
-        <v>91</v>
-      </c>
-      <c r="N52" s="77" t="s">
+      <c r="M52" s="73" t="s">
+        <v>91</v>
+      </c>
+      <c r="N52" s="73" t="s">
         <v>24</v>
       </c>
       <c r="O52" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="P52" s="67" t="s">
+      <c r="P52" s="63" t="s">
         <v>150</v>
       </c>
-      <c r="Q52" s="60" t="s">
-        <v>92</v>
-      </c>
-      <c r="R52" s="60"/>
-      <c r="S52" s="60"/>
-      <c r="T52" s="77" t="s">
+      <c r="Q52" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="R52" s="39"/>
+      <c r="S52" s="39"/>
+      <c r="T52" s="73" t="s">
         <v>90</v>
       </c>
-      <c r="U52" s="77" t="s">
+      <c r="U52" s="73" t="s">
         <v>71</v>
       </c>
-      <c r="V52" s="60" t="s">
-        <v>92</v>
-      </c>
-      <c r="W52" s="77" t="s">
-        <v>91</v>
-      </c>
-      <c r="X52" s="77" t="s">
+      <c r="V52" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="W52" s="73" t="s">
+        <v>91</v>
+      </c>
+      <c r="X52" s="73" t="s">
         <v>30</v>
       </c>
-      <c r="Y52" s="59"/>
+      <c r="Y52" s="40"/>
       <c r="Z52" s="55" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="53" spans="1:26" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="33">
         <v>40</v>
       </c>
@@ -5369,25 +8161,25 @@
       <c r="I53" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="J53" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="K53" s="76" t="s">
+      <c r="J53" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="K53" s="72" t="s">
         <v>26</v>
       </c>
       <c r="L53" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="M53" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="N53" s="76" t="s">
+      <c r="M53" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="N53" s="72" t="s">
         <v>24</v>
       </c>
       <c r="O53" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="P53" s="66" t="s">
+      <c r="P53" s="62" t="s">
         <v>151</v>
       </c>
       <c r="Q53" s="7" t="s">
@@ -5395,19 +8187,19 @@
       </c>
       <c r="R53" s="7"/>
       <c r="S53" s="7"/>
-      <c r="T53" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="U53" s="76" t="s">
+      <c r="T53" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="U53" s="72" t="s">
         <v>30</v>
       </c>
       <c r="V53" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="W53" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="X53" s="76" t="s">
+      <c r="W53" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="X53" s="72" t="s">
         <v>30</v>
       </c>
       <c r="Y53" s="26"/>
@@ -5415,7 +8207,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="54" spans="1:26" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="37">
         <v>41</v>
       </c>
@@ -5437,55 +8229,55 @@
       <c r="G54" s="39" t="s">
         <v>82</v>
       </c>
-      <c r="H54" s="60"/>
+      <c r="H54" s="39"/>
       <c r="I54" s="38" t="s">
         <v>152</v>
       </c>
-      <c r="J54" s="77" t="s">
+      <c r="J54" s="73" t="s">
         <v>83</v>
       </c>
-      <c r="K54" s="77" t="s">
+      <c r="K54" s="73" t="s">
         <v>38</v>
       </c>
       <c r="L54" s="39"/>
-      <c r="M54" s="77" t="s">
-        <v>82</v>
-      </c>
-      <c r="N54" s="77" t="s">
+      <c r="M54" s="73" t="s">
+        <v>82</v>
+      </c>
+      <c r="N54" s="73" t="s">
         <v>25</v>
       </c>
       <c r="O54" s="40" t="s">
         <v>91</v>
       </c>
-      <c r="P54" s="67" t="s">
+      <c r="P54" s="63" t="s">
         <v>152</v>
       </c>
-      <c r="Q54" s="60" t="s">
-        <v>92</v>
-      </c>
-      <c r="R54" s="60"/>
-      <c r="S54" s="60"/>
-      <c r="T54" s="77" t="s">
+      <c r="Q54" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="R54" s="39"/>
+      <c r="S54" s="39"/>
+      <c r="T54" s="73" t="s">
         <v>181</v>
       </c>
-      <c r="U54" s="77" t="s">
+      <c r="U54" s="73" t="s">
         <v>182</v>
       </c>
-      <c r="V54" s="60" t="s">
-        <v>92</v>
-      </c>
-      <c r="W54" s="77" t="s">
-        <v>91</v>
-      </c>
-      <c r="X54" s="77" t="s">
+      <c r="V54" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="W54" s="73" t="s">
+        <v>91</v>
+      </c>
+      <c r="X54" s="73" t="s">
         <v>30</v>
       </c>
-      <c r="Y54" s="59"/>
+      <c r="Y54" s="40"/>
       <c r="Z54" s="55" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="55" spans="1:26" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="33">
         <v>42</v>
       </c>
@@ -5511,23 +8303,23 @@
       <c r="I55" s="19" t="s">
         <v>153</v>
       </c>
-      <c r="J55" s="76" t="s">
+      <c r="J55" s="72" t="s">
         <v>87</v>
       </c>
-      <c r="K55" s="76" t="s">
+      <c r="K55" s="72" t="s">
         <v>23</v>
       </c>
       <c r="L55" s="7"/>
-      <c r="M55" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="N55" s="76" t="s">
+      <c r="M55" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="N55" s="72" t="s">
         <v>24</v>
       </c>
       <c r="O55" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="P55" s="66" t="s">
+      <c r="P55" s="62" t="s">
         <v>153</v>
       </c>
       <c r="Q55" s="7" t="s">
@@ -5535,19 +8327,19 @@
       </c>
       <c r="R55" s="7"/>
       <c r="S55" s="7"/>
-      <c r="T55" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="U55" s="76" t="s">
+      <c r="T55" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="U55" s="72" t="s">
         <v>24</v>
       </c>
       <c r="V55" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="W55" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="X55" s="76" t="s">
+      <c r="W55" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="X55" s="72" t="s">
         <v>30</v>
       </c>
       <c r="Y55" s="26"/>
@@ -5555,7 +8347,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="56" spans="1:26" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="37">
         <v>43</v>
       </c>
@@ -5577,55 +8369,55 @@
       <c r="G56" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="H56" s="60"/>
+      <c r="H56" s="39"/>
       <c r="I56" s="38" t="s">
         <v>173</v>
       </c>
-      <c r="J56" s="77" t="s">
-        <v>91</v>
-      </c>
-      <c r="K56" s="77" t="s">
+      <c r="J56" s="73" t="s">
+        <v>91</v>
+      </c>
+      <c r="K56" s="73" t="s">
         <v>26</v>
       </c>
       <c r="L56" s="39"/>
-      <c r="M56" s="77" t="s">
-        <v>91</v>
-      </c>
-      <c r="N56" s="77" t="s">
+      <c r="M56" s="73" t="s">
+        <v>91</v>
+      </c>
+      <c r="N56" s="73" t="s">
         <v>24</v>
       </c>
       <c r="O56" s="40" t="s">
         <v>91</v>
       </c>
-      <c r="P56" s="67" t="s">
+      <c r="P56" s="63" t="s">
         <v>173</v>
       </c>
-      <c r="Q56" s="60" t="s">
-        <v>92</v>
-      </c>
-      <c r="R56" s="60"/>
-      <c r="S56" s="60"/>
-      <c r="T56" s="77" t="s">
-        <v>91</v>
-      </c>
-      <c r="U56" s="77" t="s">
+      <c r="Q56" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="R56" s="39"/>
+      <c r="S56" s="39"/>
+      <c r="T56" s="73" t="s">
+        <v>91</v>
+      </c>
+      <c r="U56" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="V56" s="60" t="s">
+      <c r="V56" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="W56" s="77" t="s">
-        <v>91</v>
-      </c>
-      <c r="X56" s="77" t="s">
+      <c r="W56" s="73" t="s">
+        <v>91</v>
+      </c>
+      <c r="X56" s="73" t="s">
         <v>30</v>
       </c>
-      <c r="Y56" s="59"/>
+      <c r="Y56" s="40"/>
       <c r="Z56" s="55" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="57" spans="1:26" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="33">
         <v>44</v>
       </c>
@@ -5651,25 +8443,25 @@
       <c r="I57" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="J57" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="K57" s="76" t="s">
+      <c r="J57" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="K57" s="72" t="s">
         <v>24</v>
       </c>
       <c r="L57" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="M57" s="76" t="s">
-        <v>82</v>
-      </c>
-      <c r="N57" s="76" t="s">
+      <c r="M57" s="72" t="s">
+        <v>82</v>
+      </c>
+      <c r="N57" s="72" t="s">
         <v>25</v>
       </c>
       <c r="O57" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="P57" s="66" t="s">
+      <c r="P57" s="62" t="s">
         <v>171</v>
       </c>
       <c r="Q57" s="7" t="s">
@@ -5677,19 +8469,19 @@
       </c>
       <c r="R57" s="7"/>
       <c r="S57" s="7"/>
-      <c r="T57" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="U57" s="76" t="s">
+      <c r="T57" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="U57" s="72" t="s">
         <v>24</v>
       </c>
       <c r="V57" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="W57" s="76" t="s">
-        <v>82</v>
-      </c>
-      <c r="X57" s="76" t="s">
+      <c r="W57" s="72" t="s">
+        <v>82</v>
+      </c>
+      <c r="X57" s="72" t="s">
         <v>25</v>
       </c>
       <c r="Y57" s="26"/>
@@ -5697,7 +8489,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="58" spans="1:26" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="37">
         <v>45</v>
       </c>
@@ -5719,55 +8511,55 @@
       <c r="G58" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="H58" s="60"/>
+      <c r="H58" s="39"/>
       <c r="I58" s="38" t="s">
         <v>169</v>
       </c>
-      <c r="J58" s="77" t="s">
-        <v>82</v>
-      </c>
-      <c r="K58" s="77" t="s">
+      <c r="J58" s="73" t="s">
+        <v>82</v>
+      </c>
+      <c r="K58" s="73" t="s">
         <v>28</v>
       </c>
       <c r="L58" s="39"/>
-      <c r="M58" s="77" t="s">
+      <c r="M58" s="73" t="s">
         <v>83</v>
       </c>
-      <c r="N58" s="77" t="s">
+      <c r="N58" s="73" t="s">
         <v>78</v>
       </c>
       <c r="O58" s="40" t="s">
         <v>91</v>
       </c>
-      <c r="P58" s="67" t="s">
+      <c r="P58" s="63" t="s">
         <v>169</v>
       </c>
-      <c r="Q58" s="60" t="s">
-        <v>92</v>
-      </c>
-      <c r="R58" s="60"/>
-      <c r="S58" s="60"/>
-      <c r="T58" s="77" t="s">
+      <c r="Q58" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="R58" s="39"/>
+      <c r="S58" s="39"/>
+      <c r="T58" s="73" t="s">
         <v>83</v>
       </c>
-      <c r="U58" s="77" t="s">
+      <c r="U58" s="73" t="s">
         <v>38</v>
       </c>
-      <c r="V58" s="60" t="s">
-        <v>92</v>
-      </c>
-      <c r="W58" s="77" t="s">
-        <v>91</v>
-      </c>
-      <c r="X58" s="77" t="s">
+      <c r="V58" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="W58" s="73" t="s">
+        <v>91</v>
+      </c>
+      <c r="X58" s="73" t="s">
         <v>30</v>
       </c>
-      <c r="Y58" s="59"/>
+      <c r="Y58" s="40"/>
       <c r="Z58" s="55" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="59" spans="1:26" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="33">
         <v>46</v>
       </c>
@@ -5793,23 +8585,23 @@
       <c r="I59" s="19" t="s">
         <v>165</v>
       </c>
-      <c r="J59" s="76" t="s">
+      <c r="J59" s="72" t="s">
         <v>83</v>
       </c>
-      <c r="K59" s="76" t="s">
+      <c r="K59" s="72" t="s">
         <v>38</v>
       </c>
       <c r="L59" s="7"/>
-      <c r="M59" s="76" t="s">
-        <v>82</v>
-      </c>
-      <c r="N59" s="76" t="s">
+      <c r="M59" s="72" t="s">
+        <v>82</v>
+      </c>
+      <c r="N59" s="72" t="s">
         <v>25</v>
       </c>
       <c r="O59" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="P59" s="66" t="s">
+      <c r="P59" s="62" t="s">
         <v>165</v>
       </c>
       <c r="Q59" s="7" t="s">
@@ -5817,19 +8609,19 @@
       </c>
       <c r="R59" s="7"/>
       <c r="S59" s="7"/>
-      <c r="T59" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="U59" s="76" t="s">
+      <c r="T59" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="U59" s="72" t="s">
         <v>26</v>
       </c>
       <c r="V59" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="W59" s="76" t="s">
+      <c r="W59" s="72" t="s">
         <v>184</v>
       </c>
-      <c r="X59" s="76" t="s">
+      <c r="X59" s="72" t="s">
         <v>185</v>
       </c>
       <c r="Y59" s="26"/>
@@ -5837,7 +8629,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="60" spans="1:26" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="37">
         <v>47</v>
       </c>
@@ -5849,37 +8641,37 @@
       <c r="G60" s="51"/>
       <c r="H60" s="51"/>
       <c r="I60" s="50"/>
-      <c r="J60" s="80"/>
-      <c r="K60" s="81"/>
+      <c r="J60" s="81"/>
+      <c r="K60" s="82"/>
       <c r="L60" s="51"/>
-      <c r="M60" s="80"/>
-      <c r="N60" s="81"/>
+      <c r="M60" s="81"/>
+      <c r="N60" s="82"/>
       <c r="O60" s="52"/>
-      <c r="P60" s="70"/>
-      <c r="Q60" s="60" t="s">
-        <v>92</v>
-      </c>
-      <c r="R60" s="60"/>
-      <c r="S60" s="60"/>
-      <c r="T60" s="77" t="s">
-        <v>91</v>
-      </c>
-      <c r="U60" s="77" t="s">
+      <c r="P60" s="66"/>
+      <c r="Q60" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="R60" s="39"/>
+      <c r="S60" s="39"/>
+      <c r="T60" s="73" t="s">
+        <v>91</v>
+      </c>
+      <c r="U60" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="V60" s="60" t="s">
-        <v>92</v>
-      </c>
-      <c r="W60" s="77" t="s">
+      <c r="V60" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="W60" s="73" t="s">
         <v>87</v>
       </c>
-      <c r="X60" s="77" t="s">
+      <c r="X60" s="73" t="s">
         <v>23</v>
       </c>
       <c r="Y60" s="52"/>
       <c r="Z60" s="58"/>
     </row>
-    <row r="61" spans="1:26" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="33">
         <v>48</v>
       </c>
@@ -5891,13 +8683,13 @@
       <c r="G61" s="31"/>
       <c r="H61" s="31"/>
       <c r="I61" s="30"/>
-      <c r="J61" s="82"/>
-      <c r="K61" s="83"/>
+      <c r="J61" s="79"/>
+      <c r="K61" s="80"/>
       <c r="L61" s="31"/>
-      <c r="M61" s="82"/>
-      <c r="N61" s="83"/>
+      <c r="M61" s="79"/>
+      <c r="N61" s="80"/>
       <c r="O61" s="32"/>
-      <c r="P61" s="69"/>
+      <c r="P61" s="65"/>
       <c r="Q61" s="32"/>
       <c r="R61" s="32"/>
       <c r="S61" s="32"/>
@@ -5909,7 +8701,7 @@
       <c r="Y61" s="32"/>
       <c r="Z61" s="57"/>
     </row>
-    <row r="62" spans="1:26" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="37">
         <v>49</v>
       </c>
@@ -5921,13 +8713,13 @@
       <c r="G62" s="51"/>
       <c r="H62" s="51"/>
       <c r="I62" s="50"/>
-      <c r="J62" s="80"/>
-      <c r="K62" s="81"/>
+      <c r="J62" s="81"/>
+      <c r="K62" s="82"/>
       <c r="L62" s="51"/>
-      <c r="M62" s="80"/>
-      <c r="N62" s="81"/>
+      <c r="M62" s="81"/>
+      <c r="N62" s="82"/>
       <c r="O62" s="52"/>
-      <c r="P62" s="70"/>
+      <c r="P62" s="66"/>
       <c r="Q62" s="52"/>
       <c r="R62" s="52"/>
       <c r="S62" s="52"/>
@@ -5939,7 +8731,7 @@
       <c r="Y62" s="52"/>
       <c r="Z62" s="58"/>
     </row>
-    <row r="63" spans="1:26" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="33">
         <v>50</v>
       </c>
@@ -5951,13 +8743,13 @@
       <c r="G63" s="31"/>
       <c r="H63" s="31"/>
       <c r="I63" s="30"/>
-      <c r="J63" s="82"/>
-      <c r="K63" s="83"/>
+      <c r="J63" s="79"/>
+      <c r="K63" s="80"/>
       <c r="L63" s="31"/>
-      <c r="M63" s="82"/>
-      <c r="N63" s="83"/>
+      <c r="M63" s="79"/>
+      <c r="N63" s="80"/>
       <c r="O63" s="32"/>
-      <c r="P63" s="69"/>
+      <c r="P63" s="65"/>
       <c r="Q63" s="32"/>
       <c r="R63" s="32"/>
       <c r="S63" s="32"/>
@@ -5969,7 +8761,7 @@
       <c r="Y63" s="32"/>
       <c r="Z63" s="57"/>
     </row>
-    <row r="64" spans="1:26" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="37">
         <v>51</v>
       </c>
@@ -5981,13 +8773,13 @@
       <c r="G64" s="51"/>
       <c r="H64" s="51"/>
       <c r="I64" s="50"/>
-      <c r="J64" s="80"/>
-      <c r="K64" s="81"/>
+      <c r="J64" s="81"/>
+      <c r="K64" s="82"/>
       <c r="L64" s="51"/>
-      <c r="M64" s="80"/>
-      <c r="N64" s="81"/>
+      <c r="M64" s="81"/>
+      <c r="N64" s="82"/>
       <c r="O64" s="52"/>
-      <c r="P64" s="70"/>
+      <c r="P64" s="66"/>
       <c r="Q64" s="52"/>
       <c r="R64" s="52"/>
       <c r="S64" s="52"/>
@@ -5999,7 +8791,7 @@
       <c r="Y64" s="52"/>
       <c r="Z64" s="58"/>
     </row>
-    <row r="65" spans="1:26" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="33">
         <v>52</v>
       </c>
@@ -6011,13 +8803,13 @@
       <c r="G65" s="31"/>
       <c r="H65" s="31"/>
       <c r="I65" s="30"/>
-      <c r="J65" s="82"/>
-      <c r="K65" s="83"/>
+      <c r="J65" s="79"/>
+      <c r="K65" s="80"/>
       <c r="L65" s="31"/>
-      <c r="M65" s="82"/>
-      <c r="N65" s="83"/>
+      <c r="M65" s="79"/>
+      <c r="N65" s="80"/>
       <c r="O65" s="32"/>
-      <c r="P65" s="69"/>
+      <c r="P65" s="65"/>
       <c r="Q65" s="32"/>
       <c r="R65" s="32"/>
       <c r="S65" s="32"/>
@@ -6029,7 +8821,7 @@
       <c r="Y65" s="32"/>
       <c r="Z65" s="57"/>
     </row>
-    <row r="66" spans="1:26" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:26" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A66" s="45">
         <v>53</v>
       </c>
@@ -6051,43 +8843,43 @@
       <c r="G66" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="H66" s="74"/>
+      <c r="H66" s="70"/>
       <c r="I66" s="38" t="s">
         <v>163</v>
       </c>
-      <c r="J66" s="77" t="s">
-        <v>91</v>
-      </c>
-      <c r="K66" s="77" t="s">
+      <c r="J66" s="73" t="s">
+        <v>91</v>
+      </c>
+      <c r="K66" s="73" t="s">
         <v>24</v>
       </c>
       <c r="L66" s="39"/>
-      <c r="M66" s="77" t="s">
-        <v>91</v>
-      </c>
-      <c r="N66" s="77" t="s">
+      <c r="M66" s="73" t="s">
+        <v>91</v>
+      </c>
+      <c r="N66" s="73" t="s">
         <v>24</v>
       </c>
       <c r="O66" s="40" t="s">
         <v>91</v>
       </c>
-      <c r="P66" s="71" t="s">
+      <c r="P66" s="67" t="s">
         <v>163</v>
       </c>
-      <c r="Q66" s="59"/>
-      <c r="R66" s="59"/>
-      <c r="S66" s="59"/>
-      <c r="T66" s="59"/>
-      <c r="U66" s="59"/>
-      <c r="V66" s="59"/>
-      <c r="W66" s="59"/>
+      <c r="Q66" s="40"/>
+      <c r="R66" s="40"/>
+      <c r="S66" s="40"/>
+      <c r="T66" s="40"/>
+      <c r="U66" s="40"/>
+      <c r="V66" s="40"/>
+      <c r="W66" s="40"/>
       <c r="X66" s="40"/>
-      <c r="Y66" s="59"/>
+      <c r="Y66" s="40"/>
       <c r="Z66" s="55" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="67" spans="1:26" ht="25.05" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:26" ht="25.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A67" s="35"/>
       <c r="B67" s="14" t="s">
         <v>80</v>
@@ -6117,7 +8909,7 @@
       <c r="Y67" s="27"/>
       <c r="Z67" s="16"/>
     </row>
-    <row r="68" spans="1:26" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:26" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A68" s="34"/>
       <c r="B68" s="13"/>
       <c r="C68" s="21"/>
@@ -6145,157 +8937,39 @@
       <c r="Y68" s="28"/>
       <c r="Z68" s="10"/>
     </row>
-    <row r="69" spans="1:26" ht="14.65" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="69" spans="1:26" ht="15" thickTop="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="205">
-    <mergeCell ref="T14:U14"/>
-    <mergeCell ref="W14:X14"/>
-    <mergeCell ref="T15:U15"/>
-    <mergeCell ref="W15:X15"/>
-    <mergeCell ref="T16:U16"/>
-    <mergeCell ref="W16:X16"/>
-    <mergeCell ref="T17:U17"/>
-    <mergeCell ref="W17:X17"/>
-    <mergeCell ref="T18:U18"/>
-    <mergeCell ref="W18:X18"/>
-    <mergeCell ref="T19:U19"/>
-    <mergeCell ref="W19:X19"/>
-    <mergeCell ref="T20:U20"/>
-    <mergeCell ref="W20:X20"/>
-    <mergeCell ref="T21:U21"/>
-    <mergeCell ref="W21:X21"/>
-    <mergeCell ref="T22:U22"/>
-    <mergeCell ref="W22:X22"/>
-    <mergeCell ref="T23:U23"/>
-    <mergeCell ref="W23:X23"/>
-    <mergeCell ref="T24:U24"/>
-    <mergeCell ref="W24:X24"/>
-    <mergeCell ref="T25:U25"/>
-    <mergeCell ref="W25:X25"/>
-    <mergeCell ref="T26:U26"/>
-    <mergeCell ref="W26:X26"/>
-    <mergeCell ref="T27:U27"/>
-    <mergeCell ref="W27:X27"/>
-    <mergeCell ref="T28:U28"/>
-    <mergeCell ref="W28:X28"/>
-    <mergeCell ref="T29:U29"/>
-    <mergeCell ref="W29:X29"/>
-    <mergeCell ref="T30:U30"/>
-    <mergeCell ref="W30:X30"/>
-    <mergeCell ref="T31:U31"/>
-    <mergeCell ref="W31:X31"/>
-    <mergeCell ref="T32:U32"/>
-    <mergeCell ref="W32:X32"/>
-    <mergeCell ref="T33:U33"/>
-    <mergeCell ref="W33:X33"/>
-    <mergeCell ref="T34:U34"/>
-    <mergeCell ref="W34:X34"/>
-    <mergeCell ref="T35:U35"/>
-    <mergeCell ref="W35:X35"/>
-    <mergeCell ref="T36:U36"/>
-    <mergeCell ref="W36:X36"/>
-    <mergeCell ref="T37:U37"/>
-    <mergeCell ref="W37:X37"/>
-    <mergeCell ref="T38:U38"/>
-    <mergeCell ref="W38:X38"/>
-    <mergeCell ref="T39:U39"/>
-    <mergeCell ref="W39:X39"/>
-    <mergeCell ref="T40:U40"/>
-    <mergeCell ref="W40:X40"/>
-    <mergeCell ref="T41:U41"/>
-    <mergeCell ref="W41:X41"/>
-    <mergeCell ref="T42:U42"/>
-    <mergeCell ref="W42:X42"/>
-    <mergeCell ref="T43:U43"/>
-    <mergeCell ref="W43:X43"/>
-    <mergeCell ref="T44:U44"/>
-    <mergeCell ref="W44:X44"/>
-    <mergeCell ref="T45:U45"/>
-    <mergeCell ref="W45:X45"/>
-    <mergeCell ref="T46:U46"/>
-    <mergeCell ref="W46:X46"/>
-    <mergeCell ref="T47:U47"/>
-    <mergeCell ref="W47:X47"/>
-    <mergeCell ref="T48:U48"/>
-    <mergeCell ref="W48:X48"/>
-    <mergeCell ref="T49:U49"/>
-    <mergeCell ref="W49:X49"/>
-    <mergeCell ref="T50:U50"/>
-    <mergeCell ref="W50:X50"/>
-    <mergeCell ref="T51:U51"/>
-    <mergeCell ref="W51:X51"/>
-    <mergeCell ref="T52:U52"/>
-    <mergeCell ref="W52:X52"/>
-    <mergeCell ref="T53:U53"/>
-    <mergeCell ref="W53:X53"/>
-    <mergeCell ref="T54:U54"/>
-    <mergeCell ref="W54:X54"/>
-    <mergeCell ref="T55:U55"/>
-    <mergeCell ref="W55:X55"/>
-    <mergeCell ref="T56:U56"/>
-    <mergeCell ref="W56:X56"/>
-    <mergeCell ref="T57:U57"/>
-    <mergeCell ref="W57:X57"/>
-    <mergeCell ref="T58:U58"/>
-    <mergeCell ref="W58:X58"/>
-    <mergeCell ref="T59:U59"/>
-    <mergeCell ref="W59:X59"/>
-    <mergeCell ref="T60:U60"/>
-    <mergeCell ref="W60:X60"/>
-    <mergeCell ref="P6:P13"/>
-    <mergeCell ref="J65:K65"/>
-    <mergeCell ref="J64:K64"/>
-    <mergeCell ref="J63:K63"/>
-    <mergeCell ref="J62:K62"/>
-    <mergeCell ref="J60:K60"/>
-    <mergeCell ref="J61:K61"/>
-    <mergeCell ref="C6:C13"/>
-    <mergeCell ref="I6:I13"/>
-    <mergeCell ref="Z6:Z13"/>
-    <mergeCell ref="A6:A13"/>
-    <mergeCell ref="M54:N54"/>
-    <mergeCell ref="M48:N48"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="M55:N55"/>
-    <mergeCell ref="M56:N56"/>
-    <mergeCell ref="M57:N57"/>
-    <mergeCell ref="M58:N58"/>
-    <mergeCell ref="M59:N59"/>
-    <mergeCell ref="M49:N49"/>
-    <mergeCell ref="M50:N50"/>
-    <mergeCell ref="M51:N51"/>
-    <mergeCell ref="M52:N52"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="J66:K66"/>
-    <mergeCell ref="M66:N66"/>
-    <mergeCell ref="M65:N65"/>
-    <mergeCell ref="M64:N64"/>
-    <mergeCell ref="M63:N63"/>
-    <mergeCell ref="M43:N43"/>
-    <mergeCell ref="M44:N44"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="M46:N46"/>
-    <mergeCell ref="M47:N47"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="M35:N35"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="J37:K37"/>
     <mergeCell ref="M26:N26"/>
     <mergeCell ref="J57:K57"/>
     <mergeCell ref="J58:K58"/>
@@ -6312,9 +8986,6 @@
     <mergeCell ref="J52:K52"/>
     <mergeCell ref="J53:K53"/>
     <mergeCell ref="J54:K54"/>
-    <mergeCell ref="M62:N62"/>
-    <mergeCell ref="M61:N61"/>
-    <mergeCell ref="M60:N60"/>
     <mergeCell ref="J55:K55"/>
     <mergeCell ref="J56:K56"/>
     <mergeCell ref="J44:K44"/>
@@ -6323,102 +8994,223 @@
     <mergeCell ref="J47:K47"/>
     <mergeCell ref="J48:K48"/>
     <mergeCell ref="J49:K49"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="J66:K66"/>
+    <mergeCell ref="M66:N66"/>
+    <mergeCell ref="M65:N65"/>
+    <mergeCell ref="M64:N64"/>
+    <mergeCell ref="M63:N63"/>
+    <mergeCell ref="M43:N43"/>
+    <mergeCell ref="M44:N44"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="M46:N46"/>
+    <mergeCell ref="M47:N47"/>
+    <mergeCell ref="M62:N62"/>
+    <mergeCell ref="M61:N61"/>
+    <mergeCell ref="M60:N60"/>
+    <mergeCell ref="C6:C13"/>
+    <mergeCell ref="I6:I13"/>
+    <mergeCell ref="Z6:Z13"/>
+    <mergeCell ref="A6:A13"/>
+    <mergeCell ref="M54:N54"/>
+    <mergeCell ref="M48:N48"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="M49:N49"/>
+    <mergeCell ref="M50:N50"/>
+    <mergeCell ref="M51:N51"/>
+    <mergeCell ref="M52:N52"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="T59:U59"/>
+    <mergeCell ref="W59:X59"/>
+    <mergeCell ref="T60:U60"/>
+    <mergeCell ref="W60:X60"/>
+    <mergeCell ref="P6:P13"/>
+    <mergeCell ref="J65:K65"/>
+    <mergeCell ref="J64:K64"/>
+    <mergeCell ref="J63:K63"/>
+    <mergeCell ref="J62:K62"/>
+    <mergeCell ref="J60:K60"/>
+    <mergeCell ref="J61:K61"/>
+    <mergeCell ref="M55:N55"/>
+    <mergeCell ref="M56:N56"/>
+    <mergeCell ref="M57:N57"/>
+    <mergeCell ref="M58:N58"/>
+    <mergeCell ref="M59:N59"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="T54:U54"/>
+    <mergeCell ref="W54:X54"/>
+    <mergeCell ref="T55:U55"/>
+    <mergeCell ref="W55:X55"/>
+    <mergeCell ref="T56:U56"/>
+    <mergeCell ref="W56:X56"/>
+    <mergeCell ref="T57:U57"/>
+    <mergeCell ref="W57:X57"/>
+    <mergeCell ref="T58:U58"/>
+    <mergeCell ref="W58:X58"/>
+    <mergeCell ref="T49:U49"/>
+    <mergeCell ref="W49:X49"/>
+    <mergeCell ref="T50:U50"/>
+    <mergeCell ref="W50:X50"/>
+    <mergeCell ref="T51:U51"/>
+    <mergeCell ref="W51:X51"/>
+    <mergeCell ref="T52:U52"/>
+    <mergeCell ref="W52:X52"/>
+    <mergeCell ref="T53:U53"/>
+    <mergeCell ref="W53:X53"/>
+    <mergeCell ref="T44:U44"/>
+    <mergeCell ref="W44:X44"/>
+    <mergeCell ref="T45:U45"/>
+    <mergeCell ref="W45:X45"/>
+    <mergeCell ref="T46:U46"/>
+    <mergeCell ref="W46:X46"/>
+    <mergeCell ref="T47:U47"/>
+    <mergeCell ref="W47:X47"/>
+    <mergeCell ref="T48:U48"/>
+    <mergeCell ref="W48:X48"/>
+    <mergeCell ref="T39:U39"/>
+    <mergeCell ref="W39:X39"/>
+    <mergeCell ref="T40:U40"/>
+    <mergeCell ref="W40:X40"/>
+    <mergeCell ref="T41:U41"/>
+    <mergeCell ref="W41:X41"/>
+    <mergeCell ref="T42:U42"/>
+    <mergeCell ref="W42:X42"/>
+    <mergeCell ref="T43:U43"/>
+    <mergeCell ref="W43:X43"/>
+    <mergeCell ref="T34:U34"/>
+    <mergeCell ref="W34:X34"/>
+    <mergeCell ref="T35:U35"/>
+    <mergeCell ref="W35:X35"/>
+    <mergeCell ref="T36:U36"/>
+    <mergeCell ref="W36:X36"/>
+    <mergeCell ref="T37:U37"/>
+    <mergeCell ref="W37:X37"/>
+    <mergeCell ref="T38:U38"/>
+    <mergeCell ref="W38:X38"/>
+    <mergeCell ref="T29:U29"/>
+    <mergeCell ref="W29:X29"/>
+    <mergeCell ref="T30:U30"/>
+    <mergeCell ref="W30:X30"/>
+    <mergeCell ref="T31:U31"/>
+    <mergeCell ref="W31:X31"/>
+    <mergeCell ref="T32:U32"/>
+    <mergeCell ref="W32:X32"/>
+    <mergeCell ref="T33:U33"/>
+    <mergeCell ref="W33:X33"/>
+    <mergeCell ref="T24:U24"/>
+    <mergeCell ref="W24:X24"/>
+    <mergeCell ref="T25:U25"/>
+    <mergeCell ref="W25:X25"/>
+    <mergeCell ref="T26:U26"/>
+    <mergeCell ref="W26:X26"/>
+    <mergeCell ref="T27:U27"/>
+    <mergeCell ref="W27:X27"/>
+    <mergeCell ref="T28:U28"/>
+    <mergeCell ref="W28:X28"/>
+    <mergeCell ref="T19:U19"/>
+    <mergeCell ref="W19:X19"/>
+    <mergeCell ref="T20:U20"/>
+    <mergeCell ref="W20:X20"/>
+    <mergeCell ref="T21:U21"/>
+    <mergeCell ref="W21:X21"/>
+    <mergeCell ref="T22:U22"/>
+    <mergeCell ref="W22:X22"/>
+    <mergeCell ref="T23:U23"/>
+    <mergeCell ref="W23:X23"/>
+    <mergeCell ref="T14:U14"/>
+    <mergeCell ref="W14:X14"/>
+    <mergeCell ref="T15:U15"/>
+    <mergeCell ref="W15:X15"/>
+    <mergeCell ref="T16:U16"/>
+    <mergeCell ref="W16:X16"/>
+    <mergeCell ref="T17:U17"/>
+    <mergeCell ref="W17:X17"/>
+    <mergeCell ref="T18:U18"/>
+    <mergeCell ref="W18:X18"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="B7 D7:H7 J7:O7 AA7:IV7">
-    <cfRule type="expression" dxfId="17" priority="7" stopIfTrue="1">
+  <conditionalFormatting sqref="A6:F6 I6:N6 Z6:IV6">
+    <cfRule type="expression" dxfId="29" priority="10" stopIfTrue="1">
       <formula>B$5="1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="11" stopIfTrue="1">
       <formula>B$7="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="12" stopIfTrue="1">
       <formula>B$7="土"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z6:IV6 A6:F6 I6:N6">
-    <cfRule type="expression" dxfId="14" priority="10" stopIfTrue="1">
+  <conditionalFormatting sqref="B7 D7:H7 J7:O7 AA7:IV7">
+    <cfRule type="expression" dxfId="26" priority="7" stopIfTrue="1">
       <formula>B$5="1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="8" stopIfTrue="1">
       <formula>B$7="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="9" stopIfTrue="1">
       <formula>B$7="土"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="G6:H6">
+    <cfRule type="expression" dxfId="23" priority="58" stopIfTrue="1">
+      <formula>I$5="1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="22" priority="59" stopIfTrue="1">
+      <formula>I$7="日"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="21" priority="60" stopIfTrue="1">
+      <formula>I$7="土"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="O6">
-    <cfRule type="expression" dxfId="11" priority="46" stopIfTrue="1">
+    <cfRule type="expression" dxfId="20" priority="46" stopIfTrue="1">
       <formula>X$5="1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="47" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="47" stopIfTrue="1">
       <formula>X$7="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="48" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="48" stopIfTrue="1">
       <formula>X$7="土"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q6:Y7">
-    <cfRule type="expression" dxfId="8" priority="4" stopIfTrue="1">
+  <conditionalFormatting sqref="P6">
+    <cfRule type="expression" dxfId="17" priority="1" stopIfTrue="1">
       <formula>Q$5="1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="2" stopIfTrue="1">
       <formula>Q$7="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="3" stopIfTrue="1">
       <formula>Q$7="土"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P6">
-    <cfRule type="expression" dxfId="5" priority="1" stopIfTrue="1">
+  <conditionalFormatting sqref="Q6:Y7">
+    <cfRule type="expression" dxfId="14" priority="4" stopIfTrue="1">
       <formula>Q$5="1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="5" stopIfTrue="1">
       <formula>Q$7="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="6" stopIfTrue="1">
       <formula>Q$7="土"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G6:H6">
-    <cfRule type="expression" dxfId="2" priority="58" stopIfTrue="1">
-      <formula>I$5="1"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="59" stopIfTrue="1">
-      <formula>I$7="日"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="60" stopIfTrue="1">
-      <formula>I$7="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/app/xlsx/18003198194881_4PJ.xlsx
+++ b/app/xlsx/18003198194881_4PJ.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luiha\OneDrive\デスクトップ\MyGo\rolemaster0.5\RoleMaserV0.5\app\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6771DDD0-4DAB-465D-9AC5-434CA464F381}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0A28616-5DA8-41E1-92CE-32B34CBBD81E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12015" yWindow="0" windowWidth="16785" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PJシフト4月" sheetId="4" r:id="rId1"/>
-    <sheet name="PJシフト" sheetId="3" r:id="rId2"/>
+    <sheet name="PJシフト5月" sheetId="5" r:id="rId2"/>
+    <sheet name="PJシフト" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1700" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2199" uniqueCount="196">
   <si>
     <t>ミエルココン</t>
   </si>
@@ -697,6 +698,26 @@
     <rPh sb="0" eb="3">
       <t>シショクカイ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タビ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>えにし</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ベイル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サマー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>でんでん</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1565,19 +1586,46 @@
     <xf numFmtId="176" fontId="3" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1589,25 +1637,7 @@
     <xf numFmtId="176" fontId="3" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1619,20 +1649,191 @@
     <xf numFmtId="176" fontId="3" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="30">
+  <dxfs count="66">
+    <dxf>
+      <font>
+        <color theme="8"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="8"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="8"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="8"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="8"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="8"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="8"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="8"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="8"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="8"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="8"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="8"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color theme="8"/>
@@ -2056,8 +2257,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EE3DD89-42D5-4E57-AB52-235C4D14B7E6}">
   <dimension ref="A2:O69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14:K14"/>
+    <sheetView tabSelected="1" topLeftCell="B42" workbookViewId="0">
+      <selection activeCell="L72" sqref="L72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -2125,11 +2326,11 @@
       </c>
     </row>
     <row r="6" spans="1:15" ht="15" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="89"/>
+      <c r="A6" s="79"/>
       <c r="B6" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="83" t="s">
+      <c r="C6" s="82" t="s">
         <v>167</v>
       </c>
       <c r="D6" s="8">
@@ -2147,7 +2348,7 @@
       <c r="H6" s="8">
         <v>15</v>
       </c>
-      <c r="I6" s="76" t="s">
+      <c r="I6" s="85" t="s">
         <v>167</v>
       </c>
       <c r="J6" s="8">
@@ -2170,11 +2371,11 @@
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A7" s="90"/>
+      <c r="A7" s="80"/>
       <c r="B7" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="84"/>
+      <c r="C7" s="83"/>
       <c r="D7" s="7" t="s">
         <v>8</v>
       </c>
@@ -2190,7 +2391,7 @@
       <c r="H7" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="I7" s="77"/>
+      <c r="I7" s="86"/>
       <c r="J7" s="7" t="s">
         <v>8</v>
       </c>
@@ -2211,11 +2412,11 @@
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A8" s="90"/>
+      <c r="A8" s="80"/>
       <c r="B8" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="84"/>
+      <c r="C8" s="83"/>
       <c r="D8" s="7">
         <v>68</v>
       </c>
@@ -2229,7 +2430,7 @@
         <v>60</v>
       </c>
       <c r="H8" s="7"/>
-      <c r="I8" s="77"/>
+      <c r="I8" s="86"/>
       <c r="J8" s="7">
         <v>90</v>
       </c>
@@ -2248,11 +2449,11 @@
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A9" s="90"/>
+      <c r="A9" s="80"/>
       <c r="B9" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="84"/>
+      <c r="C9" s="83"/>
       <c r="D9" s="17">
         <v>14</v>
       </c>
@@ -2268,7 +2469,7 @@
       <c r="H9" s="17">
         <v>10</v>
       </c>
-      <c r="I9" s="77"/>
+      <c r="I9" s="86"/>
       <c r="J9" s="17">
         <v>18</v>
       </c>
@@ -2287,11 +2488,11 @@
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A10" s="90"/>
+      <c r="A10" s="80"/>
       <c r="B10" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="84"/>
+      <c r="C10" s="83"/>
       <c r="D10" s="7" t="s">
         <v>13</v>
       </c>
@@ -2305,7 +2506,7 @@
         <v>13</v>
       </c>
       <c r="H10" s="7"/>
-      <c r="I10" s="77"/>
+      <c r="I10" s="86"/>
       <c r="J10" s="7" t="s">
         <v>13</v>
       </c>
@@ -2324,11 +2525,11 @@
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A11" s="90"/>
+      <c r="A11" s="80"/>
       <c r="B11" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="C11" s="84"/>
+      <c r="C11" s="83"/>
       <c r="D11" s="7" t="s">
         <v>94</v>
       </c>
@@ -2344,7 +2545,7 @@
       <c r="H11" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="I11" s="77"/>
+      <c r="I11" s="86"/>
       <c r="J11" s="7" t="s">
         <v>97</v>
       </c>
@@ -2363,11 +2564,11 @@
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A12" s="90"/>
+      <c r="A12" s="80"/>
       <c r="B12" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="84"/>
+      <c r="C12" s="83"/>
       <c r="D12" s="7" t="s">
         <v>17</v>
       </c>
@@ -2383,7 +2584,7 @@
       <c r="H12" s="18">
         <v>0.6875</v>
       </c>
-      <c r="I12" s="77"/>
+      <c r="I12" s="86"/>
       <c r="J12" s="7" t="s">
         <v>17</v>
       </c>
@@ -2404,11 +2605,11 @@
       </c>
     </row>
     <row r="13" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="91"/>
+      <c r="A13" s="81"/>
       <c r="B13" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="85"/>
+      <c r="C13" s="84"/>
       <c r="D13" s="7" t="s">
         <v>21</v>
       </c>
@@ -2424,7 +2625,7 @@
       <c r="H13" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="I13" s="78"/>
+      <c r="I13" s="87"/>
       <c r="J13" s="7" t="s">
         <v>21</v>
       </c>
@@ -2470,17 +2671,17 @@
       <c r="I14" s="42" t="s">
         <v>154</v>
       </c>
-      <c r="J14" s="71" t="s">
+      <c r="J14" s="88" t="s">
         <v>88</v>
       </c>
-      <c r="K14" s="71" t="s">
+      <c r="K14" s="88" t="s">
         <v>25</v>
       </c>
       <c r="L14" s="43"/>
-      <c r="M14" s="71" t="s">
+      <c r="M14" s="88" t="s">
         <v>82</v>
       </c>
-      <c r="N14" s="71" t="s">
+      <c r="N14" s="88" t="s">
         <v>23</v>
       </c>
       <c r="O14" s="44" t="s">
@@ -2513,19 +2714,19 @@
       <c r="I15" s="19" t="s">
         <v>155</v>
       </c>
-      <c r="J15" s="72" t="s">
+      <c r="J15" s="76" t="s">
         <v>82</v>
       </c>
-      <c r="K15" s="72" t="s">
+      <c r="K15" s="76" t="s">
         <v>28</v>
       </c>
       <c r="L15" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="M15" s="72" t="s">
+      <c r="M15" s="76" t="s">
         <v>82</v>
       </c>
-      <c r="N15" s="72" t="s">
+      <c r="N15" s="76" t="s">
         <v>25</v>
       </c>
       <c r="O15" s="26" t="s">
@@ -2558,17 +2759,17 @@
       <c r="I16" s="38" t="s">
         <v>166</v>
       </c>
-      <c r="J16" s="73" t="s">
+      <c r="J16" s="75" t="s">
         <v>87</v>
       </c>
-      <c r="K16" s="73" t="s">
+      <c r="K16" s="75" t="s">
         <v>23</v>
       </c>
       <c r="L16" s="39"/>
-      <c r="M16" s="73" t="s">
+      <c r="M16" s="75" t="s">
         <v>87</v>
       </c>
-      <c r="N16" s="73" t="s">
+      <c r="N16" s="75" t="s">
         <v>23</v>
       </c>
       <c r="O16" s="40" t="s">
@@ -2601,17 +2802,17 @@
       <c r="I17" s="19" t="s">
         <v>156</v>
       </c>
-      <c r="J17" s="72" t="s">
-        <v>92</v>
-      </c>
-      <c r="K17" s="72" t="s">
+      <c r="J17" s="76" t="s">
+        <v>92</v>
+      </c>
+      <c r="K17" s="76" t="s">
         <v>24</v>
       </c>
       <c r="L17" s="7"/>
-      <c r="M17" s="72" t="s">
-        <v>91</v>
-      </c>
-      <c r="N17" s="72" t="s">
+      <c r="M17" s="76" t="s">
+        <v>91</v>
+      </c>
+      <c r="N17" s="76" t="s">
         <v>24</v>
       </c>
       <c r="O17" s="26" t="s">
@@ -2644,17 +2845,17 @@
       <c r="I18" s="38" t="s">
         <v>157</v>
       </c>
-      <c r="J18" s="73" t="s">
+      <c r="J18" s="75" t="s">
         <v>87</v>
       </c>
-      <c r="K18" s="73" t="s">
+      <c r="K18" s="75" t="s">
         <v>23</v>
       </c>
       <c r="L18" s="39"/>
-      <c r="M18" s="73" t="s">
-        <v>91</v>
-      </c>
-      <c r="N18" s="73" t="s">
+      <c r="M18" s="75" t="s">
+        <v>91</v>
+      </c>
+      <c r="N18" s="75" t="s">
         <v>24</v>
       </c>
       <c r="O18" s="40" t="s">
@@ -2687,17 +2888,17 @@
       <c r="I19" s="19" t="s">
         <v>158</v>
       </c>
-      <c r="J19" s="72" t="s">
+      <c r="J19" s="76" t="s">
         <v>86</v>
       </c>
-      <c r="K19" s="72" t="s">
+      <c r="K19" s="76" t="s">
         <v>34</v>
       </c>
       <c r="L19" s="7"/>
-      <c r="M19" s="72" t="s">
+      <c r="M19" s="76" t="s">
         <v>82</v>
       </c>
-      <c r="N19" s="72" t="s">
+      <c r="N19" s="76" t="s">
         <v>28</v>
       </c>
       <c r="O19" s="26" t="s">
@@ -2730,17 +2931,17 @@
       <c r="I20" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="J20" s="73" t="s">
+      <c r="J20" s="75" t="s">
         <v>87</v>
       </c>
-      <c r="K20" s="73" t="s">
+      <c r="K20" s="75" t="s">
         <v>23</v>
       </c>
       <c r="L20" s="39"/>
-      <c r="M20" s="73" t="s">
+      <c r="M20" s="75" t="s">
         <v>87</v>
       </c>
-      <c r="N20" s="73" t="s">
+      <c r="N20" s="75" t="s">
         <v>23</v>
       </c>
       <c r="O20" s="40" t="s">
@@ -2773,17 +2974,17 @@
       <c r="I21" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="J21" s="72" t="s">
-        <v>91</v>
-      </c>
-      <c r="K21" s="72" t="s">
+      <c r="J21" s="76" t="s">
+        <v>91</v>
+      </c>
+      <c r="K21" s="76" t="s">
         <v>24</v>
       </c>
       <c r="L21" s="7"/>
-      <c r="M21" s="72" t="s">
+      <c r="M21" s="76" t="s">
         <v>87</v>
       </c>
-      <c r="N21" s="72" t="s">
+      <c r="N21" s="76" t="s">
         <v>23</v>
       </c>
       <c r="O21" s="26" t="s">
@@ -2816,17 +3017,17 @@
       <c r="I22" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="J22" s="73" t="s">
+      <c r="J22" s="75" t="s">
         <v>82</v>
       </c>
-      <c r="K22" s="73" t="s">
+      <c r="K22" s="75" t="s">
         <v>25</v>
       </c>
       <c r="L22" s="39"/>
-      <c r="M22" s="73" t="s">
+      <c r="M22" s="75" t="s">
         <v>83</v>
       </c>
-      <c r="N22" s="73" t="s">
+      <c r="N22" s="75" t="s">
         <v>38</v>
       </c>
       <c r="O22" s="40" t="s">
@@ -2859,19 +3060,19 @@
       <c r="I23" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="J23" s="72" t="s">
+      <c r="J23" s="76" t="s">
         <v>87</v>
       </c>
-      <c r="K23" s="72" t="s">
+      <c r="K23" s="76" t="s">
         <v>23</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="M23" s="72" t="s">
+      <c r="M23" s="76" t="s">
         <v>83</v>
       </c>
-      <c r="N23" s="72" t="s">
+      <c r="N23" s="76" t="s">
         <v>38</v>
       </c>
       <c r="O23" s="26" t="s">
@@ -2904,17 +3105,17 @@
       <c r="I24" s="38" t="s">
         <v>112</v>
       </c>
-      <c r="J24" s="73" t="s">
-        <v>91</v>
-      </c>
-      <c r="K24" s="73" t="s">
+      <c r="J24" s="75" t="s">
+        <v>91</v>
+      </c>
+      <c r="K24" s="75" t="s">
         <v>24</v>
       </c>
       <c r="L24" s="39"/>
-      <c r="M24" s="73" t="s">
+      <c r="M24" s="75" t="s">
         <v>82</v>
       </c>
-      <c r="N24" s="73" t="s">
+      <c r="N24" s="75" t="s">
         <v>25</v>
       </c>
       <c r="O24" s="40" t="s">
@@ -2947,17 +3148,17 @@
       <c r="I25" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="J25" s="72" t="s">
-        <v>91</v>
-      </c>
-      <c r="K25" s="72" t="s">
+      <c r="J25" s="76" t="s">
+        <v>91</v>
+      </c>
+      <c r="K25" s="76" t="s">
         <v>30</v>
       </c>
       <c r="L25" s="7"/>
-      <c r="M25" s="72" t="s">
-        <v>91</v>
-      </c>
-      <c r="N25" s="72" t="s">
+      <c r="M25" s="76" t="s">
+        <v>91</v>
+      </c>
+      <c r="N25" s="76" t="s">
         <v>30</v>
       </c>
       <c r="O25" s="26" t="s">
@@ -2990,19 +3191,19 @@
       <c r="I26" s="38" t="s">
         <v>114</v>
       </c>
-      <c r="J26" s="73" t="s">
+      <c r="J26" s="75" t="s">
         <v>87</v>
       </c>
-      <c r="K26" s="73" t="s">
+      <c r="K26" s="75" t="s">
         <v>23</v>
       </c>
       <c r="L26" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="M26" s="73" t="s">
+      <c r="M26" s="75" t="s">
         <v>87</v>
       </c>
-      <c r="N26" s="73" t="s">
+      <c r="N26" s="75" t="s">
         <v>23</v>
       </c>
       <c r="O26" s="40" t="s">
@@ -3035,17 +3236,17 @@
       <c r="I27" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="J27" s="72" t="s">
+      <c r="J27" s="76" t="s">
         <v>89</v>
       </c>
-      <c r="K27" s="72" t="s">
+      <c r="K27" s="76" t="s">
         <v>44</v>
       </c>
       <c r="L27" s="7"/>
-      <c r="M27" s="72" t="s">
-        <v>91</v>
-      </c>
-      <c r="N27" s="72" t="s">
+      <c r="M27" s="76" t="s">
+        <v>91</v>
+      </c>
+      <c r="N27" s="76" t="s">
         <v>24</v>
       </c>
       <c r="O27" s="26" t="s">
@@ -3078,19 +3279,19 @@
       <c r="I28" s="38" t="s">
         <v>116</v>
       </c>
-      <c r="J28" s="73" t="s">
+      <c r="J28" s="75" t="s">
         <v>87</v>
       </c>
-      <c r="K28" s="73" t="s">
+      <c r="K28" s="75" t="s">
         <v>23</v>
       </c>
       <c r="L28" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="M28" s="73" t="s">
+      <c r="M28" s="75" t="s">
         <v>82</v>
       </c>
-      <c r="N28" s="73" t="s">
+      <c r="N28" s="75" t="s">
         <v>25</v>
       </c>
       <c r="O28" s="40" t="s">
@@ -3123,17 +3324,17 @@
       <c r="I29" s="19" t="s">
         <v>159</v>
       </c>
-      <c r="J29" s="72" t="s">
+      <c r="J29" s="76" t="s">
         <v>87</v>
       </c>
-      <c r="K29" s="72" t="s">
+      <c r="K29" s="76" t="s">
         <v>23</v>
       </c>
       <c r="L29" s="7"/>
-      <c r="M29" s="72" t="s">
+      <c r="M29" s="76" t="s">
         <v>87</v>
       </c>
-      <c r="N29" s="72" t="s">
+      <c r="N29" s="76" t="s">
         <v>23</v>
       </c>
       <c r="O29" s="26" t="s">
@@ -3166,17 +3367,17 @@
       <c r="I30" s="38" t="s">
         <v>160</v>
       </c>
-      <c r="J30" s="73" t="s">
+      <c r="J30" s="75" t="s">
         <v>87</v>
       </c>
-      <c r="K30" s="73" t="s">
+      <c r="K30" s="75" t="s">
         <v>23</v>
       </c>
       <c r="L30" s="39"/>
-      <c r="M30" s="73" t="s">
-        <v>91</v>
-      </c>
-      <c r="N30" s="73" t="s">
+      <c r="M30" s="75" t="s">
+        <v>91</v>
+      </c>
+      <c r="N30" s="75" t="s">
         <v>26</v>
       </c>
       <c r="O30" s="40" t="s">
@@ -3209,17 +3410,17 @@
       <c r="I31" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="J31" s="72" t="s">
-        <v>91</v>
-      </c>
-      <c r="K31" s="72" t="s">
+      <c r="J31" s="76" t="s">
+        <v>91</v>
+      </c>
+      <c r="K31" s="76" t="s">
         <v>24</v>
       </c>
       <c r="L31" s="7"/>
-      <c r="M31" s="72" t="s">
+      <c r="M31" s="76" t="s">
         <v>82</v>
       </c>
-      <c r="N31" s="72" t="s">
+      <c r="N31" s="76" t="s">
         <v>28</v>
       </c>
       <c r="O31" s="26" t="s">
@@ -3252,17 +3453,17 @@
       <c r="I32" s="38" t="s">
         <v>163</v>
       </c>
-      <c r="J32" s="73" t="s">
-        <v>91</v>
-      </c>
-      <c r="K32" s="73" t="s">
+      <c r="J32" s="75" t="s">
+        <v>91</v>
+      </c>
+      <c r="K32" s="75" t="s">
         <v>24</v>
       </c>
       <c r="L32" s="39"/>
-      <c r="M32" s="73" t="s">
-        <v>91</v>
-      </c>
-      <c r="N32" s="73" t="s">
+      <c r="M32" s="75" t="s">
+        <v>91</v>
+      </c>
+      <c r="N32" s="75" t="s">
         <v>24</v>
       </c>
       <c r="O32" s="40" t="s">
@@ -3295,17 +3496,17 @@
       <c r="I33" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="J33" s="72" t="s">
-        <v>91</v>
-      </c>
-      <c r="K33" s="72" t="s">
+      <c r="J33" s="76" t="s">
+        <v>91</v>
+      </c>
+      <c r="K33" s="76" t="s">
         <v>24</v>
       </c>
       <c r="L33" s="7"/>
-      <c r="M33" s="72" t="s">
-        <v>91</v>
-      </c>
-      <c r="N33" s="72" t="s">
+      <c r="M33" s="76" t="s">
+        <v>91</v>
+      </c>
+      <c r="N33" s="76" t="s">
         <v>24</v>
       </c>
       <c r="O33" s="26" t="s">
@@ -3338,17 +3539,17 @@
       <c r="I34" s="38" t="s">
         <v>121</v>
       </c>
-      <c r="J34" s="73" t="s">
-        <v>91</v>
-      </c>
-      <c r="K34" s="73" t="s">
+      <c r="J34" s="75" t="s">
+        <v>91</v>
+      </c>
+      <c r="K34" s="75" t="s">
         <v>24</v>
       </c>
       <c r="L34" s="39"/>
-      <c r="M34" s="73" t="s">
-        <v>91</v>
-      </c>
-      <c r="N34" s="73" t="s">
+      <c r="M34" s="75" t="s">
+        <v>91</v>
+      </c>
+      <c r="N34" s="75" t="s">
         <v>24</v>
       </c>
       <c r="O34" s="40" t="s">
@@ -3381,17 +3582,17 @@
       <c r="I35" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="J35" s="72" t="s">
+      <c r="J35" s="76" t="s">
         <v>82</v>
       </c>
-      <c r="K35" s="72" t="s">
+      <c r="K35" s="76" t="s">
         <v>25</v>
       </c>
       <c r="L35" s="7"/>
-      <c r="M35" s="72" t="s">
+      <c r="M35" s="76" t="s">
         <v>87</v>
       </c>
-      <c r="N35" s="72" t="s">
+      <c r="N35" s="76" t="s">
         <v>23</v>
       </c>
       <c r="O35" s="26" t="s">
@@ -3424,17 +3625,17 @@
       <c r="I36" s="38" t="s">
         <v>123</v>
       </c>
-      <c r="J36" s="73" t="s">
-        <v>91</v>
-      </c>
-      <c r="K36" s="73" t="s">
+      <c r="J36" s="75" t="s">
+        <v>91</v>
+      </c>
+      <c r="K36" s="75" t="s">
         <v>24</v>
       </c>
       <c r="L36" s="39"/>
-      <c r="M36" s="73" t="s">
+      <c r="M36" s="75" t="s">
         <v>82</v>
       </c>
-      <c r="N36" s="73" t="s">
+      <c r="N36" s="75" t="s">
         <v>25</v>
       </c>
       <c r="O36" s="40" t="s">
@@ -3467,17 +3668,17 @@
       <c r="I37" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="J37" s="72" t="s">
-        <v>91</v>
-      </c>
-      <c r="K37" s="72" t="s">
+      <c r="J37" s="76" t="s">
+        <v>91</v>
+      </c>
+      <c r="K37" s="76" t="s">
         <v>24</v>
       </c>
       <c r="L37" s="7"/>
-      <c r="M37" s="72" t="s">
+      <c r="M37" s="76" t="s">
         <v>87</v>
       </c>
-      <c r="N37" s="72" t="s">
+      <c r="N37" s="76" t="s">
         <v>23</v>
       </c>
       <c r="O37" s="26" t="s">
@@ -3510,17 +3711,17 @@
       <c r="I38" s="38" t="s">
         <v>124</v>
       </c>
-      <c r="J38" s="73" t="s">
+      <c r="J38" s="75" t="s">
         <v>87</v>
       </c>
-      <c r="K38" s="73" t="s">
+      <c r="K38" s="75" t="s">
         <v>23</v>
       </c>
       <c r="L38" s="39"/>
-      <c r="M38" s="73" t="s">
+      <c r="M38" s="75" t="s">
         <v>87</v>
       </c>
-      <c r="N38" s="73" t="s">
+      <c r="N38" s="75" t="s">
         <v>23</v>
       </c>
       <c r="O38" s="40" t="s">
@@ -3553,17 +3754,17 @@
       <c r="I39" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="J39" s="72" t="s">
-        <v>91</v>
-      </c>
-      <c r="K39" s="72" t="s">
+      <c r="J39" s="76" t="s">
+        <v>91</v>
+      </c>
+      <c r="K39" s="76" t="s">
         <v>24</v>
       </c>
       <c r="L39" s="7"/>
-      <c r="M39" s="72" t="s">
-        <v>91</v>
-      </c>
-      <c r="N39" s="72" t="s">
+      <c r="M39" s="76" t="s">
+        <v>91</v>
+      </c>
+      <c r="N39" s="76" t="s">
         <v>24</v>
       </c>
       <c r="O39" s="26" t="s">
@@ -3596,19 +3797,19 @@
       <c r="I40" s="47" t="s">
         <v>127</v>
       </c>
-      <c r="J40" s="74" t="s">
-        <v>91</v>
-      </c>
-      <c r="K40" s="74" t="s">
+      <c r="J40" s="77" t="s">
+        <v>91</v>
+      </c>
+      <c r="K40" s="77" t="s">
         <v>30</v>
       </c>
       <c r="L40" s="48" t="s">
         <v>81</v>
       </c>
-      <c r="M40" s="74" t="s">
-        <v>91</v>
-      </c>
-      <c r="N40" s="74" t="s">
+      <c r="M40" s="77" t="s">
+        <v>91</v>
+      </c>
+      <c r="N40" s="77" t="s">
         <v>24</v>
       </c>
       <c r="O40" s="49" t="s">
@@ -3641,17 +3842,17 @@
       <c r="I41" s="30" t="s">
         <v>128</v>
       </c>
-      <c r="J41" s="75" t="s">
+      <c r="J41" s="78" t="s">
         <v>87</v>
       </c>
-      <c r="K41" s="75" t="s">
+      <c r="K41" s="78" t="s">
         <v>23</v>
       </c>
       <c r="L41" s="31"/>
-      <c r="M41" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="N41" s="75" t="s">
+      <c r="M41" s="78" t="s">
+        <v>91</v>
+      </c>
+      <c r="N41" s="78" t="s">
         <v>24</v>
       </c>
       <c r="O41" s="32" t="s">
@@ -3684,17 +3885,17 @@
       <c r="I42" s="38" t="s">
         <v>129</v>
       </c>
-      <c r="J42" s="73" t="s">
-        <v>91</v>
-      </c>
-      <c r="K42" s="73" t="s">
+      <c r="J42" s="75" t="s">
+        <v>91</v>
+      </c>
+      <c r="K42" s="75" t="s">
         <v>26</v>
       </c>
       <c r="L42" s="39"/>
-      <c r="M42" s="73" t="s">
-        <v>91</v>
-      </c>
-      <c r="N42" s="73" t="s">
+      <c r="M42" s="75" t="s">
+        <v>91</v>
+      </c>
+      <c r="N42" s="75" t="s">
         <v>24</v>
       </c>
       <c r="O42" s="40" t="s">
@@ -3727,19 +3928,19 @@
       <c r="I43" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="J43" s="72" t="s">
-        <v>91</v>
-      </c>
-      <c r="K43" s="72" t="s">
+      <c r="J43" s="76" t="s">
+        <v>91</v>
+      </c>
+      <c r="K43" s="76" t="s">
         <v>26</v>
       </c>
       <c r="L43" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="M43" s="72" t="s">
+      <c r="M43" s="76" t="s">
         <v>82</v>
       </c>
-      <c r="N43" s="72" t="s">
+      <c r="N43" s="76" t="s">
         <v>25</v>
       </c>
       <c r="O43" s="26" t="s">
@@ -3772,17 +3973,17 @@
       <c r="I44" s="38" t="s">
         <v>146</v>
       </c>
-      <c r="J44" s="73" t="s">
+      <c r="J44" s="75" t="s">
         <v>82</v>
       </c>
-      <c r="K44" s="73" t="s">
+      <c r="K44" s="75" t="s">
         <v>25</v>
       </c>
       <c r="L44" s="39"/>
-      <c r="M44" s="73" t="s">
+      <c r="M44" s="75" t="s">
         <v>83</v>
       </c>
-      <c r="N44" s="73" t="s">
+      <c r="N44" s="75" t="s">
         <v>38</v>
       </c>
       <c r="O44" s="40" t="s">
@@ -3815,17 +4016,17 @@
       <c r="I45" s="19" t="s">
         <v>147</v>
       </c>
-      <c r="J45" s="72" t="s">
-        <v>91</v>
-      </c>
-      <c r="K45" s="72" t="s">
+      <c r="J45" s="76" t="s">
+        <v>91</v>
+      </c>
+      <c r="K45" s="76" t="s">
         <v>24</v>
       </c>
       <c r="L45" s="7"/>
-      <c r="M45" s="72" t="s">
-        <v>91</v>
-      </c>
-      <c r="N45" s="72" t="s">
+      <c r="M45" s="76" t="s">
+        <v>91</v>
+      </c>
+      <c r="N45" s="76" t="s">
         <v>24</v>
       </c>
       <c r="O45" s="26" t="s">
@@ -3858,17 +4059,17 @@
       <c r="I46" s="38" t="s">
         <v>131</v>
       </c>
-      <c r="J46" s="73" t="s">
-        <v>91</v>
-      </c>
-      <c r="K46" s="73" t="s">
+      <c r="J46" s="75" t="s">
+        <v>91</v>
+      </c>
+      <c r="K46" s="75" t="s">
         <v>24</v>
       </c>
       <c r="L46" s="39"/>
-      <c r="M46" s="73" t="s">
+      <c r="M46" s="75" t="s">
         <v>87</v>
       </c>
-      <c r="N46" s="73" t="s">
+      <c r="N46" s="75" t="s">
         <v>23</v>
       </c>
       <c r="O46" s="40" t="s">
@@ -3901,17 +4102,17 @@
       <c r="I47" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="J47" s="72" t="s">
+      <c r="J47" s="76" t="s">
         <v>87</v>
       </c>
-      <c r="K47" s="72" t="s">
+      <c r="K47" s="76" t="s">
         <v>23</v>
       </c>
       <c r="L47" s="7"/>
-      <c r="M47" s="72" t="s">
-        <v>91</v>
-      </c>
-      <c r="N47" s="72" t="s">
+      <c r="M47" s="76" t="s">
+        <v>91</v>
+      </c>
+      <c r="N47" s="76" t="s">
         <v>24</v>
       </c>
       <c r="O47" s="26" t="s">
@@ -3944,17 +4145,17 @@
       <c r="I48" s="38" t="s">
         <v>148</v>
       </c>
-      <c r="J48" s="73" t="s">
-        <v>91</v>
-      </c>
-      <c r="K48" s="73" t="s">
+      <c r="J48" s="75" t="s">
+        <v>91</v>
+      </c>
+      <c r="K48" s="75" t="s">
         <v>24</v>
       </c>
       <c r="L48" s="39"/>
-      <c r="M48" s="73" t="s">
+      <c r="M48" s="75" t="s">
         <v>87</v>
       </c>
-      <c r="N48" s="73" t="s">
+      <c r="N48" s="75" t="s">
         <v>66</v>
       </c>
       <c r="O48" s="40" t="s">
@@ -3987,17 +4188,17 @@
       <c r="I49" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="J49" s="72" t="s">
-        <v>91</v>
-      </c>
-      <c r="K49" s="72" t="s">
+      <c r="J49" s="76" t="s">
+        <v>91</v>
+      </c>
+      <c r="K49" s="76" t="s">
         <v>24</v>
       </c>
       <c r="L49" s="7"/>
-      <c r="M49" s="72" t="s">
-        <v>91</v>
-      </c>
-      <c r="N49" s="72" t="s">
+      <c r="M49" s="76" t="s">
+        <v>91</v>
+      </c>
+      <c r="N49" s="76" t="s">
         <v>24</v>
       </c>
       <c r="O49" s="26" t="s">
@@ -4030,17 +4231,17 @@
       <c r="I50" s="38" t="s">
         <v>134</v>
       </c>
-      <c r="J50" s="73" t="s">
-        <v>91</v>
-      </c>
-      <c r="K50" s="73" t="s">
+      <c r="J50" s="75" t="s">
+        <v>91</v>
+      </c>
+      <c r="K50" s="75" t="s">
         <v>24</v>
       </c>
       <c r="L50" s="39"/>
-      <c r="M50" s="73" t="s">
+      <c r="M50" s="75" t="s">
         <v>83</v>
       </c>
-      <c r="N50" s="73" t="s">
+      <c r="N50" s="75" t="s">
         <v>38</v>
       </c>
       <c r="O50" s="40" t="s">
@@ -4073,17 +4274,17 @@
       <c r="I51" s="19" t="s">
         <v>149</v>
       </c>
-      <c r="J51" s="72" t="s">
+      <c r="J51" s="76" t="s">
         <v>83</v>
       </c>
-      <c r="K51" s="72" t="s">
+      <c r="K51" s="76" t="s">
         <v>38</v>
       </c>
       <c r="L51" s="7"/>
-      <c r="M51" s="72" t="s">
+      <c r="M51" s="76" t="s">
         <v>83</v>
       </c>
-      <c r="N51" s="72" t="s">
+      <c r="N51" s="76" t="s">
         <v>38</v>
       </c>
       <c r="O51" s="26" t="s">
@@ -4116,19 +4317,19 @@
       <c r="I52" s="38" t="s">
         <v>150</v>
       </c>
-      <c r="J52" s="73" t="s">
+      <c r="J52" s="75" t="s">
         <v>90</v>
       </c>
-      <c r="K52" s="73" t="s">
+      <c r="K52" s="75" t="s">
         <v>71</v>
       </c>
       <c r="L52" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="M52" s="73" t="s">
-        <v>91</v>
-      </c>
-      <c r="N52" s="73" t="s">
+      <c r="M52" s="75" t="s">
+        <v>91</v>
+      </c>
+      <c r="N52" s="75" t="s">
         <v>24</v>
       </c>
       <c r="O52" s="40" t="s">
@@ -4161,19 +4362,19 @@
       <c r="I53" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="J53" s="72" t="s">
-        <v>91</v>
-      </c>
-      <c r="K53" s="72" t="s">
+      <c r="J53" s="76" t="s">
+        <v>91</v>
+      </c>
+      <c r="K53" s="76" t="s">
         <v>26</v>
       </c>
       <c r="L53" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="M53" s="72" t="s">
-        <v>91</v>
-      </c>
-      <c r="N53" s="72" t="s">
+      <c r="M53" s="76" t="s">
+        <v>91</v>
+      </c>
+      <c r="N53" s="76" t="s">
         <v>24</v>
       </c>
       <c r="O53" s="26" t="s">
@@ -4206,17 +4407,17 @@
       <c r="I54" s="38" t="s">
         <v>152</v>
       </c>
-      <c r="J54" s="73" t="s">
+      <c r="J54" s="75" t="s">
         <v>83</v>
       </c>
-      <c r="K54" s="73" t="s">
+      <c r="K54" s="75" t="s">
         <v>38</v>
       </c>
       <c r="L54" s="39"/>
-      <c r="M54" s="73" t="s">
+      <c r="M54" s="75" t="s">
         <v>82</v>
       </c>
-      <c r="N54" s="73" t="s">
+      <c r="N54" s="75" t="s">
         <v>25</v>
       </c>
       <c r="O54" s="40" t="s">
@@ -4249,17 +4450,17 @@
       <c r="I55" s="19" t="s">
         <v>153</v>
       </c>
-      <c r="J55" s="72" t="s">
+      <c r="J55" s="76" t="s">
         <v>87</v>
       </c>
-      <c r="K55" s="72" t="s">
+      <c r="K55" s="76" t="s">
         <v>23</v>
       </c>
       <c r="L55" s="7"/>
-      <c r="M55" s="72" t="s">
-        <v>91</v>
-      </c>
-      <c r="N55" s="72" t="s">
+      <c r="M55" s="76" t="s">
+        <v>91</v>
+      </c>
+      <c r="N55" s="76" t="s">
         <v>24</v>
       </c>
       <c r="O55" s="26" t="s">
@@ -4292,17 +4493,17 @@
       <c r="I56" s="38" t="s">
         <v>173</v>
       </c>
-      <c r="J56" s="73" t="s">
-        <v>91</v>
-      </c>
-      <c r="K56" s="73" t="s">
+      <c r="J56" s="75" t="s">
+        <v>91</v>
+      </c>
+      <c r="K56" s="75" t="s">
         <v>26</v>
       </c>
       <c r="L56" s="39"/>
-      <c r="M56" s="73" t="s">
-        <v>91</v>
-      </c>
-      <c r="N56" s="73" t="s">
+      <c r="M56" s="75" t="s">
+        <v>91</v>
+      </c>
+      <c r="N56" s="75" t="s">
         <v>24</v>
       </c>
       <c r="O56" s="40" t="s">
@@ -4335,19 +4536,19 @@
       <c r="I57" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="J57" s="72" t="s">
-        <v>91</v>
-      </c>
-      <c r="K57" s="72" t="s">
+      <c r="J57" s="76" t="s">
+        <v>91</v>
+      </c>
+      <c r="K57" s="76" t="s">
         <v>24</v>
       </c>
       <c r="L57" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="M57" s="72" t="s">
+      <c r="M57" s="76" t="s">
         <v>82</v>
       </c>
-      <c r="N57" s="72" t="s">
+      <c r="N57" s="76" t="s">
         <v>25</v>
       </c>
       <c r="O57" s="26" t="s">
@@ -4380,17 +4581,17 @@
       <c r="I58" s="38" t="s">
         <v>169</v>
       </c>
-      <c r="J58" s="73" t="s">
+      <c r="J58" s="75" t="s">
         <v>82</v>
       </c>
-      <c r="K58" s="73" t="s">
+      <c r="K58" s="75" t="s">
         <v>28</v>
       </c>
       <c r="L58" s="39"/>
-      <c r="M58" s="73" t="s">
+      <c r="M58" s="75" t="s">
         <v>83</v>
       </c>
-      <c r="N58" s="73" t="s">
+      <c r="N58" s="75" t="s">
         <v>78</v>
       </c>
       <c r="O58" s="40" t="s">
@@ -4423,17 +4624,17 @@
       <c r="I59" s="19" t="s">
         <v>165</v>
       </c>
-      <c r="J59" s="72" t="s">
+      <c r="J59" s="76" t="s">
         <v>83</v>
       </c>
-      <c r="K59" s="72" t="s">
+      <c r="K59" s="76" t="s">
         <v>38</v>
       </c>
       <c r="L59" s="7"/>
-      <c r="M59" s="72" t="s">
+      <c r="M59" s="76" t="s">
         <v>82</v>
       </c>
-      <c r="N59" s="72" t="s">
+      <c r="N59" s="76" t="s">
         <v>25</v>
       </c>
       <c r="O59" s="26" t="s">
@@ -4445,95 +4646,149 @@
         <v>47</v>
       </c>
       <c r="B60" s="24"/>
-      <c r="C60" s="50"/>
+      <c r="C60" s="50" t="s">
+        <v>191</v>
+      </c>
       <c r="D60" s="51"/>
       <c r="E60" s="51"/>
       <c r="F60" s="51"/>
       <c r="G60" s="51"/>
       <c r="H60" s="51"/>
       <c r="I60" s="50"/>
-      <c r="J60" s="81"/>
-      <c r="K60" s="82"/>
+      <c r="J60" s="71" t="s">
+        <v>83</v>
+      </c>
+      <c r="K60" s="72"/>
       <c r="L60" s="51"/>
-      <c r="M60" s="81"/>
-      <c r="N60" s="82"/>
-      <c r="O60" s="52"/>
+      <c r="M60" s="75" t="s">
+        <v>87</v>
+      </c>
+      <c r="N60" s="75" t="s">
+        <v>66</v>
+      </c>
+      <c r="O60" s="26" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A61" s="33">
         <v>48</v>
       </c>
       <c r="B61" s="29"/>
-      <c r="C61" s="30"/>
+      <c r="C61" s="30" t="s">
+        <v>192</v>
+      </c>
       <c r="D61" s="31"/>
       <c r="E61" s="31"/>
       <c r="F61" s="31"/>
       <c r="G61" s="31"/>
       <c r="H61" s="31"/>
       <c r="I61" s="30"/>
-      <c r="J61" s="79"/>
-      <c r="K61" s="80"/>
+      <c r="J61" s="73" t="s">
+        <v>83</v>
+      </c>
+      <c r="K61" s="74"/>
       <c r="L61" s="31"/>
-      <c r="M61" s="79"/>
-      <c r="N61" s="80"/>
-      <c r="O61" s="32"/>
+      <c r="M61" s="76" t="s">
+        <v>82</v>
+      </c>
+      <c r="N61" s="76" t="s">
+        <v>25</v>
+      </c>
+      <c r="O61" s="40" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A62" s="37">
         <v>49</v>
       </c>
       <c r="B62" s="24"/>
-      <c r="C62" s="50"/>
+      <c r="C62" s="50" t="s">
+        <v>193</v>
+      </c>
       <c r="D62" s="51"/>
       <c r="E62" s="51"/>
       <c r="F62" s="51"/>
       <c r="G62" s="51"/>
       <c r="H62" s="51"/>
       <c r="I62" s="50"/>
-      <c r="J62" s="81"/>
-      <c r="K62" s="82"/>
+      <c r="J62" s="76" t="s">
+        <v>91</v>
+      </c>
+      <c r="K62" s="76" t="s">
+        <v>24</v>
+      </c>
       <c r="L62" s="51"/>
-      <c r="M62" s="81"/>
-      <c r="N62" s="82"/>
-      <c r="O62" s="52"/>
+      <c r="M62" s="75" t="s">
+        <v>91</v>
+      </c>
+      <c r="N62" s="75" t="s">
+        <v>24</v>
+      </c>
+      <c r="O62" s="26" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A63" s="33">
         <v>50</v>
       </c>
       <c r="B63" s="29"/>
-      <c r="C63" s="30"/>
+      <c r="C63" s="30" t="s">
+        <v>194</v>
+      </c>
       <c r="D63" s="31"/>
       <c r="E63" s="31"/>
       <c r="F63" s="31"/>
       <c r="G63" s="31"/>
       <c r="H63" s="31"/>
       <c r="I63" s="30"/>
-      <c r="J63" s="79"/>
-      <c r="K63" s="80"/>
+      <c r="J63" s="73" t="s">
+        <v>82</v>
+      </c>
+      <c r="K63" s="74"/>
       <c r="L63" s="31"/>
-      <c r="M63" s="79"/>
-      <c r="N63" s="80"/>
-      <c r="O63" s="32"/>
+      <c r="M63" s="75" t="s">
+        <v>91</v>
+      </c>
+      <c r="N63" s="75" t="s">
+        <v>24</v>
+      </c>
+      <c r="O63" s="26" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A64" s="37">
         <v>51</v>
       </c>
       <c r="B64" s="24"/>
-      <c r="C64" s="50"/>
+      <c r="C64" s="50" t="s">
+        <v>195</v>
+      </c>
       <c r="D64" s="51"/>
       <c r="E64" s="51"/>
       <c r="F64" s="51"/>
       <c r="G64" s="51"/>
       <c r="H64" s="51"/>
       <c r="I64" s="50"/>
-      <c r="J64" s="81"/>
-      <c r="K64" s="82"/>
+      <c r="J64" s="76" t="s">
+        <v>91</v>
+      </c>
+      <c r="K64" s="76" t="s">
+        <v>24</v>
+      </c>
       <c r="L64" s="51"/>
-      <c r="M64" s="81"/>
-      <c r="N64" s="82"/>
-      <c r="O64" s="52"/>
+      <c r="M64" s="76" t="s">
+        <v>82</v>
+      </c>
+      <c r="N64" s="76" t="s">
+        <v>25</v>
+      </c>
+      <c r="O64" s="40" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A65" s="33">
@@ -4547,12 +4802,22 @@
       <c r="G65" s="31"/>
       <c r="H65" s="31"/>
       <c r="I65" s="30"/>
-      <c r="J65" s="79"/>
-      <c r="K65" s="80"/>
+      <c r="J65" s="76" t="s">
+        <v>91</v>
+      </c>
+      <c r="K65" s="76" t="s">
+        <v>24</v>
+      </c>
       <c r="L65" s="31"/>
-      <c r="M65" s="79"/>
-      <c r="N65" s="80"/>
-      <c r="O65" s="32"/>
+      <c r="M65" s="75" t="s">
+        <v>91</v>
+      </c>
+      <c r="N65" s="75" t="s">
+        <v>24</v>
+      </c>
+      <c r="O65" s="40" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="66" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A66" s="45">
@@ -4580,17 +4845,17 @@
       <c r="I66" s="38" t="s">
         <v>163</v>
       </c>
-      <c r="J66" s="73" t="s">
-        <v>91</v>
-      </c>
-      <c r="K66" s="73" t="s">
+      <c r="J66" s="75" t="s">
+        <v>91</v>
+      </c>
+      <c r="K66" s="75" t="s">
         <v>24</v>
       </c>
       <c r="L66" s="39"/>
-      <c r="M66" s="73" t="s">
-        <v>91</v>
-      </c>
-      <c r="N66" s="73" t="s">
+      <c r="M66" s="75" t="s">
+        <v>91</v>
+      </c>
+      <c r="N66" s="75" t="s">
         <v>24</v>
       </c>
       <c r="O66" s="40" t="s">
@@ -4636,102 +4901,6 @@
     <row r="69" spans="1:15" ht="15" thickTop="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="109">
-    <mergeCell ref="J64:K64"/>
-    <mergeCell ref="M64:N64"/>
-    <mergeCell ref="J65:K65"/>
-    <mergeCell ref="M65:N65"/>
-    <mergeCell ref="J66:K66"/>
-    <mergeCell ref="M66:N66"/>
-    <mergeCell ref="J61:K61"/>
-    <mergeCell ref="M61:N61"/>
-    <mergeCell ref="J62:K62"/>
-    <mergeCell ref="M62:N62"/>
-    <mergeCell ref="J63:K63"/>
-    <mergeCell ref="M63:N63"/>
-    <mergeCell ref="J58:K58"/>
-    <mergeCell ref="M58:N58"/>
-    <mergeCell ref="J59:K59"/>
-    <mergeCell ref="M59:N59"/>
-    <mergeCell ref="J60:K60"/>
-    <mergeCell ref="M60:N60"/>
-    <mergeCell ref="J55:K55"/>
-    <mergeCell ref="M55:N55"/>
-    <mergeCell ref="J56:K56"/>
-    <mergeCell ref="M56:N56"/>
-    <mergeCell ref="J57:K57"/>
-    <mergeCell ref="M57:N57"/>
-    <mergeCell ref="J52:K52"/>
-    <mergeCell ref="M52:N52"/>
-    <mergeCell ref="J53:K53"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="J54:K54"/>
-    <mergeCell ref="M54:N54"/>
-    <mergeCell ref="J49:K49"/>
-    <mergeCell ref="M49:N49"/>
-    <mergeCell ref="J50:K50"/>
-    <mergeCell ref="M50:N50"/>
-    <mergeCell ref="J51:K51"/>
-    <mergeCell ref="M51:N51"/>
-    <mergeCell ref="J46:K46"/>
-    <mergeCell ref="M46:N46"/>
-    <mergeCell ref="J47:K47"/>
-    <mergeCell ref="M47:N47"/>
-    <mergeCell ref="J48:K48"/>
-    <mergeCell ref="M48:N48"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="M43:N43"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="M44:N44"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="M35:N35"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="M21:N21"/>
     <mergeCell ref="J16:K16"/>
     <mergeCell ref="M16:N16"/>
     <mergeCell ref="J17:K17"/>
@@ -4745,49 +4914,145 @@
     <mergeCell ref="M14:N14"/>
     <mergeCell ref="J15:K15"/>
     <mergeCell ref="M15:N15"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="M46:N46"/>
+    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="M47:N47"/>
+    <mergeCell ref="J48:K48"/>
+    <mergeCell ref="M48:N48"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="M43:N43"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="M44:N44"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="J52:K52"/>
+    <mergeCell ref="M52:N52"/>
+    <mergeCell ref="J53:K53"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="J54:K54"/>
+    <mergeCell ref="M54:N54"/>
+    <mergeCell ref="J49:K49"/>
+    <mergeCell ref="M49:N49"/>
+    <mergeCell ref="J50:K50"/>
+    <mergeCell ref="M50:N50"/>
+    <mergeCell ref="J51:K51"/>
+    <mergeCell ref="M51:N51"/>
+    <mergeCell ref="J58:K58"/>
+    <mergeCell ref="M58:N58"/>
+    <mergeCell ref="J59:K59"/>
+    <mergeCell ref="M59:N59"/>
+    <mergeCell ref="J60:K60"/>
+    <mergeCell ref="M60:N60"/>
+    <mergeCell ref="J55:K55"/>
+    <mergeCell ref="M55:N55"/>
+    <mergeCell ref="J56:K56"/>
+    <mergeCell ref="M56:N56"/>
+    <mergeCell ref="J57:K57"/>
+    <mergeCell ref="M57:N57"/>
+    <mergeCell ref="J64:K64"/>
+    <mergeCell ref="M64:N64"/>
+    <mergeCell ref="J65:K65"/>
+    <mergeCell ref="M65:N65"/>
+    <mergeCell ref="J66:K66"/>
+    <mergeCell ref="M66:N66"/>
+    <mergeCell ref="J61:K61"/>
+    <mergeCell ref="M61:N61"/>
+    <mergeCell ref="J62:K62"/>
+    <mergeCell ref="M62:N62"/>
+    <mergeCell ref="J63:K63"/>
+    <mergeCell ref="M63:N63"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A6:F6 I6:N6">
-    <cfRule type="expression" dxfId="11" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="47" priority="4" stopIfTrue="1">
       <formula>B$5="1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="46" priority="5" stopIfTrue="1">
       <formula>B$7="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="45" priority="6" stopIfTrue="1">
       <formula>B$7="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7 D7:H7 J7:O7">
-    <cfRule type="expression" dxfId="8" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="44" priority="1" stopIfTrue="1">
       <formula>B$5="1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="43" priority="2" stopIfTrue="1">
       <formula>B$7="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="42" priority="3" stopIfTrue="1">
       <formula>B$7="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6:H6">
-    <cfRule type="expression" dxfId="5" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="41" priority="10" stopIfTrue="1">
       <formula>I$5="1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="40" priority="11" stopIfTrue="1">
       <formula>I$7="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="39" priority="12" stopIfTrue="1">
       <formula>I$7="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O6">
-    <cfRule type="expression" dxfId="2" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="38" priority="7" stopIfTrue="1">
       <formula>X$5="1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="37" priority="8" stopIfTrue="1">
       <formula>X$7="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="36" priority="9" stopIfTrue="1">
       <formula>X$7="土"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4796,6 +5061,2222 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03A1C220-DC63-401D-B66B-975EAA99E44B}">
+  <dimension ref="A2:M69"/>
+  <sheetViews>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="4.5" style="4" customWidth="1"/>
+    <col min="2" max="3" width="16.75" style="3" customWidth="1"/>
+    <col min="4" max="13" width="16.75" style="4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:13" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="3"/>
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B4" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="6"/>
+      <c r="B5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="M5" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="79"/>
+      <c r="B6" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="82" t="s">
+        <v>167</v>
+      </c>
+      <c r="D6" s="8">
+        <v>1</v>
+      </c>
+      <c r="E6" s="8">
+        <v>2</v>
+      </c>
+      <c r="F6" s="8">
+        <v>3</v>
+      </c>
+      <c r="G6" s="8">
+        <v>4</v>
+      </c>
+      <c r="H6" s="8">
+        <v>4</v>
+      </c>
+      <c r="I6" s="8">
+        <v>5</v>
+      </c>
+      <c r="J6" s="8">
+        <v>6</v>
+      </c>
+      <c r="K6" s="8">
+        <v>6</v>
+      </c>
+      <c r="L6" s="68">
+        <v>7</v>
+      </c>
+      <c r="M6" s="89" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A7" s="80"/>
+      <c r="B7" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="83"/>
+      <c r="D7" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="L7" s="69"/>
+      <c r="M7" s="90"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A8" s="80"/>
+      <c r="B8" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="83"/>
+      <c r="D8" s="7">
+        <v>12</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7">
+        <v>80</v>
+      </c>
+      <c r="H8" s="7">
+        <v>56</v>
+      </c>
+      <c r="I8" s="7">
+        <v>50</v>
+      </c>
+      <c r="J8" s="7">
+        <v>60</v>
+      </c>
+      <c r="K8" s="7">
+        <v>11</v>
+      </c>
+      <c r="L8" s="69"/>
+      <c r="M8" s="90"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A9" s="80"/>
+      <c r="B9" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="83"/>
+      <c r="D9" s="7">
+        <v>6</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7">
+        <v>18</v>
+      </c>
+      <c r="H9" s="7">
+        <v>14</v>
+      </c>
+      <c r="I9" s="7">
+        <v>13</v>
+      </c>
+      <c r="J9" s="7">
+        <v>15</v>
+      </c>
+      <c r="K9" s="7">
+        <v>6</v>
+      </c>
+      <c r="L9" s="69"/>
+      <c r="M9" s="90"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A10" s="80"/>
+      <c r="B10" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="83"/>
+      <c r="D10" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L10" s="69"/>
+      <c r="M10" s="90"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A11" s="80"/>
+      <c r="B11" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="C11" s="83"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="69"/>
+      <c r="M11" s="90"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A12" s="80"/>
+      <c r="B12" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="83"/>
+      <c r="D12" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L12" s="69"/>
+      <c r="M12" s="90"/>
+    </row>
+    <row r="13" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="81"/>
+      <c r="B13" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="84"/>
+      <c r="D13" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L13" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="M13" s="91"/>
+    </row>
+    <row r="14" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="41">
+        <v>1</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="42" t="s">
+        <v>154</v>
+      </c>
+      <c r="D14" s="43" t="s">
+        <v>92</v>
+      </c>
+      <c r="E14" s="43"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="88" t="s">
+        <v>87</v>
+      </c>
+      <c r="H14" s="88" t="s">
+        <v>23</v>
+      </c>
+      <c r="I14" s="59" t="s">
+        <v>83</v>
+      </c>
+      <c r="J14" s="88" t="s">
+        <v>87</v>
+      </c>
+      <c r="K14" s="88" t="s">
+        <v>23</v>
+      </c>
+      <c r="L14" s="44"/>
+      <c r="M14" s="53" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A15" s="33">
+        <v>2</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="76" t="s">
+        <v>87</v>
+      </c>
+      <c r="H15" s="76" t="s">
+        <v>23</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="J15" s="76" t="s">
+        <v>87</v>
+      </c>
+      <c r="K15" s="76" t="s">
+        <v>23</v>
+      </c>
+      <c r="L15" s="26"/>
+      <c r="M15" s="54" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A16" s="37">
+        <v>3</v>
+      </c>
+      <c r="B16" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="38" t="s">
+        <v>166</v>
+      </c>
+      <c r="D16" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="75" t="s">
+        <v>91</v>
+      </c>
+      <c r="H16" s="75" t="s">
+        <v>30</v>
+      </c>
+      <c r="I16" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="J16" s="75" t="s">
+        <v>181</v>
+      </c>
+      <c r="K16" s="75" t="s">
+        <v>182</v>
+      </c>
+      <c r="L16" s="40"/>
+      <c r="M16" s="55" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A17" s="33">
+        <v>4</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="76" t="s">
+        <v>91</v>
+      </c>
+      <c r="H17" s="76" t="s">
+        <v>30</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="J17" s="76" t="s">
+        <v>91</v>
+      </c>
+      <c r="K17" s="76" t="s">
+        <v>30</v>
+      </c>
+      <c r="L17" s="26"/>
+      <c r="M17" s="54" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A18" s="37">
+        <v>5</v>
+      </c>
+      <c r="B18" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="38" t="s">
+        <v>157</v>
+      </c>
+      <c r="D18" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="E18" s="39"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="75" t="s">
+        <v>92</v>
+      </c>
+      <c r="H18" s="75" t="s">
+        <v>30</v>
+      </c>
+      <c r="I18" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="J18" s="75" t="s">
+        <v>91</v>
+      </c>
+      <c r="K18" s="75" t="s">
+        <v>30</v>
+      </c>
+      <c r="L18" s="40"/>
+      <c r="M18" s="55" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A19" s="33">
+        <v>6</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="76" t="s">
+        <v>91</v>
+      </c>
+      <c r="H19" s="76" t="s">
+        <v>24</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="J19" s="76" t="s">
+        <v>87</v>
+      </c>
+      <c r="K19" s="76" t="s">
+        <v>23</v>
+      </c>
+      <c r="L19" s="26"/>
+      <c r="M19" s="54" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A20" s="37">
+        <v>7</v>
+      </c>
+      <c r="B20" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="D20" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="E20" s="39"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="75" t="s">
+        <v>91</v>
+      </c>
+      <c r="H20" s="75" t="s">
+        <v>24</v>
+      </c>
+      <c r="I20" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="J20" s="75" t="s">
+        <v>91</v>
+      </c>
+      <c r="K20" s="75" t="s">
+        <v>26</v>
+      </c>
+      <c r="L20" s="40"/>
+      <c r="M20" s="55" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A21" s="33">
+        <v>8</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="76" t="s">
+        <v>91</v>
+      </c>
+      <c r="H21" s="76" t="s">
+        <v>26</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="J21" s="76" t="s">
+        <v>91</v>
+      </c>
+      <c r="K21" s="76" t="s">
+        <v>24</v>
+      </c>
+      <c r="L21" s="26"/>
+      <c r="M21" s="54" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A22" s="37">
+        <v>9</v>
+      </c>
+      <c r="B22" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="38" t="s">
+        <v>110</v>
+      </c>
+      <c r="D22" s="39" t="s">
+        <v>183</v>
+      </c>
+      <c r="E22" s="39"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="75" t="s">
+        <v>87</v>
+      </c>
+      <c r="H22" s="75" t="s">
+        <v>23</v>
+      </c>
+      <c r="I22" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="J22" s="75" t="s">
+        <v>87</v>
+      </c>
+      <c r="K22" s="75" t="s">
+        <v>23</v>
+      </c>
+      <c r="L22" s="40"/>
+      <c r="M22" s="55" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A23" s="33">
+        <v>10</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="76" t="s">
+        <v>91</v>
+      </c>
+      <c r="H23" s="76" t="s">
+        <v>30</v>
+      </c>
+      <c r="I23" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="J23" s="76" t="s">
+        <v>91</v>
+      </c>
+      <c r="K23" s="76" t="s">
+        <v>30</v>
+      </c>
+      <c r="L23" s="26"/>
+      <c r="M23" s="54" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A24" s="37">
+        <v>11</v>
+      </c>
+      <c r="B24" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" s="38" t="s">
+        <v>112</v>
+      </c>
+      <c r="D24" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="E24" s="39"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="75" t="s">
+        <v>91</v>
+      </c>
+      <c r="H24" s="75" t="s">
+        <v>30</v>
+      </c>
+      <c r="I24" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="J24" s="75" t="s">
+        <v>91</v>
+      </c>
+      <c r="K24" s="75" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="40"/>
+      <c r="M24" s="55" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A25" s="33">
+        <v>12</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="76" t="s">
+        <v>91</v>
+      </c>
+      <c r="H25" s="76" t="s">
+        <v>30</v>
+      </c>
+      <c r="I25" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="J25" s="76" t="s">
+        <v>91</v>
+      </c>
+      <c r="K25" s="76" t="s">
+        <v>30</v>
+      </c>
+      <c r="L25" s="26"/>
+      <c r="M25" s="54" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A26" s="37">
+        <v>13</v>
+      </c>
+      <c r="B26" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" s="38" t="s">
+        <v>114</v>
+      </c>
+      <c r="D26" s="39" t="s">
+        <v>183</v>
+      </c>
+      <c r="E26" s="39"/>
+      <c r="F26" s="39"/>
+      <c r="G26" s="75" t="s">
+        <v>91</v>
+      </c>
+      <c r="H26" s="75" t="s">
+        <v>24</v>
+      </c>
+      <c r="I26" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="J26" s="75" t="s">
+        <v>91</v>
+      </c>
+      <c r="K26" s="75" t="s">
+        <v>30</v>
+      </c>
+      <c r="L26" s="40"/>
+      <c r="M26" s="55" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A27" s="33">
+        <v>14</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C27" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="76" t="s">
+        <v>91</v>
+      </c>
+      <c r="H27" s="76" t="s">
+        <v>30</v>
+      </c>
+      <c r="I27" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="J27" s="76" t="s">
+        <v>91</v>
+      </c>
+      <c r="K27" s="76" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="26"/>
+      <c r="M27" s="54" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A28" s="37">
+        <v>15</v>
+      </c>
+      <c r="B28" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="C28" s="38" t="s">
+        <v>116</v>
+      </c>
+      <c r="D28" s="39" t="s">
+        <v>183</v>
+      </c>
+      <c r="E28" s="39"/>
+      <c r="F28" s="39"/>
+      <c r="G28" s="75" t="s">
+        <v>91</v>
+      </c>
+      <c r="H28" s="75" t="s">
+        <v>24</v>
+      </c>
+      <c r="I28" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="J28" s="75" t="s">
+        <v>87</v>
+      </c>
+      <c r="K28" s="75" t="s">
+        <v>23</v>
+      </c>
+      <c r="L28" s="40"/>
+      <c r="M28" s="55" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A29" s="33">
+        <v>16</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="D29" s="60" t="s">
+        <v>183</v>
+      </c>
+      <c r="E29" s="60"/>
+      <c r="F29" s="60"/>
+      <c r="G29" s="76" t="s">
+        <v>91</v>
+      </c>
+      <c r="H29" s="76" t="s">
+        <v>24</v>
+      </c>
+      <c r="I29" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="J29" s="76" t="s">
+        <v>91</v>
+      </c>
+      <c r="K29" s="76" t="s">
+        <v>30</v>
+      </c>
+      <c r="L29" s="26"/>
+      <c r="M29" s="54" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A30" s="37">
+        <v>17</v>
+      </c>
+      <c r="B30" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30" s="38" t="s">
+        <v>160</v>
+      </c>
+      <c r="D30" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="E30" s="39"/>
+      <c r="F30" s="39"/>
+      <c r="G30" s="75" t="s">
+        <v>91</v>
+      </c>
+      <c r="H30" s="75" t="s">
+        <v>30</v>
+      </c>
+      <c r="I30" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="J30" s="75" t="s">
+        <v>91</v>
+      </c>
+      <c r="K30" s="75" t="s">
+        <v>30</v>
+      </c>
+      <c r="L30" s="40"/>
+      <c r="M30" s="55" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A31" s="33">
+        <v>18</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C31" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="76" t="s">
+        <v>91</v>
+      </c>
+      <c r="H31" s="76" t="s">
+        <v>30</v>
+      </c>
+      <c r="I31" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="J31" s="76" t="s">
+        <v>91</v>
+      </c>
+      <c r="K31" s="76" t="s">
+        <v>30</v>
+      </c>
+      <c r="L31" s="26"/>
+      <c r="M31" s="54" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A32" s="37">
+        <v>19</v>
+      </c>
+      <c r="B32" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="C32" s="38" t="s">
+        <v>163</v>
+      </c>
+      <c r="D32" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="E32" s="39"/>
+      <c r="F32" s="39"/>
+      <c r="G32" s="75" t="s">
+        <v>91</v>
+      </c>
+      <c r="H32" s="75" t="s">
+        <v>24</v>
+      </c>
+      <c r="I32" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="J32" s="75" t="s">
+        <v>91</v>
+      </c>
+      <c r="K32" s="75" t="s">
+        <v>30</v>
+      </c>
+      <c r="L32" s="40"/>
+      <c r="M32" s="55" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A33" s="33">
+        <v>20</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C33" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="76" t="s">
+        <v>91</v>
+      </c>
+      <c r="H33" s="76" t="s">
+        <v>30</v>
+      </c>
+      <c r="I33" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="J33" s="76" t="s">
+        <v>91</v>
+      </c>
+      <c r="K33" s="76" t="s">
+        <v>30</v>
+      </c>
+      <c r="L33" s="26"/>
+      <c r="M33" s="54" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A34" s="37">
+        <v>21</v>
+      </c>
+      <c r="B34" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="C34" s="38" t="s">
+        <v>121</v>
+      </c>
+      <c r="D34" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="E34" s="39"/>
+      <c r="F34" s="39"/>
+      <c r="G34" s="75" t="s">
+        <v>87</v>
+      </c>
+      <c r="H34" s="75" t="s">
+        <v>23</v>
+      </c>
+      <c r="I34" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="J34" s="75" t="s">
+        <v>91</v>
+      </c>
+      <c r="K34" s="75" t="s">
+        <v>30</v>
+      </c>
+      <c r="L34" s="40"/>
+      <c r="M34" s="55" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A35" s="33">
+        <v>22</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C35" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="D35" s="60" t="s">
+        <v>183</v>
+      </c>
+      <c r="E35" s="60"/>
+      <c r="F35" s="60"/>
+      <c r="G35" s="76" t="s">
+        <v>87</v>
+      </c>
+      <c r="H35" s="76" t="s">
+        <v>23</v>
+      </c>
+      <c r="I35" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="J35" s="76" t="s">
+        <v>87</v>
+      </c>
+      <c r="K35" s="76" t="s">
+        <v>23</v>
+      </c>
+      <c r="L35" s="26"/>
+      <c r="M35" s="54" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A36" s="37">
+        <v>23</v>
+      </c>
+      <c r="B36" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C36" s="38" t="s">
+        <v>123</v>
+      </c>
+      <c r="D36" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="E36" s="39"/>
+      <c r="F36" s="39"/>
+      <c r="G36" s="75" t="s">
+        <v>91</v>
+      </c>
+      <c r="H36" s="75" t="s">
+        <v>24</v>
+      </c>
+      <c r="I36" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="J36" s="75" t="s">
+        <v>87</v>
+      </c>
+      <c r="K36" s="75" t="s">
+        <v>23</v>
+      </c>
+      <c r="L36" s="40"/>
+      <c r="M36" s="55" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A37" s="33">
+        <v>24</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C37" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="76" t="s">
+        <v>91</v>
+      </c>
+      <c r="H37" s="76" t="s">
+        <v>24</v>
+      </c>
+      <c r="I37" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="J37" s="76" t="s">
+        <v>87</v>
+      </c>
+      <c r="K37" s="76" t="s">
+        <v>23</v>
+      </c>
+      <c r="L37" s="26"/>
+      <c r="M37" s="54" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A38" s="37">
+        <v>25</v>
+      </c>
+      <c r="B38" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="C38" s="38" t="s">
+        <v>124</v>
+      </c>
+      <c r="D38" s="39" t="s">
+        <v>183</v>
+      </c>
+      <c r="E38" s="39"/>
+      <c r="F38" s="39"/>
+      <c r="G38" s="75" t="s">
+        <v>91</v>
+      </c>
+      <c r="H38" s="75" t="s">
+        <v>30</v>
+      </c>
+      <c r="I38" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="J38" s="75" t="s">
+        <v>87</v>
+      </c>
+      <c r="K38" s="75" t="s">
+        <v>23</v>
+      </c>
+      <c r="L38" s="40"/>
+      <c r="M38" s="55" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A39" s="33">
+        <v>26</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C39" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="76" t="s">
+        <v>91</v>
+      </c>
+      <c r="H39" s="76" t="s">
+        <v>24</v>
+      </c>
+      <c r="I39" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="J39" s="76" t="s">
+        <v>91</v>
+      </c>
+      <c r="K39" s="76" t="s">
+        <v>30</v>
+      </c>
+      <c r="L39" s="26"/>
+      <c r="M39" s="54" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="45">
+        <v>27</v>
+      </c>
+      <c r="B40" s="46" t="s">
+        <v>57</v>
+      </c>
+      <c r="C40" s="47" t="s">
+        <v>127</v>
+      </c>
+      <c r="D40" s="48" t="s">
+        <v>92</v>
+      </c>
+      <c r="E40" s="48"/>
+      <c r="F40" s="48"/>
+      <c r="G40" s="77" t="s">
+        <v>91</v>
+      </c>
+      <c r="H40" s="77" t="s">
+        <v>30</v>
+      </c>
+      <c r="I40" s="48" t="s">
+        <v>92</v>
+      </c>
+      <c r="J40" s="77" t="s">
+        <v>91</v>
+      </c>
+      <c r="K40" s="77" t="s">
+        <v>30</v>
+      </c>
+      <c r="L40" s="49"/>
+      <c r="M40" s="56" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="35">
+        <v>28</v>
+      </c>
+      <c r="B41" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="C41" s="30" t="s">
+        <v>128</v>
+      </c>
+      <c r="D41" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="E41" s="31"/>
+      <c r="F41" s="31"/>
+      <c r="G41" s="78" t="s">
+        <v>87</v>
+      </c>
+      <c r="H41" s="78" t="s">
+        <v>23</v>
+      </c>
+      <c r="I41" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="J41" s="78" t="s">
+        <v>91</v>
+      </c>
+      <c r="K41" s="78" t="s">
+        <v>30</v>
+      </c>
+      <c r="L41" s="32"/>
+      <c r="M41" s="57" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A42" s="37">
+        <v>29</v>
+      </c>
+      <c r="B42" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="C42" s="38" t="s">
+        <v>129</v>
+      </c>
+      <c r="D42" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="E42" s="39"/>
+      <c r="F42" s="39"/>
+      <c r="G42" s="75" t="s">
+        <v>83</v>
+      </c>
+      <c r="H42" s="75" t="s">
+        <v>38</v>
+      </c>
+      <c r="I42" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="J42" s="75" t="s">
+        <v>91</v>
+      </c>
+      <c r="K42" s="75" t="s">
+        <v>30</v>
+      </c>
+      <c r="L42" s="40"/>
+      <c r="M42" s="55" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A43" s="33">
+        <v>30</v>
+      </c>
+      <c r="B43" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C43" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="76" t="s">
+        <v>91</v>
+      </c>
+      <c r="H43" s="76" t="s">
+        <v>24</v>
+      </c>
+      <c r="I43" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="J43" s="76" t="s">
+        <v>87</v>
+      </c>
+      <c r="K43" s="76" t="s">
+        <v>23</v>
+      </c>
+      <c r="L43" s="26"/>
+      <c r="M43" s="54" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A44" s="37">
+        <v>31</v>
+      </c>
+      <c r="B44" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="C44" s="38" t="s">
+        <v>146</v>
+      </c>
+      <c r="D44" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="E44" s="39"/>
+      <c r="F44" s="39"/>
+      <c r="G44" s="75" t="s">
+        <v>91</v>
+      </c>
+      <c r="H44" s="75" t="s">
+        <v>26</v>
+      </c>
+      <c r="I44" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="J44" s="75" t="s">
+        <v>91</v>
+      </c>
+      <c r="K44" s="75" t="s">
+        <v>30</v>
+      </c>
+      <c r="L44" s="40"/>
+      <c r="M44" s="55" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A45" s="33">
+        <v>32</v>
+      </c>
+      <c r="B45" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C45" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="76" t="s">
+        <v>181</v>
+      </c>
+      <c r="H45" s="76" t="s">
+        <v>182</v>
+      </c>
+      <c r="I45" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="J45" s="76" t="s">
+        <v>91</v>
+      </c>
+      <c r="K45" s="76" t="s">
+        <v>30</v>
+      </c>
+      <c r="L45" s="26"/>
+      <c r="M45" s="54" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A46" s="37">
+        <v>33</v>
+      </c>
+      <c r="B46" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="C46" s="38" t="s">
+        <v>131</v>
+      </c>
+      <c r="D46" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="E46" s="39"/>
+      <c r="F46" s="39"/>
+      <c r="G46" s="75" t="s">
+        <v>91</v>
+      </c>
+      <c r="H46" s="75" t="s">
+        <v>30</v>
+      </c>
+      <c r="I46" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="J46" s="75" t="s">
+        <v>91</v>
+      </c>
+      <c r="K46" s="75" t="s">
+        <v>30</v>
+      </c>
+      <c r="L46" s="40"/>
+      <c r="M46" s="55" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A47" s="33">
+        <v>34</v>
+      </c>
+      <c r="B47" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C47" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="76" t="s">
+        <v>91</v>
+      </c>
+      <c r="H47" s="76" t="s">
+        <v>24</v>
+      </c>
+      <c r="I47" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="J47" s="76" t="s">
+        <v>91</v>
+      </c>
+      <c r="K47" s="76" t="s">
+        <v>30</v>
+      </c>
+      <c r="L47" s="26"/>
+      <c r="M47" s="54" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A48" s="37">
+        <v>35</v>
+      </c>
+      <c r="B48" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="C48" s="38" t="s">
+        <v>148</v>
+      </c>
+      <c r="D48" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="E48" s="39"/>
+      <c r="F48" s="39"/>
+      <c r="G48" s="75" t="s">
+        <v>91</v>
+      </c>
+      <c r="H48" s="75" t="s">
+        <v>30</v>
+      </c>
+      <c r="I48" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="J48" s="75" t="s">
+        <v>91</v>
+      </c>
+      <c r="K48" s="75" t="s">
+        <v>30</v>
+      </c>
+      <c r="L48" s="40"/>
+      <c r="M48" s="55" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A49" s="33">
+        <v>36</v>
+      </c>
+      <c r="B49" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C49" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="E49" s="7"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="76" t="s">
+        <v>91</v>
+      </c>
+      <c r="H49" s="76" t="s">
+        <v>26</v>
+      </c>
+      <c r="I49" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="J49" s="76" t="s">
+        <v>87</v>
+      </c>
+      <c r="K49" s="76" t="s">
+        <v>23</v>
+      </c>
+      <c r="L49" s="26"/>
+      <c r="M49" s="54" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A50" s="37">
+        <v>37</v>
+      </c>
+      <c r="B50" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="C50" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="D50" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="E50" s="39"/>
+      <c r="F50" s="39"/>
+      <c r="G50" s="75" t="s">
+        <v>91</v>
+      </c>
+      <c r="H50" s="75" t="s">
+        <v>24</v>
+      </c>
+      <c r="I50" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="J50" s="75" t="s">
+        <v>87</v>
+      </c>
+      <c r="K50" s="75" t="s">
+        <v>23</v>
+      </c>
+      <c r="L50" s="40"/>
+      <c r="M50" s="55" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A51" s="33">
+        <v>38</v>
+      </c>
+      <c r="B51" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="C51" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="E51" s="7"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="76" t="s">
+        <v>91</v>
+      </c>
+      <c r="H51" s="76" t="s">
+        <v>24</v>
+      </c>
+      <c r="I51" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="J51" s="76" t="s">
+        <v>91</v>
+      </c>
+      <c r="K51" s="76" t="s">
+        <v>30</v>
+      </c>
+      <c r="L51" s="26"/>
+      <c r="M51" s="54" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A52" s="37">
+        <v>39</v>
+      </c>
+      <c r="B52" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="C52" s="38" t="s">
+        <v>150</v>
+      </c>
+      <c r="D52" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="E52" s="39"/>
+      <c r="F52" s="39"/>
+      <c r="G52" s="75" t="s">
+        <v>90</v>
+      </c>
+      <c r="H52" s="75" t="s">
+        <v>71</v>
+      </c>
+      <c r="I52" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="J52" s="75" t="s">
+        <v>91</v>
+      </c>
+      <c r="K52" s="75" t="s">
+        <v>30</v>
+      </c>
+      <c r="L52" s="40"/>
+      <c r="M52" s="55" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A53" s="33">
+        <v>40</v>
+      </c>
+      <c r="B53" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="C53" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="E53" s="7"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="76" t="s">
+        <v>91</v>
+      </c>
+      <c r="H53" s="76" t="s">
+        <v>30</v>
+      </c>
+      <c r="I53" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="J53" s="76" t="s">
+        <v>91</v>
+      </c>
+      <c r="K53" s="76" t="s">
+        <v>30</v>
+      </c>
+      <c r="L53" s="26"/>
+      <c r="M53" s="54" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A54" s="37">
+        <v>41</v>
+      </c>
+      <c r="B54" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="C54" s="38" t="s">
+        <v>152</v>
+      </c>
+      <c r="D54" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="E54" s="39"/>
+      <c r="F54" s="39"/>
+      <c r="G54" s="75" t="s">
+        <v>181</v>
+      </c>
+      <c r="H54" s="75" t="s">
+        <v>182</v>
+      </c>
+      <c r="I54" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="J54" s="75" t="s">
+        <v>91</v>
+      </c>
+      <c r="K54" s="75" t="s">
+        <v>30</v>
+      </c>
+      <c r="L54" s="40"/>
+      <c r="M54" s="55" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A55" s="33">
+        <v>42</v>
+      </c>
+      <c r="B55" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="C55" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="E55" s="7"/>
+      <c r="F55" s="7"/>
+      <c r="G55" s="76" t="s">
+        <v>91</v>
+      </c>
+      <c r="H55" s="76" t="s">
+        <v>24</v>
+      </c>
+      <c r="I55" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="J55" s="76" t="s">
+        <v>91</v>
+      </c>
+      <c r="K55" s="76" t="s">
+        <v>30</v>
+      </c>
+      <c r="L55" s="26"/>
+      <c r="M55" s="54" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A56" s="37">
+        <v>43</v>
+      </c>
+      <c r="B56" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="C56" s="38" t="s">
+        <v>173</v>
+      </c>
+      <c r="D56" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="E56" s="39"/>
+      <c r="F56" s="39"/>
+      <c r="G56" s="75" t="s">
+        <v>91</v>
+      </c>
+      <c r="H56" s="75" t="s">
+        <v>26</v>
+      </c>
+      <c r="I56" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="J56" s="75" t="s">
+        <v>91</v>
+      </c>
+      <c r="K56" s="75" t="s">
+        <v>30</v>
+      </c>
+      <c r="L56" s="40"/>
+      <c r="M56" s="55" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A57" s="33">
+        <v>44</v>
+      </c>
+      <c r="B57" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C57" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="E57" s="7"/>
+      <c r="F57" s="7"/>
+      <c r="G57" s="76" t="s">
+        <v>91</v>
+      </c>
+      <c r="H57" s="76" t="s">
+        <v>24</v>
+      </c>
+      <c r="I57" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="J57" s="76" t="s">
+        <v>82</v>
+      </c>
+      <c r="K57" s="76" t="s">
+        <v>25</v>
+      </c>
+      <c r="L57" s="26"/>
+      <c r="M57" s="54" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A58" s="37">
+        <v>45</v>
+      </c>
+      <c r="B58" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C58" s="38" t="s">
+        <v>169</v>
+      </c>
+      <c r="D58" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="E58" s="39"/>
+      <c r="F58" s="39"/>
+      <c r="G58" s="75" t="s">
+        <v>83</v>
+      </c>
+      <c r="H58" s="75" t="s">
+        <v>38</v>
+      </c>
+      <c r="I58" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="J58" s="75" t="s">
+        <v>91</v>
+      </c>
+      <c r="K58" s="75" t="s">
+        <v>30</v>
+      </c>
+      <c r="L58" s="40"/>
+      <c r="M58" s="55" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A59" s="33">
+        <v>46</v>
+      </c>
+      <c r="B59" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="C59" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="E59" s="7"/>
+      <c r="F59" s="7"/>
+      <c r="G59" s="76" t="s">
+        <v>91</v>
+      </c>
+      <c r="H59" s="76" t="s">
+        <v>26</v>
+      </c>
+      <c r="I59" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="J59" s="76" t="s">
+        <v>184</v>
+      </c>
+      <c r="K59" s="76" t="s">
+        <v>185</v>
+      </c>
+      <c r="L59" s="26"/>
+      <c r="M59" s="54" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A60" s="37">
+        <v>47</v>
+      </c>
+      <c r="B60" s="24"/>
+      <c r="C60" s="50"/>
+      <c r="D60" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="E60" s="39"/>
+      <c r="F60" s="39"/>
+      <c r="G60" s="75" t="s">
+        <v>91</v>
+      </c>
+      <c r="H60" s="75" t="s">
+        <v>26</v>
+      </c>
+      <c r="I60" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="J60" s="75" t="s">
+        <v>87</v>
+      </c>
+      <c r="K60" s="75" t="s">
+        <v>23</v>
+      </c>
+      <c r="L60" s="52"/>
+      <c r="M60" s="58"/>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A61" s="33">
+        <v>48</v>
+      </c>
+      <c r="B61" s="29"/>
+      <c r="C61" s="30"/>
+      <c r="D61" s="32"/>
+      <c r="E61" s="32"/>
+      <c r="F61" s="32"/>
+      <c r="G61" s="32"/>
+      <c r="H61" s="32"/>
+      <c r="I61" s="32"/>
+      <c r="J61" s="32"/>
+      <c r="K61" s="32"/>
+      <c r="L61" s="32"/>
+      <c r="M61" s="57"/>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A62" s="37">
+        <v>49</v>
+      </c>
+      <c r="B62" s="24"/>
+      <c r="C62" s="50"/>
+      <c r="D62" s="52"/>
+      <c r="E62" s="52"/>
+      <c r="F62" s="52"/>
+      <c r="G62" s="52"/>
+      <c r="H62" s="52"/>
+      <c r="I62" s="52"/>
+      <c r="J62" s="52"/>
+      <c r="K62" s="52"/>
+      <c r="L62" s="52"/>
+      <c r="M62" s="58"/>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A63" s="33">
+        <v>50</v>
+      </c>
+      <c r="B63" s="29"/>
+      <c r="C63" s="30"/>
+      <c r="D63" s="32"/>
+      <c r="E63" s="32"/>
+      <c r="F63" s="32"/>
+      <c r="G63" s="32"/>
+      <c r="H63" s="32"/>
+      <c r="I63" s="32"/>
+      <c r="J63" s="32"/>
+      <c r="K63" s="32"/>
+      <c r="L63" s="32"/>
+      <c r="M63" s="57"/>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A64" s="37">
+        <v>51</v>
+      </c>
+      <c r="B64" s="24"/>
+      <c r="C64" s="50"/>
+      <c r="D64" s="52"/>
+      <c r="E64" s="52"/>
+      <c r="F64" s="52"/>
+      <c r="G64" s="52"/>
+      <c r="H64" s="52"/>
+      <c r="I64" s="52"/>
+      <c r="J64" s="52"/>
+      <c r="K64" s="52"/>
+      <c r="L64" s="52"/>
+      <c r="M64" s="58"/>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A65" s="33">
+        <v>52</v>
+      </c>
+      <c r="B65" s="29"/>
+      <c r="C65" s="30"/>
+      <c r="D65" s="32"/>
+      <c r="E65" s="32"/>
+      <c r="F65" s="32"/>
+      <c r="G65" s="32"/>
+      <c r="H65" s="32"/>
+      <c r="I65" s="32"/>
+      <c r="J65" s="32"/>
+      <c r="K65" s="32"/>
+      <c r="L65" s="32"/>
+      <c r="M65" s="57"/>
+    </row>
+    <row r="66" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="45">
+        <v>53</v>
+      </c>
+      <c r="B66" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="C66" s="38" t="s">
+        <v>163</v>
+      </c>
+      <c r="D66" s="40"/>
+      <c r="E66" s="40"/>
+      <c r="F66" s="40"/>
+      <c r="G66" s="40"/>
+      <c r="H66" s="40"/>
+      <c r="I66" s="40"/>
+      <c r="J66" s="40"/>
+      <c r="K66" s="40"/>
+      <c r="L66" s="40"/>
+      <c r="M66" s="55" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A67" s="35"/>
+      <c r="B67" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="C67" s="20"/>
+      <c r="D67" s="27"/>
+      <c r="E67" s="27"/>
+      <c r="F67" s="27"/>
+      <c r="G67" s="27"/>
+      <c r="H67" s="27"/>
+      <c r="I67" s="27"/>
+      <c r="J67" s="27"/>
+      <c r="K67" s="27"/>
+      <c r="L67" s="27"/>
+      <c r="M67" s="16"/>
+    </row>
+    <row r="68" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="34"/>
+      <c r="B68" s="13"/>
+      <c r="C68" s="21"/>
+      <c r="D68" s="28"/>
+      <c r="E68" s="28"/>
+      <c r="F68" s="28"/>
+      <c r="G68" s="28"/>
+      <c r="H68" s="28"/>
+      <c r="I68" s="28"/>
+      <c r="J68" s="28"/>
+      <c r="K68" s="28"/>
+      <c r="L68" s="28"/>
+      <c r="M68" s="10"/>
+    </row>
+    <row r="69" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.15"/>
+  </sheetData>
+  <mergeCells count="97">
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="G59:H59"/>
+    <mergeCell ref="G60:H60"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="G56:H56"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="M6:M13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="J59:K59"/>
+    <mergeCell ref="J60:K60"/>
+    <mergeCell ref="J57:K57"/>
+    <mergeCell ref="J58:K58"/>
+    <mergeCell ref="J55:K55"/>
+    <mergeCell ref="J56:K56"/>
+    <mergeCell ref="J53:K53"/>
+    <mergeCell ref="J54:K54"/>
+    <mergeCell ref="J51:K51"/>
+    <mergeCell ref="J52:K52"/>
+    <mergeCell ref="J49:K49"/>
+    <mergeCell ref="J50:K50"/>
+    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="J48:K48"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="A6:A13"/>
+    <mergeCell ref="C6:C13"/>
+    <mergeCell ref="J14:K14"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <conditionalFormatting sqref="A6:C6">
+    <cfRule type="expression" dxfId="11" priority="10" stopIfTrue="1">
+      <formula>B$5="1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="11" stopIfTrue="1">
+      <formula>B$7="日"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="9" priority="12" stopIfTrue="1">
+      <formula>B$7="土"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7">
+    <cfRule type="expression" dxfId="8" priority="7" stopIfTrue="1">
+      <formula>B$5="1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="7" priority="8" stopIfTrue="1">
+      <formula>B$7="日"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="9" stopIfTrue="1">
+      <formula>B$7="土"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M6">
+    <cfRule type="expression" dxfId="5" priority="4" stopIfTrue="1">
+      <formula>N$5="1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="5" stopIfTrue="1">
+      <formula>N$7="日"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="6" stopIfTrue="1">
+      <formula>N$7="土"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D6:L7">
+    <cfRule type="expression" dxfId="2" priority="1" stopIfTrue="1">
+      <formula>D$5="1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
+      <formula>D$7="日"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
+      <formula>D$7="土"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -4803,7 +7284,7 @@
   <dimension ref="A1:Z69"/>
   <sheetViews>
     <sheetView topLeftCell="A24" zoomScale="52" zoomScaleNormal="52" workbookViewId="0">
-      <selection sqref="A1:O1048576"/>
+      <selection activeCell="V30" sqref="V30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.25" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -4880,11 +7361,11 @@
       </c>
     </row>
     <row r="6" spans="1:26" ht="25.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="89"/>
+      <c r="A6" s="79"/>
       <c r="B6" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="83" t="s">
+      <c r="C6" s="82" t="s">
         <v>167</v>
       </c>
       <c r="D6" s="8">
@@ -4902,7 +7383,7 @@
       <c r="H6" s="8">
         <v>15</v>
       </c>
-      <c r="I6" s="76" t="s">
+      <c r="I6" s="85" t="s">
         <v>167</v>
       </c>
       <c r="J6" s="8">
@@ -4923,7 +7404,7 @@
       <c r="O6" s="25">
         <v>30</v>
       </c>
-      <c r="P6" s="76" t="s">
+      <c r="P6" s="85" t="s">
         <v>167</v>
       </c>
       <c r="Q6" s="8">
@@ -4953,16 +7434,16 @@
       <c r="Y6" s="68">
         <v>7</v>
       </c>
-      <c r="Z6" s="86" t="s">
+      <c r="Z6" s="89" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="90"/>
+      <c r="A7" s="80"/>
       <c r="B7" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="84"/>
+      <c r="C7" s="83"/>
       <c r="D7" s="7" t="s">
         <v>8</v>
       </c>
@@ -4978,7 +7459,7 @@
       <c r="H7" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="I7" s="77"/>
+      <c r="I7" s="86"/>
       <c r="J7" s="7" t="s">
         <v>8</v>
       </c>
@@ -4997,7 +7478,7 @@
       <c r="O7" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="P7" s="77"/>
+      <c r="P7" s="86"/>
       <c r="Q7" s="7" t="s">
         <v>176</v>
       </c>
@@ -5023,14 +7504,14 @@
         <v>8</v>
       </c>
       <c r="Y7" s="69"/>
-      <c r="Z7" s="87"/>
+      <c r="Z7" s="90"/>
     </row>
     <row r="8" spans="1:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="90"/>
+      <c r="A8" s="80"/>
       <c r="B8" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="84"/>
+      <c r="C8" s="83"/>
       <c r="D8" s="7">
         <v>68</v>
       </c>
@@ -5044,7 +7525,7 @@
         <v>60</v>
       </c>
       <c r="H8" s="7"/>
-      <c r="I8" s="77"/>
+      <c r="I8" s="86"/>
       <c r="J8" s="7">
         <v>90</v>
       </c>
@@ -5061,7 +7542,7 @@
       <c r="O8" s="26">
         <v>59</v>
       </c>
-      <c r="P8" s="77"/>
+      <c r="P8" s="86"/>
       <c r="Q8" s="7">
         <v>12</v>
       </c>
@@ -5083,14 +7564,14 @@
         <v>11</v>
       </c>
       <c r="Y8" s="69"/>
-      <c r="Z8" s="87"/>
+      <c r="Z8" s="90"/>
     </row>
     <row r="9" spans="1:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="90"/>
+      <c r="A9" s="80"/>
       <c r="B9" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="84"/>
+      <c r="C9" s="83"/>
       <c r="D9" s="17">
         <v>14</v>
       </c>
@@ -5106,7 +7587,7 @@
       <c r="H9" s="17">
         <v>10</v>
       </c>
-      <c r="I9" s="77"/>
+      <c r="I9" s="86"/>
       <c r="J9" s="17">
         <v>18</v>
       </c>
@@ -5123,7 +7604,7 @@
       <c r="O9" s="36">
         <v>12</v>
       </c>
-      <c r="P9" s="77"/>
+      <c r="P9" s="86"/>
       <c r="Q9" s="7">
         <v>6</v>
       </c>
@@ -5145,14 +7626,14 @@
         <v>6</v>
       </c>
       <c r="Y9" s="69"/>
-      <c r="Z9" s="87"/>
+      <c r="Z9" s="90"/>
     </row>
     <row r="10" spans="1:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="90"/>
+      <c r="A10" s="80"/>
       <c r="B10" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="84"/>
+      <c r="C10" s="83"/>
       <c r="D10" s="7" t="s">
         <v>13</v>
       </c>
@@ -5166,7 +7647,7 @@
         <v>13</v>
       </c>
       <c r="H10" s="7"/>
-      <c r="I10" s="77"/>
+      <c r="I10" s="86"/>
       <c r="J10" s="7" t="s">
         <v>13</v>
       </c>
@@ -5183,7 +7664,7 @@
       <c r="O10" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="P10" s="77"/>
+      <c r="P10" s="86"/>
       <c r="Q10" s="7" t="s">
         <v>179</v>
       </c>
@@ -5205,14 +7686,14 @@
         <v>14</v>
       </c>
       <c r="Y10" s="69"/>
-      <c r="Z10" s="87"/>
+      <c r="Z10" s="90"/>
     </row>
     <row r="11" spans="1:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="90"/>
+      <c r="A11" s="80"/>
       <c r="B11" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="C11" s="84"/>
+      <c r="C11" s="83"/>
       <c r="D11" s="7" t="s">
         <v>94</v>
       </c>
@@ -5228,7 +7709,7 @@
       <c r="H11" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="I11" s="77"/>
+      <c r="I11" s="86"/>
       <c r="J11" s="7" t="s">
         <v>97</v>
       </c>
@@ -5245,7 +7726,7 @@
       <c r="O11" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="P11" s="77"/>
+      <c r="P11" s="86"/>
       <c r="Q11" s="7"/>
       <c r="R11" s="7"/>
       <c r="S11" s="7"/>
@@ -5255,14 +7736,14 @@
       <c r="W11" s="7"/>
       <c r="X11" s="7"/>
       <c r="Y11" s="69"/>
-      <c r="Z11" s="87"/>
+      <c r="Z11" s="90"/>
     </row>
     <row r="12" spans="1:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="90"/>
+      <c r="A12" s="80"/>
       <c r="B12" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="84"/>
+      <c r="C12" s="83"/>
       <c r="D12" s="7" t="s">
         <v>17</v>
       </c>
@@ -5278,7 +7759,7 @@
       <c r="H12" s="18">
         <v>0.6875</v>
       </c>
-      <c r="I12" s="77"/>
+      <c r="I12" s="86"/>
       <c r="J12" s="7" t="s">
         <v>17</v>
       </c>
@@ -5297,7 +7778,7 @@
       <c r="O12" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="P12" s="77"/>
+      <c r="P12" s="86"/>
       <c r="Q12" s="7" t="s">
         <v>180</v>
       </c>
@@ -5319,14 +7800,14 @@
         <v>18</v>
       </c>
       <c r="Y12" s="69"/>
-      <c r="Z12" s="87"/>
+      <c r="Z12" s="90"/>
     </row>
     <row r="13" spans="1:26" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="91"/>
+      <c r="A13" s="81"/>
       <c r="B13" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="85"/>
+      <c r="C13" s="84"/>
       <c r="D13" s="7" t="s">
         <v>21</v>
       </c>
@@ -5342,7 +7823,7 @@
       <c r="H13" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="I13" s="78"/>
+      <c r="I13" s="87"/>
       <c r="J13" s="7" t="s">
         <v>21</v>
       </c>
@@ -5361,7 +7842,7 @@
       <c r="O13" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="P13" s="78"/>
+      <c r="P13" s="87"/>
       <c r="Q13" s="7" t="s">
         <v>21</v>
       </c>
@@ -5389,7 +7870,7 @@
       <c r="Y13" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="Z13" s="88"/>
+      <c r="Z13" s="91"/>
     </row>
     <row r="14" spans="1:26" ht="25.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A14" s="41">
@@ -5417,17 +7898,17 @@
       <c r="I14" s="42" t="s">
         <v>154</v>
       </c>
-      <c r="J14" s="71" t="s">
+      <c r="J14" s="88" t="s">
         <v>88</v>
       </c>
-      <c r="K14" s="71" t="s">
+      <c r="K14" s="88" t="s">
         <v>25</v>
       </c>
       <c r="L14" s="43"/>
-      <c r="M14" s="71" t="s">
+      <c r="M14" s="88" t="s">
         <v>82</v>
       </c>
-      <c r="N14" s="71" t="s">
+      <c r="N14" s="88" t="s">
         <v>23</v>
       </c>
       <c r="O14" s="44" t="s">
@@ -5441,19 +7922,19 @@
       </c>
       <c r="R14" s="43"/>
       <c r="S14" s="43"/>
-      <c r="T14" s="71" t="s">
+      <c r="T14" s="88" t="s">
         <v>87</v>
       </c>
-      <c r="U14" s="71" t="s">
+      <c r="U14" s="88" t="s">
         <v>23</v>
       </c>
       <c r="V14" s="59" t="s">
         <v>83</v>
       </c>
-      <c r="W14" s="71" t="s">
+      <c r="W14" s="88" t="s">
         <v>87</v>
       </c>
-      <c r="X14" s="71" t="s">
+      <c r="X14" s="88" t="s">
         <v>23</v>
       </c>
       <c r="Y14" s="44"/>
@@ -5487,19 +7968,19 @@
       <c r="I15" s="19" t="s">
         <v>155</v>
       </c>
-      <c r="J15" s="72" t="s">
+      <c r="J15" s="76" t="s">
         <v>82</v>
       </c>
-      <c r="K15" s="72" t="s">
+      <c r="K15" s="76" t="s">
         <v>28</v>
       </c>
       <c r="L15" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="M15" s="72" t="s">
+      <c r="M15" s="76" t="s">
         <v>82</v>
       </c>
-      <c r="N15" s="72" t="s">
+      <c r="N15" s="76" t="s">
         <v>25</v>
       </c>
       <c r="O15" s="26" t="s">
@@ -5513,19 +7994,19 @@
       </c>
       <c r="R15" s="7"/>
       <c r="S15" s="7"/>
-      <c r="T15" s="72" t="s">
+      <c r="T15" s="76" t="s">
         <v>87</v>
       </c>
-      <c r="U15" s="72" t="s">
+      <c r="U15" s="76" t="s">
         <v>23</v>
       </c>
       <c r="V15" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="W15" s="72" t="s">
+      <c r="W15" s="76" t="s">
         <v>87</v>
       </c>
-      <c r="X15" s="72" t="s">
+      <c r="X15" s="76" t="s">
         <v>23</v>
       </c>
       <c r="Y15" s="26"/>
@@ -5559,17 +8040,17 @@
       <c r="I16" s="38" t="s">
         <v>166</v>
       </c>
-      <c r="J16" s="73" t="s">
+      <c r="J16" s="75" t="s">
         <v>87</v>
       </c>
-      <c r="K16" s="73" t="s">
+      <c r="K16" s="75" t="s">
         <v>23</v>
       </c>
       <c r="L16" s="39"/>
-      <c r="M16" s="73" t="s">
+      <c r="M16" s="75" t="s">
         <v>87</v>
       </c>
-      <c r="N16" s="73" t="s">
+      <c r="N16" s="75" t="s">
         <v>23</v>
       </c>
       <c r="O16" s="40" t="s">
@@ -5583,19 +8064,19 @@
       </c>
       <c r="R16" s="39"/>
       <c r="S16" s="39"/>
-      <c r="T16" s="73" t="s">
-        <v>91</v>
-      </c>
-      <c r="U16" s="73" t="s">
+      <c r="T16" s="75" t="s">
+        <v>91</v>
+      </c>
+      <c r="U16" s="75" t="s">
         <v>30</v>
       </c>
       <c r="V16" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="W16" s="73" t="s">
+      <c r="W16" s="75" t="s">
         <v>181</v>
       </c>
-      <c r="X16" s="73" t="s">
+      <c r="X16" s="75" t="s">
         <v>182</v>
       </c>
       <c r="Y16" s="40"/>
@@ -5629,17 +8110,17 @@
       <c r="I17" s="19" t="s">
         <v>156</v>
       </c>
-      <c r="J17" s="72" t="s">
-        <v>91</v>
-      </c>
-      <c r="K17" s="72" t="s">
+      <c r="J17" s="76" t="s">
+        <v>91</v>
+      </c>
+      <c r="K17" s="76" t="s">
         <v>24</v>
       </c>
       <c r="L17" s="7"/>
-      <c r="M17" s="72" t="s">
-        <v>91</v>
-      </c>
-      <c r="N17" s="72" t="s">
+      <c r="M17" s="76" t="s">
+        <v>91</v>
+      </c>
+      <c r="N17" s="76" t="s">
         <v>24</v>
       </c>
       <c r="O17" s="26" t="s">
@@ -5653,19 +8134,19 @@
       </c>
       <c r="R17" s="7"/>
       <c r="S17" s="7"/>
-      <c r="T17" s="72" t="s">
-        <v>91</v>
-      </c>
-      <c r="U17" s="72" t="s">
+      <c r="T17" s="76" t="s">
+        <v>91</v>
+      </c>
+      <c r="U17" s="76" t="s">
         <v>30</v>
       </c>
       <c r="V17" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="W17" s="72" t="s">
-        <v>91</v>
-      </c>
-      <c r="X17" s="72" t="s">
+      <c r="W17" s="76" t="s">
+        <v>91</v>
+      </c>
+      <c r="X17" s="76" t="s">
         <v>30</v>
       </c>
       <c r="Y17" s="26"/>
@@ -5699,17 +8180,17 @@
       <c r="I18" s="38" t="s">
         <v>157</v>
       </c>
-      <c r="J18" s="73" t="s">
+      <c r="J18" s="75" t="s">
         <v>87</v>
       </c>
-      <c r="K18" s="73" t="s">
+      <c r="K18" s="75" t="s">
         <v>23</v>
       </c>
       <c r="L18" s="39"/>
-      <c r="M18" s="73" t="s">
-        <v>91</v>
-      </c>
-      <c r="N18" s="73" t="s">
+      <c r="M18" s="75" t="s">
+        <v>91</v>
+      </c>
+      <c r="N18" s="75" t="s">
         <v>24</v>
       </c>
       <c r="O18" s="40" t="s">
@@ -5723,19 +8204,19 @@
       </c>
       <c r="R18" s="39"/>
       <c r="S18" s="39"/>
-      <c r="T18" s="73" t="s">
-        <v>92</v>
-      </c>
-      <c r="U18" s="73" t="s">
+      <c r="T18" s="75" t="s">
+        <v>92</v>
+      </c>
+      <c r="U18" s="75" t="s">
         <v>30</v>
       </c>
       <c r="V18" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="W18" s="73" t="s">
-        <v>91</v>
-      </c>
-      <c r="X18" s="73" t="s">
+      <c r="W18" s="75" t="s">
+        <v>91</v>
+      </c>
+      <c r="X18" s="75" t="s">
         <v>30</v>
       </c>
       <c r="Y18" s="40"/>
@@ -5769,17 +8250,17 @@
       <c r="I19" s="19" t="s">
         <v>158</v>
       </c>
-      <c r="J19" s="72" t="s">
+      <c r="J19" s="76" t="s">
         <v>86</v>
       </c>
-      <c r="K19" s="72" t="s">
+      <c r="K19" s="76" t="s">
         <v>34</v>
       </c>
       <c r="L19" s="7"/>
-      <c r="M19" s="72" t="s">
+      <c r="M19" s="76" t="s">
         <v>82</v>
       </c>
-      <c r="N19" s="72" t="s">
+      <c r="N19" s="76" t="s">
         <v>28</v>
       </c>
       <c r="O19" s="26" t="s">
@@ -5793,19 +8274,19 @@
       </c>
       <c r="R19" s="7"/>
       <c r="S19" s="7"/>
-      <c r="T19" s="72" t="s">
-        <v>91</v>
-      </c>
-      <c r="U19" s="72" t="s">
+      <c r="T19" s="76" t="s">
+        <v>91</v>
+      </c>
+      <c r="U19" s="76" t="s">
         <v>24</v>
       </c>
       <c r="V19" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="W19" s="72" t="s">
+      <c r="W19" s="76" t="s">
         <v>87</v>
       </c>
-      <c r="X19" s="72" t="s">
+      <c r="X19" s="76" t="s">
         <v>23</v>
       </c>
       <c r="Y19" s="26"/>
@@ -5839,17 +8320,17 @@
       <c r="I20" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="J20" s="73" t="s">
+      <c r="J20" s="75" t="s">
         <v>87</v>
       </c>
-      <c r="K20" s="73" t="s">
+      <c r="K20" s="75" t="s">
         <v>23</v>
       </c>
       <c r="L20" s="39"/>
-      <c r="M20" s="73" t="s">
+      <c r="M20" s="75" t="s">
         <v>87</v>
       </c>
-      <c r="N20" s="73" t="s">
+      <c r="N20" s="75" t="s">
         <v>23</v>
       </c>
       <c r="O20" s="40" t="s">
@@ -5863,19 +8344,19 @@
       </c>
       <c r="R20" s="39"/>
       <c r="S20" s="39"/>
-      <c r="T20" s="73" t="s">
-        <v>91</v>
-      </c>
-      <c r="U20" s="73" t="s">
+      <c r="T20" s="75" t="s">
+        <v>91</v>
+      </c>
+      <c r="U20" s="75" t="s">
         <v>24</v>
       </c>
       <c r="V20" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="W20" s="73" t="s">
-        <v>91</v>
-      </c>
-      <c r="X20" s="73" t="s">
+      <c r="W20" s="75" t="s">
+        <v>91</v>
+      </c>
+      <c r="X20" s="75" t="s">
         <v>26</v>
       </c>
       <c r="Y20" s="40"/>
@@ -5909,17 +8390,17 @@
       <c r="I21" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="J21" s="72" t="s">
-        <v>91</v>
-      </c>
-      <c r="K21" s="72" t="s">
+      <c r="J21" s="76" t="s">
+        <v>91</v>
+      </c>
+      <c r="K21" s="76" t="s">
         <v>24</v>
       </c>
       <c r="L21" s="7"/>
-      <c r="M21" s="72" t="s">
+      <c r="M21" s="76" t="s">
         <v>87</v>
       </c>
-      <c r="N21" s="72" t="s">
+      <c r="N21" s="76" t="s">
         <v>23</v>
       </c>
       <c r="O21" s="26" t="s">
@@ -5933,19 +8414,19 @@
       </c>
       <c r="R21" s="7"/>
       <c r="S21" s="7"/>
-      <c r="T21" s="72" t="s">
-        <v>91</v>
-      </c>
-      <c r="U21" s="72" t="s">
+      <c r="T21" s="76" t="s">
+        <v>91</v>
+      </c>
+      <c r="U21" s="76" t="s">
         <v>26</v>
       </c>
       <c r="V21" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="W21" s="72" t="s">
-        <v>91</v>
-      </c>
-      <c r="X21" s="72" t="s">
+      <c r="W21" s="76" t="s">
+        <v>91</v>
+      </c>
+      <c r="X21" s="76" t="s">
         <v>24</v>
       </c>
       <c r="Y21" s="26"/>
@@ -5979,17 +8460,17 @@
       <c r="I22" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="J22" s="73" t="s">
+      <c r="J22" s="75" t="s">
         <v>82</v>
       </c>
-      <c r="K22" s="73" t="s">
+      <c r="K22" s="75" t="s">
         <v>25</v>
       </c>
       <c r="L22" s="39"/>
-      <c r="M22" s="73" t="s">
+      <c r="M22" s="75" t="s">
         <v>83</v>
       </c>
-      <c r="N22" s="73" t="s">
+      <c r="N22" s="75" t="s">
         <v>38</v>
       </c>
       <c r="O22" s="40" t="s">
@@ -6003,19 +8484,19 @@
       </c>
       <c r="R22" s="39"/>
       <c r="S22" s="39"/>
-      <c r="T22" s="73" t="s">
+      <c r="T22" s="75" t="s">
         <v>87</v>
       </c>
-      <c r="U22" s="73" t="s">
+      <c r="U22" s="75" t="s">
         <v>23</v>
       </c>
       <c r="V22" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="W22" s="73" t="s">
+      <c r="W22" s="75" t="s">
         <v>87</v>
       </c>
-      <c r="X22" s="73" t="s">
+      <c r="X22" s="75" t="s">
         <v>23</v>
       </c>
       <c r="Y22" s="40"/>
@@ -6049,19 +8530,19 @@
       <c r="I23" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="J23" s="72" t="s">
+      <c r="J23" s="76" t="s">
         <v>87</v>
       </c>
-      <c r="K23" s="72" t="s">
+      <c r="K23" s="76" t="s">
         <v>23</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="M23" s="72" t="s">
+      <c r="M23" s="76" t="s">
         <v>83</v>
       </c>
-      <c r="N23" s="72" t="s">
+      <c r="N23" s="76" t="s">
         <v>38</v>
       </c>
       <c r="O23" s="26" t="s">
@@ -6075,19 +8556,19 @@
       </c>
       <c r="R23" s="7"/>
       <c r="S23" s="7"/>
-      <c r="T23" s="72" t="s">
-        <v>91</v>
-      </c>
-      <c r="U23" s="72" t="s">
+      <c r="T23" s="76" t="s">
+        <v>91</v>
+      </c>
+      <c r="U23" s="76" t="s">
         <v>30</v>
       </c>
       <c r="V23" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="W23" s="72" t="s">
-        <v>91</v>
-      </c>
-      <c r="X23" s="72" t="s">
+      <c r="W23" s="76" t="s">
+        <v>91</v>
+      </c>
+      <c r="X23" s="76" t="s">
         <v>30</v>
       </c>
       <c r="Y23" s="26"/>
@@ -6121,17 +8602,17 @@
       <c r="I24" s="38" t="s">
         <v>112</v>
       </c>
-      <c r="J24" s="73" t="s">
-        <v>91</v>
-      </c>
-      <c r="K24" s="73" t="s">
+      <c r="J24" s="75" t="s">
+        <v>91</v>
+      </c>
+      <c r="K24" s="75" t="s">
         <v>24</v>
       </c>
       <c r="L24" s="39"/>
-      <c r="M24" s="73" t="s">
+      <c r="M24" s="75" t="s">
         <v>82</v>
       </c>
-      <c r="N24" s="73" t="s">
+      <c r="N24" s="75" t="s">
         <v>25</v>
       </c>
       <c r="O24" s="40" t="s">
@@ -6145,19 +8626,19 @@
       </c>
       <c r="R24" s="39"/>
       <c r="S24" s="39"/>
-      <c r="T24" s="73" t="s">
-        <v>91</v>
-      </c>
-      <c r="U24" s="73" t="s">
+      <c r="T24" s="75" t="s">
+        <v>91</v>
+      </c>
+      <c r="U24" s="75" t="s">
         <v>30</v>
       </c>
       <c r="V24" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="W24" s="73" t="s">
-        <v>91</v>
-      </c>
-      <c r="X24" s="73" t="s">
+      <c r="W24" s="75" t="s">
+        <v>91</v>
+      </c>
+      <c r="X24" s="75" t="s">
         <v>30</v>
       </c>
       <c r="Y24" s="40"/>
@@ -6191,17 +8672,17 @@
       <c r="I25" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="J25" s="72" t="s">
-        <v>91</v>
-      </c>
-      <c r="K25" s="72" t="s">
+      <c r="J25" s="76" t="s">
+        <v>91</v>
+      </c>
+      <c r="K25" s="76" t="s">
         <v>30</v>
       </c>
       <c r="L25" s="7"/>
-      <c r="M25" s="72" t="s">
-        <v>91</v>
-      </c>
-      <c r="N25" s="72" t="s">
+      <c r="M25" s="76" t="s">
+        <v>91</v>
+      </c>
+      <c r="N25" s="76" t="s">
         <v>30</v>
       </c>
       <c r="O25" s="26" t="s">
@@ -6215,19 +8696,19 @@
       </c>
       <c r="R25" s="7"/>
       <c r="S25" s="7"/>
-      <c r="T25" s="72" t="s">
-        <v>91</v>
-      </c>
-      <c r="U25" s="72" t="s">
+      <c r="T25" s="76" t="s">
+        <v>91</v>
+      </c>
+      <c r="U25" s="76" t="s">
         <v>30</v>
       </c>
       <c r="V25" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="W25" s="72" t="s">
-        <v>91</v>
-      </c>
-      <c r="X25" s="72" t="s">
+      <c r="W25" s="76" t="s">
+        <v>91</v>
+      </c>
+      <c r="X25" s="76" t="s">
         <v>30</v>
       </c>
       <c r="Y25" s="26"/>
@@ -6261,19 +8742,19 @@
       <c r="I26" s="38" t="s">
         <v>114</v>
       </c>
-      <c r="J26" s="73" t="s">
+      <c r="J26" s="75" t="s">
         <v>87</v>
       </c>
-      <c r="K26" s="73" t="s">
+      <c r="K26" s="75" t="s">
         <v>23</v>
       </c>
       <c r="L26" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="M26" s="73" t="s">
+      <c r="M26" s="75" t="s">
         <v>87</v>
       </c>
-      <c r="N26" s="73" t="s">
+      <c r="N26" s="75" t="s">
         <v>23</v>
       </c>
       <c r="O26" s="40" t="s">
@@ -6287,19 +8768,19 @@
       </c>
       <c r="R26" s="39"/>
       <c r="S26" s="39"/>
-      <c r="T26" s="73" t="s">
-        <v>91</v>
-      </c>
-      <c r="U26" s="73" t="s">
+      <c r="T26" s="75" t="s">
+        <v>91</v>
+      </c>
+      <c r="U26" s="75" t="s">
         <v>24</v>
       </c>
       <c r="V26" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="W26" s="73" t="s">
-        <v>91</v>
-      </c>
-      <c r="X26" s="73" t="s">
+      <c r="W26" s="75" t="s">
+        <v>91</v>
+      </c>
+      <c r="X26" s="75" t="s">
         <v>30</v>
       </c>
       <c r="Y26" s="40"/>
@@ -6333,17 +8814,17 @@
       <c r="I27" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="J27" s="72" t="s">
+      <c r="J27" s="76" t="s">
         <v>89</v>
       </c>
-      <c r="K27" s="72" t="s">
+      <c r="K27" s="76" t="s">
         <v>44</v>
       </c>
       <c r="L27" s="7"/>
-      <c r="M27" s="72" t="s">
-        <v>91</v>
-      </c>
-      <c r="N27" s="72" t="s">
+      <c r="M27" s="76" t="s">
+        <v>91</v>
+      </c>
+      <c r="N27" s="76" t="s">
         <v>24</v>
       </c>
       <c r="O27" s="26" t="s">
@@ -6357,19 +8838,19 @@
       </c>
       <c r="R27" s="7"/>
       <c r="S27" s="7"/>
-      <c r="T27" s="72" t="s">
-        <v>91</v>
-      </c>
-      <c r="U27" s="72" t="s">
+      <c r="T27" s="76" t="s">
+        <v>91</v>
+      </c>
+      <c r="U27" s="76" t="s">
         <v>30</v>
       </c>
       <c r="V27" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="W27" s="72" t="s">
-        <v>91</v>
-      </c>
-      <c r="X27" s="72" t="s">
+      <c r="W27" s="76" t="s">
+        <v>91</v>
+      </c>
+      <c r="X27" s="76" t="s">
         <v>30</v>
       </c>
       <c r="Y27" s="26"/>
@@ -6403,19 +8884,19 @@
       <c r="I28" s="38" t="s">
         <v>116</v>
       </c>
-      <c r="J28" s="73" t="s">
+      <c r="J28" s="75" t="s">
         <v>87</v>
       </c>
-      <c r="K28" s="73" t="s">
+      <c r="K28" s="75" t="s">
         <v>23</v>
       </c>
       <c r="L28" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="M28" s="73" t="s">
+      <c r="M28" s="75" t="s">
         <v>82</v>
       </c>
-      <c r="N28" s="73" t="s">
+      <c r="N28" s="75" t="s">
         <v>25</v>
       </c>
       <c r="O28" s="40" t="s">
@@ -6429,19 +8910,19 @@
       </c>
       <c r="R28" s="39"/>
       <c r="S28" s="39"/>
-      <c r="T28" s="73" t="s">
-        <v>91</v>
-      </c>
-      <c r="U28" s="73" t="s">
+      <c r="T28" s="75" t="s">
+        <v>91</v>
+      </c>
+      <c r="U28" s="75" t="s">
         <v>24</v>
       </c>
       <c r="V28" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="W28" s="73" t="s">
+      <c r="W28" s="75" t="s">
         <v>87</v>
       </c>
-      <c r="X28" s="73" t="s">
+      <c r="X28" s="75" t="s">
         <v>23</v>
       </c>
       <c r="Y28" s="40"/>
@@ -6475,17 +8956,17 @@
       <c r="I29" s="19" t="s">
         <v>159</v>
       </c>
-      <c r="J29" s="72" t="s">
+      <c r="J29" s="76" t="s">
         <v>87</v>
       </c>
-      <c r="K29" s="72" t="s">
+      <c r="K29" s="76" t="s">
         <v>23</v>
       </c>
       <c r="L29" s="7"/>
-      <c r="M29" s="72" t="s">
+      <c r="M29" s="76" t="s">
         <v>87</v>
       </c>
-      <c r="N29" s="72" t="s">
+      <c r="N29" s="76" t="s">
         <v>23</v>
       </c>
       <c r="O29" s="26" t="s">
@@ -6499,19 +8980,19 @@
       </c>
       <c r="R29" s="60"/>
       <c r="S29" s="60"/>
-      <c r="T29" s="72" t="s">
-        <v>91</v>
-      </c>
-      <c r="U29" s="72" t="s">
+      <c r="T29" s="76" t="s">
+        <v>91</v>
+      </c>
+      <c r="U29" s="76" t="s">
         <v>24</v>
       </c>
       <c r="V29" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="W29" s="72" t="s">
-        <v>91</v>
-      </c>
-      <c r="X29" s="72" t="s">
+      <c r="W29" s="76" t="s">
+        <v>91</v>
+      </c>
+      <c r="X29" s="76" t="s">
         <v>30</v>
       </c>
       <c r="Y29" s="26"/>
@@ -6545,17 +9026,17 @@
       <c r="I30" s="38" t="s">
         <v>160</v>
       </c>
-      <c r="J30" s="73" t="s">
+      <c r="J30" s="75" t="s">
         <v>87</v>
       </c>
-      <c r="K30" s="73" t="s">
+      <c r="K30" s="75" t="s">
         <v>23</v>
       </c>
       <c r="L30" s="39"/>
-      <c r="M30" s="73" t="s">
-        <v>91</v>
-      </c>
-      <c r="N30" s="73" t="s">
+      <c r="M30" s="75" t="s">
+        <v>91</v>
+      </c>
+      <c r="N30" s="75" t="s">
         <v>26</v>
       </c>
       <c r="O30" s="40" t="s">
@@ -6569,19 +9050,19 @@
       </c>
       <c r="R30" s="39"/>
       <c r="S30" s="39"/>
-      <c r="T30" s="73" t="s">
-        <v>91</v>
-      </c>
-      <c r="U30" s="73" t="s">
+      <c r="T30" s="75" t="s">
+        <v>91</v>
+      </c>
+      <c r="U30" s="75" t="s">
         <v>30</v>
       </c>
       <c r="V30" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="W30" s="73" t="s">
-        <v>91</v>
-      </c>
-      <c r="X30" s="73" t="s">
+      <c r="W30" s="75" t="s">
+        <v>91</v>
+      </c>
+      <c r="X30" s="75" t="s">
         <v>30</v>
       </c>
       <c r="Y30" s="40"/>
@@ -6615,17 +9096,17 @@
       <c r="I31" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="J31" s="72" t="s">
-        <v>91</v>
-      </c>
-      <c r="K31" s="72" t="s">
+      <c r="J31" s="76" t="s">
+        <v>91</v>
+      </c>
+      <c r="K31" s="76" t="s">
         <v>24</v>
       </c>
       <c r="L31" s="7"/>
-      <c r="M31" s="72" t="s">
+      <c r="M31" s="76" t="s">
         <v>82</v>
       </c>
-      <c r="N31" s="72" t="s">
+      <c r="N31" s="76" t="s">
         <v>28</v>
       </c>
       <c r="O31" s="26" t="s">
@@ -6639,19 +9120,19 @@
       </c>
       <c r="R31" s="7"/>
       <c r="S31" s="7"/>
-      <c r="T31" s="72" t="s">
-        <v>91</v>
-      </c>
-      <c r="U31" s="72" t="s">
+      <c r="T31" s="76" t="s">
+        <v>91</v>
+      </c>
+      <c r="U31" s="76" t="s">
         <v>30</v>
       </c>
       <c r="V31" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="W31" s="72" t="s">
-        <v>91</v>
-      </c>
-      <c r="X31" s="72" t="s">
+      <c r="W31" s="76" t="s">
+        <v>91</v>
+      </c>
+      <c r="X31" s="76" t="s">
         <v>30</v>
       </c>
       <c r="Y31" s="26"/>
@@ -6685,17 +9166,17 @@
       <c r="I32" s="38" t="s">
         <v>163</v>
       </c>
-      <c r="J32" s="73" t="s">
-        <v>91</v>
-      </c>
-      <c r="K32" s="73" t="s">
+      <c r="J32" s="75" t="s">
+        <v>91</v>
+      </c>
+      <c r="K32" s="75" t="s">
         <v>24</v>
       </c>
       <c r="L32" s="39"/>
-      <c r="M32" s="73" t="s">
-        <v>91</v>
-      </c>
-      <c r="N32" s="73" t="s">
+      <c r="M32" s="75" t="s">
+        <v>91</v>
+      </c>
+      <c r="N32" s="75" t="s">
         <v>24</v>
       </c>
       <c r="O32" s="40" t="s">
@@ -6709,19 +9190,19 @@
       </c>
       <c r="R32" s="39"/>
       <c r="S32" s="39"/>
-      <c r="T32" s="73" t="s">
-        <v>91</v>
-      </c>
-      <c r="U32" s="73" t="s">
+      <c r="T32" s="75" t="s">
+        <v>91</v>
+      </c>
+      <c r="U32" s="75" t="s">
         <v>24</v>
       </c>
       <c r="V32" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="W32" s="73" t="s">
-        <v>91</v>
-      </c>
-      <c r="X32" s="73" t="s">
+      <c r="W32" s="75" t="s">
+        <v>91</v>
+      </c>
+      <c r="X32" s="75" t="s">
         <v>30</v>
       </c>
       <c r="Y32" s="40"/>
@@ -6755,17 +9236,17 @@
       <c r="I33" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="J33" s="72" t="s">
-        <v>91</v>
-      </c>
-      <c r="K33" s="72" t="s">
+      <c r="J33" s="76" t="s">
+        <v>91</v>
+      </c>
+      <c r="K33" s="76" t="s">
         <v>24</v>
       </c>
       <c r="L33" s="7"/>
-      <c r="M33" s="72" t="s">
-        <v>91</v>
-      </c>
-      <c r="N33" s="72" t="s">
+      <c r="M33" s="76" t="s">
+        <v>91</v>
+      </c>
+      <c r="N33" s="76" t="s">
         <v>24</v>
       </c>
       <c r="O33" s="26" t="s">
@@ -6779,19 +9260,19 @@
       </c>
       <c r="R33" s="7"/>
       <c r="S33" s="7"/>
-      <c r="T33" s="72" t="s">
-        <v>91</v>
-      </c>
-      <c r="U33" s="72" t="s">
+      <c r="T33" s="76" t="s">
+        <v>91</v>
+      </c>
+      <c r="U33" s="76" t="s">
         <v>30</v>
       </c>
       <c r="V33" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="W33" s="72" t="s">
-        <v>91</v>
-      </c>
-      <c r="X33" s="72" t="s">
+      <c r="W33" s="76" t="s">
+        <v>91</v>
+      </c>
+      <c r="X33" s="76" t="s">
         <v>30</v>
       </c>
       <c r="Y33" s="26"/>
@@ -6825,17 +9306,17 @@
       <c r="I34" s="38" t="s">
         <v>121</v>
       </c>
-      <c r="J34" s="73" t="s">
-        <v>91</v>
-      </c>
-      <c r="K34" s="73" t="s">
+      <c r="J34" s="75" t="s">
+        <v>91</v>
+      </c>
+      <c r="K34" s="75" t="s">
         <v>24</v>
       </c>
       <c r="L34" s="39"/>
-      <c r="M34" s="73" t="s">
-        <v>91</v>
-      </c>
-      <c r="N34" s="73" t="s">
+      <c r="M34" s="75" t="s">
+        <v>91</v>
+      </c>
+      <c r="N34" s="75" t="s">
         <v>24</v>
       </c>
       <c r="O34" s="40" t="s">
@@ -6849,19 +9330,19 @@
       </c>
       <c r="R34" s="39"/>
       <c r="S34" s="39"/>
-      <c r="T34" s="73" t="s">
+      <c r="T34" s="75" t="s">
         <v>87</v>
       </c>
-      <c r="U34" s="73" t="s">
+      <c r="U34" s="75" t="s">
         <v>23</v>
       </c>
       <c r="V34" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="W34" s="73" t="s">
-        <v>91</v>
-      </c>
-      <c r="X34" s="73" t="s">
+      <c r="W34" s="75" t="s">
+        <v>91</v>
+      </c>
+      <c r="X34" s="75" t="s">
         <v>30</v>
       </c>
       <c r="Y34" s="40"/>
@@ -6895,17 +9376,17 @@
       <c r="I35" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="J35" s="72" t="s">
+      <c r="J35" s="76" t="s">
         <v>82</v>
       </c>
-      <c r="K35" s="72" t="s">
+      <c r="K35" s="76" t="s">
         <v>25</v>
       </c>
       <c r="L35" s="7"/>
-      <c r="M35" s="72" t="s">
+      <c r="M35" s="76" t="s">
         <v>87</v>
       </c>
-      <c r="N35" s="72" t="s">
+      <c r="N35" s="76" t="s">
         <v>23</v>
       </c>
       <c r="O35" s="26" t="s">
@@ -6919,19 +9400,19 @@
       </c>
       <c r="R35" s="60"/>
       <c r="S35" s="60"/>
-      <c r="T35" s="72" t="s">
+      <c r="T35" s="76" t="s">
         <v>87</v>
       </c>
-      <c r="U35" s="72" t="s">
+      <c r="U35" s="76" t="s">
         <v>23</v>
       </c>
       <c r="V35" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="W35" s="72" t="s">
+      <c r="W35" s="76" t="s">
         <v>87</v>
       </c>
-      <c r="X35" s="72" t="s">
+      <c r="X35" s="76" t="s">
         <v>23</v>
       </c>
       <c r="Y35" s="26"/>
@@ -6965,17 +9446,17 @@
       <c r="I36" s="38" t="s">
         <v>123</v>
       </c>
-      <c r="J36" s="73" t="s">
-        <v>91</v>
-      </c>
-      <c r="K36" s="73" t="s">
+      <c r="J36" s="75" t="s">
+        <v>91</v>
+      </c>
+      <c r="K36" s="75" t="s">
         <v>24</v>
       </c>
       <c r="L36" s="39"/>
-      <c r="M36" s="73" t="s">
+      <c r="M36" s="75" t="s">
         <v>82</v>
       </c>
-      <c r="N36" s="73" t="s">
+      <c r="N36" s="75" t="s">
         <v>25</v>
       </c>
       <c r="O36" s="40" t="s">
@@ -6989,19 +9470,19 @@
       </c>
       <c r="R36" s="39"/>
       <c r="S36" s="39"/>
-      <c r="T36" s="73" t="s">
-        <v>91</v>
-      </c>
-      <c r="U36" s="73" t="s">
+      <c r="T36" s="75" t="s">
+        <v>91</v>
+      </c>
+      <c r="U36" s="75" t="s">
         <v>24</v>
       </c>
       <c r="V36" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="W36" s="73" t="s">
+      <c r="W36" s="75" t="s">
         <v>87</v>
       </c>
-      <c r="X36" s="73" t="s">
+      <c r="X36" s="75" t="s">
         <v>23</v>
       </c>
       <c r="Y36" s="40"/>
@@ -7035,17 +9516,17 @@
       <c r="I37" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="J37" s="72" t="s">
-        <v>91</v>
-      </c>
-      <c r="K37" s="72" t="s">
+      <c r="J37" s="76" t="s">
+        <v>91</v>
+      </c>
+      <c r="K37" s="76" t="s">
         <v>24</v>
       </c>
       <c r="L37" s="7"/>
-      <c r="M37" s="72" t="s">
+      <c r="M37" s="76" t="s">
         <v>87</v>
       </c>
-      <c r="N37" s="72" t="s">
+      <c r="N37" s="76" t="s">
         <v>23</v>
       </c>
       <c r="O37" s="26" t="s">
@@ -7059,19 +9540,19 @@
       </c>
       <c r="R37" s="7"/>
       <c r="S37" s="7"/>
-      <c r="T37" s="72" t="s">
-        <v>91</v>
-      </c>
-      <c r="U37" s="72" t="s">
+      <c r="T37" s="76" t="s">
+        <v>91</v>
+      </c>
+      <c r="U37" s="76" t="s">
         <v>24</v>
       </c>
       <c r="V37" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="W37" s="72" t="s">
+      <c r="W37" s="76" t="s">
         <v>87</v>
       </c>
-      <c r="X37" s="72" t="s">
+      <c r="X37" s="76" t="s">
         <v>23</v>
       </c>
       <c r="Y37" s="26"/>
@@ -7105,17 +9586,17 @@
       <c r="I38" s="38" t="s">
         <v>124</v>
       </c>
-      <c r="J38" s="73" t="s">
+      <c r="J38" s="75" t="s">
         <v>87</v>
       </c>
-      <c r="K38" s="73" t="s">
+      <c r="K38" s="75" t="s">
         <v>23</v>
       </c>
       <c r="L38" s="39"/>
-      <c r="M38" s="73" t="s">
+      <c r="M38" s="75" t="s">
         <v>87</v>
       </c>
-      <c r="N38" s="73" t="s">
+      <c r="N38" s="75" t="s">
         <v>23</v>
       </c>
       <c r="O38" s="40" t="s">
@@ -7129,19 +9610,19 @@
       </c>
       <c r="R38" s="39"/>
       <c r="S38" s="39"/>
-      <c r="T38" s="73" t="s">
-        <v>91</v>
-      </c>
-      <c r="U38" s="73" t="s">
+      <c r="T38" s="75" t="s">
+        <v>91</v>
+      </c>
+      <c r="U38" s="75" t="s">
         <v>30</v>
       </c>
       <c r="V38" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="W38" s="73" t="s">
+      <c r="W38" s="75" t="s">
         <v>87</v>
       </c>
-      <c r="X38" s="73" t="s">
+      <c r="X38" s="75" t="s">
         <v>23</v>
       </c>
       <c r="Y38" s="40"/>
@@ -7175,17 +9656,17 @@
       <c r="I39" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="J39" s="72" t="s">
-        <v>91</v>
-      </c>
-      <c r="K39" s="72" t="s">
+      <c r="J39" s="76" t="s">
+        <v>91</v>
+      </c>
+      <c r="K39" s="76" t="s">
         <v>24</v>
       </c>
       <c r="L39" s="7"/>
-      <c r="M39" s="72" t="s">
-        <v>91</v>
-      </c>
-      <c r="N39" s="72" t="s">
+      <c r="M39" s="76" t="s">
+        <v>91</v>
+      </c>
+      <c r="N39" s="76" t="s">
         <v>24</v>
       </c>
       <c r="O39" s="26" t="s">
@@ -7199,19 +9680,19 @@
       </c>
       <c r="R39" s="7"/>
       <c r="S39" s="7"/>
-      <c r="T39" s="72" t="s">
-        <v>91</v>
-      </c>
-      <c r="U39" s="72" t="s">
+      <c r="T39" s="76" t="s">
+        <v>91</v>
+      </c>
+      <c r="U39" s="76" t="s">
         <v>24</v>
       </c>
       <c r="V39" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="W39" s="72" t="s">
-        <v>91</v>
-      </c>
-      <c r="X39" s="72" t="s">
+      <c r="W39" s="76" t="s">
+        <v>91</v>
+      </c>
+      <c r="X39" s="76" t="s">
         <v>30</v>
       </c>
       <c r="Y39" s="26"/>
@@ -7245,19 +9726,19 @@
       <c r="I40" s="47" t="s">
         <v>127</v>
       </c>
-      <c r="J40" s="74" t="s">
-        <v>91</v>
-      </c>
-      <c r="K40" s="74" t="s">
+      <c r="J40" s="77" t="s">
+        <v>91</v>
+      </c>
+      <c r="K40" s="77" t="s">
         <v>30</v>
       </c>
       <c r="L40" s="48" t="s">
         <v>81</v>
       </c>
-      <c r="M40" s="74" t="s">
-        <v>91</v>
-      </c>
-      <c r="N40" s="74" t="s">
+      <c r="M40" s="77" t="s">
+        <v>91</v>
+      </c>
+      <c r="N40" s="77" t="s">
         <v>24</v>
       </c>
       <c r="O40" s="49" t="s">
@@ -7271,19 +9752,19 @@
       </c>
       <c r="R40" s="48"/>
       <c r="S40" s="48"/>
-      <c r="T40" s="74" t="s">
-        <v>91</v>
-      </c>
-      <c r="U40" s="74" t="s">
+      <c r="T40" s="77" t="s">
+        <v>91</v>
+      </c>
+      <c r="U40" s="77" t="s">
         <v>30</v>
       </c>
       <c r="V40" s="48" t="s">
         <v>92</v>
       </c>
-      <c r="W40" s="74" t="s">
-        <v>91</v>
-      </c>
-      <c r="X40" s="74" t="s">
+      <c r="W40" s="77" t="s">
+        <v>91</v>
+      </c>
+      <c r="X40" s="77" t="s">
         <v>30</v>
       </c>
       <c r="Y40" s="49"/>
@@ -7317,17 +9798,17 @@
       <c r="I41" s="30" t="s">
         <v>128</v>
       </c>
-      <c r="J41" s="75" t="s">
+      <c r="J41" s="78" t="s">
         <v>87</v>
       </c>
-      <c r="K41" s="75" t="s">
+      <c r="K41" s="78" t="s">
         <v>23</v>
       </c>
       <c r="L41" s="31"/>
-      <c r="M41" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="N41" s="75" t="s">
+      <c r="M41" s="78" t="s">
+        <v>91</v>
+      </c>
+      <c r="N41" s="78" t="s">
         <v>24</v>
       </c>
       <c r="O41" s="32" t="s">
@@ -7341,19 +9822,19 @@
       </c>
       <c r="R41" s="31"/>
       <c r="S41" s="31"/>
-      <c r="T41" s="75" t="s">
+      <c r="T41" s="78" t="s">
         <v>87</v>
       </c>
-      <c r="U41" s="75" t="s">
+      <c r="U41" s="78" t="s">
         <v>23</v>
       </c>
       <c r="V41" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="W41" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="X41" s="75" t="s">
+      <c r="W41" s="78" t="s">
+        <v>91</v>
+      </c>
+      <c r="X41" s="78" t="s">
         <v>30</v>
       </c>
       <c r="Y41" s="32"/>
@@ -7387,17 +9868,17 @@
       <c r="I42" s="38" t="s">
         <v>129</v>
       </c>
-      <c r="J42" s="73" t="s">
-        <v>91</v>
-      </c>
-      <c r="K42" s="73" t="s">
+      <c r="J42" s="75" t="s">
+        <v>91</v>
+      </c>
+      <c r="K42" s="75" t="s">
         <v>26</v>
       </c>
       <c r="L42" s="39"/>
-      <c r="M42" s="73" t="s">
-        <v>91</v>
-      </c>
-      <c r="N42" s="73" t="s">
+      <c r="M42" s="75" t="s">
+        <v>91</v>
+      </c>
+      <c r="N42" s="75" t="s">
         <v>24</v>
       </c>
       <c r="O42" s="40" t="s">
@@ -7411,19 +9892,19 @@
       </c>
       <c r="R42" s="39"/>
       <c r="S42" s="39"/>
-      <c r="T42" s="73" t="s">
+      <c r="T42" s="75" t="s">
         <v>83</v>
       </c>
-      <c r="U42" s="73" t="s">
+      <c r="U42" s="75" t="s">
         <v>38</v>
       </c>
       <c r="V42" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="W42" s="73" t="s">
-        <v>91</v>
-      </c>
-      <c r="X42" s="73" t="s">
+      <c r="W42" s="75" t="s">
+        <v>91</v>
+      </c>
+      <c r="X42" s="75" t="s">
         <v>30</v>
       </c>
       <c r="Y42" s="40"/>
@@ -7457,19 +9938,19 @@
       <c r="I43" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="J43" s="72" t="s">
-        <v>91</v>
-      </c>
-      <c r="K43" s="72" t="s">
+      <c r="J43" s="76" t="s">
+        <v>91</v>
+      </c>
+      <c r="K43" s="76" t="s">
         <v>26</v>
       </c>
       <c r="L43" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="M43" s="72" t="s">
+      <c r="M43" s="76" t="s">
         <v>82</v>
       </c>
-      <c r="N43" s="72" t="s">
+      <c r="N43" s="76" t="s">
         <v>25</v>
       </c>
       <c r="O43" s="26" t="s">
@@ -7483,19 +9964,19 @@
       </c>
       <c r="R43" s="7"/>
       <c r="S43" s="7"/>
-      <c r="T43" s="72" t="s">
-        <v>91</v>
-      </c>
-      <c r="U43" s="72" t="s">
+      <c r="T43" s="76" t="s">
+        <v>91</v>
+      </c>
+      <c r="U43" s="76" t="s">
         <v>24</v>
       </c>
       <c r="V43" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="W43" s="72" t="s">
+      <c r="W43" s="76" t="s">
         <v>87</v>
       </c>
-      <c r="X43" s="72" t="s">
+      <c r="X43" s="76" t="s">
         <v>23</v>
       </c>
       <c r="Y43" s="26"/>
@@ -7529,17 +10010,17 @@
       <c r="I44" s="38" t="s">
         <v>146</v>
       </c>
-      <c r="J44" s="73" t="s">
+      <c r="J44" s="75" t="s">
         <v>82</v>
       </c>
-      <c r="K44" s="73" t="s">
+      <c r="K44" s="75" t="s">
         <v>25</v>
       </c>
       <c r="L44" s="39"/>
-      <c r="M44" s="73" t="s">
+      <c r="M44" s="75" t="s">
         <v>83</v>
       </c>
-      <c r="N44" s="73" t="s">
+      <c r="N44" s="75" t="s">
         <v>38</v>
       </c>
       <c r="O44" s="40" t="s">
@@ -7553,19 +10034,19 @@
       </c>
       <c r="R44" s="39"/>
       <c r="S44" s="39"/>
-      <c r="T44" s="73" t="s">
-        <v>91</v>
-      </c>
-      <c r="U44" s="73" t="s">
+      <c r="T44" s="75" t="s">
+        <v>91</v>
+      </c>
+      <c r="U44" s="75" t="s">
         <v>26</v>
       </c>
       <c r="V44" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="W44" s="73" t="s">
-        <v>91</v>
-      </c>
-      <c r="X44" s="73" t="s">
+      <c r="W44" s="75" t="s">
+        <v>91</v>
+      </c>
+      <c r="X44" s="75" t="s">
         <v>30</v>
       </c>
       <c r="Y44" s="40"/>
@@ -7599,17 +10080,17 @@
       <c r="I45" s="19" t="s">
         <v>147</v>
       </c>
-      <c r="J45" s="72" t="s">
-        <v>91</v>
-      </c>
-      <c r="K45" s="72" t="s">
+      <c r="J45" s="76" t="s">
+        <v>91</v>
+      </c>
+      <c r="K45" s="76" t="s">
         <v>24</v>
       </c>
       <c r="L45" s="7"/>
-      <c r="M45" s="72" t="s">
-        <v>91</v>
-      </c>
-      <c r="N45" s="72" t="s">
+      <c r="M45" s="76" t="s">
+        <v>91</v>
+      </c>
+      <c r="N45" s="76" t="s">
         <v>24</v>
       </c>
       <c r="O45" s="26" t="s">
@@ -7623,19 +10104,19 @@
       </c>
       <c r="R45" s="7"/>
       <c r="S45" s="7"/>
-      <c r="T45" s="72" t="s">
+      <c r="T45" s="76" t="s">
         <v>181</v>
       </c>
-      <c r="U45" s="72" t="s">
+      <c r="U45" s="76" t="s">
         <v>182</v>
       </c>
       <c r="V45" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="W45" s="72" t="s">
-        <v>91</v>
-      </c>
-      <c r="X45" s="72" t="s">
+      <c r="W45" s="76" t="s">
+        <v>91</v>
+      </c>
+      <c r="X45" s="76" t="s">
         <v>30</v>
       </c>
       <c r="Y45" s="26"/>
@@ -7669,17 +10150,17 @@
       <c r="I46" s="38" t="s">
         <v>131</v>
       </c>
-      <c r="J46" s="73" t="s">
-        <v>91</v>
-      </c>
-      <c r="K46" s="73" t="s">
+      <c r="J46" s="75" t="s">
+        <v>91</v>
+      </c>
+      <c r="K46" s="75" t="s">
         <v>24</v>
       </c>
       <c r="L46" s="39"/>
-      <c r="M46" s="73" t="s">
+      <c r="M46" s="75" t="s">
         <v>87</v>
       </c>
-      <c r="N46" s="73" t="s">
+      <c r="N46" s="75" t="s">
         <v>23</v>
       </c>
       <c r="O46" s="40" t="s">
@@ -7693,19 +10174,19 @@
       </c>
       <c r="R46" s="39"/>
       <c r="S46" s="39"/>
-      <c r="T46" s="73" t="s">
-        <v>91</v>
-      </c>
-      <c r="U46" s="73" t="s">
+      <c r="T46" s="75" t="s">
+        <v>91</v>
+      </c>
+      <c r="U46" s="75" t="s">
         <v>30</v>
       </c>
       <c r="V46" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="W46" s="73" t="s">
-        <v>91</v>
-      </c>
-      <c r="X46" s="73" t="s">
+      <c r="W46" s="75" t="s">
+        <v>91</v>
+      </c>
+      <c r="X46" s="75" t="s">
         <v>30</v>
       </c>
       <c r="Y46" s="40"/>
@@ -7739,17 +10220,17 @@
       <c r="I47" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="J47" s="72" t="s">
+      <c r="J47" s="76" t="s">
         <v>87</v>
       </c>
-      <c r="K47" s="72" t="s">
+      <c r="K47" s="76" t="s">
         <v>23</v>
       </c>
       <c r="L47" s="7"/>
-      <c r="M47" s="72" t="s">
-        <v>91</v>
-      </c>
-      <c r="N47" s="72" t="s">
+      <c r="M47" s="76" t="s">
+        <v>91</v>
+      </c>
+      <c r="N47" s="76" t="s">
         <v>24</v>
       </c>
       <c r="O47" s="26" t="s">
@@ -7763,19 +10244,19 @@
       </c>
       <c r="R47" s="7"/>
       <c r="S47" s="7"/>
-      <c r="T47" s="72" t="s">
-        <v>91</v>
-      </c>
-      <c r="U47" s="72" t="s">
+      <c r="T47" s="76" t="s">
+        <v>91</v>
+      </c>
+      <c r="U47" s="76" t="s">
         <v>24</v>
       </c>
       <c r="V47" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="W47" s="72" t="s">
-        <v>91</v>
-      </c>
-      <c r="X47" s="72" t="s">
+      <c r="W47" s="76" t="s">
+        <v>91</v>
+      </c>
+      <c r="X47" s="76" t="s">
         <v>30</v>
       </c>
       <c r="Y47" s="26"/>
@@ -7809,17 +10290,17 @@
       <c r="I48" s="38" t="s">
         <v>148</v>
       </c>
-      <c r="J48" s="73" t="s">
-        <v>91</v>
-      </c>
-      <c r="K48" s="73" t="s">
+      <c r="J48" s="75" t="s">
+        <v>91</v>
+      </c>
+      <c r="K48" s="75" t="s">
         <v>24</v>
       </c>
       <c r="L48" s="39"/>
-      <c r="M48" s="73" t="s">
+      <c r="M48" s="75" t="s">
         <v>87</v>
       </c>
-      <c r="N48" s="73" t="s">
+      <c r="N48" s="75" t="s">
         <v>66</v>
       </c>
       <c r="O48" s="40" t="s">
@@ -7833,19 +10314,19 @@
       </c>
       <c r="R48" s="39"/>
       <c r="S48" s="39"/>
-      <c r="T48" s="73" t="s">
-        <v>91</v>
-      </c>
-      <c r="U48" s="73" t="s">
+      <c r="T48" s="75" t="s">
+        <v>91</v>
+      </c>
+      <c r="U48" s="75" t="s">
         <v>30</v>
       </c>
       <c r="V48" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="W48" s="73" t="s">
-        <v>91</v>
-      </c>
-      <c r="X48" s="73" t="s">
+      <c r="W48" s="75" t="s">
+        <v>91</v>
+      </c>
+      <c r="X48" s="75" t="s">
         <v>30</v>
       </c>
       <c r="Y48" s="40"/>
@@ -7879,17 +10360,17 @@
       <c r="I49" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="J49" s="72" t="s">
-        <v>91</v>
-      </c>
-      <c r="K49" s="72" t="s">
+      <c r="J49" s="76" t="s">
+        <v>91</v>
+      </c>
+      <c r="K49" s="76" t="s">
         <v>24</v>
       </c>
       <c r="L49" s="7"/>
-      <c r="M49" s="72" t="s">
-        <v>91</v>
-      </c>
-      <c r="N49" s="72" t="s">
+      <c r="M49" s="76" t="s">
+        <v>91</v>
+      </c>
+      <c r="N49" s="76" t="s">
         <v>24</v>
       </c>
       <c r="O49" s="26" t="s">
@@ -7903,19 +10384,19 @@
       </c>
       <c r="R49" s="7"/>
       <c r="S49" s="7"/>
-      <c r="T49" s="72" t="s">
-        <v>91</v>
-      </c>
-      <c r="U49" s="72" t="s">
+      <c r="T49" s="76" t="s">
+        <v>91</v>
+      </c>
+      <c r="U49" s="76" t="s">
         <v>26</v>
       </c>
       <c r="V49" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="W49" s="72" t="s">
+      <c r="W49" s="76" t="s">
         <v>87</v>
       </c>
-      <c r="X49" s="72" t="s">
+      <c r="X49" s="76" t="s">
         <v>23</v>
       </c>
       <c r="Y49" s="26"/>
@@ -7949,17 +10430,17 @@
       <c r="I50" s="38" t="s">
         <v>134</v>
       </c>
-      <c r="J50" s="73" t="s">
-        <v>91</v>
-      </c>
-      <c r="K50" s="73" t="s">
+      <c r="J50" s="75" t="s">
+        <v>91</v>
+      </c>
+      <c r="K50" s="75" t="s">
         <v>24</v>
       </c>
       <c r="L50" s="39"/>
-      <c r="M50" s="73" t="s">
+      <c r="M50" s="75" t="s">
         <v>83</v>
       </c>
-      <c r="N50" s="73" t="s">
+      <c r="N50" s="75" t="s">
         <v>38</v>
       </c>
       <c r="O50" s="40" t="s">
@@ -7973,19 +10454,19 @@
       </c>
       <c r="R50" s="39"/>
       <c r="S50" s="39"/>
-      <c r="T50" s="73" t="s">
-        <v>91</v>
-      </c>
-      <c r="U50" s="73" t="s">
+      <c r="T50" s="75" t="s">
+        <v>91</v>
+      </c>
+      <c r="U50" s="75" t="s">
         <v>24</v>
       </c>
       <c r="V50" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="W50" s="73" t="s">
+      <c r="W50" s="75" t="s">
         <v>87</v>
       </c>
-      <c r="X50" s="73" t="s">
+      <c r="X50" s="75" t="s">
         <v>23</v>
       </c>
       <c r="Y50" s="40"/>
@@ -8019,17 +10500,17 @@
       <c r="I51" s="19" t="s">
         <v>149</v>
       </c>
-      <c r="J51" s="72" t="s">
+      <c r="J51" s="76" t="s">
         <v>83</v>
       </c>
-      <c r="K51" s="72" t="s">
+      <c r="K51" s="76" t="s">
         <v>38</v>
       </c>
       <c r="L51" s="7"/>
-      <c r="M51" s="72" t="s">
+      <c r="M51" s="76" t="s">
         <v>83</v>
       </c>
-      <c r="N51" s="72" t="s">
+      <c r="N51" s="76" t="s">
         <v>38</v>
       </c>
       <c r="O51" s="26" t="s">
@@ -8043,19 +10524,19 @@
       </c>
       <c r="R51" s="7"/>
       <c r="S51" s="7"/>
-      <c r="T51" s="72" t="s">
-        <v>91</v>
-      </c>
-      <c r="U51" s="72" t="s">
+      <c r="T51" s="76" t="s">
+        <v>91</v>
+      </c>
+      <c r="U51" s="76" t="s">
         <v>24</v>
       </c>
       <c r="V51" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="W51" s="72" t="s">
-        <v>91</v>
-      </c>
-      <c r="X51" s="72" t="s">
+      <c r="W51" s="76" t="s">
+        <v>91</v>
+      </c>
+      <c r="X51" s="76" t="s">
         <v>30</v>
       </c>
       <c r="Y51" s="26"/>
@@ -8089,19 +10570,19 @@
       <c r="I52" s="38" t="s">
         <v>150</v>
       </c>
-      <c r="J52" s="73" t="s">
+      <c r="J52" s="75" t="s">
         <v>90</v>
       </c>
-      <c r="K52" s="73" t="s">
+      <c r="K52" s="75" t="s">
         <v>71</v>
       </c>
       <c r="L52" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="M52" s="73" t="s">
-        <v>91</v>
-      </c>
-      <c r="N52" s="73" t="s">
+      <c r="M52" s="75" t="s">
+        <v>91</v>
+      </c>
+      <c r="N52" s="75" t="s">
         <v>24</v>
       </c>
       <c r="O52" s="40" t="s">
@@ -8115,19 +10596,19 @@
       </c>
       <c r="R52" s="39"/>
       <c r="S52" s="39"/>
-      <c r="T52" s="73" t="s">
+      <c r="T52" s="75" t="s">
         <v>90</v>
       </c>
-      <c r="U52" s="73" t="s">
+      <c r="U52" s="75" t="s">
         <v>71</v>
       </c>
       <c r="V52" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="W52" s="73" t="s">
-        <v>91</v>
-      </c>
-      <c r="X52" s="73" t="s">
+      <c r="W52" s="75" t="s">
+        <v>91</v>
+      </c>
+      <c r="X52" s="75" t="s">
         <v>30</v>
       </c>
       <c r="Y52" s="40"/>
@@ -8161,19 +10642,19 @@
       <c r="I53" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="J53" s="72" t="s">
-        <v>91</v>
-      </c>
-      <c r="K53" s="72" t="s">
+      <c r="J53" s="76" t="s">
+        <v>91</v>
+      </c>
+      <c r="K53" s="76" t="s">
         <v>26</v>
       </c>
       <c r="L53" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="M53" s="72" t="s">
-        <v>91</v>
-      </c>
-      <c r="N53" s="72" t="s">
+      <c r="M53" s="76" t="s">
+        <v>91</v>
+      </c>
+      <c r="N53" s="76" t="s">
         <v>24</v>
       </c>
       <c r="O53" s="26" t="s">
@@ -8187,19 +10668,19 @@
       </c>
       <c r="R53" s="7"/>
       <c r="S53" s="7"/>
-      <c r="T53" s="72" t="s">
-        <v>91</v>
-      </c>
-      <c r="U53" s="72" t="s">
+      <c r="T53" s="76" t="s">
+        <v>91</v>
+      </c>
+      <c r="U53" s="76" t="s">
         <v>30</v>
       </c>
       <c r="V53" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="W53" s="72" t="s">
-        <v>91</v>
-      </c>
-      <c r="X53" s="72" t="s">
+      <c r="W53" s="76" t="s">
+        <v>91</v>
+      </c>
+      <c r="X53" s="76" t="s">
         <v>30</v>
       </c>
       <c r="Y53" s="26"/>
@@ -8233,17 +10714,17 @@
       <c r="I54" s="38" t="s">
         <v>152</v>
       </c>
-      <c r="J54" s="73" t="s">
+      <c r="J54" s="75" t="s">
         <v>83</v>
       </c>
-      <c r="K54" s="73" t="s">
+      <c r="K54" s="75" t="s">
         <v>38</v>
       </c>
       <c r="L54" s="39"/>
-      <c r="M54" s="73" t="s">
+      <c r="M54" s="75" t="s">
         <v>82</v>
       </c>
-      <c r="N54" s="73" t="s">
+      <c r="N54" s="75" t="s">
         <v>25</v>
       </c>
       <c r="O54" s="40" t="s">
@@ -8257,19 +10738,19 @@
       </c>
       <c r="R54" s="39"/>
       <c r="S54" s="39"/>
-      <c r="T54" s="73" t="s">
+      <c r="T54" s="75" t="s">
         <v>181</v>
       </c>
-      <c r="U54" s="73" t="s">
+      <c r="U54" s="75" t="s">
         <v>182</v>
       </c>
       <c r="V54" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="W54" s="73" t="s">
-        <v>91</v>
-      </c>
-      <c r="X54" s="73" t="s">
+      <c r="W54" s="75" t="s">
+        <v>91</v>
+      </c>
+      <c r="X54" s="75" t="s">
         <v>30</v>
       </c>
       <c r="Y54" s="40"/>
@@ -8303,17 +10784,17 @@
       <c r="I55" s="19" t="s">
         <v>153</v>
       </c>
-      <c r="J55" s="72" t="s">
+      <c r="J55" s="76" t="s">
         <v>87</v>
       </c>
-      <c r="K55" s="72" t="s">
+      <c r="K55" s="76" t="s">
         <v>23</v>
       </c>
       <c r="L55" s="7"/>
-      <c r="M55" s="72" t="s">
-        <v>91</v>
-      </c>
-      <c r="N55" s="72" t="s">
+      <c r="M55" s="76" t="s">
+        <v>91</v>
+      </c>
+      <c r="N55" s="76" t="s">
         <v>24</v>
       </c>
       <c r="O55" s="26" t="s">
@@ -8327,19 +10808,19 @@
       </c>
       <c r="R55" s="7"/>
       <c r="S55" s="7"/>
-      <c r="T55" s="72" t="s">
-        <v>91</v>
-      </c>
-      <c r="U55" s="72" t="s">
+      <c r="T55" s="76" t="s">
+        <v>91</v>
+      </c>
+      <c r="U55" s="76" t="s">
         <v>24</v>
       </c>
       <c r="V55" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="W55" s="72" t="s">
-        <v>91</v>
-      </c>
-      <c r="X55" s="72" t="s">
+      <c r="W55" s="76" t="s">
+        <v>91</v>
+      </c>
+      <c r="X55" s="76" t="s">
         <v>30</v>
       </c>
       <c r="Y55" s="26"/>
@@ -8373,17 +10854,17 @@
       <c r="I56" s="38" t="s">
         <v>173</v>
       </c>
-      <c r="J56" s="73" t="s">
-        <v>91</v>
-      </c>
-      <c r="K56" s="73" t="s">
+      <c r="J56" s="75" t="s">
+        <v>91</v>
+      </c>
+      <c r="K56" s="75" t="s">
         <v>26</v>
       </c>
       <c r="L56" s="39"/>
-      <c r="M56" s="73" t="s">
-        <v>91</v>
-      </c>
-      <c r="N56" s="73" t="s">
+      <c r="M56" s="75" t="s">
+        <v>91</v>
+      </c>
+      <c r="N56" s="75" t="s">
         <v>24</v>
       </c>
       <c r="O56" s="40" t="s">
@@ -8397,19 +10878,19 @@
       </c>
       <c r="R56" s="39"/>
       <c r="S56" s="39"/>
-      <c r="T56" s="73" t="s">
-        <v>91</v>
-      </c>
-      <c r="U56" s="73" t="s">
+      <c r="T56" s="75" t="s">
+        <v>91</v>
+      </c>
+      <c r="U56" s="75" t="s">
         <v>26</v>
       </c>
       <c r="V56" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="W56" s="73" t="s">
-        <v>91</v>
-      </c>
-      <c r="X56" s="73" t="s">
+      <c r="W56" s="75" t="s">
+        <v>91</v>
+      </c>
+      <c r="X56" s="75" t="s">
         <v>30</v>
       </c>
       <c r="Y56" s="40"/>
@@ -8443,19 +10924,19 @@
       <c r="I57" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="J57" s="72" t="s">
-        <v>91</v>
-      </c>
-      <c r="K57" s="72" t="s">
+      <c r="J57" s="76" t="s">
+        <v>91</v>
+      </c>
+      <c r="K57" s="76" t="s">
         <v>24</v>
       </c>
       <c r="L57" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="M57" s="72" t="s">
+      <c r="M57" s="76" t="s">
         <v>82</v>
       </c>
-      <c r="N57" s="72" t="s">
+      <c r="N57" s="76" t="s">
         <v>25</v>
       </c>
       <c r="O57" s="26" t="s">
@@ -8469,19 +10950,19 @@
       </c>
       <c r="R57" s="7"/>
       <c r="S57" s="7"/>
-      <c r="T57" s="72" t="s">
-        <v>91</v>
-      </c>
-      <c r="U57" s="72" t="s">
+      <c r="T57" s="76" t="s">
+        <v>91</v>
+      </c>
+      <c r="U57" s="76" t="s">
         <v>24</v>
       </c>
       <c r="V57" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="W57" s="72" t="s">
+      <c r="W57" s="76" t="s">
         <v>82</v>
       </c>
-      <c r="X57" s="72" t="s">
+      <c r="X57" s="76" t="s">
         <v>25</v>
       </c>
       <c r="Y57" s="26"/>
@@ -8515,17 +10996,17 @@
       <c r="I58" s="38" t="s">
         <v>169</v>
       </c>
-      <c r="J58" s="73" t="s">
+      <c r="J58" s="75" t="s">
         <v>82</v>
       </c>
-      <c r="K58" s="73" t="s">
+      <c r="K58" s="75" t="s">
         <v>28</v>
       </c>
       <c r="L58" s="39"/>
-      <c r="M58" s="73" t="s">
+      <c r="M58" s="75" t="s">
         <v>83</v>
       </c>
-      <c r="N58" s="73" t="s">
+      <c r="N58" s="75" t="s">
         <v>78</v>
       </c>
       <c r="O58" s="40" t="s">
@@ -8539,19 +11020,19 @@
       </c>
       <c r="R58" s="39"/>
       <c r="S58" s="39"/>
-      <c r="T58" s="73" t="s">
+      <c r="T58" s="75" t="s">
         <v>83</v>
       </c>
-      <c r="U58" s="73" t="s">
+      <c r="U58" s="75" t="s">
         <v>38</v>
       </c>
       <c r="V58" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="W58" s="73" t="s">
-        <v>91</v>
-      </c>
-      <c r="X58" s="73" t="s">
+      <c r="W58" s="75" t="s">
+        <v>91</v>
+      </c>
+      <c r="X58" s="75" t="s">
         <v>30</v>
       </c>
       <c r="Y58" s="40"/>
@@ -8585,17 +11066,17 @@
       <c r="I59" s="19" t="s">
         <v>165</v>
       </c>
-      <c r="J59" s="72" t="s">
+      <c r="J59" s="76" t="s">
         <v>83</v>
       </c>
-      <c r="K59" s="72" t="s">
+      <c r="K59" s="76" t="s">
         <v>38</v>
       </c>
       <c r="L59" s="7"/>
-      <c r="M59" s="72" t="s">
+      <c r="M59" s="76" t="s">
         <v>82</v>
       </c>
-      <c r="N59" s="72" t="s">
+      <c r="N59" s="76" t="s">
         <v>25</v>
       </c>
       <c r="O59" s="26" t="s">
@@ -8609,19 +11090,19 @@
       </c>
       <c r="R59" s="7"/>
       <c r="S59" s="7"/>
-      <c r="T59" s="72" t="s">
-        <v>91</v>
-      </c>
-      <c r="U59" s="72" t="s">
+      <c r="T59" s="76" t="s">
+        <v>91</v>
+      </c>
+      <c r="U59" s="76" t="s">
         <v>26</v>
       </c>
       <c r="V59" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="W59" s="72" t="s">
+      <c r="W59" s="76" t="s">
         <v>184</v>
       </c>
-      <c r="X59" s="72" t="s">
+      <c r="X59" s="76" t="s">
         <v>185</v>
       </c>
       <c r="Y59" s="26"/>
@@ -8641,11 +11122,11 @@
       <c r="G60" s="51"/>
       <c r="H60" s="51"/>
       <c r="I60" s="50"/>
-      <c r="J60" s="81"/>
-      <c r="K60" s="82"/>
+      <c r="J60" s="71"/>
+      <c r="K60" s="72"/>
       <c r="L60" s="51"/>
-      <c r="M60" s="81"/>
-      <c r="N60" s="82"/>
+      <c r="M60" s="71"/>
+      <c r="N60" s="72"/>
       <c r="O60" s="52"/>
       <c r="P60" s="66"/>
       <c r="Q60" s="39" t="s">
@@ -8653,19 +11134,19 @@
       </c>
       <c r="R60" s="39"/>
       <c r="S60" s="39"/>
-      <c r="T60" s="73" t="s">
-        <v>91</v>
-      </c>
-      <c r="U60" s="73" t="s">
+      <c r="T60" s="75" t="s">
+        <v>91</v>
+      </c>
+      <c r="U60" s="75" t="s">
         <v>26</v>
       </c>
       <c r="V60" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="W60" s="73" t="s">
+      <c r="W60" s="75" t="s">
         <v>87</v>
       </c>
-      <c r="X60" s="73" t="s">
+      <c r="X60" s="75" t="s">
         <v>23</v>
       </c>
       <c r="Y60" s="52"/>
@@ -8683,11 +11164,11 @@
       <c r="G61" s="31"/>
       <c r="H61" s="31"/>
       <c r="I61" s="30"/>
-      <c r="J61" s="79"/>
-      <c r="K61" s="80"/>
+      <c r="J61" s="73"/>
+      <c r="K61" s="74"/>
       <c r="L61" s="31"/>
-      <c r="M61" s="79"/>
-      <c r="N61" s="80"/>
+      <c r="M61" s="73"/>
+      <c r="N61" s="74"/>
       <c r="O61" s="32"/>
       <c r="P61" s="65"/>
       <c r="Q61" s="32"/>
@@ -8713,11 +11194,11 @@
       <c r="G62" s="51"/>
       <c r="H62" s="51"/>
       <c r="I62" s="50"/>
-      <c r="J62" s="81"/>
-      <c r="K62" s="82"/>
+      <c r="J62" s="71"/>
+      <c r="K62" s="72"/>
       <c r="L62" s="51"/>
-      <c r="M62" s="81"/>
-      <c r="N62" s="82"/>
+      <c r="M62" s="71"/>
+      <c r="N62" s="72"/>
       <c r="O62" s="52"/>
       <c r="P62" s="66"/>
       <c r="Q62" s="52"/>
@@ -8743,11 +11224,11 @@
       <c r="G63" s="31"/>
       <c r="H63" s="31"/>
       <c r="I63" s="30"/>
-      <c r="J63" s="79"/>
-      <c r="K63" s="80"/>
+      <c r="J63" s="73"/>
+      <c r="K63" s="74"/>
       <c r="L63" s="31"/>
-      <c r="M63" s="79"/>
-      <c r="N63" s="80"/>
+      <c r="M63" s="73"/>
+      <c r="N63" s="74"/>
       <c r="O63" s="32"/>
       <c r="P63" s="65"/>
       <c r="Q63" s="32"/>
@@ -8773,11 +11254,11 @@
       <c r="G64" s="51"/>
       <c r="H64" s="51"/>
       <c r="I64" s="50"/>
-      <c r="J64" s="81"/>
-      <c r="K64" s="82"/>
+      <c r="J64" s="71"/>
+      <c r="K64" s="72"/>
       <c r="L64" s="51"/>
-      <c r="M64" s="81"/>
-      <c r="N64" s="82"/>
+      <c r="M64" s="71"/>
+      <c r="N64" s="72"/>
       <c r="O64" s="52"/>
       <c r="P64" s="66"/>
       <c r="Q64" s="52"/>
@@ -8803,11 +11284,11 @@
       <c r="G65" s="31"/>
       <c r="H65" s="31"/>
       <c r="I65" s="30"/>
-      <c r="J65" s="79"/>
-      <c r="K65" s="80"/>
+      <c r="J65" s="73"/>
+      <c r="K65" s="74"/>
       <c r="L65" s="31"/>
-      <c r="M65" s="79"/>
-      <c r="N65" s="80"/>
+      <c r="M65" s="73"/>
+      <c r="N65" s="74"/>
       <c r="O65" s="32"/>
       <c r="P65" s="65"/>
       <c r="Q65" s="32"/>
@@ -8847,17 +11328,17 @@
       <c r="I66" s="38" t="s">
         <v>163</v>
       </c>
-      <c r="J66" s="73" t="s">
-        <v>91</v>
-      </c>
-      <c r="K66" s="73" t="s">
+      <c r="J66" s="75" t="s">
+        <v>91</v>
+      </c>
+      <c r="K66" s="75" t="s">
         <v>24</v>
       </c>
       <c r="L66" s="39"/>
-      <c r="M66" s="73" t="s">
-        <v>91</v>
-      </c>
-      <c r="N66" s="73" t="s">
+      <c r="M66" s="75" t="s">
+        <v>91</v>
+      </c>
+      <c r="N66" s="75" t="s">
         <v>24</v>
       </c>
       <c r="O66" s="40" t="s">
@@ -8940,36 +11421,157 @@
     <row r="69" spans="1:26" ht="15" thickTop="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="205">
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="T14:U14"/>
+    <mergeCell ref="W14:X14"/>
+    <mergeCell ref="T15:U15"/>
+    <mergeCell ref="W15:X15"/>
+    <mergeCell ref="T16:U16"/>
+    <mergeCell ref="W16:X16"/>
+    <mergeCell ref="T17:U17"/>
+    <mergeCell ref="W17:X17"/>
+    <mergeCell ref="T18:U18"/>
+    <mergeCell ref="W18:X18"/>
+    <mergeCell ref="T19:U19"/>
+    <mergeCell ref="W19:X19"/>
+    <mergeCell ref="T20:U20"/>
+    <mergeCell ref="W20:X20"/>
+    <mergeCell ref="T21:U21"/>
+    <mergeCell ref="W21:X21"/>
+    <mergeCell ref="T22:U22"/>
+    <mergeCell ref="W22:X22"/>
+    <mergeCell ref="T23:U23"/>
+    <mergeCell ref="W23:X23"/>
+    <mergeCell ref="T24:U24"/>
+    <mergeCell ref="W24:X24"/>
+    <mergeCell ref="T25:U25"/>
+    <mergeCell ref="W25:X25"/>
+    <mergeCell ref="T26:U26"/>
+    <mergeCell ref="W26:X26"/>
+    <mergeCell ref="T27:U27"/>
+    <mergeCell ref="W27:X27"/>
+    <mergeCell ref="T28:U28"/>
+    <mergeCell ref="W28:X28"/>
+    <mergeCell ref="T29:U29"/>
+    <mergeCell ref="W29:X29"/>
+    <mergeCell ref="T30:U30"/>
+    <mergeCell ref="W30:X30"/>
+    <mergeCell ref="T31:U31"/>
+    <mergeCell ref="W31:X31"/>
+    <mergeCell ref="T32:U32"/>
+    <mergeCell ref="W32:X32"/>
+    <mergeCell ref="T33:U33"/>
+    <mergeCell ref="W33:X33"/>
+    <mergeCell ref="T34:U34"/>
+    <mergeCell ref="W34:X34"/>
+    <mergeCell ref="T35:U35"/>
+    <mergeCell ref="W35:X35"/>
+    <mergeCell ref="T36:U36"/>
+    <mergeCell ref="W36:X36"/>
+    <mergeCell ref="T37:U37"/>
+    <mergeCell ref="W37:X37"/>
+    <mergeCell ref="T38:U38"/>
+    <mergeCell ref="W38:X38"/>
+    <mergeCell ref="T39:U39"/>
+    <mergeCell ref="W39:X39"/>
+    <mergeCell ref="T40:U40"/>
+    <mergeCell ref="W40:X40"/>
+    <mergeCell ref="T41:U41"/>
+    <mergeCell ref="W41:X41"/>
+    <mergeCell ref="T42:U42"/>
+    <mergeCell ref="W42:X42"/>
+    <mergeCell ref="T43:U43"/>
+    <mergeCell ref="W43:X43"/>
+    <mergeCell ref="T44:U44"/>
+    <mergeCell ref="W44:X44"/>
+    <mergeCell ref="T45:U45"/>
+    <mergeCell ref="W45:X45"/>
+    <mergeCell ref="T46:U46"/>
+    <mergeCell ref="W46:X46"/>
+    <mergeCell ref="T47:U47"/>
+    <mergeCell ref="W47:X47"/>
+    <mergeCell ref="T48:U48"/>
+    <mergeCell ref="W48:X48"/>
+    <mergeCell ref="T49:U49"/>
+    <mergeCell ref="W49:X49"/>
+    <mergeCell ref="T50:U50"/>
+    <mergeCell ref="W50:X50"/>
+    <mergeCell ref="T51:U51"/>
+    <mergeCell ref="W51:X51"/>
+    <mergeCell ref="T52:U52"/>
+    <mergeCell ref="W52:X52"/>
+    <mergeCell ref="T53:U53"/>
+    <mergeCell ref="W53:X53"/>
+    <mergeCell ref="T54:U54"/>
+    <mergeCell ref="W54:X54"/>
+    <mergeCell ref="T55:U55"/>
+    <mergeCell ref="W55:X55"/>
+    <mergeCell ref="T56:U56"/>
+    <mergeCell ref="W56:X56"/>
+    <mergeCell ref="T57:U57"/>
+    <mergeCell ref="W57:X57"/>
+    <mergeCell ref="T58:U58"/>
+    <mergeCell ref="W58:X58"/>
+    <mergeCell ref="T59:U59"/>
+    <mergeCell ref="W59:X59"/>
+    <mergeCell ref="T60:U60"/>
+    <mergeCell ref="W60:X60"/>
+    <mergeCell ref="P6:P13"/>
+    <mergeCell ref="J65:K65"/>
+    <mergeCell ref="J64:K64"/>
+    <mergeCell ref="J63:K63"/>
+    <mergeCell ref="J62:K62"/>
+    <mergeCell ref="J60:K60"/>
+    <mergeCell ref="J61:K61"/>
+    <mergeCell ref="M55:N55"/>
+    <mergeCell ref="M56:N56"/>
+    <mergeCell ref="M57:N57"/>
+    <mergeCell ref="M58:N58"/>
+    <mergeCell ref="M59:N59"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="C6:C13"/>
+    <mergeCell ref="I6:I13"/>
+    <mergeCell ref="Z6:Z13"/>
+    <mergeCell ref="A6:A13"/>
+    <mergeCell ref="M54:N54"/>
+    <mergeCell ref="M48:N48"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="M49:N49"/>
+    <mergeCell ref="M50:N50"/>
+    <mergeCell ref="M51:N51"/>
+    <mergeCell ref="M52:N52"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="J66:K66"/>
+    <mergeCell ref="M66:N66"/>
+    <mergeCell ref="M65:N65"/>
+    <mergeCell ref="M64:N64"/>
+    <mergeCell ref="M63:N63"/>
+    <mergeCell ref="M43:N43"/>
+    <mergeCell ref="M44:N44"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="M46:N46"/>
+    <mergeCell ref="M47:N47"/>
+    <mergeCell ref="M62:N62"/>
+    <mergeCell ref="M61:N61"/>
+    <mergeCell ref="M60:N60"/>
     <mergeCell ref="M26:N26"/>
     <mergeCell ref="J57:K57"/>
     <mergeCell ref="J58:K58"/>
@@ -8994,222 +11596,101 @@
     <mergeCell ref="J47:K47"/>
     <mergeCell ref="J48:K48"/>
     <mergeCell ref="J49:K49"/>
-    <mergeCell ref="J66:K66"/>
-    <mergeCell ref="M66:N66"/>
-    <mergeCell ref="M65:N65"/>
-    <mergeCell ref="M64:N64"/>
-    <mergeCell ref="M63:N63"/>
-    <mergeCell ref="M43:N43"/>
-    <mergeCell ref="M44:N44"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="M46:N46"/>
-    <mergeCell ref="M47:N47"/>
-    <mergeCell ref="M62:N62"/>
-    <mergeCell ref="M61:N61"/>
-    <mergeCell ref="M60:N60"/>
-    <mergeCell ref="C6:C13"/>
-    <mergeCell ref="I6:I13"/>
-    <mergeCell ref="Z6:Z13"/>
-    <mergeCell ref="A6:A13"/>
-    <mergeCell ref="M54:N54"/>
-    <mergeCell ref="M48:N48"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="M49:N49"/>
-    <mergeCell ref="M50:N50"/>
-    <mergeCell ref="M51:N51"/>
-    <mergeCell ref="M52:N52"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="M35:N35"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="T59:U59"/>
-    <mergeCell ref="W59:X59"/>
-    <mergeCell ref="T60:U60"/>
-    <mergeCell ref="W60:X60"/>
-    <mergeCell ref="P6:P13"/>
-    <mergeCell ref="J65:K65"/>
-    <mergeCell ref="J64:K64"/>
-    <mergeCell ref="J63:K63"/>
-    <mergeCell ref="J62:K62"/>
-    <mergeCell ref="J60:K60"/>
-    <mergeCell ref="J61:K61"/>
-    <mergeCell ref="M55:N55"/>
-    <mergeCell ref="M56:N56"/>
-    <mergeCell ref="M57:N57"/>
-    <mergeCell ref="M58:N58"/>
-    <mergeCell ref="M59:N59"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="T54:U54"/>
-    <mergeCell ref="W54:X54"/>
-    <mergeCell ref="T55:U55"/>
-    <mergeCell ref="W55:X55"/>
-    <mergeCell ref="T56:U56"/>
-    <mergeCell ref="W56:X56"/>
-    <mergeCell ref="T57:U57"/>
-    <mergeCell ref="W57:X57"/>
-    <mergeCell ref="T58:U58"/>
-    <mergeCell ref="W58:X58"/>
-    <mergeCell ref="T49:U49"/>
-    <mergeCell ref="W49:X49"/>
-    <mergeCell ref="T50:U50"/>
-    <mergeCell ref="W50:X50"/>
-    <mergeCell ref="T51:U51"/>
-    <mergeCell ref="W51:X51"/>
-    <mergeCell ref="T52:U52"/>
-    <mergeCell ref="W52:X52"/>
-    <mergeCell ref="T53:U53"/>
-    <mergeCell ref="W53:X53"/>
-    <mergeCell ref="T44:U44"/>
-    <mergeCell ref="W44:X44"/>
-    <mergeCell ref="T45:U45"/>
-    <mergeCell ref="W45:X45"/>
-    <mergeCell ref="T46:U46"/>
-    <mergeCell ref="W46:X46"/>
-    <mergeCell ref="T47:U47"/>
-    <mergeCell ref="W47:X47"/>
-    <mergeCell ref="T48:U48"/>
-    <mergeCell ref="W48:X48"/>
-    <mergeCell ref="T39:U39"/>
-    <mergeCell ref="W39:X39"/>
-    <mergeCell ref="T40:U40"/>
-    <mergeCell ref="W40:X40"/>
-    <mergeCell ref="T41:U41"/>
-    <mergeCell ref="W41:X41"/>
-    <mergeCell ref="T42:U42"/>
-    <mergeCell ref="W42:X42"/>
-    <mergeCell ref="T43:U43"/>
-    <mergeCell ref="W43:X43"/>
-    <mergeCell ref="T34:U34"/>
-    <mergeCell ref="W34:X34"/>
-    <mergeCell ref="T35:U35"/>
-    <mergeCell ref="W35:X35"/>
-    <mergeCell ref="T36:U36"/>
-    <mergeCell ref="W36:X36"/>
-    <mergeCell ref="T37:U37"/>
-    <mergeCell ref="W37:X37"/>
-    <mergeCell ref="T38:U38"/>
-    <mergeCell ref="W38:X38"/>
-    <mergeCell ref="T29:U29"/>
-    <mergeCell ref="W29:X29"/>
-    <mergeCell ref="T30:U30"/>
-    <mergeCell ref="W30:X30"/>
-    <mergeCell ref="T31:U31"/>
-    <mergeCell ref="W31:X31"/>
-    <mergeCell ref="T32:U32"/>
-    <mergeCell ref="W32:X32"/>
-    <mergeCell ref="T33:U33"/>
-    <mergeCell ref="W33:X33"/>
-    <mergeCell ref="T24:U24"/>
-    <mergeCell ref="W24:X24"/>
-    <mergeCell ref="T25:U25"/>
-    <mergeCell ref="W25:X25"/>
-    <mergeCell ref="T26:U26"/>
-    <mergeCell ref="W26:X26"/>
-    <mergeCell ref="T27:U27"/>
-    <mergeCell ref="W27:X27"/>
-    <mergeCell ref="T28:U28"/>
-    <mergeCell ref="W28:X28"/>
-    <mergeCell ref="T19:U19"/>
-    <mergeCell ref="W19:X19"/>
-    <mergeCell ref="T20:U20"/>
-    <mergeCell ref="W20:X20"/>
-    <mergeCell ref="T21:U21"/>
-    <mergeCell ref="W21:X21"/>
-    <mergeCell ref="T22:U22"/>
-    <mergeCell ref="W22:X22"/>
-    <mergeCell ref="T23:U23"/>
-    <mergeCell ref="W23:X23"/>
-    <mergeCell ref="T14:U14"/>
-    <mergeCell ref="W14:X14"/>
-    <mergeCell ref="T15:U15"/>
-    <mergeCell ref="W15:X15"/>
-    <mergeCell ref="T16:U16"/>
-    <mergeCell ref="W16:X16"/>
-    <mergeCell ref="T17:U17"/>
-    <mergeCell ref="W17:X17"/>
-    <mergeCell ref="T18:U18"/>
-    <mergeCell ref="W18:X18"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="J28:K28"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A6:F6 I6:N6 Z6:IV6">
-    <cfRule type="expression" dxfId="29" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="35" priority="10" stopIfTrue="1">
       <formula>B$5="1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="34" priority="11" stopIfTrue="1">
       <formula>B$7="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="33" priority="12" stopIfTrue="1">
       <formula>B$7="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7 D7:H7 J7:O7 AA7:IV7">
-    <cfRule type="expression" dxfId="26" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="32" priority="7" stopIfTrue="1">
       <formula>B$5="1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="31" priority="8" stopIfTrue="1">
       <formula>B$7="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="9" stopIfTrue="1">
       <formula>B$7="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6:H6">
-    <cfRule type="expression" dxfId="23" priority="58" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="58" stopIfTrue="1">
       <formula>I$5="1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="59" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="59" stopIfTrue="1">
       <formula>I$7="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="60" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="60" stopIfTrue="1">
       <formula>I$7="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O6">
-    <cfRule type="expression" dxfId="20" priority="46" stopIfTrue="1">
+    <cfRule type="expression" dxfId="26" priority="46" stopIfTrue="1">
       <formula>X$5="1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="47" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="47" stopIfTrue="1">
       <formula>X$7="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="48" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="48" stopIfTrue="1">
       <formula>X$7="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P6">
-    <cfRule type="expression" dxfId="17" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="1" stopIfTrue="1">
       <formula>Q$5="1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="2" stopIfTrue="1">
       <formula>Q$7="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="3" stopIfTrue="1">
       <formula>Q$7="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q6:Y7">
-    <cfRule type="expression" dxfId="14" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="20" priority="4" stopIfTrue="1">
       <formula>Q$5="1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="5" stopIfTrue="1">
       <formula>Q$7="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="6" stopIfTrue="1">
       <formula>Q$7="土"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/app/xlsx/18003198194881_4PJ.xlsx
+++ b/app/xlsx/18003198194881_4PJ.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luiha\OneDrive\デスクトップ\MyGo\rolemaster0.5\RoleMaserV0.5\app\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyGo\rolemaster0.5\RoleMaserV0.5\app\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0A28616-5DA8-41E1-92CE-32B34CBBD81E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2425A8E7-9E34-4330-9310-8BE8FF568BD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PJシフト4月" sheetId="4" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2199" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2199" uniqueCount="197">
   <si>
     <t>ミエルココン</t>
   </si>
@@ -718,6 +718,10 @@
   </si>
   <si>
     <t>でんでん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>8:30-15:30</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1586,28 +1590,10 @@
     <xf numFmtId="176" fontId="3" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1640,6 +1626,24 @@
     <xf numFmtId="176" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -1653,127 +1657,7 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="66">
-    <dxf>
-      <font>
-        <color theme="8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
+  <dxfs count="42">
     <dxf>
       <font>
         <color theme="8"/>
@@ -2257,18 +2141,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EE3DD89-42D5-4E57-AB52-235C4D14B7E6}">
   <dimension ref="A2:O69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B42" workbookViewId="0">
-      <selection activeCell="L72" sqref="L72"/>
+    <sheetView tabSelected="1" topLeftCell="F12" workbookViewId="0">
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.5" style="4" customWidth="1"/>
-    <col min="2" max="3" width="16.75" style="3" customWidth="1"/>
-    <col min="4" max="15" width="16.75" style="4" customWidth="1"/>
+    <col min="1" max="1" width="4.46484375" style="4" customWidth="1"/>
+    <col min="2" max="3" width="16.73046875" style="3" customWidth="1"/>
+    <col min="4" max="15" width="16.73046875" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:15" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" ht="18.75" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
       <c r="B2" s="1" t="s">
         <v>0</v>
@@ -2289,12 +2173,12 @@
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" ht="14.65" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="6"/>
       <c r="B5" s="5" t="s">
         <v>3</v>
@@ -2325,12 +2209,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="79"/>
+    <row r="6" spans="1:15" ht="14.65" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="73"/>
       <c r="B6" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="82" t="s">
+      <c r="C6" s="76" t="s">
         <v>167</v>
       </c>
       <c r="D6" s="8">
@@ -2348,7 +2232,7 @@
       <c r="H6" s="8">
         <v>15</v>
       </c>
-      <c r="I6" s="85" t="s">
+      <c r="I6" s="79" t="s">
         <v>167</v>
       </c>
       <c r="J6" s="8">
@@ -2370,12 +2254,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A7" s="80"/>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="74"/>
       <c r="B7" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="83"/>
+      <c r="C7" s="77"/>
       <c r="D7" s="7" t="s">
         <v>8</v>
       </c>
@@ -2391,7 +2275,7 @@
       <c r="H7" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="I7" s="86"/>
+      <c r="I7" s="80"/>
       <c r="J7" s="7" t="s">
         <v>8</v>
       </c>
@@ -2411,12 +2295,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A8" s="80"/>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="74"/>
       <c r="B8" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="83"/>
+      <c r="C8" s="77"/>
       <c r="D8" s="7">
         <v>68</v>
       </c>
@@ -2430,7 +2314,7 @@
         <v>60</v>
       </c>
       <c r="H8" s="7"/>
-      <c r="I8" s="86"/>
+      <c r="I8" s="80"/>
       <c r="J8" s="7">
         <v>90</v>
       </c>
@@ -2448,12 +2332,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A9" s="80"/>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="74"/>
       <c r="B9" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="83"/>
+      <c r="C9" s="77"/>
       <c r="D9" s="17">
         <v>14</v>
       </c>
@@ -2469,7 +2353,7 @@
       <c r="H9" s="17">
         <v>10</v>
       </c>
-      <c r="I9" s="86"/>
+      <c r="I9" s="80"/>
       <c r="J9" s="17">
         <v>18</v>
       </c>
@@ -2487,12 +2371,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A10" s="80"/>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="74"/>
       <c r="B10" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="83"/>
+      <c r="C10" s="77"/>
       <c r="D10" s="7" t="s">
         <v>13</v>
       </c>
@@ -2506,7 +2390,7 @@
         <v>13</v>
       </c>
       <c r="H10" s="7"/>
-      <c r="I10" s="86"/>
+      <c r="I10" s="80"/>
       <c r="J10" s="7" t="s">
         <v>13</v>
       </c>
@@ -2524,12 +2408,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A11" s="80"/>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="74"/>
       <c r="B11" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="C11" s="83"/>
+      <c r="C11" s="77"/>
       <c r="D11" s="7" t="s">
         <v>94</v>
       </c>
@@ -2545,7 +2429,7 @@
       <c r="H11" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="I11" s="86"/>
+      <c r="I11" s="80"/>
       <c r="J11" s="7" t="s">
         <v>97</v>
       </c>
@@ -2563,12 +2447,12 @@
         <v>96</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A12" s="80"/>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="74"/>
       <c r="B12" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="83"/>
+      <c r="C12" s="77"/>
       <c r="D12" s="7" t="s">
         <v>17</v>
       </c>
@@ -2584,7 +2468,7 @@
       <c r="H12" s="18">
         <v>0.6875</v>
       </c>
-      <c r="I12" s="86"/>
+      <c r="I12" s="80"/>
       <c r="J12" s="7" t="s">
         <v>17</v>
       </c>
@@ -2604,12 +2488,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="81"/>
+    <row r="13" spans="1:15" ht="14.65" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="75"/>
       <c r="B13" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="84"/>
+      <c r="C13" s="78"/>
       <c r="D13" s="7" t="s">
         <v>21</v>
       </c>
@@ -2625,7 +2509,7 @@
       <c r="H13" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="I13" s="87"/>
+      <c r="I13" s="81"/>
       <c r="J13" s="7" t="s">
         <v>21</v>
       </c>
@@ -2645,7 +2529,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="15" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:15" ht="14.65" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A14" s="41">
         <v>1</v>
       </c>
@@ -2671,24 +2555,24 @@
       <c r="I14" s="42" t="s">
         <v>154</v>
       </c>
-      <c r="J14" s="88" t="s">
+      <c r="J14" s="82" t="s">
         <v>88</v>
       </c>
-      <c r="K14" s="88" t="s">
+      <c r="K14" s="82" t="s">
         <v>25</v>
       </c>
       <c r="L14" s="43"/>
-      <c r="M14" s="88" t="s">
-        <v>82</v>
-      </c>
-      <c r="N14" s="88" t="s">
+      <c r="M14" s="71" t="s">
+        <v>87</v>
+      </c>
+      <c r="N14" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="O14" s="44" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="O14" s="26" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="33">
         <v>2</v>
       </c>
@@ -2714,26 +2598,26 @@
       <c r="I15" s="19" t="s">
         <v>155</v>
       </c>
-      <c r="J15" s="76" t="s">
+      <c r="J15" s="72" t="s">
         <v>82</v>
       </c>
-      <c r="K15" s="76" t="s">
+      <c r="K15" s="72" t="s">
         <v>28</v>
       </c>
       <c r="L15" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="M15" s="76" t="s">
+      <c r="M15" s="72" t="s">
         <v>82</v>
       </c>
-      <c r="N15" s="76" t="s">
+      <c r="N15" s="72" t="s">
         <v>25</v>
       </c>
       <c r="O15" s="26" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="37">
         <v>3</v>
       </c>
@@ -2759,24 +2643,24 @@
       <c r="I16" s="38" t="s">
         <v>166</v>
       </c>
-      <c r="J16" s="75" t="s">
+      <c r="J16" s="71" t="s">
         <v>87</v>
       </c>
-      <c r="K16" s="75" t="s">
+      <c r="K16" s="71" t="s">
         <v>23</v>
       </c>
       <c r="L16" s="39"/>
-      <c r="M16" s="75" t="s">
+      <c r="M16" s="71" t="s">
         <v>87</v>
       </c>
-      <c r="N16" s="75" t="s">
+      <c r="N16" s="71" t="s">
         <v>23</v>
       </c>
       <c r="O16" s="40" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="33">
         <v>4</v>
       </c>
@@ -2802,24 +2686,24 @@
       <c r="I17" s="19" t="s">
         <v>156</v>
       </c>
-      <c r="J17" s="76" t="s">
-        <v>92</v>
-      </c>
-      <c r="K17" s="76" t="s">
+      <c r="J17" s="72" t="s">
+        <v>92</v>
+      </c>
+      <c r="K17" s="72" t="s">
         <v>24</v>
       </c>
       <c r="L17" s="7"/>
-      <c r="M17" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="N17" s="76" t="s">
+      <c r="M17" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="N17" s="72" t="s">
         <v>24</v>
       </c>
       <c r="O17" s="26" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="37">
         <v>5</v>
       </c>
@@ -2845,24 +2729,24 @@
       <c r="I18" s="38" t="s">
         <v>157</v>
       </c>
-      <c r="J18" s="75" t="s">
+      <c r="J18" s="71" t="s">
         <v>87</v>
       </c>
-      <c r="K18" s="75" t="s">
+      <c r="K18" s="71" t="s">
         <v>23</v>
       </c>
       <c r="L18" s="39"/>
-      <c r="M18" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="N18" s="75" t="s">
+      <c r="M18" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="N18" s="71" t="s">
         <v>24</v>
       </c>
       <c r="O18" s="40" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="33">
         <v>6</v>
       </c>
@@ -2888,24 +2772,24 @@
       <c r="I19" s="19" t="s">
         <v>158</v>
       </c>
-      <c r="J19" s="76" t="s">
+      <c r="J19" s="72" t="s">
         <v>86</v>
       </c>
-      <c r="K19" s="76" t="s">
+      <c r="K19" s="72" t="s">
         <v>34</v>
       </c>
       <c r="L19" s="7"/>
-      <c r="M19" s="76" t="s">
+      <c r="M19" s="72" t="s">
         <v>82</v>
       </c>
-      <c r="N19" s="76" t="s">
+      <c r="N19" s="72" t="s">
         <v>28</v>
       </c>
       <c r="O19" s="26" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="37">
         <v>7</v>
       </c>
@@ -2931,24 +2815,24 @@
       <c r="I20" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="J20" s="75" t="s">
+      <c r="J20" s="71" t="s">
         <v>87</v>
       </c>
-      <c r="K20" s="75" t="s">
+      <c r="K20" s="71" t="s">
         <v>23</v>
       </c>
       <c r="L20" s="39"/>
-      <c r="M20" s="75" t="s">
+      <c r="M20" s="71" t="s">
         <v>87</v>
       </c>
-      <c r="N20" s="75" t="s">
+      <c r="N20" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="O20" s="40" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="O20" s="26" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="33">
         <v>8</v>
       </c>
@@ -2974,24 +2858,24 @@
       <c r="I21" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="J21" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="K21" s="76" t="s">
+      <c r="J21" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="K21" s="72" t="s">
         <v>24</v>
       </c>
       <c r="L21" s="7"/>
-      <c r="M21" s="76" t="s">
+      <c r="M21" s="72" t="s">
         <v>87</v>
       </c>
-      <c r="N21" s="76" t="s">
+      <c r="N21" s="72" t="s">
         <v>23</v>
       </c>
       <c r="O21" s="26" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" s="37">
         <v>9</v>
       </c>
@@ -3017,24 +2901,24 @@
       <c r="I22" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="J22" s="75" t="s">
+      <c r="J22" s="71" t="s">
         <v>82</v>
       </c>
-      <c r="K22" s="75" t="s">
+      <c r="K22" s="71" t="s">
         <v>25</v>
       </c>
       <c r="L22" s="39"/>
-      <c r="M22" s="75" t="s">
+      <c r="M22" s="71" t="s">
         <v>83</v>
       </c>
-      <c r="N22" s="75" t="s">
+      <c r="N22" s="71" t="s">
         <v>38</v>
       </c>
       <c r="O22" s="40" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" s="33">
         <v>10</v>
       </c>
@@ -3060,26 +2944,26 @@
       <c r="I23" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="J23" s="76" t="s">
+      <c r="J23" s="72" t="s">
         <v>87</v>
       </c>
-      <c r="K23" s="76" t="s">
+      <c r="K23" s="72" t="s">
         <v>23</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="M23" s="76" t="s">
+      <c r="M23" s="72" t="s">
         <v>83</v>
       </c>
-      <c r="N23" s="76" t="s">
+      <c r="N23" s="72" t="s">
         <v>38</v>
       </c>
       <c r="O23" s="26" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" s="37">
         <v>11</v>
       </c>
@@ -3105,24 +2989,24 @@
       <c r="I24" s="38" t="s">
         <v>112</v>
       </c>
-      <c r="J24" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="K24" s="75" t="s">
+      <c r="J24" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="K24" s="71" t="s">
         <v>24</v>
       </c>
       <c r="L24" s="39"/>
-      <c r="M24" s="75" t="s">
+      <c r="M24" s="71" t="s">
         <v>82</v>
       </c>
-      <c r="N24" s="75" t="s">
+      <c r="N24" s="71" t="s">
         <v>25</v>
       </c>
       <c r="O24" s="40" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" s="33">
         <v>12</v>
       </c>
@@ -3148,24 +3032,24 @@
       <c r="I25" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="J25" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="K25" s="76" t="s">
+      <c r="J25" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="K25" s="72" t="s">
         <v>30</v>
       </c>
       <c r="L25" s="7"/>
-      <c r="M25" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="N25" s="76" t="s">
+      <c r="M25" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="N25" s="72" t="s">
         <v>30</v>
       </c>
       <c r="O25" s="26" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" s="37">
         <v>13</v>
       </c>
@@ -3191,26 +3075,26 @@
       <c r="I26" s="38" t="s">
         <v>114</v>
       </c>
-      <c r="J26" s="75" t="s">
+      <c r="J26" s="71" t="s">
         <v>87</v>
       </c>
-      <c r="K26" s="75" t="s">
+      <c r="K26" s="71" t="s">
         <v>23</v>
       </c>
       <c r="L26" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="M26" s="75" t="s">
+      <c r="M26" s="71" t="s">
         <v>87</v>
       </c>
-      <c r="N26" s="75" t="s">
+      <c r="N26" s="71" t="s">
         <v>23</v>
       </c>
       <c r="O26" s="40" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" s="33">
         <v>14</v>
       </c>
@@ -3236,24 +3120,24 @@
       <c r="I27" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="J27" s="76" t="s">
+      <c r="J27" s="72" t="s">
         <v>89</v>
       </c>
-      <c r="K27" s="76" t="s">
+      <c r="K27" s="72" t="s">
         <v>44</v>
       </c>
       <c r="L27" s="7"/>
-      <c r="M27" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="N27" s="76" t="s">
+      <c r="M27" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="N27" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="O27" s="26" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="O27" s="40" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" s="37">
         <v>15</v>
       </c>
@@ -3279,26 +3163,26 @@
       <c r="I28" s="38" t="s">
         <v>116</v>
       </c>
-      <c r="J28" s="75" t="s">
+      <c r="J28" s="71" t="s">
         <v>87</v>
       </c>
-      <c r="K28" s="75" t="s">
+      <c r="K28" s="71" t="s">
         <v>23</v>
       </c>
       <c r="L28" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="M28" s="75" t="s">
+      <c r="M28" s="71" t="s">
         <v>82</v>
       </c>
-      <c r="N28" s="75" t="s">
+      <c r="N28" s="71" t="s">
         <v>25</v>
       </c>
       <c r="O28" s="40" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" s="33">
         <v>16</v>
       </c>
@@ -3324,24 +3208,24 @@
       <c r="I29" s="19" t="s">
         <v>159</v>
       </c>
-      <c r="J29" s="76" t="s">
+      <c r="J29" s="72" t="s">
         <v>87</v>
       </c>
-      <c r="K29" s="76" t="s">
+      <c r="K29" s="72" t="s">
         <v>23</v>
       </c>
       <c r="L29" s="7"/>
-      <c r="M29" s="76" t="s">
+      <c r="M29" s="72" t="s">
         <v>87</v>
       </c>
-      <c r="N29" s="76" t="s">
+      <c r="N29" s="72" t="s">
         <v>23</v>
       </c>
       <c r="O29" s="26" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" s="37">
         <v>17</v>
       </c>
@@ -3367,24 +3251,24 @@
       <c r="I30" s="38" t="s">
         <v>160</v>
       </c>
-      <c r="J30" s="75" t="s">
+      <c r="J30" s="71" t="s">
         <v>87</v>
       </c>
-      <c r="K30" s="75" t="s">
+      <c r="K30" s="71" t="s">
         <v>23</v>
       </c>
       <c r="L30" s="39"/>
-      <c r="M30" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="N30" s="75" t="s">
+      <c r="M30" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="N30" s="71" t="s">
         <v>26</v>
       </c>
       <c r="O30" s="40" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" s="33">
         <v>18</v>
       </c>
@@ -3410,24 +3294,24 @@
       <c r="I31" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="J31" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="K31" s="76" t="s">
+      <c r="J31" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="K31" s="72" t="s">
         <v>24</v>
       </c>
       <c r="L31" s="7"/>
-      <c r="M31" s="76" t="s">
+      <c r="M31" s="72" t="s">
         <v>82</v>
       </c>
-      <c r="N31" s="76" t="s">
+      <c r="N31" s="72" t="s">
         <v>28</v>
       </c>
       <c r="O31" s="26" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" s="37">
         <v>19</v>
       </c>
@@ -3453,24 +3337,24 @@
       <c r="I32" s="38" t="s">
         <v>163</v>
       </c>
-      <c r="J32" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="K32" s="75" t="s">
+      <c r="J32" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="K32" s="71" t="s">
         <v>24</v>
       </c>
       <c r="L32" s="39"/>
-      <c r="M32" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="N32" s="75" t="s">
+      <c r="M32" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="N32" s="71" t="s">
         <v>24</v>
       </c>
       <c r="O32" s="40" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" s="33">
         <v>20</v>
       </c>
@@ -3496,24 +3380,24 @@
       <c r="I33" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="J33" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="K33" s="76" t="s">
+      <c r="J33" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="K33" s="72" t="s">
         <v>24</v>
       </c>
       <c r="L33" s="7"/>
-      <c r="M33" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="N33" s="76" t="s">
-        <v>24</v>
+      <c r="M33" s="72" t="s">
+        <v>83</v>
+      </c>
+      <c r="N33" s="72" t="s">
+        <v>38</v>
       </c>
       <c r="O33" s="26" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34" s="37">
         <v>21</v>
       </c>
@@ -3539,24 +3423,24 @@
       <c r="I34" s="38" t="s">
         <v>121</v>
       </c>
-      <c r="J34" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="K34" s="75" t="s">
+      <c r="J34" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="K34" s="71" t="s">
         <v>24</v>
       </c>
       <c r="L34" s="39"/>
-      <c r="M34" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="N34" s="75" t="s">
+      <c r="M34" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="N34" s="71" t="s">
         <v>24</v>
       </c>
       <c r="O34" s="40" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35" s="33">
         <v>22</v>
       </c>
@@ -3582,24 +3466,24 @@
       <c r="I35" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="J35" s="76" t="s">
+      <c r="J35" s="72" t="s">
         <v>82</v>
       </c>
-      <c r="K35" s="76" t="s">
+      <c r="K35" s="72" t="s">
         <v>25</v>
       </c>
       <c r="L35" s="7"/>
-      <c r="M35" s="76" t="s">
+      <c r="M35" s="72" t="s">
         <v>87</v>
       </c>
-      <c r="N35" s="76" t="s">
+      <c r="N35" s="72" t="s">
         <v>23</v>
       </c>
       <c r="O35" s="26" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36" s="37">
         <v>23</v>
       </c>
@@ -3625,24 +3509,24 @@
       <c r="I36" s="38" t="s">
         <v>123</v>
       </c>
-      <c r="J36" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="K36" s="75" t="s">
+      <c r="J36" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="K36" s="71" t="s">
         <v>24</v>
       </c>
       <c r="L36" s="39"/>
-      <c r="M36" s="75" t="s">
+      <c r="M36" s="71" t="s">
         <v>82</v>
       </c>
-      <c r="N36" s="75" t="s">
+      <c r="N36" s="71" t="s">
         <v>25</v>
       </c>
       <c r="O36" s="40" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37" s="33">
         <v>24</v>
       </c>
@@ -3668,24 +3552,24 @@
       <c r="I37" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="J37" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="K37" s="76" t="s">
+      <c r="J37" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="K37" s="72" t="s">
         <v>24</v>
       </c>
       <c r="L37" s="7"/>
-      <c r="M37" s="76" t="s">
+      <c r="M37" s="72" t="s">
         <v>87</v>
       </c>
-      <c r="N37" s="76" t="s">
+      <c r="N37" s="72" t="s">
         <v>23</v>
       </c>
       <c r="O37" s="26" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38" s="37">
         <v>25</v>
       </c>
@@ -3711,24 +3595,24 @@
       <c r="I38" s="38" t="s">
         <v>124</v>
       </c>
-      <c r="J38" s="75" t="s">
+      <c r="J38" s="71" t="s">
         <v>87</v>
       </c>
-      <c r="K38" s="75" t="s">
+      <c r="K38" s="71" t="s">
         <v>23</v>
       </c>
       <c r="L38" s="39"/>
-      <c r="M38" s="75" t="s">
+      <c r="M38" s="71" t="s">
         <v>87</v>
       </c>
-      <c r="N38" s="75" t="s">
+      <c r="N38" s="71" t="s">
         <v>23</v>
       </c>
       <c r="O38" s="40" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39" s="33">
         <v>26</v>
       </c>
@@ -3754,24 +3638,24 @@
       <c r="I39" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="J39" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="K39" s="76" t="s">
+      <c r="J39" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="K39" s="72" t="s">
         <v>24</v>
       </c>
       <c r="L39" s="7"/>
-      <c r="M39" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="N39" s="76" t="s">
+      <c r="M39" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="N39" s="72" t="s">
         <v>24</v>
       </c>
       <c r="O39" s="26" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:15" ht="14.65" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="45">
         <v>27</v>
       </c>
@@ -3797,26 +3681,26 @@
       <c r="I40" s="47" t="s">
         <v>127</v>
       </c>
-      <c r="J40" s="77" t="s">
-        <v>91</v>
-      </c>
-      <c r="K40" s="77" t="s">
+      <c r="J40" s="83" t="s">
+        <v>91</v>
+      </c>
+      <c r="K40" s="83" t="s">
         <v>30</v>
       </c>
       <c r="L40" s="48" t="s">
         <v>81</v>
       </c>
-      <c r="M40" s="77" t="s">
-        <v>91</v>
-      </c>
-      <c r="N40" s="77" t="s">
+      <c r="M40" s="83" t="s">
+        <v>91</v>
+      </c>
+      <c r="N40" s="83" t="s">
         <v>24</v>
       </c>
       <c r="O40" s="49" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="15" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:15" ht="14.65" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A41" s="35">
         <v>28</v>
       </c>
@@ -3842,24 +3726,24 @@
       <c r="I41" s="30" t="s">
         <v>128</v>
       </c>
-      <c r="J41" s="78" t="s">
+      <c r="J41" s="84" t="s">
         <v>87</v>
       </c>
-      <c r="K41" s="78" t="s">
+      <c r="K41" s="84" t="s">
         <v>23</v>
       </c>
       <c r="L41" s="31"/>
-      <c r="M41" s="78" t="s">
-        <v>91</v>
-      </c>
-      <c r="N41" s="78" t="s">
+      <c r="M41" s="84" t="s">
+        <v>91</v>
+      </c>
+      <c r="N41" s="84" t="s">
         <v>24</v>
       </c>
       <c r="O41" s="32" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42" s="37">
         <v>29</v>
       </c>
@@ -3885,24 +3769,24 @@
       <c r="I42" s="38" t="s">
         <v>129</v>
       </c>
-      <c r="J42" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="K42" s="75" t="s">
+      <c r="J42" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="K42" s="71" t="s">
         <v>26</v>
       </c>
       <c r="L42" s="39"/>
-      <c r="M42" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="N42" s="75" t="s">
+      <c r="M42" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="N42" s="71" t="s">
         <v>24</v>
       </c>
       <c r="O42" s="40" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A43" s="33">
         <v>30</v>
       </c>
@@ -3928,26 +3812,26 @@
       <c r="I43" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="J43" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="K43" s="76" t="s">
+      <c r="J43" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="K43" s="72" t="s">
         <v>26</v>
       </c>
       <c r="L43" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="M43" s="76" t="s">
+      <c r="M43" s="72" t="s">
         <v>82</v>
       </c>
-      <c r="N43" s="76" t="s">
+      <c r="N43" s="72" t="s">
         <v>25</v>
       </c>
       <c r="O43" s="26" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44" s="37">
         <v>31</v>
       </c>
@@ -3973,24 +3857,24 @@
       <c r="I44" s="38" t="s">
         <v>146</v>
       </c>
-      <c r="J44" s="75" t="s">
+      <c r="J44" s="71" t="s">
         <v>82</v>
       </c>
-      <c r="K44" s="75" t="s">
+      <c r="K44" s="71" t="s">
         <v>25</v>
       </c>
       <c r="L44" s="39"/>
-      <c r="M44" s="75" t="s">
+      <c r="M44" s="71" t="s">
         <v>83</v>
       </c>
-      <c r="N44" s="75" t="s">
+      <c r="N44" s="71" t="s">
         <v>38</v>
       </c>
       <c r="O44" s="40" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A45" s="33">
         <v>32</v>
       </c>
@@ -4016,24 +3900,24 @@
       <c r="I45" s="19" t="s">
         <v>147</v>
       </c>
-      <c r="J45" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="K45" s="76" t="s">
+      <c r="J45" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="K45" s="72" t="s">
         <v>24</v>
       </c>
       <c r="L45" s="7"/>
-      <c r="M45" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="N45" s="76" t="s">
+      <c r="M45" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="N45" s="72" t="s">
         <v>24</v>
       </c>
       <c r="O45" s="26" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A46" s="37">
         <v>33</v>
       </c>
@@ -4059,24 +3943,24 @@
       <c r="I46" s="38" t="s">
         <v>131</v>
       </c>
-      <c r="J46" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="K46" s="75" t="s">
+      <c r="J46" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="K46" s="71" t="s">
         <v>24</v>
       </c>
       <c r="L46" s="39"/>
-      <c r="M46" s="75" t="s">
+      <c r="M46" s="71" t="s">
         <v>87</v>
       </c>
-      <c r="N46" s="75" t="s">
+      <c r="N46" s="71" t="s">
         <v>23</v>
       </c>
       <c r="O46" s="40" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A47" s="33">
         <v>34</v>
       </c>
@@ -4102,24 +3986,24 @@
       <c r="I47" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="J47" s="76" t="s">
+      <c r="J47" s="72" t="s">
         <v>87</v>
       </c>
-      <c r="K47" s="76" t="s">
+      <c r="K47" s="72" t="s">
         <v>23</v>
       </c>
       <c r="L47" s="7"/>
-      <c r="M47" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="N47" s="76" t="s">
+      <c r="M47" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="N47" s="72" t="s">
         <v>24</v>
       </c>
       <c r="O47" s="26" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A48" s="37">
         <v>35</v>
       </c>
@@ -4145,24 +4029,24 @@
       <c r="I48" s="38" t="s">
         <v>148</v>
       </c>
-      <c r="J48" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="K48" s="75" t="s">
+      <c r="J48" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="K48" s="71" t="s">
         <v>24</v>
       </c>
       <c r="L48" s="39"/>
-      <c r="M48" s="75" t="s">
-        <v>87</v>
-      </c>
-      <c r="N48" s="75" t="s">
-        <v>66</v>
+      <c r="M48" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="N48" s="71" t="s">
+        <v>24</v>
       </c>
       <c r="O48" s="40" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.15">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A49" s="33">
         <v>36</v>
       </c>
@@ -4188,24 +4072,24 @@
       <c r="I49" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="J49" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="K49" s="76" t="s">
+      <c r="J49" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="K49" s="72" t="s">
         <v>24</v>
       </c>
       <c r="L49" s="7"/>
-      <c r="M49" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="N49" s="76" t="s">
+      <c r="M49" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="N49" s="72" t="s">
         <v>24</v>
       </c>
       <c r="O49" s="26" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A50" s="37">
         <v>37</v>
       </c>
@@ -4231,24 +4115,24 @@
       <c r="I50" s="38" t="s">
         <v>134</v>
       </c>
-      <c r="J50" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="K50" s="75" t="s">
+      <c r="J50" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="K50" s="71" t="s">
         <v>24</v>
       </c>
       <c r="L50" s="39"/>
-      <c r="M50" s="75" t="s">
+      <c r="M50" s="71" t="s">
         <v>83</v>
       </c>
-      <c r="N50" s="75" t="s">
+      <c r="N50" s="71" t="s">
         <v>38</v>
       </c>
       <c r="O50" s="40" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A51" s="33">
         <v>38</v>
       </c>
@@ -4274,24 +4158,24 @@
       <c r="I51" s="19" t="s">
         <v>149</v>
       </c>
-      <c r="J51" s="76" t="s">
+      <c r="J51" s="72" t="s">
         <v>83</v>
       </c>
-      <c r="K51" s="76" t="s">
+      <c r="K51" s="72" t="s">
         <v>38</v>
       </c>
       <c r="L51" s="7"/>
-      <c r="M51" s="76" t="s">
+      <c r="M51" s="72" t="s">
         <v>83</v>
       </c>
-      <c r="N51" s="76" t="s">
+      <c r="N51" s="72" t="s">
         <v>38</v>
       </c>
       <c r="O51" s="26" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A52" s="37">
         <v>39</v>
       </c>
@@ -4317,26 +4201,26 @@
       <c r="I52" s="38" t="s">
         <v>150</v>
       </c>
-      <c r="J52" s="75" t="s">
+      <c r="J52" s="71" t="s">
         <v>90</v>
       </c>
-      <c r="K52" s="75" t="s">
+      <c r="K52" s="71" t="s">
         <v>71</v>
       </c>
       <c r="L52" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="M52" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="N52" s="75" t="s">
+      <c r="M52" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="N52" s="71" t="s">
         <v>24</v>
       </c>
       <c r="O52" s="40" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A53" s="33">
         <v>40</v>
       </c>
@@ -4362,26 +4246,26 @@
       <c r="I53" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="J53" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="K53" s="76" t="s">
+      <c r="J53" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="K53" s="72" t="s">
         <v>26</v>
       </c>
       <c r="L53" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="M53" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="N53" s="76" t="s">
+      <c r="M53" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="N53" s="72" t="s">
         <v>24</v>
       </c>
       <c r="O53" s="26" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A54" s="37">
         <v>41</v>
       </c>
@@ -4407,24 +4291,24 @@
       <c r="I54" s="38" t="s">
         <v>152</v>
       </c>
-      <c r="J54" s="75" t="s">
+      <c r="J54" s="71" t="s">
         <v>83</v>
       </c>
-      <c r="K54" s="75" t="s">
+      <c r="K54" s="71" t="s">
         <v>38</v>
       </c>
       <c r="L54" s="39"/>
-      <c r="M54" s="75" t="s">
+      <c r="M54" s="71" t="s">
         <v>82</v>
       </c>
-      <c r="N54" s="75" t="s">
+      <c r="N54" s="71" t="s">
         <v>25</v>
       </c>
       <c r="O54" s="40" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A55" s="33">
         <v>42</v>
       </c>
@@ -4450,24 +4334,24 @@
       <c r="I55" s="19" t="s">
         <v>153</v>
       </c>
-      <c r="J55" s="76" t="s">
+      <c r="J55" s="72" t="s">
         <v>87</v>
       </c>
-      <c r="K55" s="76" t="s">
+      <c r="K55" s="72" t="s">
         <v>23</v>
       </c>
       <c r="L55" s="7"/>
-      <c r="M55" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="N55" s="76" t="s">
+      <c r="M55" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="N55" s="72" t="s">
         <v>24</v>
       </c>
       <c r="O55" s="26" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A56" s="37">
         <v>43</v>
       </c>
@@ -4493,24 +4377,24 @@
       <c r="I56" s="38" t="s">
         <v>173</v>
       </c>
-      <c r="J56" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="K56" s="75" t="s">
+      <c r="J56" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="K56" s="71" t="s">
         <v>26</v>
       </c>
       <c r="L56" s="39"/>
-      <c r="M56" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="N56" s="75" t="s">
+      <c r="M56" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="N56" s="71" t="s">
         <v>24</v>
       </c>
       <c r="O56" s="40" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A57" s="33">
         <v>44</v>
       </c>
@@ -4536,26 +4420,26 @@
       <c r="I57" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="J57" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="K57" s="76" t="s">
+      <c r="J57" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="K57" s="72" t="s">
         <v>24</v>
       </c>
       <c r="L57" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="M57" s="76" t="s">
+      <c r="M57" s="72" t="s">
         <v>82</v>
       </c>
-      <c r="N57" s="76" t="s">
+      <c r="N57" s="72" t="s">
         <v>25</v>
       </c>
       <c r="O57" s="26" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A58" s="37">
         <v>45</v>
       </c>
@@ -4581,24 +4465,24 @@
       <c r="I58" s="38" t="s">
         <v>169</v>
       </c>
-      <c r="J58" s="75" t="s">
+      <c r="J58" s="71" t="s">
         <v>82</v>
       </c>
-      <c r="K58" s="75" t="s">
+      <c r="K58" s="71" t="s">
         <v>28</v>
       </c>
       <c r="L58" s="39"/>
-      <c r="M58" s="75" t="s">
+      <c r="M58" s="71" t="s">
         <v>83</v>
       </c>
-      <c r="N58" s="75" t="s">
+      <c r="N58" s="71" t="s">
         <v>78</v>
       </c>
       <c r="O58" s="40" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A59" s="33">
         <v>46</v>
       </c>
@@ -4624,24 +4508,24 @@
       <c r="I59" s="19" t="s">
         <v>165</v>
       </c>
-      <c r="J59" s="76" t="s">
+      <c r="J59" s="72" t="s">
         <v>83</v>
       </c>
-      <c r="K59" s="76" t="s">
+      <c r="K59" s="72" t="s">
         <v>38</v>
       </c>
       <c r="L59" s="7"/>
-      <c r="M59" s="76" t="s">
+      <c r="M59" s="72" t="s">
         <v>82</v>
       </c>
-      <c r="N59" s="76" t="s">
+      <c r="N59" s="72" t="s">
         <v>25</v>
       </c>
       <c r="O59" s="26" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A60" s="37">
         <v>47</v>
       </c>
@@ -4655,22 +4539,22 @@
       <c r="G60" s="51"/>
       <c r="H60" s="51"/>
       <c r="I60" s="50"/>
-      <c r="J60" s="71" t="s">
+      <c r="J60" s="85" t="s">
         <v>83</v>
       </c>
-      <c r="K60" s="72"/>
+      <c r="K60" s="86"/>
       <c r="L60" s="51"/>
-      <c r="M60" s="75" t="s">
+      <c r="M60" s="71" t="s">
         <v>87</v>
       </c>
-      <c r="N60" s="75" t="s">
+      <c r="N60" s="71" t="s">
         <v>66</v>
       </c>
       <c r="O60" s="26" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A61" s="33">
         <v>48</v>
       </c>
@@ -4684,22 +4568,22 @@
       <c r="G61" s="31"/>
       <c r="H61" s="31"/>
       <c r="I61" s="30"/>
-      <c r="J61" s="73" t="s">
+      <c r="J61" s="87" t="s">
         <v>83</v>
       </c>
-      <c r="K61" s="74"/>
+      <c r="K61" s="88"/>
       <c r="L61" s="31"/>
-      <c r="M61" s="76" t="s">
+      <c r="M61" s="72" t="s">
         <v>82</v>
       </c>
-      <c r="N61" s="76" t="s">
+      <c r="N61" s="72" t="s">
         <v>25</v>
       </c>
       <c r="O61" s="40" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A62" s="37">
         <v>49</v>
       </c>
@@ -4713,24 +4597,24 @@
       <c r="G62" s="51"/>
       <c r="H62" s="51"/>
       <c r="I62" s="50"/>
-      <c r="J62" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="K62" s="76" t="s">
+      <c r="J62" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="K62" s="72" t="s">
         <v>24</v>
       </c>
       <c r="L62" s="51"/>
-      <c r="M62" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="N62" s="75" t="s">
+      <c r="M62" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="N62" s="71" t="s">
         <v>24</v>
       </c>
       <c r="O62" s="26" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.15">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A63" s="33">
         <v>50</v>
       </c>
@@ -4744,22 +4628,22 @@
       <c r="G63" s="31"/>
       <c r="H63" s="31"/>
       <c r="I63" s="30"/>
-      <c r="J63" s="73" t="s">
+      <c r="J63" s="87" t="s">
         <v>82</v>
       </c>
-      <c r="K63" s="74"/>
+      <c r="K63" s="88"/>
       <c r="L63" s="31"/>
-      <c r="M63" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="N63" s="75" t="s">
+      <c r="M63" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="N63" s="71" t="s">
         <v>24</v>
       </c>
       <c r="O63" s="26" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.15">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A64" s="37">
         <v>51</v>
       </c>
@@ -4773,24 +4657,24 @@
       <c r="G64" s="51"/>
       <c r="H64" s="51"/>
       <c r="I64" s="50"/>
-      <c r="J64" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="K64" s="76" t="s">
+      <c r="J64" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="K64" s="72" t="s">
         <v>24</v>
       </c>
       <c r="L64" s="51"/>
-      <c r="M64" s="76" t="s">
+      <c r="M64" s="72" t="s">
         <v>82</v>
       </c>
-      <c r="N64" s="76" t="s">
+      <c r="N64" s="72" t="s">
         <v>25</v>
       </c>
       <c r="O64" s="40" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A65" s="33">
         <v>52</v>
       </c>
@@ -4802,24 +4686,24 @@
       <c r="G65" s="31"/>
       <c r="H65" s="31"/>
       <c r="I65" s="30"/>
-      <c r="J65" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="K65" s="76" t="s">
+      <c r="J65" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="K65" s="72" t="s">
         <v>24</v>
       </c>
       <c r="L65" s="31"/>
-      <c r="M65" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="N65" s="75" t="s">
+      <c r="M65" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="N65" s="71" t="s">
         <v>24</v>
       </c>
       <c r="O65" s="40" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="66" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:15" ht="14.65" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="45">
         <v>53</v>
       </c>
@@ -4845,24 +4729,24 @@
       <c r="I66" s="38" t="s">
         <v>163</v>
       </c>
-      <c r="J66" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="K66" s="75" t="s">
+      <c r="J66" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="K66" s="71" t="s">
         <v>24</v>
       </c>
       <c r="L66" s="39"/>
-      <c r="M66" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="N66" s="75" t="s">
+      <c r="M66" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="N66" s="71" t="s">
         <v>24</v>
       </c>
       <c r="O66" s="40" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="67" spans="1:15" ht="15" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:15" ht="14.65" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A67" s="35"/>
       <c r="B67" s="14" t="s">
         <v>80</v>
@@ -4881,7 +4765,7 @@
       <c r="N67" s="15"/>
       <c r="O67" s="27"/>
     </row>
-    <row r="68" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:15" ht="14.65" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="34"/>
       <c r="B68" s="13"/>
       <c r="C68" s="21"/>
@@ -4898,9 +4782,105 @@
       <c r="N68" s="9"/>
       <c r="O68" s="28"/>
     </row>
-    <row r="69" spans="1:15" ht="15" thickTop="1" x14ac:dyDescent="0.15"/>
+    <row r="69" spans="1:15" ht="14.65" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="109">
+    <mergeCell ref="J64:K64"/>
+    <mergeCell ref="M64:N64"/>
+    <mergeCell ref="J65:K65"/>
+    <mergeCell ref="M65:N65"/>
+    <mergeCell ref="J66:K66"/>
+    <mergeCell ref="M66:N66"/>
+    <mergeCell ref="J61:K61"/>
+    <mergeCell ref="M61:N61"/>
+    <mergeCell ref="J62:K62"/>
+    <mergeCell ref="M62:N62"/>
+    <mergeCell ref="J63:K63"/>
+    <mergeCell ref="M63:N63"/>
+    <mergeCell ref="J58:K58"/>
+    <mergeCell ref="M58:N58"/>
+    <mergeCell ref="J59:K59"/>
+    <mergeCell ref="M59:N59"/>
+    <mergeCell ref="J60:K60"/>
+    <mergeCell ref="M60:N60"/>
+    <mergeCell ref="J55:K55"/>
+    <mergeCell ref="M55:N55"/>
+    <mergeCell ref="J56:K56"/>
+    <mergeCell ref="M56:N56"/>
+    <mergeCell ref="J57:K57"/>
+    <mergeCell ref="M57:N57"/>
+    <mergeCell ref="J52:K52"/>
+    <mergeCell ref="M52:N52"/>
+    <mergeCell ref="J53:K53"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="J54:K54"/>
+    <mergeCell ref="M54:N54"/>
+    <mergeCell ref="J49:K49"/>
+    <mergeCell ref="M49:N49"/>
+    <mergeCell ref="J50:K50"/>
+    <mergeCell ref="M50:N50"/>
+    <mergeCell ref="J51:K51"/>
+    <mergeCell ref="M51:N51"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="M46:N46"/>
+    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="M47:N47"/>
+    <mergeCell ref="J48:K48"/>
+    <mergeCell ref="M48:N48"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="M43:N43"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="M44:N44"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="M21:N21"/>
     <mergeCell ref="J16:K16"/>
     <mergeCell ref="M16:N16"/>
     <mergeCell ref="J17:K17"/>
@@ -4914,145 +4894,49 @@
     <mergeCell ref="M14:N14"/>
     <mergeCell ref="J15:K15"/>
     <mergeCell ref="M15:N15"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="M35:N35"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="J46:K46"/>
-    <mergeCell ref="M46:N46"/>
-    <mergeCell ref="J47:K47"/>
-    <mergeCell ref="M47:N47"/>
-    <mergeCell ref="J48:K48"/>
-    <mergeCell ref="M48:N48"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="M43:N43"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="M44:N44"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="J52:K52"/>
-    <mergeCell ref="M52:N52"/>
-    <mergeCell ref="J53:K53"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="J54:K54"/>
-    <mergeCell ref="M54:N54"/>
-    <mergeCell ref="J49:K49"/>
-    <mergeCell ref="M49:N49"/>
-    <mergeCell ref="J50:K50"/>
-    <mergeCell ref="M50:N50"/>
-    <mergeCell ref="J51:K51"/>
-    <mergeCell ref="M51:N51"/>
-    <mergeCell ref="J58:K58"/>
-    <mergeCell ref="M58:N58"/>
-    <mergeCell ref="J59:K59"/>
-    <mergeCell ref="M59:N59"/>
-    <mergeCell ref="J60:K60"/>
-    <mergeCell ref="M60:N60"/>
-    <mergeCell ref="J55:K55"/>
-    <mergeCell ref="M55:N55"/>
-    <mergeCell ref="J56:K56"/>
-    <mergeCell ref="M56:N56"/>
-    <mergeCell ref="J57:K57"/>
-    <mergeCell ref="M57:N57"/>
-    <mergeCell ref="J64:K64"/>
-    <mergeCell ref="M64:N64"/>
-    <mergeCell ref="J65:K65"/>
-    <mergeCell ref="M65:N65"/>
-    <mergeCell ref="J66:K66"/>
-    <mergeCell ref="M66:N66"/>
-    <mergeCell ref="J61:K61"/>
-    <mergeCell ref="M61:N61"/>
-    <mergeCell ref="J62:K62"/>
-    <mergeCell ref="M62:N62"/>
-    <mergeCell ref="J63:K63"/>
-    <mergeCell ref="M63:N63"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A6:F6 I6:N6">
-    <cfRule type="expression" dxfId="47" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="41" priority="4" stopIfTrue="1">
       <formula>B$5="1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="40" priority="5" stopIfTrue="1">
       <formula>B$7="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="39" priority="6" stopIfTrue="1">
       <formula>B$7="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7 D7:H7 J7:O7">
-    <cfRule type="expression" dxfId="44" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="38" priority="1" stopIfTrue="1">
       <formula>B$5="1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="37" priority="2" stopIfTrue="1">
       <formula>B$7="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="36" priority="3" stopIfTrue="1">
       <formula>B$7="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6:H6">
-    <cfRule type="expression" dxfId="41" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="35" priority="10" stopIfTrue="1">
       <formula>I$5="1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="34" priority="11" stopIfTrue="1">
       <formula>I$7="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="33" priority="12" stopIfTrue="1">
       <formula>I$7="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O6">
-    <cfRule type="expression" dxfId="38" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="32" priority="7" stopIfTrue="1">
       <formula>X$5="1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="31" priority="8" stopIfTrue="1">
       <formula>X$7="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="9" stopIfTrue="1">
       <formula>X$7="土"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5068,14 +4952,14 @@
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.5" style="4" customWidth="1"/>
-    <col min="2" max="3" width="16.75" style="3" customWidth="1"/>
-    <col min="4" max="13" width="16.75" style="4" customWidth="1"/>
+    <col min="1" max="1" width="4.46484375" style="4" customWidth="1"/>
+    <col min="2" max="3" width="16.73046875" style="3" customWidth="1"/>
+    <col min="4" max="13" width="16.73046875" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" ht="18.75" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
       <c r="B2" s="1" t="s">
         <v>0</v>
@@ -5092,12 +4976,12 @@
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="6"/>
       <c r="B5" s="5" t="s">
         <v>3</v>
@@ -5107,12 +4991,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="79"/>
+    <row r="6" spans="1:13" ht="14.65" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="73"/>
       <c r="B6" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="82" t="s">
+      <c r="C6" s="76" t="s">
         <v>167</v>
       </c>
       <c r="D6" s="8">
@@ -5146,12 +5030,12 @@
         <v>167</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A7" s="80"/>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="74"/>
       <c r="B7" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="83"/>
+      <c r="C7" s="77"/>
       <c r="D7" s="7" t="s">
         <v>176</v>
       </c>
@@ -5179,12 +5063,12 @@
       <c r="L7" s="69"/>
       <c r="M7" s="90"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A8" s="80"/>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="74"/>
       <c r="B8" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="83"/>
+      <c r="C8" s="77"/>
       <c r="D8" s="7">
         <v>12</v>
       </c>
@@ -5208,12 +5092,12 @@
       <c r="L8" s="69"/>
       <c r="M8" s="90"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A9" s="80"/>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="74"/>
       <c r="B9" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="83"/>
+      <c r="C9" s="77"/>
       <c r="D9" s="7">
         <v>6</v>
       </c>
@@ -5237,12 +5121,12 @@
       <c r="L9" s="69"/>
       <c r="M9" s="90"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A10" s="80"/>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="74"/>
       <c r="B10" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="83"/>
+      <c r="C10" s="77"/>
       <c r="D10" s="7" t="s">
         <v>179</v>
       </c>
@@ -5266,12 +5150,12 @@
       <c r="L10" s="69"/>
       <c r="M10" s="90"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A11" s="80"/>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="74"/>
       <c r="B11" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="C11" s="83"/>
+      <c r="C11" s="77"/>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
@@ -5283,12 +5167,12 @@
       <c r="L11" s="69"/>
       <c r="M11" s="90"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A12" s="80"/>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="74"/>
       <c r="B12" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="83"/>
+      <c r="C12" s="77"/>
       <c r="D12" s="7" t="s">
         <v>180</v>
       </c>
@@ -5312,12 +5196,12 @@
       <c r="L12" s="69"/>
       <c r="M12" s="90"/>
     </row>
-    <row r="13" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="81"/>
+    <row r="13" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="75"/>
       <c r="B13" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="84"/>
+      <c r="C13" s="78"/>
       <c r="D13" s="7" t="s">
         <v>21</v>
       </c>
@@ -5347,7 +5231,7 @@
       </c>
       <c r="M13" s="91"/>
     </row>
-    <row r="14" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13" ht="14.65" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A14" s="41">
         <v>1</v>
       </c>
@@ -5362,19 +5246,19 @@
       </c>
       <c r="E14" s="43"/>
       <c r="F14" s="43"/>
-      <c r="G14" s="88" t="s">
+      <c r="G14" s="82" t="s">
         <v>87</v>
       </c>
-      <c r="H14" s="88" t="s">
+      <c r="H14" s="82" t="s">
         <v>23</v>
       </c>
       <c r="I14" s="59" t="s">
         <v>83</v>
       </c>
-      <c r="J14" s="88" t="s">
+      <c r="J14" s="82" t="s">
         <v>87</v>
       </c>
-      <c r="K14" s="88" t="s">
+      <c r="K14" s="82" t="s">
         <v>23</v>
       </c>
       <c r="L14" s="44"/>
@@ -5382,7 +5266,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="33">
         <v>2</v>
       </c>
@@ -5397,19 +5281,19 @@
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
-      <c r="G15" s="76" t="s">
+      <c r="G15" s="72" t="s">
         <v>87</v>
       </c>
-      <c r="H15" s="76" t="s">
+      <c r="H15" s="72" t="s">
         <v>23</v>
       </c>
       <c r="I15" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="J15" s="76" t="s">
+      <c r="J15" s="72" t="s">
         <v>87</v>
       </c>
-      <c r="K15" s="76" t="s">
+      <c r="K15" s="72" t="s">
         <v>23</v>
       </c>
       <c r="L15" s="26"/>
@@ -5417,7 +5301,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="37">
         <v>3</v>
       </c>
@@ -5432,19 +5316,19 @@
       </c>
       <c r="E16" s="39"/>
       <c r="F16" s="39"/>
-      <c r="G16" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="H16" s="75" t="s">
+      <c r="G16" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="H16" s="71" t="s">
         <v>30</v>
       </c>
       <c r="I16" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="J16" s="75" t="s">
+      <c r="J16" s="71" t="s">
         <v>181</v>
       </c>
-      <c r="K16" s="75" t="s">
+      <c r="K16" s="71" t="s">
         <v>182</v>
       </c>
       <c r="L16" s="40"/>
@@ -5452,7 +5336,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="33">
         <v>4</v>
       </c>
@@ -5467,19 +5351,19 @@
       </c>
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
-      <c r="G17" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="H17" s="76" t="s">
+      <c r="G17" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="H17" s="72" t="s">
         <v>30</v>
       </c>
       <c r="I17" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="J17" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="K17" s="76" t="s">
+      <c r="J17" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="K17" s="72" t="s">
         <v>30</v>
       </c>
       <c r="L17" s="26"/>
@@ -5487,7 +5371,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="37">
         <v>5</v>
       </c>
@@ -5502,19 +5386,19 @@
       </c>
       <c r="E18" s="39"/>
       <c r="F18" s="39"/>
-      <c r="G18" s="75" t="s">
-        <v>92</v>
-      </c>
-      <c r="H18" s="75" t="s">
+      <c r="G18" s="71" t="s">
+        <v>92</v>
+      </c>
+      <c r="H18" s="71" t="s">
         <v>30</v>
       </c>
       <c r="I18" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="J18" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="K18" s="75" t="s">
+      <c r="J18" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="K18" s="71" t="s">
         <v>30</v>
       </c>
       <c r="L18" s="40"/>
@@ -5522,7 +5406,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="33">
         <v>6</v>
       </c>
@@ -5537,19 +5421,19 @@
       </c>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
-      <c r="G19" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="H19" s="76" t="s">
+      <c r="G19" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="H19" s="72" t="s">
         <v>24</v>
       </c>
       <c r="I19" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="J19" s="76" t="s">
+      <c r="J19" s="72" t="s">
         <v>87</v>
       </c>
-      <c r="K19" s="76" t="s">
+      <c r="K19" s="72" t="s">
         <v>23</v>
       </c>
       <c r="L19" s="26"/>
@@ -5557,7 +5441,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="37">
         <v>7</v>
       </c>
@@ -5572,19 +5456,19 @@
       </c>
       <c r="E20" s="39"/>
       <c r="F20" s="39"/>
-      <c r="G20" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="H20" s="75" t="s">
+      <c r="G20" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="H20" s="71" t="s">
         <v>24</v>
       </c>
       <c r="I20" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="J20" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="K20" s="75" t="s">
+      <c r="J20" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="K20" s="71" t="s">
         <v>26</v>
       </c>
       <c r="L20" s="40"/>
@@ -5592,7 +5476,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="33">
         <v>8</v>
       </c>
@@ -5607,19 +5491,19 @@
       </c>
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
-      <c r="G21" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="H21" s="76" t="s">
+      <c r="G21" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="H21" s="72" t="s">
         <v>26</v>
       </c>
       <c r="I21" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="J21" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="K21" s="76" t="s">
+      <c r="J21" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="K21" s="72" t="s">
         <v>24</v>
       </c>
       <c r="L21" s="26"/>
@@ -5627,7 +5511,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="37">
         <v>9</v>
       </c>
@@ -5642,19 +5526,19 @@
       </c>
       <c r="E22" s="39"/>
       <c r="F22" s="39"/>
-      <c r="G22" s="75" t="s">
+      <c r="G22" s="71" t="s">
         <v>87</v>
       </c>
-      <c r="H22" s="75" t="s">
+      <c r="H22" s="71" t="s">
         <v>23</v>
       </c>
       <c r="I22" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="J22" s="75" t="s">
+      <c r="J22" s="71" t="s">
         <v>87</v>
       </c>
-      <c r="K22" s="75" t="s">
+      <c r="K22" s="71" t="s">
         <v>23</v>
       </c>
       <c r="L22" s="40"/>
@@ -5662,7 +5546,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="33">
         <v>10</v>
       </c>
@@ -5677,19 +5561,19 @@
       </c>
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
-      <c r="G23" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="H23" s="76" t="s">
+      <c r="G23" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="H23" s="72" t="s">
         <v>30</v>
       </c>
       <c r="I23" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="J23" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="K23" s="76" t="s">
+      <c r="J23" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="K23" s="72" t="s">
         <v>30</v>
       </c>
       <c r="L23" s="26"/>
@@ -5697,7 +5581,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="37">
         <v>11</v>
       </c>
@@ -5712,19 +5596,19 @@
       </c>
       <c r="E24" s="39"/>
       <c r="F24" s="39"/>
-      <c r="G24" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="H24" s="75" t="s">
+      <c r="G24" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="H24" s="71" t="s">
         <v>30</v>
       </c>
       <c r="I24" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="J24" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="K24" s="75" t="s">
+      <c r="J24" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="K24" s="71" t="s">
         <v>30</v>
       </c>
       <c r="L24" s="40"/>
@@ -5732,7 +5616,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="33">
         <v>12</v>
       </c>
@@ -5747,19 +5631,19 @@
       </c>
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
-      <c r="G25" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="H25" s="76" t="s">
+      <c r="G25" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="H25" s="72" t="s">
         <v>30</v>
       </c>
       <c r="I25" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="J25" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="K25" s="76" t="s">
+      <c r="J25" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="K25" s="72" t="s">
         <v>30</v>
       </c>
       <c r="L25" s="26"/>
@@ -5767,7 +5651,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="37">
         <v>13</v>
       </c>
@@ -5782,19 +5666,19 @@
       </c>
       <c r="E26" s="39"/>
       <c r="F26" s="39"/>
-      <c r="G26" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="H26" s="75" t="s">
+      <c r="G26" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="H26" s="71" t="s">
         <v>24</v>
       </c>
       <c r="I26" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="J26" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="K26" s="75" t="s">
+      <c r="J26" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="K26" s="71" t="s">
         <v>30</v>
       </c>
       <c r="L26" s="40"/>
@@ -5802,7 +5686,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="33">
         <v>14</v>
       </c>
@@ -5817,19 +5701,19 @@
       </c>
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
-      <c r="G27" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="H27" s="76" t="s">
+      <c r="G27" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="H27" s="72" t="s">
         <v>30</v>
       </c>
       <c r="I27" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="J27" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="K27" s="76" t="s">
+      <c r="J27" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="K27" s="72" t="s">
         <v>30</v>
       </c>
       <c r="L27" s="26"/>
@@ -5837,7 +5721,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="37">
         <v>15</v>
       </c>
@@ -5852,19 +5736,19 @@
       </c>
       <c r="E28" s="39"/>
       <c r="F28" s="39"/>
-      <c r="G28" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="H28" s="75" t="s">
+      <c r="G28" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="H28" s="71" t="s">
         <v>24</v>
       </c>
       <c r="I28" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="J28" s="75" t="s">
+      <c r="J28" s="71" t="s">
         <v>87</v>
       </c>
-      <c r="K28" s="75" t="s">
+      <c r="K28" s="71" t="s">
         <v>23</v>
       </c>
       <c r="L28" s="40"/>
@@ -5872,7 +5756,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="33">
         <v>16</v>
       </c>
@@ -5887,19 +5771,19 @@
       </c>
       <c r="E29" s="60"/>
       <c r="F29" s="60"/>
-      <c r="G29" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="H29" s="76" t="s">
+      <c r="G29" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="H29" s="72" t="s">
         <v>24</v>
       </c>
       <c r="I29" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="J29" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="K29" s="76" t="s">
+      <c r="J29" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="K29" s="72" t="s">
         <v>30</v>
       </c>
       <c r="L29" s="26"/>
@@ -5907,7 +5791,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="37">
         <v>17</v>
       </c>
@@ -5922,19 +5806,19 @@
       </c>
       <c r="E30" s="39"/>
       <c r="F30" s="39"/>
-      <c r="G30" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="H30" s="75" t="s">
+      <c r="G30" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="H30" s="71" t="s">
         <v>30</v>
       </c>
       <c r="I30" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="J30" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="K30" s="75" t="s">
+      <c r="J30" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="K30" s="71" t="s">
         <v>30</v>
       </c>
       <c r="L30" s="40"/>
@@ -5942,7 +5826,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="33">
         <v>18</v>
       </c>
@@ -5957,19 +5841,19 @@
       </c>
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
-      <c r="G31" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="H31" s="76" t="s">
+      <c r="G31" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="H31" s="72" t="s">
         <v>30</v>
       </c>
       <c r="I31" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="J31" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="K31" s="76" t="s">
+      <c r="J31" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="K31" s="72" t="s">
         <v>30</v>
       </c>
       <c r="L31" s="26"/>
@@ -5977,7 +5861,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="37">
         <v>19</v>
       </c>
@@ -5992,19 +5876,19 @@
       </c>
       <c r="E32" s="39"/>
       <c r="F32" s="39"/>
-      <c r="G32" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="H32" s="75" t="s">
+      <c r="G32" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="H32" s="71" t="s">
         <v>24</v>
       </c>
       <c r="I32" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="J32" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="K32" s="75" t="s">
+      <c r="J32" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="K32" s="71" t="s">
         <v>30</v>
       </c>
       <c r="L32" s="40"/>
@@ -6012,7 +5896,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" s="33">
         <v>20</v>
       </c>
@@ -6027,19 +5911,19 @@
       </c>
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
-      <c r="G33" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="H33" s="76" t="s">
+      <c r="G33" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="H33" s="72" t="s">
         <v>30</v>
       </c>
       <c r="I33" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="J33" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="K33" s="76" t="s">
+      <c r="J33" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="K33" s="72" t="s">
         <v>30</v>
       </c>
       <c r="L33" s="26"/>
@@ -6047,7 +5931,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" s="37">
         <v>21</v>
       </c>
@@ -6062,19 +5946,19 @@
       </c>
       <c r="E34" s="39"/>
       <c r="F34" s="39"/>
-      <c r="G34" s="75" t="s">
+      <c r="G34" s="71" t="s">
         <v>87</v>
       </c>
-      <c r="H34" s="75" t="s">
+      <c r="H34" s="71" t="s">
         <v>23</v>
       </c>
       <c r="I34" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="J34" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="K34" s="75" t="s">
+      <c r="J34" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="K34" s="71" t="s">
         <v>30</v>
       </c>
       <c r="L34" s="40"/>
@@ -6082,7 +5966,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" s="33">
         <v>22</v>
       </c>
@@ -6097,19 +5981,19 @@
       </c>
       <c r="E35" s="60"/>
       <c r="F35" s="60"/>
-      <c r="G35" s="76" t="s">
+      <c r="G35" s="72" t="s">
         <v>87</v>
       </c>
-      <c r="H35" s="76" t="s">
+      <c r="H35" s="72" t="s">
         <v>23</v>
       </c>
       <c r="I35" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="J35" s="76" t="s">
+      <c r="J35" s="72" t="s">
         <v>87</v>
       </c>
-      <c r="K35" s="76" t="s">
+      <c r="K35" s="72" t="s">
         <v>23</v>
       </c>
       <c r="L35" s="26"/>
@@ -6117,7 +6001,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" s="37">
         <v>23</v>
       </c>
@@ -6132,19 +6016,19 @@
       </c>
       <c r="E36" s="39"/>
       <c r="F36" s="39"/>
-      <c r="G36" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="H36" s="75" t="s">
+      <c r="G36" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="H36" s="71" t="s">
         <v>24</v>
       </c>
       <c r="I36" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="J36" s="75" t="s">
+      <c r="J36" s="71" t="s">
         <v>87</v>
       </c>
-      <c r="K36" s="75" t="s">
+      <c r="K36" s="71" t="s">
         <v>23</v>
       </c>
       <c r="L36" s="40"/>
@@ -6152,7 +6036,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" s="33">
         <v>24</v>
       </c>
@@ -6167,19 +6051,19 @@
       </c>
       <c r="E37" s="7"/>
       <c r="F37" s="7"/>
-      <c r="G37" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="H37" s="76" t="s">
+      <c r="G37" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="H37" s="72" t="s">
         <v>24</v>
       </c>
       <c r="I37" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="J37" s="76" t="s">
+      <c r="J37" s="72" t="s">
         <v>87</v>
       </c>
-      <c r="K37" s="76" t="s">
+      <c r="K37" s="72" t="s">
         <v>23</v>
       </c>
       <c r="L37" s="26"/>
@@ -6187,7 +6071,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" s="37">
         <v>25</v>
       </c>
@@ -6202,19 +6086,19 @@
       </c>
       <c r="E38" s="39"/>
       <c r="F38" s="39"/>
-      <c r="G38" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="H38" s="75" t="s">
+      <c r="G38" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="H38" s="71" t="s">
         <v>30</v>
       </c>
       <c r="I38" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="J38" s="75" t="s">
+      <c r="J38" s="71" t="s">
         <v>87</v>
       </c>
-      <c r="K38" s="75" t="s">
+      <c r="K38" s="71" t="s">
         <v>23</v>
       </c>
       <c r="L38" s="40"/>
@@ -6222,7 +6106,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" s="33">
         <v>26</v>
       </c>
@@ -6237,19 +6121,19 @@
       </c>
       <c r="E39" s="7"/>
       <c r="F39" s="7"/>
-      <c r="G39" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="H39" s="76" t="s">
+      <c r="G39" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="H39" s="72" t="s">
         <v>24</v>
       </c>
       <c r="I39" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="J39" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="K39" s="76" t="s">
+      <c r="J39" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="K39" s="72" t="s">
         <v>30</v>
       </c>
       <c r="L39" s="26"/>
@@ -6257,7 +6141,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="40" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="45">
         <v>27</v>
       </c>
@@ -6272,19 +6156,19 @@
       </c>
       <c r="E40" s="48"/>
       <c r="F40" s="48"/>
-      <c r="G40" s="77" t="s">
-        <v>91</v>
-      </c>
-      <c r="H40" s="77" t="s">
+      <c r="G40" s="83" t="s">
+        <v>91</v>
+      </c>
+      <c r="H40" s="83" t="s">
         <v>30</v>
       </c>
       <c r="I40" s="48" t="s">
         <v>92</v>
       </c>
-      <c r="J40" s="77" t="s">
-        <v>91</v>
-      </c>
-      <c r="K40" s="77" t="s">
+      <c r="J40" s="83" t="s">
+        <v>91</v>
+      </c>
+      <c r="K40" s="83" t="s">
         <v>30</v>
       </c>
       <c r="L40" s="49"/>
@@ -6292,7 +6176,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:13" ht="14.65" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A41" s="35">
         <v>28</v>
       </c>
@@ -6307,19 +6191,19 @@
       </c>
       <c r="E41" s="31"/>
       <c r="F41" s="31"/>
-      <c r="G41" s="78" t="s">
+      <c r="G41" s="84" t="s">
         <v>87</v>
       </c>
-      <c r="H41" s="78" t="s">
+      <c r="H41" s="84" t="s">
         <v>23</v>
       </c>
       <c r="I41" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="J41" s="78" t="s">
-        <v>91</v>
-      </c>
-      <c r="K41" s="78" t="s">
+      <c r="J41" s="84" t="s">
+        <v>91</v>
+      </c>
+      <c r="K41" s="84" t="s">
         <v>30</v>
       </c>
       <c r="L41" s="32"/>
@@ -6327,7 +6211,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" s="37">
         <v>29</v>
       </c>
@@ -6342,19 +6226,19 @@
       </c>
       <c r="E42" s="39"/>
       <c r="F42" s="39"/>
-      <c r="G42" s="75" t="s">
+      <c r="G42" s="71" t="s">
         <v>83</v>
       </c>
-      <c r="H42" s="75" t="s">
+      <c r="H42" s="71" t="s">
         <v>38</v>
       </c>
       <c r="I42" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="J42" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="K42" s="75" t="s">
+      <c r="J42" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="K42" s="71" t="s">
         <v>30</v>
       </c>
       <c r="L42" s="40"/>
@@ -6362,7 +6246,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" s="33">
         <v>30</v>
       </c>
@@ -6377,19 +6261,19 @@
       </c>
       <c r="E43" s="7"/>
       <c r="F43" s="7"/>
-      <c r="G43" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="H43" s="76" t="s">
+      <c r="G43" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="H43" s="72" t="s">
         <v>24</v>
       </c>
       <c r="I43" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="J43" s="76" t="s">
+      <c r="J43" s="72" t="s">
         <v>87</v>
       </c>
-      <c r="K43" s="76" t="s">
+      <c r="K43" s="72" t="s">
         <v>23</v>
       </c>
       <c r="L43" s="26"/>
@@ -6397,7 +6281,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" s="37">
         <v>31</v>
       </c>
@@ -6412,19 +6296,19 @@
       </c>
       <c r="E44" s="39"/>
       <c r="F44" s="39"/>
-      <c r="G44" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="H44" s="75" t="s">
+      <c r="G44" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="H44" s="71" t="s">
         <v>26</v>
       </c>
       <c r="I44" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="J44" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="K44" s="75" t="s">
+      <c r="J44" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="K44" s="71" t="s">
         <v>30</v>
       </c>
       <c r="L44" s="40"/>
@@ -6432,7 +6316,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" s="33">
         <v>32</v>
       </c>
@@ -6447,19 +6331,19 @@
       </c>
       <c r="E45" s="7"/>
       <c r="F45" s="7"/>
-      <c r="G45" s="76" t="s">
+      <c r="G45" s="72" t="s">
         <v>181</v>
       </c>
-      <c r="H45" s="76" t="s">
+      <c r="H45" s="72" t="s">
         <v>182</v>
       </c>
       <c r="I45" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="J45" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="K45" s="76" t="s">
+      <c r="J45" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="K45" s="72" t="s">
         <v>30</v>
       </c>
       <c r="L45" s="26"/>
@@ -6467,7 +6351,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" s="37">
         <v>33</v>
       </c>
@@ -6482,19 +6366,19 @@
       </c>
       <c r="E46" s="39"/>
       <c r="F46" s="39"/>
-      <c r="G46" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="H46" s="75" t="s">
+      <c r="G46" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="H46" s="71" t="s">
         <v>30</v>
       </c>
       <c r="I46" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="J46" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="K46" s="75" t="s">
+      <c r="J46" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="K46" s="71" t="s">
         <v>30</v>
       </c>
       <c r="L46" s="40"/>
@@ -6502,7 +6386,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47" s="33">
         <v>34</v>
       </c>
@@ -6517,19 +6401,19 @@
       </c>
       <c r="E47" s="7"/>
       <c r="F47" s="7"/>
-      <c r="G47" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="H47" s="76" t="s">
+      <c r="G47" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="H47" s="72" t="s">
         <v>24</v>
       </c>
       <c r="I47" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="J47" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="K47" s="76" t="s">
+      <c r="J47" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="K47" s="72" t="s">
         <v>30</v>
       </c>
       <c r="L47" s="26"/>
@@ -6537,7 +6421,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48" s="37">
         <v>35</v>
       </c>
@@ -6552,19 +6436,19 @@
       </c>
       <c r="E48" s="39"/>
       <c r="F48" s="39"/>
-      <c r="G48" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="H48" s="75" t="s">
+      <c r="G48" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="H48" s="71" t="s">
         <v>30</v>
       </c>
       <c r="I48" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="J48" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="K48" s="75" t="s">
+      <c r="J48" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="K48" s="71" t="s">
         <v>30</v>
       </c>
       <c r="L48" s="40"/>
@@ -6572,7 +6456,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49" s="33">
         <v>36</v>
       </c>
@@ -6587,19 +6471,19 @@
       </c>
       <c r="E49" s="7"/>
       <c r="F49" s="7"/>
-      <c r="G49" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="H49" s="76" t="s">
+      <c r="G49" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="H49" s="72" t="s">
         <v>26</v>
       </c>
       <c r="I49" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="J49" s="76" t="s">
+      <c r="J49" s="72" t="s">
         <v>87</v>
       </c>
-      <c r="K49" s="76" t="s">
+      <c r="K49" s="72" t="s">
         <v>23</v>
       </c>
       <c r="L49" s="26"/>
@@ -6607,7 +6491,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50" s="37">
         <v>37</v>
       </c>
@@ -6622,19 +6506,19 @@
       </c>
       <c r="E50" s="39"/>
       <c r="F50" s="39"/>
-      <c r="G50" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="H50" s="75" t="s">
+      <c r="G50" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="H50" s="71" t="s">
         <v>24</v>
       </c>
       <c r="I50" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="J50" s="75" t="s">
+      <c r="J50" s="71" t="s">
         <v>87</v>
       </c>
-      <c r="K50" s="75" t="s">
+      <c r="K50" s="71" t="s">
         <v>23</v>
       </c>
       <c r="L50" s="40"/>
@@ -6642,7 +6526,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51" s="33">
         <v>38</v>
       </c>
@@ -6657,19 +6541,19 @@
       </c>
       <c r="E51" s="7"/>
       <c r="F51" s="7"/>
-      <c r="G51" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="H51" s="76" t="s">
+      <c r="G51" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="H51" s="72" t="s">
         <v>24</v>
       </c>
       <c r="I51" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="J51" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="K51" s="76" t="s">
+      <c r="J51" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="K51" s="72" t="s">
         <v>30</v>
       </c>
       <c r="L51" s="26"/>
@@ -6677,7 +6561,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52" s="37">
         <v>39</v>
       </c>
@@ -6692,19 +6576,19 @@
       </c>
       <c r="E52" s="39"/>
       <c r="F52" s="39"/>
-      <c r="G52" s="75" t="s">
+      <c r="G52" s="71" t="s">
         <v>90</v>
       </c>
-      <c r="H52" s="75" t="s">
+      <c r="H52" s="71" t="s">
         <v>71</v>
       </c>
       <c r="I52" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="J52" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="K52" s="75" t="s">
+      <c r="J52" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="K52" s="71" t="s">
         <v>30</v>
       </c>
       <c r="L52" s="40"/>
@@ -6712,7 +6596,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53" s="33">
         <v>40</v>
       </c>
@@ -6727,19 +6611,19 @@
       </c>
       <c r="E53" s="7"/>
       <c r="F53" s="7"/>
-      <c r="G53" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="H53" s="76" t="s">
+      <c r="G53" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="H53" s="72" t="s">
         <v>30</v>
       </c>
       <c r="I53" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="J53" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="K53" s="76" t="s">
+      <c r="J53" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="K53" s="72" t="s">
         <v>30</v>
       </c>
       <c r="L53" s="26"/>
@@ -6747,7 +6631,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54" s="37">
         <v>41</v>
       </c>
@@ -6762,19 +6646,19 @@
       </c>
       <c r="E54" s="39"/>
       <c r="F54" s="39"/>
-      <c r="G54" s="75" t="s">
+      <c r="G54" s="71" t="s">
         <v>181</v>
       </c>
-      <c r="H54" s="75" t="s">
+      <c r="H54" s="71" t="s">
         <v>182</v>
       </c>
       <c r="I54" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="J54" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="K54" s="75" t="s">
+      <c r="J54" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="K54" s="71" t="s">
         <v>30</v>
       </c>
       <c r="L54" s="40"/>
@@ -6782,7 +6666,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55" s="33">
         <v>42</v>
       </c>
@@ -6797,19 +6681,19 @@
       </c>
       <c r="E55" s="7"/>
       <c r="F55" s="7"/>
-      <c r="G55" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="H55" s="76" t="s">
+      <c r="G55" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="H55" s="72" t="s">
         <v>24</v>
       </c>
       <c r="I55" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="J55" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="K55" s="76" t="s">
+      <c r="J55" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="K55" s="72" t="s">
         <v>30</v>
       </c>
       <c r="L55" s="26"/>
@@ -6817,7 +6701,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56" s="37">
         <v>43</v>
       </c>
@@ -6832,19 +6716,19 @@
       </c>
       <c r="E56" s="39"/>
       <c r="F56" s="39"/>
-      <c r="G56" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="H56" s="75" t="s">
+      <c r="G56" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="H56" s="71" t="s">
         <v>26</v>
       </c>
       <c r="I56" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="J56" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="K56" s="75" t="s">
+      <c r="J56" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="K56" s="71" t="s">
         <v>30</v>
       </c>
       <c r="L56" s="40"/>
@@ -6852,7 +6736,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57" s="33">
         <v>44</v>
       </c>
@@ -6867,19 +6751,19 @@
       </c>
       <c r="E57" s="7"/>
       <c r="F57" s="7"/>
-      <c r="G57" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="H57" s="76" t="s">
+      <c r="G57" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="H57" s="72" t="s">
         <v>24</v>
       </c>
       <c r="I57" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="J57" s="76" t="s">
+      <c r="J57" s="72" t="s">
         <v>82</v>
       </c>
-      <c r="K57" s="76" t="s">
+      <c r="K57" s="72" t="s">
         <v>25</v>
       </c>
       <c r="L57" s="26"/>
@@ -6887,7 +6771,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A58" s="37">
         <v>45</v>
       </c>
@@ -6902,19 +6786,19 @@
       </c>
       <c r="E58" s="39"/>
       <c r="F58" s="39"/>
-      <c r="G58" s="75" t="s">
+      <c r="G58" s="71" t="s">
         <v>83</v>
       </c>
-      <c r="H58" s="75" t="s">
+      <c r="H58" s="71" t="s">
         <v>38</v>
       </c>
       <c r="I58" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="J58" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="K58" s="75" t="s">
+      <c r="J58" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="K58" s="71" t="s">
         <v>30</v>
       </c>
       <c r="L58" s="40"/>
@@ -6922,7 +6806,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59" s="33">
         <v>46</v>
       </c>
@@ -6937,19 +6821,19 @@
       </c>
       <c r="E59" s="7"/>
       <c r="F59" s="7"/>
-      <c r="G59" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="H59" s="76" t="s">
+      <c r="G59" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="H59" s="72" t="s">
         <v>26</v>
       </c>
       <c r="I59" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="J59" s="76" t="s">
+      <c r="J59" s="72" t="s">
         <v>184</v>
       </c>
-      <c r="K59" s="76" t="s">
+      <c r="K59" s="72" t="s">
         <v>185</v>
       </c>
       <c r="L59" s="26"/>
@@ -6957,7 +6841,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60" s="37">
         <v>47</v>
       </c>
@@ -6968,25 +6852,25 @@
       </c>
       <c r="E60" s="39"/>
       <c r="F60" s="39"/>
-      <c r="G60" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="H60" s="75" t="s">
+      <c r="G60" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="H60" s="71" t="s">
         <v>26</v>
       </c>
       <c r="I60" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="J60" s="75" t="s">
+      <c r="J60" s="71" t="s">
         <v>87</v>
       </c>
-      <c r="K60" s="75" t="s">
+      <c r="K60" s="71" t="s">
         <v>23</v>
       </c>
       <c r="L60" s="52"/>
       <c r="M60" s="58"/>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61" s="33">
         <v>48</v>
       </c>
@@ -7003,7 +6887,7 @@
       <c r="L61" s="32"/>
       <c r="M61" s="57"/>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62" s="37">
         <v>49</v>
       </c>
@@ -7020,7 +6904,7 @@
       <c r="L62" s="52"/>
       <c r="M62" s="58"/>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A63" s="33">
         <v>50</v>
       </c>
@@ -7037,7 +6921,7 @@
       <c r="L63" s="32"/>
       <c r="M63" s="57"/>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A64" s="37">
         <v>51</v>
       </c>
@@ -7054,7 +6938,7 @@
       <c r="L64" s="52"/>
       <c r="M64" s="58"/>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A65" s="33">
         <v>52</v>
       </c>
@@ -7071,7 +6955,7 @@
       <c r="L65" s="32"/>
       <c r="M65" s="57"/>
     </row>
-    <row r="66" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="45">
         <v>53</v>
       </c>
@@ -7094,7 +6978,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="67" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:13" ht="14.65" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A67" s="35"/>
       <c r="B67" s="14" t="s">
         <v>80</v>
@@ -7111,7 +6995,7 @@
       <c r="L67" s="27"/>
       <c r="M67" s="16"/>
     </row>
-    <row r="68" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="34"/>
       <c r="B68" s="13"/>
       <c r="C68" s="21"/>
@@ -7126,9 +7010,96 @@
       <c r="L68" s="28"/>
       <c r="M68" s="10"/>
     </row>
-    <row r="69" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.15"/>
+    <row r="69" spans="1:13" ht="14.65" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="97">
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="A6:A13"/>
+    <mergeCell ref="C6:C13"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="J48:K48"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="J53:K53"/>
+    <mergeCell ref="J54:K54"/>
+    <mergeCell ref="J51:K51"/>
+    <mergeCell ref="J52:K52"/>
+    <mergeCell ref="J49:K49"/>
+    <mergeCell ref="J50:K50"/>
+    <mergeCell ref="J59:K59"/>
+    <mergeCell ref="J60:K60"/>
+    <mergeCell ref="J57:K57"/>
+    <mergeCell ref="J58:K58"/>
+    <mergeCell ref="J55:K55"/>
+    <mergeCell ref="J56:K56"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="M6:M13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="G49:H49"/>
     <mergeCell ref="G57:H57"/>
     <mergeCell ref="G58:H58"/>
     <mergeCell ref="G59:H59"/>
@@ -7139,137 +7110,50 @@
     <mergeCell ref="G54:H54"/>
     <mergeCell ref="G55:H55"/>
     <mergeCell ref="G56:H56"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="M6:M13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="J59:K59"/>
-    <mergeCell ref="J60:K60"/>
-    <mergeCell ref="J57:K57"/>
-    <mergeCell ref="J58:K58"/>
-    <mergeCell ref="J55:K55"/>
-    <mergeCell ref="J56:K56"/>
-    <mergeCell ref="J53:K53"/>
-    <mergeCell ref="J54:K54"/>
-    <mergeCell ref="J51:K51"/>
-    <mergeCell ref="J52:K52"/>
-    <mergeCell ref="J49:K49"/>
-    <mergeCell ref="J50:K50"/>
-    <mergeCell ref="J47:K47"/>
-    <mergeCell ref="J48:K48"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="J46:K46"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="A6:A13"/>
-    <mergeCell ref="C6:C13"/>
-    <mergeCell ref="J14:K14"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A6:C6">
-    <cfRule type="expression" dxfId="11" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="10" stopIfTrue="1">
       <formula>B$5="1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="11" stopIfTrue="1">
       <formula>B$7="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="12" stopIfTrue="1">
       <formula>B$7="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7">
-    <cfRule type="expression" dxfId="8" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="26" priority="7" stopIfTrue="1">
       <formula>B$5="1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="8" stopIfTrue="1">
       <formula>B$7="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="9" stopIfTrue="1">
       <formula>B$7="土"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="D6:L7">
+    <cfRule type="expression" dxfId="23" priority="1" stopIfTrue="1">
+      <formula>D$5="1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="22" priority="2" stopIfTrue="1">
+      <formula>D$7="日"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="21" priority="3" stopIfTrue="1">
+      <formula>D$7="土"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="M6">
-    <cfRule type="expression" dxfId="5" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="20" priority="4" stopIfTrue="1">
       <formula>N$5="1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="5" stopIfTrue="1">
       <formula>N$7="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="6" stopIfTrue="1">
       <formula>N$7="土"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D6:L7">
-    <cfRule type="expression" dxfId="2" priority="1" stopIfTrue="1">
-      <formula>D$5="1"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
-      <formula>D$7="日"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
-      <formula>D$7="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7287,16 +7171,16 @@
       <selection activeCell="V30" sqref="V30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.25" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="14.265625" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.5" style="4" customWidth="1"/>
-    <col min="2" max="3" width="16.75" style="3" customWidth="1"/>
-    <col min="4" max="26" width="16.75" style="4" customWidth="1"/>
-    <col min="27" max="16384" width="14.25" style="4"/>
+    <col min="1" max="1" width="4.46484375" style="4" customWidth="1"/>
+    <col min="2" max="3" width="16.73046875" style="3" customWidth="1"/>
+    <col min="4" max="26" width="16.73046875" style="4" customWidth="1"/>
+    <col min="27" max="16384" width="14.265625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="4.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="2" spans="1:26" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" ht="4.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:26" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -7307,13 +7191,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="8.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="4" spans="1:26" ht="22.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" ht="8.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:26" ht="22.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:26" s="6" customFormat="1" ht="6" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:26" s="6" customFormat="1" ht="6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="5" t="s">
         <v>3</v>
       </c>
@@ -7360,12 +7244,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="25.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="79"/>
+    <row r="6" spans="1:26" ht="25.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="73"/>
       <c r="B6" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="82" t="s">
+      <c r="C6" s="76" t="s">
         <v>167</v>
       </c>
       <c r="D6" s="8">
@@ -7383,7 +7267,7 @@
       <c r="H6" s="8">
         <v>15</v>
       </c>
-      <c r="I6" s="85" t="s">
+      <c r="I6" s="79" t="s">
         <v>167</v>
       </c>
       <c r="J6" s="8">
@@ -7404,7 +7288,7 @@
       <c r="O6" s="25">
         <v>30</v>
       </c>
-      <c r="P6" s="85" t="s">
+      <c r="P6" s="79" t="s">
         <v>167</v>
       </c>
       <c r="Q6" s="8">
@@ -7438,12 +7322,12 @@
         <v>167</v>
       </c>
     </row>
-    <row r="7" spans="1:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="80"/>
+    <row r="7" spans="1:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="74"/>
       <c r="B7" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="83"/>
+      <c r="C7" s="77"/>
       <c r="D7" s="7" t="s">
         <v>8</v>
       </c>
@@ -7459,7 +7343,7 @@
       <c r="H7" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="I7" s="86"/>
+      <c r="I7" s="80"/>
       <c r="J7" s="7" t="s">
         <v>8</v>
       </c>
@@ -7478,7 +7362,7 @@
       <c r="O7" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="P7" s="86"/>
+      <c r="P7" s="80"/>
       <c r="Q7" s="7" t="s">
         <v>176</v>
       </c>
@@ -7506,12 +7390,12 @@
       <c r="Y7" s="69"/>
       <c r="Z7" s="90"/>
     </row>
-    <row r="8" spans="1:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="80"/>
+    <row r="8" spans="1:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="74"/>
       <c r="B8" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="83"/>
+      <c r="C8" s="77"/>
       <c r="D8" s="7">
         <v>68</v>
       </c>
@@ -7525,7 +7409,7 @@
         <v>60</v>
       </c>
       <c r="H8" s="7"/>
-      <c r="I8" s="86"/>
+      <c r="I8" s="80"/>
       <c r="J8" s="7">
         <v>90</v>
       </c>
@@ -7542,7 +7426,7 @@
       <c r="O8" s="26">
         <v>59</v>
       </c>
-      <c r="P8" s="86"/>
+      <c r="P8" s="80"/>
       <c r="Q8" s="7">
         <v>12</v>
       </c>
@@ -7566,12 +7450,12 @@
       <c r="Y8" s="69"/>
       <c r="Z8" s="90"/>
     </row>
-    <row r="9" spans="1:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="80"/>
+    <row r="9" spans="1:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="74"/>
       <c r="B9" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="83"/>
+      <c r="C9" s="77"/>
       <c r="D9" s="17">
         <v>14</v>
       </c>
@@ -7587,7 +7471,7 @@
       <c r="H9" s="17">
         <v>10</v>
       </c>
-      <c r="I9" s="86"/>
+      <c r="I9" s="80"/>
       <c r="J9" s="17">
         <v>18</v>
       </c>
@@ -7604,7 +7488,7 @@
       <c r="O9" s="36">
         <v>12</v>
       </c>
-      <c r="P9" s="86"/>
+      <c r="P9" s="80"/>
       <c r="Q9" s="7">
         <v>6</v>
       </c>
@@ -7628,12 +7512,12 @@
       <c r="Y9" s="69"/>
       <c r="Z9" s="90"/>
     </row>
-    <row r="10" spans="1:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="80"/>
+    <row r="10" spans="1:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="74"/>
       <c r="B10" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="83"/>
+      <c r="C10" s="77"/>
       <c r="D10" s="7" t="s">
         <v>13</v>
       </c>
@@ -7647,7 +7531,7 @@
         <v>13</v>
       </c>
       <c r="H10" s="7"/>
-      <c r="I10" s="86"/>
+      <c r="I10" s="80"/>
       <c r="J10" s="7" t="s">
         <v>13</v>
       </c>
@@ -7664,7 +7548,7 @@
       <c r="O10" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="P10" s="86"/>
+      <c r="P10" s="80"/>
       <c r="Q10" s="7" t="s">
         <v>179</v>
       </c>
@@ -7688,12 +7572,12 @@
       <c r="Y10" s="69"/>
       <c r="Z10" s="90"/>
     </row>
-    <row r="11" spans="1:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="80"/>
+    <row r="11" spans="1:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="74"/>
       <c r="B11" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="C11" s="83"/>
+      <c r="C11" s="77"/>
       <c r="D11" s="7" t="s">
         <v>94</v>
       </c>
@@ -7709,7 +7593,7 @@
       <c r="H11" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="I11" s="86"/>
+      <c r="I11" s="80"/>
       <c r="J11" s="7" t="s">
         <v>97</v>
       </c>
@@ -7726,7 +7610,7 @@
       <c r="O11" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="P11" s="86"/>
+      <c r="P11" s="80"/>
       <c r="Q11" s="7"/>
       <c r="R11" s="7"/>
       <c r="S11" s="7"/>
@@ -7738,12 +7622,12 @@
       <c r="Y11" s="69"/>
       <c r="Z11" s="90"/>
     </row>
-    <row r="12" spans="1:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="80"/>
+    <row r="12" spans="1:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="74"/>
       <c r="B12" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="83"/>
+      <c r="C12" s="77"/>
       <c r="D12" s="7" t="s">
         <v>17</v>
       </c>
@@ -7759,7 +7643,7 @@
       <c r="H12" s="18">
         <v>0.6875</v>
       </c>
-      <c r="I12" s="86"/>
+      <c r="I12" s="80"/>
       <c r="J12" s="7" t="s">
         <v>17</v>
       </c>
@@ -7778,7 +7662,7 @@
       <c r="O12" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="P12" s="86"/>
+      <c r="P12" s="80"/>
       <c r="Q12" s="7" t="s">
         <v>180</v>
       </c>
@@ -7802,12 +7686,12 @@
       <c r="Y12" s="69"/>
       <c r="Z12" s="90"/>
     </row>
-    <row r="13" spans="1:26" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="81"/>
+    <row r="13" spans="1:26" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="75"/>
       <c r="B13" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="84"/>
+      <c r="C13" s="78"/>
       <c r="D13" s="7" t="s">
         <v>21</v>
       </c>
@@ -7823,7 +7707,7 @@
       <c r="H13" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="I13" s="87"/>
+      <c r="I13" s="81"/>
       <c r="J13" s="7" t="s">
         <v>21</v>
       </c>
@@ -7842,7 +7726,7 @@
       <c r="O13" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="P13" s="87"/>
+      <c r="P13" s="81"/>
       <c r="Q13" s="7" t="s">
         <v>21</v>
       </c>
@@ -7872,7 +7756,7 @@
       </c>
       <c r="Z13" s="91"/>
     </row>
-    <row r="14" spans="1:26" ht="25.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:26" ht="25.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A14" s="41">
         <v>1</v>
       </c>
@@ -7898,17 +7782,17 @@
       <c r="I14" s="42" t="s">
         <v>154</v>
       </c>
-      <c r="J14" s="88" t="s">
+      <c r="J14" s="82" t="s">
         <v>88</v>
       </c>
-      <c r="K14" s="88" t="s">
+      <c r="K14" s="82" t="s">
         <v>25</v>
       </c>
       <c r="L14" s="43"/>
-      <c r="M14" s="88" t="s">
+      <c r="M14" s="82" t="s">
         <v>82</v>
       </c>
-      <c r="N14" s="88" t="s">
+      <c r="N14" s="82" t="s">
         <v>23</v>
       </c>
       <c r="O14" s="44" t="s">
@@ -7922,19 +7806,19 @@
       </c>
       <c r="R14" s="43"/>
       <c r="S14" s="43"/>
-      <c r="T14" s="88" t="s">
+      <c r="T14" s="82" t="s">
         <v>87</v>
       </c>
-      <c r="U14" s="88" t="s">
+      <c r="U14" s="82" t="s">
         <v>23</v>
       </c>
       <c r="V14" s="59" t="s">
         <v>83</v>
       </c>
-      <c r="W14" s="88" t="s">
+      <c r="W14" s="82" t="s">
         <v>87</v>
       </c>
-      <c r="X14" s="88" t="s">
+      <c r="X14" s="82" t="s">
         <v>23</v>
       </c>
       <c r="Y14" s="44"/>
@@ -7942,7 +7826,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="15" spans="1:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="33">
         <v>2</v>
       </c>
@@ -7968,19 +7852,19 @@
       <c r="I15" s="19" t="s">
         <v>155</v>
       </c>
-      <c r="J15" s="76" t="s">
+      <c r="J15" s="72" t="s">
         <v>82</v>
       </c>
-      <c r="K15" s="76" t="s">
+      <c r="K15" s="72" t="s">
         <v>28</v>
       </c>
       <c r="L15" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="M15" s="76" t="s">
+      <c r="M15" s="72" t="s">
         <v>82</v>
       </c>
-      <c r="N15" s="76" t="s">
+      <c r="N15" s="72" t="s">
         <v>25</v>
       </c>
       <c r="O15" s="26" t="s">
@@ -7994,19 +7878,19 @@
       </c>
       <c r="R15" s="7"/>
       <c r="S15" s="7"/>
-      <c r="T15" s="76" t="s">
+      <c r="T15" s="72" t="s">
         <v>87</v>
       </c>
-      <c r="U15" s="76" t="s">
+      <c r="U15" s="72" t="s">
         <v>23</v>
       </c>
       <c r="V15" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="W15" s="76" t="s">
+      <c r="W15" s="72" t="s">
         <v>87</v>
       </c>
-      <c r="X15" s="76" t="s">
+      <c r="X15" s="72" t="s">
         <v>23</v>
       </c>
       <c r="Y15" s="26"/>
@@ -8014,7 +7898,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="16" spans="1:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="37">
         <v>3</v>
       </c>
@@ -8040,17 +7924,17 @@
       <c r="I16" s="38" t="s">
         <v>166</v>
       </c>
-      <c r="J16" s="75" t="s">
+      <c r="J16" s="71" t="s">
         <v>87</v>
       </c>
-      <c r="K16" s="75" t="s">
+      <c r="K16" s="71" t="s">
         <v>23</v>
       </c>
       <c r="L16" s="39"/>
-      <c r="M16" s="75" t="s">
+      <c r="M16" s="71" t="s">
         <v>87</v>
       </c>
-      <c r="N16" s="75" t="s">
+      <c r="N16" s="71" t="s">
         <v>23</v>
       </c>
       <c r="O16" s="40" t="s">
@@ -8064,19 +7948,19 @@
       </c>
       <c r="R16" s="39"/>
       <c r="S16" s="39"/>
-      <c r="T16" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="U16" s="75" t="s">
+      <c r="T16" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="U16" s="71" t="s">
         <v>30</v>
       </c>
       <c r="V16" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="W16" s="75" t="s">
+      <c r="W16" s="71" t="s">
         <v>181</v>
       </c>
-      <c r="X16" s="75" t="s">
+      <c r="X16" s="71" t="s">
         <v>182</v>
       </c>
       <c r="Y16" s="40"/>
@@ -8084,7 +7968,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="17" spans="1:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="33">
         <v>4</v>
       </c>
@@ -8110,17 +7994,17 @@
       <c r="I17" s="19" t="s">
         <v>156</v>
       </c>
-      <c r="J17" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="K17" s="76" t="s">
+      <c r="J17" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="K17" s="72" t="s">
         <v>24</v>
       </c>
       <c r="L17" s="7"/>
-      <c r="M17" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="N17" s="76" t="s">
+      <c r="M17" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="N17" s="72" t="s">
         <v>24</v>
       </c>
       <c r="O17" s="26" t="s">
@@ -8134,19 +8018,19 @@
       </c>
       <c r="R17" s="7"/>
       <c r="S17" s="7"/>
-      <c r="T17" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="U17" s="76" t="s">
+      <c r="T17" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="U17" s="72" t="s">
         <v>30</v>
       </c>
       <c r="V17" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="W17" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="X17" s="76" t="s">
+      <c r="W17" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="X17" s="72" t="s">
         <v>30</v>
       </c>
       <c r="Y17" s="26"/>
@@ -8154,7 +8038,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="18" spans="1:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="37">
         <v>5</v>
       </c>
@@ -8180,17 +8064,17 @@
       <c r="I18" s="38" t="s">
         <v>157</v>
       </c>
-      <c r="J18" s="75" t="s">
+      <c r="J18" s="71" t="s">
         <v>87</v>
       </c>
-      <c r="K18" s="75" t="s">
+      <c r="K18" s="71" t="s">
         <v>23</v>
       </c>
       <c r="L18" s="39"/>
-      <c r="M18" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="N18" s="75" t="s">
+      <c r="M18" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="N18" s="71" t="s">
         <v>24</v>
       </c>
       <c r="O18" s="40" t="s">
@@ -8204,19 +8088,19 @@
       </c>
       <c r="R18" s="39"/>
       <c r="S18" s="39"/>
-      <c r="T18" s="75" t="s">
-        <v>92</v>
-      </c>
-      <c r="U18" s="75" t="s">
+      <c r="T18" s="71" t="s">
+        <v>92</v>
+      </c>
+      <c r="U18" s="71" t="s">
         <v>30</v>
       </c>
       <c r="V18" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="W18" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="X18" s="75" t="s">
+      <c r="W18" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="X18" s="71" t="s">
         <v>30</v>
       </c>
       <c r="Y18" s="40"/>
@@ -8224,7 +8108,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="19" spans="1:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="33">
         <v>6</v>
       </c>
@@ -8250,17 +8134,17 @@
       <c r="I19" s="19" t="s">
         <v>158</v>
       </c>
-      <c r="J19" s="76" t="s">
+      <c r="J19" s="72" t="s">
         <v>86</v>
       </c>
-      <c r="K19" s="76" t="s">
+      <c r="K19" s="72" t="s">
         <v>34</v>
       </c>
       <c r="L19" s="7"/>
-      <c r="M19" s="76" t="s">
+      <c r="M19" s="72" t="s">
         <v>82</v>
       </c>
-      <c r="N19" s="76" t="s">
+      <c r="N19" s="72" t="s">
         <v>28</v>
       </c>
       <c r="O19" s="26" t="s">
@@ -8274,19 +8158,19 @@
       </c>
       <c r="R19" s="7"/>
       <c r="S19" s="7"/>
-      <c r="T19" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="U19" s="76" t="s">
+      <c r="T19" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="U19" s="72" t="s">
         <v>24</v>
       </c>
       <c r="V19" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="W19" s="76" t="s">
+      <c r="W19" s="72" t="s">
         <v>87</v>
       </c>
-      <c r="X19" s="76" t="s">
+      <c r="X19" s="72" t="s">
         <v>23</v>
       </c>
       <c r="Y19" s="26"/>
@@ -8294,7 +8178,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="20" spans="1:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="37">
         <v>7</v>
       </c>
@@ -8320,17 +8204,17 @@
       <c r="I20" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="J20" s="75" t="s">
+      <c r="J20" s="71" t="s">
         <v>87</v>
       </c>
-      <c r="K20" s="75" t="s">
+      <c r="K20" s="71" t="s">
         <v>23</v>
       </c>
       <c r="L20" s="39"/>
-      <c r="M20" s="75" t="s">
+      <c r="M20" s="71" t="s">
         <v>87</v>
       </c>
-      <c r="N20" s="75" t="s">
+      <c r="N20" s="71" t="s">
         <v>23</v>
       </c>
       <c r="O20" s="40" t="s">
@@ -8344,19 +8228,19 @@
       </c>
       <c r="R20" s="39"/>
       <c r="S20" s="39"/>
-      <c r="T20" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="U20" s="75" t="s">
+      <c r="T20" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="U20" s="71" t="s">
         <v>24</v>
       </c>
       <c r="V20" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="W20" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="X20" s="75" t="s">
+      <c r="W20" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="X20" s="71" t="s">
         <v>26</v>
       </c>
       <c r="Y20" s="40"/>
@@ -8364,7 +8248,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="21" spans="1:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="33">
         <v>8</v>
       </c>
@@ -8390,17 +8274,17 @@
       <c r="I21" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="J21" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="K21" s="76" t="s">
+      <c r="J21" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="K21" s="72" t="s">
         <v>24</v>
       </c>
       <c r="L21" s="7"/>
-      <c r="M21" s="76" t="s">
+      <c r="M21" s="72" t="s">
         <v>87</v>
       </c>
-      <c r="N21" s="76" t="s">
+      <c r="N21" s="72" t="s">
         <v>23</v>
       </c>
       <c r="O21" s="26" t="s">
@@ -8414,19 +8298,19 @@
       </c>
       <c r="R21" s="7"/>
       <c r="S21" s="7"/>
-      <c r="T21" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="U21" s="76" t="s">
+      <c r="T21" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="U21" s="72" t="s">
         <v>26</v>
       </c>
       <c r="V21" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="W21" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="X21" s="76" t="s">
+      <c r="W21" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="X21" s="72" t="s">
         <v>24</v>
       </c>
       <c r="Y21" s="26"/>
@@ -8434,7 +8318,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="22" spans="1:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="37">
         <v>9</v>
       </c>
@@ -8460,17 +8344,17 @@
       <c r="I22" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="J22" s="75" t="s">
+      <c r="J22" s="71" t="s">
         <v>82</v>
       </c>
-      <c r="K22" s="75" t="s">
+      <c r="K22" s="71" t="s">
         <v>25</v>
       </c>
       <c r="L22" s="39"/>
-      <c r="M22" s="75" t="s">
+      <c r="M22" s="71" t="s">
         <v>83</v>
       </c>
-      <c r="N22" s="75" t="s">
+      <c r="N22" s="71" t="s">
         <v>38</v>
       </c>
       <c r="O22" s="40" t="s">
@@ -8484,19 +8368,19 @@
       </c>
       <c r="R22" s="39"/>
       <c r="S22" s="39"/>
-      <c r="T22" s="75" t="s">
+      <c r="T22" s="71" t="s">
         <v>87</v>
       </c>
-      <c r="U22" s="75" t="s">
+      <c r="U22" s="71" t="s">
         <v>23</v>
       </c>
       <c r="V22" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="W22" s="75" t="s">
+      <c r="W22" s="71" t="s">
         <v>87</v>
       </c>
-      <c r="X22" s="75" t="s">
+      <c r="X22" s="71" t="s">
         <v>23</v>
       </c>
       <c r="Y22" s="40"/>
@@ -8504,7 +8388,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="23" spans="1:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="33">
         <v>10</v>
       </c>
@@ -8530,19 +8414,19 @@
       <c r="I23" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="J23" s="76" t="s">
+      <c r="J23" s="72" t="s">
         <v>87</v>
       </c>
-      <c r="K23" s="76" t="s">
+      <c r="K23" s="72" t="s">
         <v>23</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="M23" s="76" t="s">
+      <c r="M23" s="72" t="s">
         <v>83</v>
       </c>
-      <c r="N23" s="76" t="s">
+      <c r="N23" s="72" t="s">
         <v>38</v>
       </c>
       <c r="O23" s="26" t="s">
@@ -8556,19 +8440,19 @@
       </c>
       <c r="R23" s="7"/>
       <c r="S23" s="7"/>
-      <c r="T23" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="U23" s="76" t="s">
+      <c r="T23" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="U23" s="72" t="s">
         <v>30</v>
       </c>
       <c r="V23" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="W23" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="X23" s="76" t="s">
+      <c r="W23" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="X23" s="72" t="s">
         <v>30</v>
       </c>
       <c r="Y23" s="26"/>
@@ -8576,7 +8460,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="24" spans="1:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="37">
         <v>11</v>
       </c>
@@ -8602,17 +8486,17 @@
       <c r="I24" s="38" t="s">
         <v>112</v>
       </c>
-      <c r="J24" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="K24" s="75" t="s">
+      <c r="J24" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="K24" s="71" t="s">
         <v>24</v>
       </c>
       <c r="L24" s="39"/>
-      <c r="M24" s="75" t="s">
+      <c r="M24" s="71" t="s">
         <v>82</v>
       </c>
-      <c r="N24" s="75" t="s">
+      <c r="N24" s="71" t="s">
         <v>25</v>
       </c>
       <c r="O24" s="40" t="s">
@@ -8626,19 +8510,19 @@
       </c>
       <c r="R24" s="39"/>
       <c r="S24" s="39"/>
-      <c r="T24" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="U24" s="75" t="s">
+      <c r="T24" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="U24" s="71" t="s">
         <v>30</v>
       </c>
       <c r="V24" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="W24" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="X24" s="75" t="s">
+      <c r="W24" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="X24" s="71" t="s">
         <v>30</v>
       </c>
       <c r="Y24" s="40"/>
@@ -8646,7 +8530,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="25" spans="1:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="33">
         <v>12</v>
       </c>
@@ -8672,17 +8556,17 @@
       <c r="I25" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="J25" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="K25" s="76" t="s">
+      <c r="J25" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="K25" s="72" t="s">
         <v>30</v>
       </c>
       <c r="L25" s="7"/>
-      <c r="M25" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="N25" s="76" t="s">
+      <c r="M25" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="N25" s="72" t="s">
         <v>30</v>
       </c>
       <c r="O25" s="26" t="s">
@@ -8696,19 +8580,19 @@
       </c>
       <c r="R25" s="7"/>
       <c r="S25" s="7"/>
-      <c r="T25" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="U25" s="76" t="s">
+      <c r="T25" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="U25" s="72" t="s">
         <v>30</v>
       </c>
       <c r="V25" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="W25" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="X25" s="76" t="s">
+      <c r="W25" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="X25" s="72" t="s">
         <v>30</v>
       </c>
       <c r="Y25" s="26"/>
@@ -8716,7 +8600,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="26" spans="1:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="37">
         <v>13</v>
       </c>
@@ -8742,19 +8626,19 @@
       <c r="I26" s="38" t="s">
         <v>114</v>
       </c>
-      <c r="J26" s="75" t="s">
+      <c r="J26" s="71" t="s">
         <v>87</v>
       </c>
-      <c r="K26" s="75" t="s">
+      <c r="K26" s="71" t="s">
         <v>23</v>
       </c>
       <c r="L26" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="M26" s="75" t="s">
+      <c r="M26" s="71" t="s">
         <v>87</v>
       </c>
-      <c r="N26" s="75" t="s">
+      <c r="N26" s="71" t="s">
         <v>23</v>
       </c>
       <c r="O26" s="40" t="s">
@@ -8768,19 +8652,19 @@
       </c>
       <c r="R26" s="39"/>
       <c r="S26" s="39"/>
-      <c r="T26" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="U26" s="75" t="s">
+      <c r="T26" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="U26" s="71" t="s">
         <v>24</v>
       </c>
       <c r="V26" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="W26" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="X26" s="75" t="s">
+      <c r="W26" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="X26" s="71" t="s">
         <v>30</v>
       </c>
       <c r="Y26" s="40"/>
@@ -8788,7 +8672,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="27" spans="1:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="33">
         <v>14</v>
       </c>
@@ -8814,17 +8698,17 @@
       <c r="I27" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="J27" s="76" t="s">
+      <c r="J27" s="72" t="s">
         <v>89</v>
       </c>
-      <c r="K27" s="76" t="s">
+      <c r="K27" s="72" t="s">
         <v>44</v>
       </c>
       <c r="L27" s="7"/>
-      <c r="M27" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="N27" s="76" t="s">
+      <c r="M27" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="N27" s="72" t="s">
         <v>24</v>
       </c>
       <c r="O27" s="26" t="s">
@@ -8838,19 +8722,19 @@
       </c>
       <c r="R27" s="7"/>
       <c r="S27" s="7"/>
-      <c r="T27" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="U27" s="76" t="s">
+      <c r="T27" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="U27" s="72" t="s">
         <v>30</v>
       </c>
       <c r="V27" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="W27" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="X27" s="76" t="s">
+      <c r="W27" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="X27" s="72" t="s">
         <v>30</v>
       </c>
       <c r="Y27" s="26"/>
@@ -8858,7 +8742,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="28" spans="1:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="37">
         <v>15</v>
       </c>
@@ -8884,19 +8768,19 @@
       <c r="I28" s="38" t="s">
         <v>116</v>
       </c>
-      <c r="J28" s="75" t="s">
+      <c r="J28" s="71" t="s">
         <v>87</v>
       </c>
-      <c r="K28" s="75" t="s">
+      <c r="K28" s="71" t="s">
         <v>23</v>
       </c>
       <c r="L28" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="M28" s="75" t="s">
+      <c r="M28" s="71" t="s">
         <v>82</v>
       </c>
-      <c r="N28" s="75" t="s">
+      <c r="N28" s="71" t="s">
         <v>25</v>
       </c>
       <c r="O28" s="40" t="s">
@@ -8910,19 +8794,19 @@
       </c>
       <c r="R28" s="39"/>
       <c r="S28" s="39"/>
-      <c r="T28" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="U28" s="75" t="s">
+      <c r="T28" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="U28" s="71" t="s">
         <v>24</v>
       </c>
       <c r="V28" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="W28" s="75" t="s">
+      <c r="W28" s="71" t="s">
         <v>87</v>
       </c>
-      <c r="X28" s="75" t="s">
+      <c r="X28" s="71" t="s">
         <v>23</v>
       </c>
       <c r="Y28" s="40"/>
@@ -8930,7 +8814,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="29" spans="1:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="33">
         <v>16</v>
       </c>
@@ -8956,17 +8840,17 @@
       <c r="I29" s="19" t="s">
         <v>159</v>
       </c>
-      <c r="J29" s="76" t="s">
+      <c r="J29" s="72" t="s">
         <v>87</v>
       </c>
-      <c r="K29" s="76" t="s">
+      <c r="K29" s="72" t="s">
         <v>23</v>
       </c>
       <c r="L29" s="7"/>
-      <c r="M29" s="76" t="s">
+      <c r="M29" s="72" t="s">
         <v>87</v>
       </c>
-      <c r="N29" s="76" t="s">
+      <c r="N29" s="72" t="s">
         <v>23</v>
       </c>
       <c r="O29" s="26" t="s">
@@ -8980,19 +8864,19 @@
       </c>
       <c r="R29" s="60"/>
       <c r="S29" s="60"/>
-      <c r="T29" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="U29" s="76" t="s">
+      <c r="T29" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="U29" s="72" t="s">
         <v>24</v>
       </c>
       <c r="V29" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="W29" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="X29" s="76" t="s">
+      <c r="W29" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="X29" s="72" t="s">
         <v>30</v>
       </c>
       <c r="Y29" s="26"/>
@@ -9000,7 +8884,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="30" spans="1:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="37">
         <v>17</v>
       </c>
@@ -9026,17 +8910,17 @@
       <c r="I30" s="38" t="s">
         <v>160</v>
       </c>
-      <c r="J30" s="75" t="s">
+      <c r="J30" s="71" t="s">
         <v>87</v>
       </c>
-      <c r="K30" s="75" t="s">
+      <c r="K30" s="71" t="s">
         <v>23</v>
       </c>
       <c r="L30" s="39"/>
-      <c r="M30" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="N30" s="75" t="s">
+      <c r="M30" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="N30" s="71" t="s">
         <v>26</v>
       </c>
       <c r="O30" s="40" t="s">
@@ -9050,19 +8934,19 @@
       </c>
       <c r="R30" s="39"/>
       <c r="S30" s="39"/>
-      <c r="T30" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="U30" s="75" t="s">
+      <c r="T30" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="U30" s="71" t="s">
         <v>30</v>
       </c>
       <c r="V30" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="W30" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="X30" s="75" t="s">
+      <c r="W30" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="X30" s="71" t="s">
         <v>30</v>
       </c>
       <c r="Y30" s="40"/>
@@ -9070,7 +8954,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="31" spans="1:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="33">
         <v>18</v>
       </c>
@@ -9096,17 +8980,17 @@
       <c r="I31" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="J31" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="K31" s="76" t="s">
+      <c r="J31" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="K31" s="72" t="s">
         <v>24</v>
       </c>
       <c r="L31" s="7"/>
-      <c r="M31" s="76" t="s">
+      <c r="M31" s="72" t="s">
         <v>82</v>
       </c>
-      <c r="N31" s="76" t="s">
+      <c r="N31" s="72" t="s">
         <v>28</v>
       </c>
       <c r="O31" s="26" t="s">
@@ -9120,19 +9004,19 @@
       </c>
       <c r="R31" s="7"/>
       <c r="S31" s="7"/>
-      <c r="T31" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="U31" s="76" t="s">
+      <c r="T31" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="U31" s="72" t="s">
         <v>30</v>
       </c>
       <c r="V31" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="W31" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="X31" s="76" t="s">
+      <c r="W31" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="X31" s="72" t="s">
         <v>30</v>
       </c>
       <c r="Y31" s="26"/>
@@ -9140,7 +9024,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="32" spans="1:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="37">
         <v>19</v>
       </c>
@@ -9166,17 +9050,17 @@
       <c r="I32" s="38" t="s">
         <v>163</v>
       </c>
-      <c r="J32" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="K32" s="75" t="s">
+      <c r="J32" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="K32" s="71" t="s">
         <v>24</v>
       </c>
       <c r="L32" s="39"/>
-      <c r="M32" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="N32" s="75" t="s">
+      <c r="M32" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="N32" s="71" t="s">
         <v>24</v>
       </c>
       <c r="O32" s="40" t="s">
@@ -9190,19 +9074,19 @@
       </c>
       <c r="R32" s="39"/>
       <c r="S32" s="39"/>
-      <c r="T32" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="U32" s="75" t="s">
+      <c r="T32" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="U32" s="71" t="s">
         <v>24</v>
       </c>
       <c r="V32" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="W32" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="X32" s="75" t="s">
+      <c r="W32" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="X32" s="71" t="s">
         <v>30</v>
       </c>
       <c r="Y32" s="40"/>
@@ -9210,7 +9094,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="33" spans="1:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="33">
         <v>20</v>
       </c>
@@ -9236,17 +9120,17 @@
       <c r="I33" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="J33" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="K33" s="76" t="s">
+      <c r="J33" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="K33" s="72" t="s">
         <v>24</v>
       </c>
       <c r="L33" s="7"/>
-      <c r="M33" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="N33" s="76" t="s">
+      <c r="M33" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="N33" s="72" t="s">
         <v>24</v>
       </c>
       <c r="O33" s="26" t="s">
@@ -9260,19 +9144,19 @@
       </c>
       <c r="R33" s="7"/>
       <c r="S33" s="7"/>
-      <c r="T33" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="U33" s="76" t="s">
+      <c r="T33" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="U33" s="72" t="s">
         <v>30</v>
       </c>
       <c r="V33" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="W33" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="X33" s="76" t="s">
+      <c r="W33" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="X33" s="72" t="s">
         <v>30</v>
       </c>
       <c r="Y33" s="26"/>
@@ -9280,7 +9164,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="34" spans="1:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="37">
         <v>21</v>
       </c>
@@ -9306,17 +9190,17 @@
       <c r="I34" s="38" t="s">
         <v>121</v>
       </c>
-      <c r="J34" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="K34" s="75" t="s">
+      <c r="J34" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="K34" s="71" t="s">
         <v>24</v>
       </c>
       <c r="L34" s="39"/>
-      <c r="M34" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="N34" s="75" t="s">
+      <c r="M34" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="N34" s="71" t="s">
         <v>24</v>
       </c>
       <c r="O34" s="40" t="s">
@@ -9330,19 +9214,19 @@
       </c>
       <c r="R34" s="39"/>
       <c r="S34" s="39"/>
-      <c r="T34" s="75" t="s">
+      <c r="T34" s="71" t="s">
         <v>87</v>
       </c>
-      <c r="U34" s="75" t="s">
+      <c r="U34" s="71" t="s">
         <v>23</v>
       </c>
       <c r="V34" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="W34" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="X34" s="75" t="s">
+      <c r="W34" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="X34" s="71" t="s">
         <v>30</v>
       </c>
       <c r="Y34" s="40"/>
@@ -9350,7 +9234,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="35" spans="1:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="33">
         <v>22</v>
       </c>
@@ -9376,17 +9260,17 @@
       <c r="I35" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="J35" s="76" t="s">
+      <c r="J35" s="72" t="s">
         <v>82</v>
       </c>
-      <c r="K35" s="76" t="s">
+      <c r="K35" s="72" t="s">
         <v>25</v>
       </c>
       <c r="L35" s="7"/>
-      <c r="M35" s="76" t="s">
+      <c r="M35" s="72" t="s">
         <v>87</v>
       </c>
-      <c r="N35" s="76" t="s">
+      <c r="N35" s="72" t="s">
         <v>23</v>
       </c>
       <c r="O35" s="26" t="s">
@@ -9400,19 +9284,19 @@
       </c>
       <c r="R35" s="60"/>
       <c r="S35" s="60"/>
-      <c r="T35" s="76" t="s">
+      <c r="T35" s="72" t="s">
         <v>87</v>
       </c>
-      <c r="U35" s="76" t="s">
+      <c r="U35" s="72" t="s">
         <v>23</v>
       </c>
       <c r="V35" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="W35" s="76" t="s">
+      <c r="W35" s="72" t="s">
         <v>87</v>
       </c>
-      <c r="X35" s="76" t="s">
+      <c r="X35" s="72" t="s">
         <v>23</v>
       </c>
       <c r="Y35" s="26"/>
@@ -9420,7 +9304,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="36" spans="1:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="37">
         <v>23</v>
       </c>
@@ -9446,17 +9330,17 @@
       <c r="I36" s="38" t="s">
         <v>123</v>
       </c>
-      <c r="J36" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="K36" s="75" t="s">
+      <c r="J36" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="K36" s="71" t="s">
         <v>24</v>
       </c>
       <c r="L36" s="39"/>
-      <c r="M36" s="75" t="s">
+      <c r="M36" s="71" t="s">
         <v>82</v>
       </c>
-      <c r="N36" s="75" t="s">
+      <c r="N36" s="71" t="s">
         <v>25</v>
       </c>
       <c r="O36" s="40" t="s">
@@ -9470,19 +9354,19 @@
       </c>
       <c r="R36" s="39"/>
       <c r="S36" s="39"/>
-      <c r="T36" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="U36" s="75" t="s">
+      <c r="T36" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="U36" s="71" t="s">
         <v>24</v>
       </c>
       <c r="V36" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="W36" s="75" t="s">
+      <c r="W36" s="71" t="s">
         <v>87</v>
       </c>
-      <c r="X36" s="75" t="s">
+      <c r="X36" s="71" t="s">
         <v>23</v>
       </c>
       <c r="Y36" s="40"/>
@@ -9490,7 +9374,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="37" spans="1:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="33">
         <v>24</v>
       </c>
@@ -9516,17 +9400,17 @@
       <c r="I37" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="J37" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="K37" s="76" t="s">
+      <c r="J37" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="K37" s="72" t="s">
         <v>24</v>
       </c>
       <c r="L37" s="7"/>
-      <c r="M37" s="76" t="s">
+      <c r="M37" s="72" t="s">
         <v>87</v>
       </c>
-      <c r="N37" s="76" t="s">
+      <c r="N37" s="72" t="s">
         <v>23</v>
       </c>
       <c r="O37" s="26" t="s">
@@ -9540,19 +9424,19 @@
       </c>
       <c r="R37" s="7"/>
       <c r="S37" s="7"/>
-      <c r="T37" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="U37" s="76" t="s">
+      <c r="T37" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="U37" s="72" t="s">
         <v>24</v>
       </c>
       <c r="V37" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="W37" s="76" t="s">
+      <c r="W37" s="72" t="s">
         <v>87</v>
       </c>
-      <c r="X37" s="76" t="s">
+      <c r="X37" s="72" t="s">
         <v>23</v>
       </c>
       <c r="Y37" s="26"/>
@@ -9560,7 +9444,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="38" spans="1:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="37">
         <v>25</v>
       </c>
@@ -9586,17 +9470,17 @@
       <c r="I38" s="38" t="s">
         <v>124</v>
       </c>
-      <c r="J38" s="75" t="s">
+      <c r="J38" s="71" t="s">
         <v>87</v>
       </c>
-      <c r="K38" s="75" t="s">
+      <c r="K38" s="71" t="s">
         <v>23</v>
       </c>
       <c r="L38" s="39"/>
-      <c r="M38" s="75" t="s">
+      <c r="M38" s="71" t="s">
         <v>87</v>
       </c>
-      <c r="N38" s="75" t="s">
+      <c r="N38" s="71" t="s">
         <v>23</v>
       </c>
       <c r="O38" s="40" t="s">
@@ -9610,19 +9494,19 @@
       </c>
       <c r="R38" s="39"/>
       <c r="S38" s="39"/>
-      <c r="T38" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="U38" s="75" t="s">
+      <c r="T38" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="U38" s="71" t="s">
         <v>30</v>
       </c>
       <c r="V38" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="W38" s="75" t="s">
+      <c r="W38" s="71" t="s">
         <v>87</v>
       </c>
-      <c r="X38" s="75" t="s">
+      <c r="X38" s="71" t="s">
         <v>23</v>
       </c>
       <c r="Y38" s="40"/>
@@ -9630,7 +9514,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="39" spans="1:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="33">
         <v>26</v>
       </c>
@@ -9656,17 +9540,17 @@
       <c r="I39" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="J39" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="K39" s="76" t="s">
+      <c r="J39" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="K39" s="72" t="s">
         <v>24</v>
       </c>
       <c r="L39" s="7"/>
-      <c r="M39" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="N39" s="76" t="s">
+      <c r="M39" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="N39" s="72" t="s">
         <v>24</v>
       </c>
       <c r="O39" s="26" t="s">
@@ -9680,19 +9564,19 @@
       </c>
       <c r="R39" s="7"/>
       <c r="S39" s="7"/>
-      <c r="T39" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="U39" s="76" t="s">
+      <c r="T39" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="U39" s="72" t="s">
         <v>24</v>
       </c>
       <c r="V39" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="W39" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="X39" s="76" t="s">
+      <c r="W39" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="X39" s="72" t="s">
         <v>30</v>
       </c>
       <c r="Y39" s="26"/>
@@ -9700,7 +9584,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="40" spans="1:26" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:26" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="45">
         <v>27</v>
       </c>
@@ -9726,19 +9610,19 @@
       <c r="I40" s="47" t="s">
         <v>127</v>
       </c>
-      <c r="J40" s="77" t="s">
-        <v>91</v>
-      </c>
-      <c r="K40" s="77" t="s">
+      <c r="J40" s="83" t="s">
+        <v>91</v>
+      </c>
+      <c r="K40" s="83" t="s">
         <v>30</v>
       </c>
       <c r="L40" s="48" t="s">
         <v>81</v>
       </c>
-      <c r="M40" s="77" t="s">
-        <v>91</v>
-      </c>
-      <c r="N40" s="77" t="s">
+      <c r="M40" s="83" t="s">
+        <v>91</v>
+      </c>
+      <c r="N40" s="83" t="s">
         <v>24</v>
       </c>
       <c r="O40" s="49" t="s">
@@ -9752,19 +9636,19 @@
       </c>
       <c r="R40" s="48"/>
       <c r="S40" s="48"/>
-      <c r="T40" s="77" t="s">
-        <v>91</v>
-      </c>
-      <c r="U40" s="77" t="s">
+      <c r="T40" s="83" t="s">
+        <v>91</v>
+      </c>
+      <c r="U40" s="83" t="s">
         <v>30</v>
       </c>
       <c r="V40" s="48" t="s">
         <v>92</v>
       </c>
-      <c r="W40" s="77" t="s">
-        <v>91</v>
-      </c>
-      <c r="X40" s="77" t="s">
+      <c r="W40" s="83" t="s">
+        <v>91</v>
+      </c>
+      <c r="X40" s="83" t="s">
         <v>30</v>
       </c>
       <c r="Y40" s="49"/>
@@ -9772,7 +9656,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="41" spans="1:26" ht="25.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:26" ht="25.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A41" s="35">
         <v>28</v>
       </c>
@@ -9798,17 +9682,17 @@
       <c r="I41" s="30" t="s">
         <v>128</v>
       </c>
-      <c r="J41" s="78" t="s">
+      <c r="J41" s="84" t="s">
         <v>87</v>
       </c>
-      <c r="K41" s="78" t="s">
+      <c r="K41" s="84" t="s">
         <v>23</v>
       </c>
       <c r="L41" s="31"/>
-      <c r="M41" s="78" t="s">
-        <v>91</v>
-      </c>
-      <c r="N41" s="78" t="s">
+      <c r="M41" s="84" t="s">
+        <v>91</v>
+      </c>
+      <c r="N41" s="84" t="s">
         <v>24</v>
       </c>
       <c r="O41" s="32" t="s">
@@ -9822,19 +9706,19 @@
       </c>
       <c r="R41" s="31"/>
       <c r="S41" s="31"/>
-      <c r="T41" s="78" t="s">
+      <c r="T41" s="84" t="s">
         <v>87</v>
       </c>
-      <c r="U41" s="78" t="s">
+      <c r="U41" s="84" t="s">
         <v>23</v>
       </c>
       <c r="V41" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="W41" s="78" t="s">
-        <v>91</v>
-      </c>
-      <c r="X41" s="78" t="s">
+      <c r="W41" s="84" t="s">
+        <v>91</v>
+      </c>
+      <c r="X41" s="84" t="s">
         <v>30</v>
       </c>
       <c r="Y41" s="32"/>
@@ -9842,7 +9726,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="42" spans="1:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="37">
         <v>29</v>
       </c>
@@ -9868,17 +9752,17 @@
       <c r="I42" s="38" t="s">
         <v>129</v>
       </c>
-      <c r="J42" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="K42" s="75" t="s">
+      <c r="J42" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="K42" s="71" t="s">
         <v>26</v>
       </c>
       <c r="L42" s="39"/>
-      <c r="M42" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="N42" s="75" t="s">
+      <c r="M42" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="N42" s="71" t="s">
         <v>24</v>
       </c>
       <c r="O42" s="40" t="s">
@@ -9892,19 +9776,19 @@
       </c>
       <c r="R42" s="39"/>
       <c r="S42" s="39"/>
-      <c r="T42" s="75" t="s">
+      <c r="T42" s="71" t="s">
         <v>83</v>
       </c>
-      <c r="U42" s="75" t="s">
+      <c r="U42" s="71" t="s">
         <v>38</v>
       </c>
       <c r="V42" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="W42" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="X42" s="75" t="s">
+      <c r="W42" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="X42" s="71" t="s">
         <v>30</v>
       </c>
       <c r="Y42" s="40"/>
@@ -9912,7 +9796,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="43" spans="1:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="33">
         <v>30</v>
       </c>
@@ -9938,19 +9822,19 @@
       <c r="I43" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="J43" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="K43" s="76" t="s">
+      <c r="J43" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="K43" s="72" t="s">
         <v>26</v>
       </c>
       <c r="L43" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="M43" s="76" t="s">
+      <c r="M43" s="72" t="s">
         <v>82</v>
       </c>
-      <c r="N43" s="76" t="s">
+      <c r="N43" s="72" t="s">
         <v>25</v>
       </c>
       <c r="O43" s="26" t="s">
@@ -9964,19 +9848,19 @@
       </c>
       <c r="R43" s="7"/>
       <c r="S43" s="7"/>
-      <c r="T43" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="U43" s="76" t="s">
+      <c r="T43" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="U43" s="72" t="s">
         <v>24</v>
       </c>
       <c r="V43" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="W43" s="76" t="s">
+      <c r="W43" s="72" t="s">
         <v>87</v>
       </c>
-      <c r="X43" s="76" t="s">
+      <c r="X43" s="72" t="s">
         <v>23</v>
       </c>
       <c r="Y43" s="26"/>
@@ -9984,7 +9868,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="44" spans="1:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="37">
         <v>31</v>
       </c>
@@ -10010,17 +9894,17 @@
       <c r="I44" s="38" t="s">
         <v>146</v>
       </c>
-      <c r="J44" s="75" t="s">
+      <c r="J44" s="71" t="s">
         <v>82</v>
       </c>
-      <c r="K44" s="75" t="s">
+      <c r="K44" s="71" t="s">
         <v>25</v>
       </c>
       <c r="L44" s="39"/>
-      <c r="M44" s="75" t="s">
+      <c r="M44" s="71" t="s">
         <v>83</v>
       </c>
-      <c r="N44" s="75" t="s">
+      <c r="N44" s="71" t="s">
         <v>38</v>
       </c>
       <c r="O44" s="40" t="s">
@@ -10034,19 +9918,19 @@
       </c>
       <c r="R44" s="39"/>
       <c r="S44" s="39"/>
-      <c r="T44" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="U44" s="75" t="s">
+      <c r="T44" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="U44" s="71" t="s">
         <v>26</v>
       </c>
       <c r="V44" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="W44" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="X44" s="75" t="s">
+      <c r="W44" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="X44" s="71" t="s">
         <v>30</v>
       </c>
       <c r="Y44" s="40"/>
@@ -10054,7 +9938,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="45" spans="1:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="33">
         <v>32</v>
       </c>
@@ -10080,17 +9964,17 @@
       <c r="I45" s="19" t="s">
         <v>147</v>
       </c>
-      <c r="J45" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="K45" s="76" t="s">
+      <c r="J45" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="K45" s="72" t="s">
         <v>24</v>
       </c>
       <c r="L45" s="7"/>
-      <c r="M45" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="N45" s="76" t="s">
+      <c r="M45" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="N45" s="72" t="s">
         <v>24</v>
       </c>
       <c r="O45" s="26" t="s">
@@ -10104,19 +9988,19 @@
       </c>
       <c r="R45" s="7"/>
       <c r="S45" s="7"/>
-      <c r="T45" s="76" t="s">
+      <c r="T45" s="72" t="s">
         <v>181</v>
       </c>
-      <c r="U45" s="76" t="s">
+      <c r="U45" s="72" t="s">
         <v>182</v>
       </c>
       <c r="V45" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="W45" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="X45" s="76" t="s">
+      <c r="W45" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="X45" s="72" t="s">
         <v>30</v>
       </c>
       <c r="Y45" s="26"/>
@@ -10124,7 +10008,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="46" spans="1:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="37">
         <v>33</v>
       </c>
@@ -10150,17 +10034,17 @@
       <c r="I46" s="38" t="s">
         <v>131</v>
       </c>
-      <c r="J46" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="K46" s="75" t="s">
+      <c r="J46" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="K46" s="71" t="s">
         <v>24</v>
       </c>
       <c r="L46" s="39"/>
-      <c r="M46" s="75" t="s">
+      <c r="M46" s="71" t="s">
         <v>87</v>
       </c>
-      <c r="N46" s="75" t="s">
+      <c r="N46" s="71" t="s">
         <v>23</v>
       </c>
       <c r="O46" s="40" t="s">
@@ -10174,19 +10058,19 @@
       </c>
       <c r="R46" s="39"/>
       <c r="S46" s="39"/>
-      <c r="T46" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="U46" s="75" t="s">
+      <c r="T46" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="U46" s="71" t="s">
         <v>30</v>
       </c>
       <c r="V46" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="W46" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="X46" s="75" t="s">
+      <c r="W46" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="X46" s="71" t="s">
         <v>30</v>
       </c>
       <c r="Y46" s="40"/>
@@ -10194,7 +10078,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="47" spans="1:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="33">
         <v>34</v>
       </c>
@@ -10220,17 +10104,17 @@
       <c r="I47" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="J47" s="76" t="s">
+      <c r="J47" s="72" t="s">
         <v>87</v>
       </c>
-      <c r="K47" s="76" t="s">
+      <c r="K47" s="72" t="s">
         <v>23</v>
       </c>
       <c r="L47" s="7"/>
-      <c r="M47" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="N47" s="76" t="s">
+      <c r="M47" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="N47" s="72" t="s">
         <v>24</v>
       </c>
       <c r="O47" s="26" t="s">
@@ -10244,19 +10128,19 @@
       </c>
       <c r="R47" s="7"/>
       <c r="S47" s="7"/>
-      <c r="T47" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="U47" s="76" t="s">
+      <c r="T47" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="U47" s="72" t="s">
         <v>24</v>
       </c>
       <c r="V47" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="W47" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="X47" s="76" t="s">
+      <c r="W47" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="X47" s="72" t="s">
         <v>30</v>
       </c>
       <c r="Y47" s="26"/>
@@ -10264,7 +10148,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="48" spans="1:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="37">
         <v>35</v>
       </c>
@@ -10290,17 +10174,17 @@
       <c r="I48" s="38" t="s">
         <v>148</v>
       </c>
-      <c r="J48" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="K48" s="75" t="s">
+      <c r="J48" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="K48" s="71" t="s">
         <v>24</v>
       </c>
       <c r="L48" s="39"/>
-      <c r="M48" s="75" t="s">
+      <c r="M48" s="71" t="s">
         <v>87</v>
       </c>
-      <c r="N48" s="75" t="s">
+      <c r="N48" s="71" t="s">
         <v>66</v>
       </c>
       <c r="O48" s="40" t="s">
@@ -10314,19 +10198,19 @@
       </c>
       <c r="R48" s="39"/>
       <c r="S48" s="39"/>
-      <c r="T48" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="U48" s="75" t="s">
+      <c r="T48" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="U48" s="71" t="s">
         <v>30</v>
       </c>
       <c r="V48" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="W48" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="X48" s="75" t="s">
+      <c r="W48" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="X48" s="71" t="s">
         <v>30</v>
       </c>
       <c r="Y48" s="40"/>
@@ -10334,7 +10218,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="49" spans="1:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="33">
         <v>36</v>
       </c>
@@ -10360,17 +10244,17 @@
       <c r="I49" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="J49" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="K49" s="76" t="s">
+      <c r="J49" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="K49" s="72" t="s">
         <v>24</v>
       </c>
       <c r="L49" s="7"/>
-      <c r="M49" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="N49" s="76" t="s">
+      <c r="M49" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="N49" s="72" t="s">
         <v>24</v>
       </c>
       <c r="O49" s="26" t="s">
@@ -10384,19 +10268,19 @@
       </c>
       <c r="R49" s="7"/>
       <c r="S49" s="7"/>
-      <c r="T49" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="U49" s="76" t="s">
+      <c r="T49" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="U49" s="72" t="s">
         <v>26</v>
       </c>
       <c r="V49" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="W49" s="76" t="s">
+      <c r="W49" s="72" t="s">
         <v>87</v>
       </c>
-      <c r="X49" s="76" t="s">
+      <c r="X49" s="72" t="s">
         <v>23</v>
       </c>
       <c r="Y49" s="26"/>
@@ -10404,7 +10288,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="50" spans="1:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="37">
         <v>37</v>
       </c>
@@ -10430,17 +10314,17 @@
       <c r="I50" s="38" t="s">
         <v>134</v>
       </c>
-      <c r="J50" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="K50" s="75" t="s">
+      <c r="J50" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="K50" s="71" t="s">
         <v>24</v>
       </c>
       <c r="L50" s="39"/>
-      <c r="M50" s="75" t="s">
+      <c r="M50" s="71" t="s">
         <v>83</v>
       </c>
-      <c r="N50" s="75" t="s">
+      <c r="N50" s="71" t="s">
         <v>38</v>
       </c>
       <c r="O50" s="40" t="s">
@@ -10454,19 +10338,19 @@
       </c>
       <c r="R50" s="39"/>
       <c r="S50" s="39"/>
-      <c r="T50" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="U50" s="75" t="s">
+      <c r="T50" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="U50" s="71" t="s">
         <v>24</v>
       </c>
       <c r="V50" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="W50" s="75" t="s">
+      <c r="W50" s="71" t="s">
         <v>87</v>
       </c>
-      <c r="X50" s="75" t="s">
+      <c r="X50" s="71" t="s">
         <v>23</v>
       </c>
       <c r="Y50" s="40"/>
@@ -10474,7 +10358,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="51" spans="1:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="33">
         <v>38</v>
       </c>
@@ -10500,17 +10384,17 @@
       <c r="I51" s="19" t="s">
         <v>149</v>
       </c>
-      <c r="J51" s="76" t="s">
+      <c r="J51" s="72" t="s">
         <v>83</v>
       </c>
-      <c r="K51" s="76" t="s">
+      <c r="K51" s="72" t="s">
         <v>38</v>
       </c>
       <c r="L51" s="7"/>
-      <c r="M51" s="76" t="s">
+      <c r="M51" s="72" t="s">
         <v>83</v>
       </c>
-      <c r="N51" s="76" t="s">
+      <c r="N51" s="72" t="s">
         <v>38</v>
       </c>
       <c r="O51" s="26" t="s">
@@ -10524,19 +10408,19 @@
       </c>
       <c r="R51" s="7"/>
       <c r="S51" s="7"/>
-      <c r="T51" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="U51" s="76" t="s">
+      <c r="T51" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="U51" s="72" t="s">
         <v>24</v>
       </c>
       <c r="V51" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="W51" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="X51" s="76" t="s">
+      <c r="W51" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="X51" s="72" t="s">
         <v>30</v>
       </c>
       <c r="Y51" s="26"/>
@@ -10544,7 +10428,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="52" spans="1:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="37">
         <v>39</v>
       </c>
@@ -10570,19 +10454,19 @@
       <c r="I52" s="38" t="s">
         <v>150</v>
       </c>
-      <c r="J52" s="75" t="s">
+      <c r="J52" s="71" t="s">
         <v>90</v>
       </c>
-      <c r="K52" s="75" t="s">
+      <c r="K52" s="71" t="s">
         <v>71</v>
       </c>
       <c r="L52" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="M52" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="N52" s="75" t="s">
+      <c r="M52" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="N52" s="71" t="s">
         <v>24</v>
       </c>
       <c r="O52" s="40" t="s">
@@ -10596,19 +10480,19 @@
       </c>
       <c r="R52" s="39"/>
       <c r="S52" s="39"/>
-      <c r="T52" s="75" t="s">
+      <c r="T52" s="71" t="s">
         <v>90</v>
       </c>
-      <c r="U52" s="75" t="s">
+      <c r="U52" s="71" t="s">
         <v>71</v>
       </c>
       <c r="V52" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="W52" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="X52" s="75" t="s">
+      <c r="W52" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="X52" s="71" t="s">
         <v>30</v>
       </c>
       <c r="Y52" s="40"/>
@@ -10616,7 +10500,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="53" spans="1:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="33">
         <v>40</v>
       </c>
@@ -10642,19 +10526,19 @@
       <c r="I53" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="J53" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="K53" s="76" t="s">
+      <c r="J53" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="K53" s="72" t="s">
         <v>26</v>
       </c>
       <c r="L53" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="M53" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="N53" s="76" t="s">
+      <c r="M53" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="N53" s="72" t="s">
         <v>24</v>
       </c>
       <c r="O53" s="26" t="s">
@@ -10668,19 +10552,19 @@
       </c>
       <c r="R53" s="7"/>
       <c r="S53" s="7"/>
-      <c r="T53" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="U53" s="76" t="s">
+      <c r="T53" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="U53" s="72" t="s">
         <v>30</v>
       </c>
       <c r="V53" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="W53" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="X53" s="76" t="s">
+      <c r="W53" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="X53" s="72" t="s">
         <v>30</v>
       </c>
       <c r="Y53" s="26"/>
@@ -10688,7 +10572,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="54" spans="1:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="37">
         <v>41</v>
       </c>
@@ -10714,17 +10598,17 @@
       <c r="I54" s="38" t="s">
         <v>152</v>
       </c>
-      <c r="J54" s="75" t="s">
+      <c r="J54" s="71" t="s">
         <v>83</v>
       </c>
-      <c r="K54" s="75" t="s">
+      <c r="K54" s="71" t="s">
         <v>38</v>
       </c>
       <c r="L54" s="39"/>
-      <c r="M54" s="75" t="s">
+      <c r="M54" s="71" t="s">
         <v>82</v>
       </c>
-      <c r="N54" s="75" t="s">
+      <c r="N54" s="71" t="s">
         <v>25</v>
       </c>
       <c r="O54" s="40" t="s">
@@ -10738,19 +10622,19 @@
       </c>
       <c r="R54" s="39"/>
       <c r="S54" s="39"/>
-      <c r="T54" s="75" t="s">
+      <c r="T54" s="71" t="s">
         <v>181</v>
       </c>
-      <c r="U54" s="75" t="s">
+      <c r="U54" s="71" t="s">
         <v>182</v>
       </c>
       <c r="V54" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="W54" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="X54" s="75" t="s">
+      <c r="W54" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="X54" s="71" t="s">
         <v>30</v>
       </c>
       <c r="Y54" s="40"/>
@@ -10758,7 +10642,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="55" spans="1:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="33">
         <v>42</v>
       </c>
@@ -10784,17 +10668,17 @@
       <c r="I55" s="19" t="s">
         <v>153</v>
       </c>
-      <c r="J55" s="76" t="s">
+      <c r="J55" s="72" t="s">
         <v>87</v>
       </c>
-      <c r="K55" s="76" t="s">
+      <c r="K55" s="72" t="s">
         <v>23</v>
       </c>
       <c r="L55" s="7"/>
-      <c r="M55" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="N55" s="76" t="s">
+      <c r="M55" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="N55" s="72" t="s">
         <v>24</v>
       </c>
       <c r="O55" s="26" t="s">
@@ -10808,19 +10692,19 @@
       </c>
       <c r="R55" s="7"/>
       <c r="S55" s="7"/>
-      <c r="T55" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="U55" s="76" t="s">
+      <c r="T55" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="U55" s="72" t="s">
         <v>24</v>
       </c>
       <c r="V55" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="W55" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="X55" s="76" t="s">
+      <c r="W55" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="X55" s="72" t="s">
         <v>30</v>
       </c>
       <c r="Y55" s="26"/>
@@ -10828,7 +10712,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="56" spans="1:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="37">
         <v>43</v>
       </c>
@@ -10854,17 +10738,17 @@
       <c r="I56" s="38" t="s">
         <v>173</v>
       </c>
-      <c r="J56" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="K56" s="75" t="s">
+      <c r="J56" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="K56" s="71" t="s">
         <v>26</v>
       </c>
       <c r="L56" s="39"/>
-      <c r="M56" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="N56" s="75" t="s">
+      <c r="M56" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="N56" s="71" t="s">
         <v>24</v>
       </c>
       <c r="O56" s="40" t="s">
@@ -10878,19 +10762,19 @@
       </c>
       <c r="R56" s="39"/>
       <c r="S56" s="39"/>
-      <c r="T56" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="U56" s="75" t="s">
+      <c r="T56" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="U56" s="71" t="s">
         <v>26</v>
       </c>
       <c r="V56" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="W56" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="X56" s="75" t="s">
+      <c r="W56" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="X56" s="71" t="s">
         <v>30</v>
       </c>
       <c r="Y56" s="40"/>
@@ -10898,7 +10782,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="57" spans="1:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="33">
         <v>44</v>
       </c>
@@ -10924,19 +10808,19 @@
       <c r="I57" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="J57" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="K57" s="76" t="s">
+      <c r="J57" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="K57" s="72" t="s">
         <v>24</v>
       </c>
       <c r="L57" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="M57" s="76" t="s">
+      <c r="M57" s="72" t="s">
         <v>82</v>
       </c>
-      <c r="N57" s="76" t="s">
+      <c r="N57" s="72" t="s">
         <v>25</v>
       </c>
       <c r="O57" s="26" t="s">
@@ -10950,19 +10834,19 @@
       </c>
       <c r="R57" s="7"/>
       <c r="S57" s="7"/>
-      <c r="T57" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="U57" s="76" t="s">
+      <c r="T57" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="U57" s="72" t="s">
         <v>24</v>
       </c>
       <c r="V57" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="W57" s="76" t="s">
+      <c r="W57" s="72" t="s">
         <v>82</v>
       </c>
-      <c r="X57" s="76" t="s">
+      <c r="X57" s="72" t="s">
         <v>25</v>
       </c>
       <c r="Y57" s="26"/>
@@ -10970,7 +10854,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="58" spans="1:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="37">
         <v>45</v>
       </c>
@@ -10996,17 +10880,17 @@
       <c r="I58" s="38" t="s">
         <v>169</v>
       </c>
-      <c r="J58" s="75" t="s">
+      <c r="J58" s="71" t="s">
         <v>82</v>
       </c>
-      <c r="K58" s="75" t="s">
+      <c r="K58" s="71" t="s">
         <v>28</v>
       </c>
       <c r="L58" s="39"/>
-      <c r="M58" s="75" t="s">
+      <c r="M58" s="71" t="s">
         <v>83</v>
       </c>
-      <c r="N58" s="75" t="s">
+      <c r="N58" s="71" t="s">
         <v>78</v>
       </c>
       <c r="O58" s="40" t="s">
@@ -11020,19 +10904,19 @@
       </c>
       <c r="R58" s="39"/>
       <c r="S58" s="39"/>
-      <c r="T58" s="75" t="s">
+      <c r="T58" s="71" t="s">
         <v>83</v>
       </c>
-      <c r="U58" s="75" t="s">
+      <c r="U58" s="71" t="s">
         <v>38</v>
       </c>
       <c r="V58" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="W58" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="X58" s="75" t="s">
+      <c r="W58" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="X58" s="71" t="s">
         <v>30</v>
       </c>
       <c r="Y58" s="40"/>
@@ -11040,7 +10924,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="59" spans="1:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="33">
         <v>46</v>
       </c>
@@ -11066,17 +10950,17 @@
       <c r="I59" s="19" t="s">
         <v>165</v>
       </c>
-      <c r="J59" s="76" t="s">
+      <c r="J59" s="72" t="s">
         <v>83</v>
       </c>
-      <c r="K59" s="76" t="s">
+      <c r="K59" s="72" t="s">
         <v>38</v>
       </c>
       <c r="L59" s="7"/>
-      <c r="M59" s="76" t="s">
+      <c r="M59" s="72" t="s">
         <v>82</v>
       </c>
-      <c r="N59" s="76" t="s">
+      <c r="N59" s="72" t="s">
         <v>25</v>
       </c>
       <c r="O59" s="26" t="s">
@@ -11090,19 +10974,19 @@
       </c>
       <c r="R59" s="7"/>
       <c r="S59" s="7"/>
-      <c r="T59" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="U59" s="76" t="s">
+      <c r="T59" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="U59" s="72" t="s">
         <v>26</v>
       </c>
       <c r="V59" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="W59" s="76" t="s">
+      <c r="W59" s="72" t="s">
         <v>184</v>
       </c>
-      <c r="X59" s="76" t="s">
+      <c r="X59" s="72" t="s">
         <v>185</v>
       </c>
       <c r="Y59" s="26"/>
@@ -11110,7 +10994,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="60" spans="1:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="37">
         <v>47</v>
       </c>
@@ -11122,11 +11006,11 @@
       <c r="G60" s="51"/>
       <c r="H60" s="51"/>
       <c r="I60" s="50"/>
-      <c r="J60" s="71"/>
-      <c r="K60" s="72"/>
+      <c r="J60" s="85"/>
+      <c r="K60" s="86"/>
       <c r="L60" s="51"/>
-      <c r="M60" s="71"/>
-      <c r="N60" s="72"/>
+      <c r="M60" s="85"/>
+      <c r="N60" s="86"/>
       <c r="O60" s="52"/>
       <c r="P60" s="66"/>
       <c r="Q60" s="39" t="s">
@@ -11134,25 +11018,25 @@
       </c>
       <c r="R60" s="39"/>
       <c r="S60" s="39"/>
-      <c r="T60" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="U60" s="75" t="s">
+      <c r="T60" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="U60" s="71" t="s">
         <v>26</v>
       </c>
       <c r="V60" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="W60" s="75" t="s">
+      <c r="W60" s="71" t="s">
         <v>87</v>
       </c>
-      <c r="X60" s="75" t="s">
+      <c r="X60" s="71" t="s">
         <v>23</v>
       </c>
       <c r="Y60" s="52"/>
       <c r="Z60" s="58"/>
     </row>
-    <row r="61" spans="1:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="33">
         <v>48</v>
       </c>
@@ -11164,11 +11048,11 @@
       <c r="G61" s="31"/>
       <c r="H61" s="31"/>
       <c r="I61" s="30"/>
-      <c r="J61" s="73"/>
-      <c r="K61" s="74"/>
+      <c r="J61" s="87"/>
+      <c r="K61" s="88"/>
       <c r="L61" s="31"/>
-      <c r="M61" s="73"/>
-      <c r="N61" s="74"/>
+      <c r="M61" s="87"/>
+      <c r="N61" s="88"/>
       <c r="O61" s="32"/>
       <c r="P61" s="65"/>
       <c r="Q61" s="32"/>
@@ -11182,7 +11066,7 @@
       <c r="Y61" s="32"/>
       <c r="Z61" s="57"/>
     </row>
-    <row r="62" spans="1:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="37">
         <v>49</v>
       </c>
@@ -11194,11 +11078,11 @@
       <c r="G62" s="51"/>
       <c r="H62" s="51"/>
       <c r="I62" s="50"/>
-      <c r="J62" s="71"/>
-      <c r="K62" s="72"/>
+      <c r="J62" s="85"/>
+      <c r="K62" s="86"/>
       <c r="L62" s="51"/>
-      <c r="M62" s="71"/>
-      <c r="N62" s="72"/>
+      <c r="M62" s="85"/>
+      <c r="N62" s="86"/>
       <c r="O62" s="52"/>
       <c r="P62" s="66"/>
       <c r="Q62" s="52"/>
@@ -11212,7 +11096,7 @@
       <c r="Y62" s="52"/>
       <c r="Z62" s="58"/>
     </row>
-    <row r="63" spans="1:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="33">
         <v>50</v>
       </c>
@@ -11224,11 +11108,11 @@
       <c r="G63" s="31"/>
       <c r="H63" s="31"/>
       <c r="I63" s="30"/>
-      <c r="J63" s="73"/>
-      <c r="K63" s="74"/>
+      <c r="J63" s="87"/>
+      <c r="K63" s="88"/>
       <c r="L63" s="31"/>
-      <c r="M63" s="73"/>
-      <c r="N63" s="74"/>
+      <c r="M63" s="87"/>
+      <c r="N63" s="88"/>
       <c r="O63" s="32"/>
       <c r="P63" s="65"/>
       <c r="Q63" s="32"/>
@@ -11242,7 +11126,7 @@
       <c r="Y63" s="32"/>
       <c r="Z63" s="57"/>
     </row>
-    <row r="64" spans="1:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="37">
         <v>51</v>
       </c>
@@ -11254,11 +11138,11 @@
       <c r="G64" s="51"/>
       <c r="H64" s="51"/>
       <c r="I64" s="50"/>
-      <c r="J64" s="71"/>
-      <c r="K64" s="72"/>
+      <c r="J64" s="85"/>
+      <c r="K64" s="86"/>
       <c r="L64" s="51"/>
-      <c r="M64" s="71"/>
-      <c r="N64" s="72"/>
+      <c r="M64" s="85"/>
+      <c r="N64" s="86"/>
       <c r="O64" s="52"/>
       <c r="P64" s="66"/>
       <c r="Q64" s="52"/>
@@ -11272,7 +11156,7 @@
       <c r="Y64" s="52"/>
       <c r="Z64" s="58"/>
     </row>
-    <row r="65" spans="1:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="33">
         <v>52</v>
       </c>
@@ -11284,11 +11168,11 @@
       <c r="G65" s="31"/>
       <c r="H65" s="31"/>
       <c r="I65" s="30"/>
-      <c r="J65" s="73"/>
-      <c r="K65" s="74"/>
+      <c r="J65" s="87"/>
+      <c r="K65" s="88"/>
       <c r="L65" s="31"/>
-      <c r="M65" s="73"/>
-      <c r="N65" s="74"/>
+      <c r="M65" s="87"/>
+      <c r="N65" s="88"/>
       <c r="O65" s="32"/>
       <c r="P65" s="65"/>
       <c r="Q65" s="32"/>
@@ -11302,7 +11186,7 @@
       <c r="Y65" s="32"/>
       <c r="Z65" s="57"/>
     </row>
-    <row r="66" spans="1:26" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:26" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="45">
         <v>53</v>
       </c>
@@ -11328,17 +11212,17 @@
       <c r="I66" s="38" t="s">
         <v>163</v>
       </c>
-      <c r="J66" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="K66" s="75" t="s">
+      <c r="J66" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="K66" s="71" t="s">
         <v>24</v>
       </c>
       <c r="L66" s="39"/>
-      <c r="M66" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="N66" s="75" t="s">
+      <c r="M66" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="N66" s="71" t="s">
         <v>24</v>
       </c>
       <c r="O66" s="40" t="s">
@@ -11360,7 +11244,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="67" spans="1:26" ht="25.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:26" ht="25.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A67" s="35"/>
       <c r="B67" s="14" t="s">
         <v>80</v>
@@ -11390,7 +11274,7 @@
       <c r="Y67" s="27"/>
       <c r="Z67" s="16"/>
     </row>
-    <row r="68" spans="1:26" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:26" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="34"/>
       <c r="B68" s="13"/>
       <c r="C68" s="21"/>
@@ -11418,99 +11302,100 @@
       <c r="Y68" s="28"/>
       <c r="Z68" s="10"/>
     </row>
-    <row r="69" spans="1:26" ht="15" thickTop="1" x14ac:dyDescent="0.15"/>
+    <row r="69" spans="1:26" ht="14.65" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="205">
-    <mergeCell ref="T14:U14"/>
-    <mergeCell ref="W14:X14"/>
-    <mergeCell ref="T15:U15"/>
-    <mergeCell ref="W15:X15"/>
-    <mergeCell ref="T16:U16"/>
-    <mergeCell ref="W16:X16"/>
-    <mergeCell ref="T17:U17"/>
-    <mergeCell ref="W17:X17"/>
-    <mergeCell ref="T18:U18"/>
-    <mergeCell ref="W18:X18"/>
-    <mergeCell ref="T19:U19"/>
-    <mergeCell ref="W19:X19"/>
-    <mergeCell ref="T20:U20"/>
-    <mergeCell ref="W20:X20"/>
-    <mergeCell ref="T21:U21"/>
-    <mergeCell ref="W21:X21"/>
-    <mergeCell ref="T22:U22"/>
-    <mergeCell ref="W22:X22"/>
-    <mergeCell ref="T23:U23"/>
-    <mergeCell ref="W23:X23"/>
-    <mergeCell ref="T24:U24"/>
-    <mergeCell ref="W24:X24"/>
-    <mergeCell ref="T25:U25"/>
-    <mergeCell ref="W25:X25"/>
-    <mergeCell ref="T26:U26"/>
-    <mergeCell ref="W26:X26"/>
-    <mergeCell ref="T27:U27"/>
-    <mergeCell ref="W27:X27"/>
-    <mergeCell ref="T28:U28"/>
-    <mergeCell ref="W28:X28"/>
-    <mergeCell ref="T29:U29"/>
-    <mergeCell ref="W29:X29"/>
-    <mergeCell ref="T30:U30"/>
-    <mergeCell ref="W30:X30"/>
-    <mergeCell ref="T31:U31"/>
-    <mergeCell ref="W31:X31"/>
-    <mergeCell ref="T32:U32"/>
-    <mergeCell ref="W32:X32"/>
-    <mergeCell ref="T33:U33"/>
-    <mergeCell ref="W33:X33"/>
-    <mergeCell ref="T34:U34"/>
-    <mergeCell ref="W34:X34"/>
-    <mergeCell ref="T35:U35"/>
-    <mergeCell ref="W35:X35"/>
-    <mergeCell ref="T36:U36"/>
-    <mergeCell ref="W36:X36"/>
-    <mergeCell ref="T37:U37"/>
-    <mergeCell ref="W37:X37"/>
-    <mergeCell ref="T38:U38"/>
-    <mergeCell ref="W38:X38"/>
-    <mergeCell ref="T39:U39"/>
-    <mergeCell ref="W39:X39"/>
-    <mergeCell ref="T40:U40"/>
-    <mergeCell ref="W40:X40"/>
-    <mergeCell ref="T41:U41"/>
-    <mergeCell ref="W41:X41"/>
-    <mergeCell ref="T42:U42"/>
-    <mergeCell ref="W42:X42"/>
-    <mergeCell ref="T43:U43"/>
-    <mergeCell ref="W43:X43"/>
-    <mergeCell ref="T44:U44"/>
-    <mergeCell ref="W44:X44"/>
-    <mergeCell ref="T45:U45"/>
-    <mergeCell ref="W45:X45"/>
-    <mergeCell ref="T46:U46"/>
-    <mergeCell ref="W46:X46"/>
-    <mergeCell ref="T47:U47"/>
-    <mergeCell ref="W47:X47"/>
-    <mergeCell ref="T48:U48"/>
-    <mergeCell ref="W48:X48"/>
-    <mergeCell ref="T49:U49"/>
-    <mergeCell ref="W49:X49"/>
-    <mergeCell ref="T50:U50"/>
-    <mergeCell ref="W50:X50"/>
-    <mergeCell ref="T51:U51"/>
-    <mergeCell ref="W51:X51"/>
-    <mergeCell ref="T52:U52"/>
-    <mergeCell ref="W52:X52"/>
-    <mergeCell ref="T53:U53"/>
-    <mergeCell ref="W53:X53"/>
-    <mergeCell ref="T54:U54"/>
-    <mergeCell ref="W54:X54"/>
-    <mergeCell ref="T55:U55"/>
-    <mergeCell ref="W55:X55"/>
-    <mergeCell ref="T56:U56"/>
-    <mergeCell ref="W56:X56"/>
-    <mergeCell ref="T57:U57"/>
-    <mergeCell ref="W57:X57"/>
-    <mergeCell ref="T58:U58"/>
-    <mergeCell ref="W58:X58"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="J57:K57"/>
+    <mergeCell ref="J58:K58"/>
+    <mergeCell ref="J59:K59"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="J50:K50"/>
+    <mergeCell ref="J51:K51"/>
+    <mergeCell ref="J52:K52"/>
+    <mergeCell ref="J53:K53"/>
+    <mergeCell ref="J54:K54"/>
+    <mergeCell ref="J55:K55"/>
+    <mergeCell ref="J56:K56"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="J48:K48"/>
+    <mergeCell ref="J49:K49"/>
+    <mergeCell ref="J66:K66"/>
+    <mergeCell ref="M66:N66"/>
+    <mergeCell ref="M65:N65"/>
+    <mergeCell ref="M64:N64"/>
+    <mergeCell ref="M63:N63"/>
+    <mergeCell ref="M43:N43"/>
+    <mergeCell ref="M44:N44"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="M46:N46"/>
+    <mergeCell ref="M47:N47"/>
+    <mergeCell ref="M62:N62"/>
+    <mergeCell ref="M61:N61"/>
+    <mergeCell ref="M60:N60"/>
+    <mergeCell ref="C6:C13"/>
+    <mergeCell ref="I6:I13"/>
+    <mergeCell ref="Z6:Z13"/>
+    <mergeCell ref="A6:A13"/>
+    <mergeCell ref="M54:N54"/>
+    <mergeCell ref="M48:N48"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="M49:N49"/>
+    <mergeCell ref="M50:N50"/>
+    <mergeCell ref="M51:N51"/>
+    <mergeCell ref="M52:N52"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="M29:N29"/>
     <mergeCell ref="T59:U59"/>
     <mergeCell ref="W59:X59"/>
     <mergeCell ref="T60:U60"/>
@@ -11535,162 +11420,161 @@
     <mergeCell ref="M23:N23"/>
     <mergeCell ref="M24:N24"/>
     <mergeCell ref="M25:N25"/>
-    <mergeCell ref="C6:C13"/>
-    <mergeCell ref="I6:I13"/>
-    <mergeCell ref="Z6:Z13"/>
-    <mergeCell ref="A6:A13"/>
-    <mergeCell ref="M54:N54"/>
-    <mergeCell ref="M48:N48"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="M49:N49"/>
-    <mergeCell ref="M50:N50"/>
-    <mergeCell ref="M51:N51"/>
-    <mergeCell ref="M52:N52"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="M35:N35"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="J66:K66"/>
-    <mergeCell ref="M66:N66"/>
-    <mergeCell ref="M65:N65"/>
-    <mergeCell ref="M64:N64"/>
-    <mergeCell ref="M63:N63"/>
-    <mergeCell ref="M43:N43"/>
-    <mergeCell ref="M44:N44"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="M46:N46"/>
-    <mergeCell ref="M47:N47"/>
-    <mergeCell ref="M62:N62"/>
-    <mergeCell ref="M61:N61"/>
-    <mergeCell ref="M60:N60"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="J57:K57"/>
-    <mergeCell ref="J58:K58"/>
-    <mergeCell ref="J59:K59"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="J50:K50"/>
-    <mergeCell ref="J51:K51"/>
-    <mergeCell ref="J52:K52"/>
-    <mergeCell ref="J53:K53"/>
-    <mergeCell ref="J54:K54"/>
-    <mergeCell ref="J55:K55"/>
-    <mergeCell ref="J56:K56"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="J46:K46"/>
-    <mergeCell ref="J47:K47"/>
-    <mergeCell ref="J48:K48"/>
-    <mergeCell ref="J49:K49"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="T54:U54"/>
+    <mergeCell ref="W54:X54"/>
+    <mergeCell ref="T55:U55"/>
+    <mergeCell ref="W55:X55"/>
+    <mergeCell ref="T56:U56"/>
+    <mergeCell ref="W56:X56"/>
+    <mergeCell ref="T57:U57"/>
+    <mergeCell ref="W57:X57"/>
+    <mergeCell ref="T58:U58"/>
+    <mergeCell ref="W58:X58"/>
+    <mergeCell ref="T49:U49"/>
+    <mergeCell ref="W49:X49"/>
+    <mergeCell ref="T50:U50"/>
+    <mergeCell ref="W50:X50"/>
+    <mergeCell ref="T51:U51"/>
+    <mergeCell ref="W51:X51"/>
+    <mergeCell ref="T52:U52"/>
+    <mergeCell ref="W52:X52"/>
+    <mergeCell ref="T53:U53"/>
+    <mergeCell ref="W53:X53"/>
+    <mergeCell ref="T44:U44"/>
+    <mergeCell ref="W44:X44"/>
+    <mergeCell ref="T45:U45"/>
+    <mergeCell ref="W45:X45"/>
+    <mergeCell ref="T46:U46"/>
+    <mergeCell ref="W46:X46"/>
+    <mergeCell ref="T47:U47"/>
+    <mergeCell ref="W47:X47"/>
+    <mergeCell ref="T48:U48"/>
+    <mergeCell ref="W48:X48"/>
+    <mergeCell ref="T39:U39"/>
+    <mergeCell ref="W39:X39"/>
+    <mergeCell ref="T40:U40"/>
+    <mergeCell ref="W40:X40"/>
+    <mergeCell ref="T41:U41"/>
+    <mergeCell ref="W41:X41"/>
+    <mergeCell ref="T42:U42"/>
+    <mergeCell ref="W42:X42"/>
+    <mergeCell ref="T43:U43"/>
+    <mergeCell ref="W43:X43"/>
+    <mergeCell ref="T34:U34"/>
+    <mergeCell ref="W34:X34"/>
+    <mergeCell ref="T35:U35"/>
+    <mergeCell ref="W35:X35"/>
+    <mergeCell ref="T36:U36"/>
+    <mergeCell ref="W36:X36"/>
+    <mergeCell ref="T37:U37"/>
+    <mergeCell ref="W37:X37"/>
+    <mergeCell ref="T38:U38"/>
+    <mergeCell ref="W38:X38"/>
+    <mergeCell ref="T29:U29"/>
+    <mergeCell ref="W29:X29"/>
+    <mergeCell ref="T30:U30"/>
+    <mergeCell ref="W30:X30"/>
+    <mergeCell ref="T31:U31"/>
+    <mergeCell ref="W31:X31"/>
+    <mergeCell ref="T32:U32"/>
+    <mergeCell ref="W32:X32"/>
+    <mergeCell ref="T33:U33"/>
+    <mergeCell ref="W33:X33"/>
+    <mergeCell ref="T24:U24"/>
+    <mergeCell ref="W24:X24"/>
+    <mergeCell ref="T25:U25"/>
+    <mergeCell ref="W25:X25"/>
+    <mergeCell ref="T26:U26"/>
+    <mergeCell ref="W26:X26"/>
+    <mergeCell ref="T27:U27"/>
+    <mergeCell ref="W27:X27"/>
+    <mergeCell ref="T28:U28"/>
+    <mergeCell ref="W28:X28"/>
+    <mergeCell ref="T19:U19"/>
+    <mergeCell ref="W19:X19"/>
+    <mergeCell ref="T20:U20"/>
+    <mergeCell ref="W20:X20"/>
+    <mergeCell ref="T21:U21"/>
+    <mergeCell ref="W21:X21"/>
+    <mergeCell ref="T22:U22"/>
+    <mergeCell ref="W22:X22"/>
+    <mergeCell ref="T23:U23"/>
+    <mergeCell ref="W23:X23"/>
+    <mergeCell ref="T14:U14"/>
+    <mergeCell ref="W14:X14"/>
+    <mergeCell ref="T15:U15"/>
+    <mergeCell ref="W15:X15"/>
+    <mergeCell ref="T16:U16"/>
+    <mergeCell ref="W16:X16"/>
+    <mergeCell ref="T17:U17"/>
+    <mergeCell ref="W17:X17"/>
+    <mergeCell ref="T18:U18"/>
+    <mergeCell ref="W18:X18"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A6:F6 I6:N6 Z6:IV6">
-    <cfRule type="expression" dxfId="35" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="10" stopIfTrue="1">
       <formula>B$5="1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="11" stopIfTrue="1">
       <formula>B$7="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="12" stopIfTrue="1">
       <formula>B$7="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7 D7:H7 J7:O7 AA7:IV7">
-    <cfRule type="expression" dxfId="32" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="7" stopIfTrue="1">
       <formula>B$5="1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="8" stopIfTrue="1">
       <formula>B$7="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="9" stopIfTrue="1">
       <formula>B$7="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6:H6">
-    <cfRule type="expression" dxfId="29" priority="58" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="58" stopIfTrue="1">
       <formula>I$5="1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="59" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="59" stopIfTrue="1">
       <formula>I$7="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="60" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="60" stopIfTrue="1">
       <formula>I$7="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O6">
-    <cfRule type="expression" dxfId="26" priority="46" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="46" stopIfTrue="1">
       <formula>X$5="1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="47" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="47" stopIfTrue="1">
       <formula>X$7="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="48" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="48" stopIfTrue="1">
       <formula>X$7="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P6">
-    <cfRule type="expression" dxfId="23" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="1" stopIfTrue="1">
       <formula>Q$5="1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="2" stopIfTrue="1">
       <formula>Q$7="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="3" stopIfTrue="1">
       <formula>Q$7="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q6:Y7">
-    <cfRule type="expression" dxfId="20" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="4" stopIfTrue="1">
       <formula>Q$5="1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="5" stopIfTrue="1">
       <formula>Q$7="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
       <formula>Q$7="土"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/app/xlsx/18003198194881_4PJ.xlsx
+++ b/app/xlsx/18003198194881_4PJ.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luiha\OneDrive\デスクトップ\MyGo\rolemaster0.5\RoleMaserV0.5\app\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luiha\OneDrive\デスクトップ\MyPrograming\MyGo\rolemaster0.5\RoleMaserV0.5\app\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0A28616-5DA8-41E1-92CE-32B34CBBD81E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2241812-3A46-4354-8E9F-0C24D68F536B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PJシフト4月" sheetId="4" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2199" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2200" uniqueCount="196">
   <si>
     <t>ミエルココン</t>
   </si>
@@ -1586,28 +1586,10 @@
     <xf numFmtId="176" fontId="3" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1640,6 +1622,24 @@
     <xf numFmtId="176" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -1653,127 +1653,7 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="66">
-    <dxf>
-      <font>
-        <color theme="8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
+  <dxfs count="42">
     <dxf>
       <font>
         <color theme="8"/>
@@ -2257,7 +2137,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EE3DD89-42D5-4E57-AB52-235C4D14B7E6}">
   <dimension ref="A2:O69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B42" workbookViewId="0">
+    <sheetView topLeftCell="B42" workbookViewId="0">
       <selection activeCell="L72" sqref="L72"/>
     </sheetView>
   </sheetViews>
@@ -2326,11 +2206,11 @@
       </c>
     </row>
     <row r="6" spans="1:15" ht="15" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="79"/>
+      <c r="A6" s="73"/>
       <c r="B6" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="82" t="s">
+      <c r="C6" s="76" t="s">
         <v>167</v>
       </c>
       <c r="D6" s="8">
@@ -2348,7 +2228,7 @@
       <c r="H6" s="8">
         <v>15</v>
       </c>
-      <c r="I6" s="85" t="s">
+      <c r="I6" s="79" t="s">
         <v>167</v>
       </c>
       <c r="J6" s="8">
@@ -2371,11 +2251,11 @@
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A7" s="80"/>
+      <c r="A7" s="74"/>
       <c r="B7" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="83"/>
+      <c r="C7" s="77"/>
       <c r="D7" s="7" t="s">
         <v>8</v>
       </c>
@@ -2391,7 +2271,7 @@
       <c r="H7" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="I7" s="86"/>
+      <c r="I7" s="80"/>
       <c r="J7" s="7" t="s">
         <v>8</v>
       </c>
@@ -2412,11 +2292,11 @@
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A8" s="80"/>
+      <c r="A8" s="74"/>
       <c r="B8" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="83"/>
+      <c r="C8" s="77"/>
       <c r="D8" s="7">
         <v>68</v>
       </c>
@@ -2430,7 +2310,7 @@
         <v>60</v>
       </c>
       <c r="H8" s="7"/>
-      <c r="I8" s="86"/>
+      <c r="I8" s="80"/>
       <c r="J8" s="7">
         <v>90</v>
       </c>
@@ -2449,11 +2329,11 @@
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A9" s="80"/>
+      <c r="A9" s="74"/>
       <c r="B9" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="83"/>
+      <c r="C9" s="77"/>
       <c r="D9" s="17">
         <v>14</v>
       </c>
@@ -2469,7 +2349,7 @@
       <c r="H9" s="17">
         <v>10</v>
       </c>
-      <c r="I9" s="86"/>
+      <c r="I9" s="80"/>
       <c r="J9" s="17">
         <v>18</v>
       </c>
@@ -2488,11 +2368,11 @@
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A10" s="80"/>
+      <c r="A10" s="74"/>
       <c r="B10" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="83"/>
+      <c r="C10" s="77"/>
       <c r="D10" s="7" t="s">
         <v>13</v>
       </c>
@@ -2506,7 +2386,7 @@
         <v>13</v>
       </c>
       <c r="H10" s="7"/>
-      <c r="I10" s="86"/>
+      <c r="I10" s="80"/>
       <c r="J10" s="7" t="s">
         <v>13</v>
       </c>
@@ -2525,11 +2405,11 @@
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A11" s="80"/>
+      <c r="A11" s="74"/>
       <c r="B11" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="C11" s="83"/>
+      <c r="C11" s="77"/>
       <c r="D11" s="7" t="s">
         <v>94</v>
       </c>
@@ -2545,7 +2425,7 @@
       <c r="H11" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="I11" s="86"/>
+      <c r="I11" s="80"/>
       <c r="J11" s="7" t="s">
         <v>97</v>
       </c>
@@ -2564,11 +2444,11 @@
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A12" s="80"/>
+      <c r="A12" s="74"/>
       <c r="B12" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="83"/>
+      <c r="C12" s="77"/>
       <c r="D12" s="7" t="s">
         <v>17</v>
       </c>
@@ -2584,7 +2464,7 @@
       <c r="H12" s="18">
         <v>0.6875</v>
       </c>
-      <c r="I12" s="86"/>
+      <c r="I12" s="80"/>
       <c r="J12" s="7" t="s">
         <v>17</v>
       </c>
@@ -2605,11 +2485,11 @@
       </c>
     </row>
     <row r="13" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="81"/>
+      <c r="A13" s="75"/>
       <c r="B13" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="84"/>
+      <c r="C13" s="78"/>
       <c r="D13" s="7" t="s">
         <v>21</v>
       </c>
@@ -2625,7 +2505,7 @@
       <c r="H13" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="I13" s="87"/>
+      <c r="I13" s="81"/>
       <c r="J13" s="7" t="s">
         <v>21</v>
       </c>
@@ -2671,17 +2551,17 @@
       <c r="I14" s="42" t="s">
         <v>154</v>
       </c>
-      <c r="J14" s="88" t="s">
+      <c r="J14" s="82" t="s">
         <v>88</v>
       </c>
-      <c r="K14" s="88" t="s">
+      <c r="K14" s="82" t="s">
         <v>25</v>
       </c>
       <c r="L14" s="43"/>
-      <c r="M14" s="88" t="s">
+      <c r="M14" s="82" t="s">
         <v>82</v>
       </c>
-      <c r="N14" s="88" t="s">
+      <c r="N14" s="82" t="s">
         <v>23</v>
       </c>
       <c r="O14" s="44" t="s">
@@ -2714,19 +2594,19 @@
       <c r="I15" s="19" t="s">
         <v>155</v>
       </c>
-      <c r="J15" s="76" t="s">
+      <c r="J15" s="72" t="s">
         <v>82</v>
       </c>
-      <c r="K15" s="76" t="s">
+      <c r="K15" s="72" t="s">
         <v>28</v>
       </c>
       <c r="L15" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="M15" s="76" t="s">
+      <c r="M15" s="72" t="s">
         <v>82</v>
       </c>
-      <c r="N15" s="76" t="s">
+      <c r="N15" s="72" t="s">
         <v>25</v>
       </c>
       <c r="O15" s="26" t="s">
@@ -2759,17 +2639,17 @@
       <c r="I16" s="38" t="s">
         <v>166</v>
       </c>
-      <c r="J16" s="75" t="s">
+      <c r="J16" s="71" t="s">
         <v>87</v>
       </c>
-      <c r="K16" s="75" t="s">
+      <c r="K16" s="71" t="s">
         <v>23</v>
       </c>
       <c r="L16" s="39"/>
-      <c r="M16" s="75" t="s">
+      <c r="M16" s="71" t="s">
         <v>87</v>
       </c>
-      <c r="N16" s="75" t="s">
+      <c r="N16" s="71" t="s">
         <v>23</v>
       </c>
       <c r="O16" s="40" t="s">
@@ -2802,17 +2682,17 @@
       <c r="I17" s="19" t="s">
         <v>156</v>
       </c>
-      <c r="J17" s="76" t="s">
-        <v>92</v>
-      </c>
-      <c r="K17" s="76" t="s">
+      <c r="J17" s="72" t="s">
+        <v>92</v>
+      </c>
+      <c r="K17" s="72" t="s">
         <v>24</v>
       </c>
       <c r="L17" s="7"/>
-      <c r="M17" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="N17" s="76" t="s">
+      <c r="M17" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="N17" s="72" t="s">
         <v>24</v>
       </c>
       <c r="O17" s="26" t="s">
@@ -2845,17 +2725,17 @@
       <c r="I18" s="38" t="s">
         <v>157</v>
       </c>
-      <c r="J18" s="75" t="s">
+      <c r="J18" s="71" t="s">
         <v>87</v>
       </c>
-      <c r="K18" s="75" t="s">
+      <c r="K18" s="71" t="s">
         <v>23</v>
       </c>
       <c r="L18" s="39"/>
-      <c r="M18" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="N18" s="75" t="s">
+      <c r="M18" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="N18" s="71" t="s">
         <v>24</v>
       </c>
       <c r="O18" s="40" t="s">
@@ -2888,17 +2768,17 @@
       <c r="I19" s="19" t="s">
         <v>158</v>
       </c>
-      <c r="J19" s="76" t="s">
+      <c r="J19" s="72" t="s">
         <v>86</v>
       </c>
-      <c r="K19" s="76" t="s">
+      <c r="K19" s="72" t="s">
         <v>34</v>
       </c>
       <c r="L19" s="7"/>
-      <c r="M19" s="76" t="s">
+      <c r="M19" s="72" t="s">
         <v>82</v>
       </c>
-      <c r="N19" s="76" t="s">
+      <c r="N19" s="72" t="s">
         <v>28</v>
       </c>
       <c r="O19" s="26" t="s">
@@ -2931,17 +2811,17 @@
       <c r="I20" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="J20" s="75" t="s">
+      <c r="J20" s="71" t="s">
         <v>87</v>
       </c>
-      <c r="K20" s="75" t="s">
+      <c r="K20" s="71" t="s">
         <v>23</v>
       </c>
       <c r="L20" s="39"/>
-      <c r="M20" s="75" t="s">
+      <c r="M20" s="71" t="s">
         <v>87</v>
       </c>
-      <c r="N20" s="75" t="s">
+      <c r="N20" s="71" t="s">
         <v>23</v>
       </c>
       <c r="O20" s="40" t="s">
@@ -2974,17 +2854,17 @@
       <c r="I21" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="J21" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="K21" s="76" t="s">
+      <c r="J21" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="K21" s="72" t="s">
         <v>24</v>
       </c>
       <c r="L21" s="7"/>
-      <c r="M21" s="76" t="s">
+      <c r="M21" s="72" t="s">
         <v>87</v>
       </c>
-      <c r="N21" s="76" t="s">
+      <c r="N21" s="72" t="s">
         <v>23</v>
       </c>
       <c r="O21" s="26" t="s">
@@ -3017,17 +2897,17 @@
       <c r="I22" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="J22" s="75" t="s">
+      <c r="J22" s="71" t="s">
         <v>82</v>
       </c>
-      <c r="K22" s="75" t="s">
+      <c r="K22" s="71" t="s">
         <v>25</v>
       </c>
       <c r="L22" s="39"/>
-      <c r="M22" s="75" t="s">
+      <c r="M22" s="71" t="s">
         <v>83</v>
       </c>
-      <c r="N22" s="75" t="s">
+      <c r="N22" s="71" t="s">
         <v>38</v>
       </c>
       <c r="O22" s="40" t="s">
@@ -3060,19 +2940,19 @@
       <c r="I23" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="J23" s="76" t="s">
+      <c r="J23" s="72" t="s">
         <v>87</v>
       </c>
-      <c r="K23" s="76" t="s">
+      <c r="K23" s="72" t="s">
         <v>23</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="M23" s="76" t="s">
+      <c r="M23" s="72" t="s">
         <v>83</v>
       </c>
-      <c r="N23" s="76" t="s">
+      <c r="N23" s="72" t="s">
         <v>38</v>
       </c>
       <c r="O23" s="26" t="s">
@@ -3105,17 +2985,17 @@
       <c r="I24" s="38" t="s">
         <v>112</v>
       </c>
-      <c r="J24" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="K24" s="75" t="s">
+      <c r="J24" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="K24" s="71" t="s">
         <v>24</v>
       </c>
       <c r="L24" s="39"/>
-      <c r="M24" s="75" t="s">
+      <c r="M24" s="71" t="s">
         <v>82</v>
       </c>
-      <c r="N24" s="75" t="s">
+      <c r="N24" s="71" t="s">
         <v>25</v>
       </c>
       <c r="O24" s="40" t="s">
@@ -3148,17 +3028,17 @@
       <c r="I25" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="J25" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="K25" s="76" t="s">
+      <c r="J25" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="K25" s="72" t="s">
         <v>30</v>
       </c>
       <c r="L25" s="7"/>
-      <c r="M25" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="N25" s="76" t="s">
+      <c r="M25" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="N25" s="72" t="s">
         <v>30</v>
       </c>
       <c r="O25" s="26" t="s">
@@ -3191,19 +3071,19 @@
       <c r="I26" s="38" t="s">
         <v>114</v>
       </c>
-      <c r="J26" s="75" t="s">
+      <c r="J26" s="71" t="s">
         <v>87</v>
       </c>
-      <c r="K26" s="75" t="s">
+      <c r="K26" s="71" t="s">
         <v>23</v>
       </c>
       <c r="L26" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="M26" s="75" t="s">
+      <c r="M26" s="71" t="s">
         <v>87</v>
       </c>
-      <c r="N26" s="75" t="s">
+      <c r="N26" s="71" t="s">
         <v>23</v>
       </c>
       <c r="O26" s="40" t="s">
@@ -3236,17 +3116,17 @@
       <c r="I27" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="J27" s="76" t="s">
+      <c r="J27" s="72" t="s">
         <v>89</v>
       </c>
-      <c r="K27" s="76" t="s">
+      <c r="K27" s="72" t="s">
         <v>44</v>
       </c>
       <c r="L27" s="7"/>
-      <c r="M27" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="N27" s="76" t="s">
+      <c r="M27" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="N27" s="72" t="s">
         <v>24</v>
       </c>
       <c r="O27" s="26" t="s">
@@ -3279,19 +3159,19 @@
       <c r="I28" s="38" t="s">
         <v>116</v>
       </c>
-      <c r="J28" s="75" t="s">
+      <c r="J28" s="71" t="s">
         <v>87</v>
       </c>
-      <c r="K28" s="75" t="s">
+      <c r="K28" s="71" t="s">
         <v>23</v>
       </c>
       <c r="L28" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="M28" s="75" t="s">
+      <c r="M28" s="71" t="s">
         <v>82</v>
       </c>
-      <c r="N28" s="75" t="s">
+      <c r="N28" s="71" t="s">
         <v>25</v>
       </c>
       <c r="O28" s="40" t="s">
@@ -3324,17 +3204,17 @@
       <c r="I29" s="19" t="s">
         <v>159</v>
       </c>
-      <c r="J29" s="76" t="s">
+      <c r="J29" s="72" t="s">
         <v>87</v>
       </c>
-      <c r="K29" s="76" t="s">
+      <c r="K29" s="72" t="s">
         <v>23</v>
       </c>
       <c r="L29" s="7"/>
-      <c r="M29" s="76" t="s">
+      <c r="M29" s="72" t="s">
         <v>87</v>
       </c>
-      <c r="N29" s="76" t="s">
+      <c r="N29" s="72" t="s">
         <v>23</v>
       </c>
       <c r="O29" s="26" t="s">
@@ -3367,17 +3247,17 @@
       <c r="I30" s="38" t="s">
         <v>160</v>
       </c>
-      <c r="J30" s="75" t="s">
+      <c r="J30" s="71" t="s">
         <v>87</v>
       </c>
-      <c r="K30" s="75" t="s">
+      <c r="K30" s="71" t="s">
         <v>23</v>
       </c>
       <c r="L30" s="39"/>
-      <c r="M30" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="N30" s="75" t="s">
+      <c r="M30" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="N30" s="71" t="s">
         <v>26</v>
       </c>
       <c r="O30" s="40" t="s">
@@ -3410,17 +3290,17 @@
       <c r="I31" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="J31" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="K31" s="76" t="s">
+      <c r="J31" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="K31" s="72" t="s">
         <v>24</v>
       </c>
       <c r="L31" s="7"/>
-      <c r="M31" s="76" t="s">
+      <c r="M31" s="72" t="s">
         <v>82</v>
       </c>
-      <c r="N31" s="76" t="s">
+      <c r="N31" s="72" t="s">
         <v>28</v>
       </c>
       <c r="O31" s="26" t="s">
@@ -3453,17 +3333,17 @@
       <c r="I32" s="38" t="s">
         <v>163</v>
       </c>
-      <c r="J32" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="K32" s="75" t="s">
+      <c r="J32" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="K32" s="71" t="s">
         <v>24</v>
       </c>
       <c r="L32" s="39"/>
-      <c r="M32" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="N32" s="75" t="s">
+      <c r="M32" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="N32" s="71" t="s">
         <v>24</v>
       </c>
       <c r="O32" s="40" t="s">
@@ -3496,17 +3376,17 @@
       <c r="I33" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="J33" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="K33" s="76" t="s">
+      <c r="J33" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="K33" s="72" t="s">
         <v>24</v>
       </c>
       <c r="L33" s="7"/>
-      <c r="M33" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="N33" s="76" t="s">
+      <c r="M33" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="N33" s="72" t="s">
         <v>24</v>
       </c>
       <c r="O33" s="26" t="s">
@@ -3539,17 +3419,17 @@
       <c r="I34" s="38" t="s">
         <v>121</v>
       </c>
-      <c r="J34" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="K34" s="75" t="s">
+      <c r="J34" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="K34" s="71" t="s">
         <v>24</v>
       </c>
       <c r="L34" s="39"/>
-      <c r="M34" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="N34" s="75" t="s">
+      <c r="M34" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="N34" s="71" t="s">
         <v>24</v>
       </c>
       <c r="O34" s="40" t="s">
@@ -3582,17 +3462,17 @@
       <c r="I35" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="J35" s="76" t="s">
+      <c r="J35" s="72" t="s">
         <v>82</v>
       </c>
-      <c r="K35" s="76" t="s">
+      <c r="K35" s="72" t="s">
         <v>25</v>
       </c>
       <c r="L35" s="7"/>
-      <c r="M35" s="76" t="s">
+      <c r="M35" s="72" t="s">
         <v>87</v>
       </c>
-      <c r="N35" s="76" t="s">
+      <c r="N35" s="72" t="s">
         <v>23</v>
       </c>
       <c r="O35" s="26" t="s">
@@ -3625,17 +3505,17 @@
       <c r="I36" s="38" t="s">
         <v>123</v>
       </c>
-      <c r="J36" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="K36" s="75" t="s">
+      <c r="J36" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="K36" s="71" t="s">
         <v>24</v>
       </c>
       <c r="L36" s="39"/>
-      <c r="M36" s="75" t="s">
+      <c r="M36" s="71" t="s">
         <v>82</v>
       </c>
-      <c r="N36" s="75" t="s">
+      <c r="N36" s="71" t="s">
         <v>25</v>
       </c>
       <c r="O36" s="40" t="s">
@@ -3668,17 +3548,17 @@
       <c r="I37" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="J37" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="K37" s="76" t="s">
+      <c r="J37" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="K37" s="72" t="s">
         <v>24</v>
       </c>
       <c r="L37" s="7"/>
-      <c r="M37" s="76" t="s">
+      <c r="M37" s="72" t="s">
         <v>87</v>
       </c>
-      <c r="N37" s="76" t="s">
+      <c r="N37" s="72" t="s">
         <v>23</v>
       </c>
       <c r="O37" s="26" t="s">
@@ -3711,17 +3591,17 @@
       <c r="I38" s="38" t="s">
         <v>124</v>
       </c>
-      <c r="J38" s="75" t="s">
+      <c r="J38" s="71" t="s">
         <v>87</v>
       </c>
-      <c r="K38" s="75" t="s">
+      <c r="K38" s="71" t="s">
         <v>23</v>
       </c>
       <c r="L38" s="39"/>
-      <c r="M38" s="75" t="s">
+      <c r="M38" s="71" t="s">
         <v>87</v>
       </c>
-      <c r="N38" s="75" t="s">
+      <c r="N38" s="71" t="s">
         <v>23</v>
       </c>
       <c r="O38" s="40" t="s">
@@ -3754,17 +3634,17 @@
       <c r="I39" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="J39" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="K39" s="76" t="s">
+      <c r="J39" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="K39" s="72" t="s">
         <v>24</v>
       </c>
       <c r="L39" s="7"/>
-      <c r="M39" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="N39" s="76" t="s">
+      <c r="M39" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="N39" s="72" t="s">
         <v>24</v>
       </c>
       <c r="O39" s="26" t="s">
@@ -3797,19 +3677,19 @@
       <c r="I40" s="47" t="s">
         <v>127</v>
       </c>
-      <c r="J40" s="77" t="s">
-        <v>91</v>
-      </c>
-      <c r="K40" s="77" t="s">
+      <c r="J40" s="83" t="s">
+        <v>91</v>
+      </c>
+      <c r="K40" s="83" t="s">
         <v>30</v>
       </c>
       <c r="L40" s="48" t="s">
         <v>81</v>
       </c>
-      <c r="M40" s="77" t="s">
-        <v>91</v>
-      </c>
-      <c r="N40" s="77" t="s">
+      <c r="M40" s="83" t="s">
+        <v>91</v>
+      </c>
+      <c r="N40" s="83" t="s">
         <v>24</v>
       </c>
       <c r="O40" s="49" t="s">
@@ -3842,17 +3722,17 @@
       <c r="I41" s="30" t="s">
         <v>128</v>
       </c>
-      <c r="J41" s="78" t="s">
+      <c r="J41" s="84" t="s">
         <v>87</v>
       </c>
-      <c r="K41" s="78" t="s">
+      <c r="K41" s="84" t="s">
         <v>23</v>
       </c>
       <c r="L41" s="31"/>
-      <c r="M41" s="78" t="s">
-        <v>91</v>
-      </c>
-      <c r="N41" s="78" t="s">
+      <c r="M41" s="84" t="s">
+        <v>91</v>
+      </c>
+      <c r="N41" s="84" t="s">
         <v>24</v>
       </c>
       <c r="O41" s="32" t="s">
@@ -3885,17 +3765,17 @@
       <c r="I42" s="38" t="s">
         <v>129</v>
       </c>
-      <c r="J42" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="K42" s="75" t="s">
+      <c r="J42" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="K42" s="71" t="s">
         <v>26</v>
       </c>
       <c r="L42" s="39"/>
-      <c r="M42" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="N42" s="75" t="s">
+      <c r="M42" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="N42" s="71" t="s">
         <v>24</v>
       </c>
       <c r="O42" s="40" t="s">
@@ -3928,19 +3808,19 @@
       <c r="I43" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="J43" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="K43" s="76" t="s">
+      <c r="J43" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="K43" s="72" t="s">
         <v>26</v>
       </c>
       <c r="L43" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="M43" s="76" t="s">
+      <c r="M43" s="72" t="s">
         <v>82</v>
       </c>
-      <c r="N43" s="76" t="s">
+      <c r="N43" s="72" t="s">
         <v>25</v>
       </c>
       <c r="O43" s="26" t="s">
@@ -3973,17 +3853,17 @@
       <c r="I44" s="38" t="s">
         <v>146</v>
       </c>
-      <c r="J44" s="75" t="s">
+      <c r="J44" s="71" t="s">
         <v>82</v>
       </c>
-      <c r="K44" s="75" t="s">
+      <c r="K44" s="71" t="s">
         <v>25</v>
       </c>
       <c r="L44" s="39"/>
-      <c r="M44" s="75" t="s">
+      <c r="M44" s="71" t="s">
         <v>83</v>
       </c>
-      <c r="N44" s="75" t="s">
+      <c r="N44" s="71" t="s">
         <v>38</v>
       </c>
       <c r="O44" s="40" t="s">
@@ -4016,17 +3896,17 @@
       <c r="I45" s="19" t="s">
         <v>147</v>
       </c>
-      <c r="J45" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="K45" s="76" t="s">
+      <c r="J45" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="K45" s="72" t="s">
         <v>24</v>
       </c>
       <c r="L45" s="7"/>
-      <c r="M45" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="N45" s="76" t="s">
+      <c r="M45" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="N45" s="72" t="s">
         <v>24</v>
       </c>
       <c r="O45" s="26" t="s">
@@ -4059,17 +3939,17 @@
       <c r="I46" s="38" t="s">
         <v>131</v>
       </c>
-      <c r="J46" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="K46" s="75" t="s">
+      <c r="J46" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="K46" s="71" t="s">
         <v>24</v>
       </c>
       <c r="L46" s="39"/>
-      <c r="M46" s="75" t="s">
+      <c r="M46" s="71" t="s">
         <v>87</v>
       </c>
-      <c r="N46" s="75" t="s">
+      <c r="N46" s="71" t="s">
         <v>23</v>
       </c>
       <c r="O46" s="40" t="s">
@@ -4102,17 +3982,17 @@
       <c r="I47" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="J47" s="76" t="s">
+      <c r="J47" s="72" t="s">
         <v>87</v>
       </c>
-      <c r="K47" s="76" t="s">
+      <c r="K47" s="72" t="s">
         <v>23</v>
       </c>
       <c r="L47" s="7"/>
-      <c r="M47" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="N47" s="76" t="s">
+      <c r="M47" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="N47" s="72" t="s">
         <v>24</v>
       </c>
       <c r="O47" s="26" t="s">
@@ -4145,17 +4025,17 @@
       <c r="I48" s="38" t="s">
         <v>148</v>
       </c>
-      <c r="J48" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="K48" s="75" t="s">
+      <c r="J48" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="K48" s="71" t="s">
         <v>24</v>
       </c>
       <c r="L48" s="39"/>
-      <c r="M48" s="75" t="s">
+      <c r="M48" s="71" t="s">
         <v>87</v>
       </c>
-      <c r="N48" s="75" t="s">
+      <c r="N48" s="71" t="s">
         <v>66</v>
       </c>
       <c r="O48" s="40" t="s">
@@ -4188,17 +4068,17 @@
       <c r="I49" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="J49" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="K49" s="76" t="s">
+      <c r="J49" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="K49" s="72" t="s">
         <v>24</v>
       </c>
       <c r="L49" s="7"/>
-      <c r="M49" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="N49" s="76" t="s">
+      <c r="M49" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="N49" s="72" t="s">
         <v>24</v>
       </c>
       <c r="O49" s="26" t="s">
@@ -4231,17 +4111,17 @@
       <c r="I50" s="38" t="s">
         <v>134</v>
       </c>
-      <c r="J50" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="K50" s="75" t="s">
+      <c r="J50" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="K50" s="71" t="s">
         <v>24</v>
       </c>
       <c r="L50" s="39"/>
-      <c r="M50" s="75" t="s">
+      <c r="M50" s="71" t="s">
         <v>83</v>
       </c>
-      <c r="N50" s="75" t="s">
+      <c r="N50" s="71" t="s">
         <v>38</v>
       </c>
       <c r="O50" s="40" t="s">
@@ -4274,17 +4154,17 @@
       <c r="I51" s="19" t="s">
         <v>149</v>
       </c>
-      <c r="J51" s="76" t="s">
+      <c r="J51" s="72" t="s">
         <v>83</v>
       </c>
-      <c r="K51" s="76" t="s">
+      <c r="K51" s="72" t="s">
         <v>38</v>
       </c>
       <c r="L51" s="7"/>
-      <c r="M51" s="76" t="s">
+      <c r="M51" s="72" t="s">
         <v>83</v>
       </c>
-      <c r="N51" s="76" t="s">
+      <c r="N51" s="72" t="s">
         <v>38</v>
       </c>
       <c r="O51" s="26" t="s">
@@ -4317,19 +4197,19 @@
       <c r="I52" s="38" t="s">
         <v>150</v>
       </c>
-      <c r="J52" s="75" t="s">
+      <c r="J52" s="71" t="s">
         <v>90</v>
       </c>
-      <c r="K52" s="75" t="s">
+      <c r="K52" s="71" t="s">
         <v>71</v>
       </c>
       <c r="L52" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="M52" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="N52" s="75" t="s">
+      <c r="M52" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="N52" s="71" t="s">
         <v>24</v>
       </c>
       <c r="O52" s="40" t="s">
@@ -4362,19 +4242,19 @@
       <c r="I53" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="J53" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="K53" s="76" t="s">
+      <c r="J53" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="K53" s="72" t="s">
         <v>26</v>
       </c>
       <c r="L53" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="M53" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="N53" s="76" t="s">
+      <c r="M53" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="N53" s="72" t="s">
         <v>24</v>
       </c>
       <c r="O53" s="26" t="s">
@@ -4407,17 +4287,17 @@
       <c r="I54" s="38" t="s">
         <v>152</v>
       </c>
-      <c r="J54" s="75" t="s">
+      <c r="J54" s="71" t="s">
         <v>83</v>
       </c>
-      <c r="K54" s="75" t="s">
+      <c r="K54" s="71" t="s">
         <v>38</v>
       </c>
       <c r="L54" s="39"/>
-      <c r="M54" s="75" t="s">
+      <c r="M54" s="71" t="s">
         <v>82</v>
       </c>
-      <c r="N54" s="75" t="s">
+      <c r="N54" s="71" t="s">
         <v>25</v>
       </c>
       <c r="O54" s="40" t="s">
@@ -4450,17 +4330,17 @@
       <c r="I55" s="19" t="s">
         <v>153</v>
       </c>
-      <c r="J55" s="76" t="s">
+      <c r="J55" s="72" t="s">
         <v>87</v>
       </c>
-      <c r="K55" s="76" t="s">
+      <c r="K55" s="72" t="s">
         <v>23</v>
       </c>
       <c r="L55" s="7"/>
-      <c r="M55" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="N55" s="76" t="s">
+      <c r="M55" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="N55" s="72" t="s">
         <v>24</v>
       </c>
       <c r="O55" s="26" t="s">
@@ -4493,17 +4373,17 @@
       <c r="I56" s="38" t="s">
         <v>173</v>
       </c>
-      <c r="J56" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="K56" s="75" t="s">
+      <c r="J56" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="K56" s="71" t="s">
         <v>26</v>
       </c>
       <c r="L56" s="39"/>
-      <c r="M56" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="N56" s="75" t="s">
+      <c r="M56" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="N56" s="71" t="s">
         <v>24</v>
       </c>
       <c r="O56" s="40" t="s">
@@ -4536,19 +4416,19 @@
       <c r="I57" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="J57" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="K57" s="76" t="s">
+      <c r="J57" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="K57" s="72" t="s">
         <v>24</v>
       </c>
       <c r="L57" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="M57" s="76" t="s">
+      <c r="M57" s="72" t="s">
         <v>82</v>
       </c>
-      <c r="N57" s="76" t="s">
+      <c r="N57" s="72" t="s">
         <v>25</v>
       </c>
       <c r="O57" s="26" t="s">
@@ -4581,17 +4461,17 @@
       <c r="I58" s="38" t="s">
         <v>169</v>
       </c>
-      <c r="J58" s="75" t="s">
+      <c r="J58" s="71" t="s">
         <v>82</v>
       </c>
-      <c r="K58" s="75" t="s">
+      <c r="K58" s="71" t="s">
         <v>28</v>
       </c>
       <c r="L58" s="39"/>
-      <c r="M58" s="75" t="s">
+      <c r="M58" s="71" t="s">
         <v>83</v>
       </c>
-      <c r="N58" s="75" t="s">
+      <c r="N58" s="71" t="s">
         <v>78</v>
       </c>
       <c r="O58" s="40" t="s">
@@ -4624,17 +4504,17 @@
       <c r="I59" s="19" t="s">
         <v>165</v>
       </c>
-      <c r="J59" s="76" t="s">
+      <c r="J59" s="72" t="s">
         <v>83</v>
       </c>
-      <c r="K59" s="76" t="s">
+      <c r="K59" s="72" t="s">
         <v>38</v>
       </c>
       <c r="L59" s="7"/>
-      <c r="M59" s="76" t="s">
+      <c r="M59" s="72" t="s">
         <v>82</v>
       </c>
-      <c r="N59" s="76" t="s">
+      <c r="N59" s="72" t="s">
         <v>25</v>
       </c>
       <c r="O59" s="26" t="s">
@@ -4655,15 +4535,15 @@
       <c r="G60" s="51"/>
       <c r="H60" s="51"/>
       <c r="I60" s="50"/>
-      <c r="J60" s="71" t="s">
+      <c r="J60" s="85" t="s">
         <v>83</v>
       </c>
-      <c r="K60" s="72"/>
+      <c r="K60" s="86"/>
       <c r="L60" s="51"/>
-      <c r="M60" s="75" t="s">
+      <c r="M60" s="71" t="s">
         <v>87</v>
       </c>
-      <c r="N60" s="75" t="s">
+      <c r="N60" s="71" t="s">
         <v>66</v>
       </c>
       <c r="O60" s="26" t="s">
@@ -4684,15 +4564,15 @@
       <c r="G61" s="31"/>
       <c r="H61" s="31"/>
       <c r="I61" s="30"/>
-      <c r="J61" s="73" t="s">
+      <c r="J61" s="87" t="s">
         <v>83</v>
       </c>
-      <c r="K61" s="74"/>
+      <c r="K61" s="88"/>
       <c r="L61" s="31"/>
-      <c r="M61" s="76" t="s">
+      <c r="M61" s="72" t="s">
         <v>82</v>
       </c>
-      <c r="N61" s="76" t="s">
+      <c r="N61" s="72" t="s">
         <v>25</v>
       </c>
       <c r="O61" s="40" t="s">
@@ -4713,17 +4593,17 @@
       <c r="G62" s="51"/>
       <c r="H62" s="51"/>
       <c r="I62" s="50"/>
-      <c r="J62" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="K62" s="76" t="s">
+      <c r="J62" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="K62" s="72" t="s">
         <v>24</v>
       </c>
       <c r="L62" s="51"/>
-      <c r="M62" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="N62" s="75" t="s">
+      <c r="M62" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="N62" s="71" t="s">
         <v>24</v>
       </c>
       <c r="O62" s="26" t="s">
@@ -4744,15 +4624,15 @@
       <c r="G63" s="31"/>
       <c r="H63" s="31"/>
       <c r="I63" s="30"/>
-      <c r="J63" s="73" t="s">
+      <c r="J63" s="87" t="s">
         <v>82</v>
       </c>
-      <c r="K63" s="74"/>
+      <c r="K63" s="88"/>
       <c r="L63" s="31"/>
-      <c r="M63" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="N63" s="75" t="s">
+      <c r="M63" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="N63" s="71" t="s">
         <v>24</v>
       </c>
       <c r="O63" s="26" t="s">
@@ -4773,17 +4653,17 @@
       <c r="G64" s="51"/>
       <c r="H64" s="51"/>
       <c r="I64" s="50"/>
-      <c r="J64" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="K64" s="76" t="s">
+      <c r="J64" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="K64" s="72" t="s">
         <v>24</v>
       </c>
       <c r="L64" s="51"/>
-      <c r="M64" s="76" t="s">
+      <c r="M64" s="72" t="s">
         <v>82</v>
       </c>
-      <c r="N64" s="76" t="s">
+      <c r="N64" s="72" t="s">
         <v>25</v>
       </c>
       <c r="O64" s="40" t="s">
@@ -4802,17 +4682,17 @@
       <c r="G65" s="31"/>
       <c r="H65" s="31"/>
       <c r="I65" s="30"/>
-      <c r="J65" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="K65" s="76" t="s">
+      <c r="J65" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="K65" s="72" t="s">
         <v>24</v>
       </c>
       <c r="L65" s="31"/>
-      <c r="M65" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="N65" s="75" t="s">
+      <c r="M65" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="N65" s="71" t="s">
         <v>24</v>
       </c>
       <c r="O65" s="40" t="s">
@@ -4845,17 +4725,17 @@
       <c r="I66" s="38" t="s">
         <v>163</v>
       </c>
-      <c r="J66" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="K66" s="75" t="s">
+      <c r="J66" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="K66" s="71" t="s">
         <v>24</v>
       </c>
       <c r="L66" s="39"/>
-      <c r="M66" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="N66" s="75" t="s">
+      <c r="M66" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="N66" s="71" t="s">
         <v>24</v>
       </c>
       <c r="O66" s="40" t="s">
@@ -4901,6 +4781,102 @@
     <row r="69" spans="1:15" ht="15" thickTop="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="109">
+    <mergeCell ref="J64:K64"/>
+    <mergeCell ref="M64:N64"/>
+    <mergeCell ref="J65:K65"/>
+    <mergeCell ref="M65:N65"/>
+    <mergeCell ref="J66:K66"/>
+    <mergeCell ref="M66:N66"/>
+    <mergeCell ref="J61:K61"/>
+    <mergeCell ref="M61:N61"/>
+    <mergeCell ref="J62:K62"/>
+    <mergeCell ref="M62:N62"/>
+    <mergeCell ref="J63:K63"/>
+    <mergeCell ref="M63:N63"/>
+    <mergeCell ref="J58:K58"/>
+    <mergeCell ref="M58:N58"/>
+    <mergeCell ref="J59:K59"/>
+    <mergeCell ref="M59:N59"/>
+    <mergeCell ref="J60:K60"/>
+    <mergeCell ref="M60:N60"/>
+    <mergeCell ref="J55:K55"/>
+    <mergeCell ref="M55:N55"/>
+    <mergeCell ref="J56:K56"/>
+    <mergeCell ref="M56:N56"/>
+    <mergeCell ref="J57:K57"/>
+    <mergeCell ref="M57:N57"/>
+    <mergeCell ref="J52:K52"/>
+    <mergeCell ref="M52:N52"/>
+    <mergeCell ref="J53:K53"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="J54:K54"/>
+    <mergeCell ref="M54:N54"/>
+    <mergeCell ref="J49:K49"/>
+    <mergeCell ref="M49:N49"/>
+    <mergeCell ref="J50:K50"/>
+    <mergeCell ref="M50:N50"/>
+    <mergeCell ref="J51:K51"/>
+    <mergeCell ref="M51:N51"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="M46:N46"/>
+    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="M47:N47"/>
+    <mergeCell ref="J48:K48"/>
+    <mergeCell ref="M48:N48"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="M43:N43"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="M44:N44"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="M21:N21"/>
     <mergeCell ref="J16:K16"/>
     <mergeCell ref="M16:N16"/>
     <mergeCell ref="J17:K17"/>
@@ -4914,145 +4890,49 @@
     <mergeCell ref="M14:N14"/>
     <mergeCell ref="J15:K15"/>
     <mergeCell ref="M15:N15"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="M35:N35"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="J46:K46"/>
-    <mergeCell ref="M46:N46"/>
-    <mergeCell ref="J47:K47"/>
-    <mergeCell ref="M47:N47"/>
-    <mergeCell ref="J48:K48"/>
-    <mergeCell ref="M48:N48"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="M43:N43"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="M44:N44"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="J52:K52"/>
-    <mergeCell ref="M52:N52"/>
-    <mergeCell ref="J53:K53"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="J54:K54"/>
-    <mergeCell ref="M54:N54"/>
-    <mergeCell ref="J49:K49"/>
-    <mergeCell ref="M49:N49"/>
-    <mergeCell ref="J50:K50"/>
-    <mergeCell ref="M50:N50"/>
-    <mergeCell ref="J51:K51"/>
-    <mergeCell ref="M51:N51"/>
-    <mergeCell ref="J58:K58"/>
-    <mergeCell ref="M58:N58"/>
-    <mergeCell ref="J59:K59"/>
-    <mergeCell ref="M59:N59"/>
-    <mergeCell ref="J60:K60"/>
-    <mergeCell ref="M60:N60"/>
-    <mergeCell ref="J55:K55"/>
-    <mergeCell ref="M55:N55"/>
-    <mergeCell ref="J56:K56"/>
-    <mergeCell ref="M56:N56"/>
-    <mergeCell ref="J57:K57"/>
-    <mergeCell ref="M57:N57"/>
-    <mergeCell ref="J64:K64"/>
-    <mergeCell ref="M64:N64"/>
-    <mergeCell ref="J65:K65"/>
-    <mergeCell ref="M65:N65"/>
-    <mergeCell ref="J66:K66"/>
-    <mergeCell ref="M66:N66"/>
-    <mergeCell ref="J61:K61"/>
-    <mergeCell ref="M61:N61"/>
-    <mergeCell ref="J62:K62"/>
-    <mergeCell ref="M62:N62"/>
-    <mergeCell ref="J63:K63"/>
-    <mergeCell ref="M63:N63"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A6:F6 I6:N6">
-    <cfRule type="expression" dxfId="47" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="41" priority="4" stopIfTrue="1">
       <formula>B$5="1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="40" priority="5" stopIfTrue="1">
       <formula>B$7="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="39" priority="6" stopIfTrue="1">
       <formula>B$7="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7 D7:H7 J7:O7">
-    <cfRule type="expression" dxfId="44" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="38" priority="1" stopIfTrue="1">
       <formula>B$5="1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="37" priority="2" stopIfTrue="1">
       <formula>B$7="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="36" priority="3" stopIfTrue="1">
       <formula>B$7="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6:H6">
-    <cfRule type="expression" dxfId="41" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="35" priority="10" stopIfTrue="1">
       <formula>I$5="1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="34" priority="11" stopIfTrue="1">
       <formula>I$7="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="33" priority="12" stopIfTrue="1">
       <formula>I$7="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O6">
-    <cfRule type="expression" dxfId="38" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="32" priority="7" stopIfTrue="1">
       <formula>X$5="1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="31" priority="8" stopIfTrue="1">
       <formula>X$7="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="9" stopIfTrue="1">
       <formula>X$7="土"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5064,8 +4944,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03A1C220-DC63-401D-B66B-975EAA99E44B}">
   <dimension ref="A2:M69"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="F61" sqref="F61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -5108,11 +4988,11 @@
       </c>
     </row>
     <row r="6" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="79"/>
+      <c r="A6" s="73"/>
       <c r="B6" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="82" t="s">
+      <c r="C6" s="76" t="s">
         <v>167</v>
       </c>
       <c r="D6" s="8">
@@ -5147,11 +5027,11 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A7" s="80"/>
+      <c r="A7" s="74"/>
       <c r="B7" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="83"/>
+      <c r="C7" s="77"/>
       <c r="D7" s="7" t="s">
         <v>176</v>
       </c>
@@ -5180,11 +5060,11 @@
       <c r="M7" s="90"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A8" s="80"/>
+      <c r="A8" s="74"/>
       <c r="B8" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="83"/>
+      <c r="C8" s="77"/>
       <c r="D8" s="7">
         <v>12</v>
       </c>
@@ -5209,11 +5089,11 @@
       <c r="M8" s="90"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A9" s="80"/>
+      <c r="A9" s="74"/>
       <c r="B9" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="83"/>
+      <c r="C9" s="77"/>
       <c r="D9" s="7">
         <v>6</v>
       </c>
@@ -5238,11 +5118,11 @@
       <c r="M9" s="90"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A10" s="80"/>
+      <c r="A10" s="74"/>
       <c r="B10" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="83"/>
+      <c r="C10" s="77"/>
       <c r="D10" s="7" t="s">
         <v>179</v>
       </c>
@@ -5267,11 +5147,11 @@
       <c r="M10" s="90"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A11" s="80"/>
+      <c r="A11" s="74"/>
       <c r="B11" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="C11" s="83"/>
+      <c r="C11" s="77"/>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
@@ -5284,11 +5164,11 @@
       <c r="M11" s="90"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A12" s="80"/>
+      <c r="A12" s="74"/>
       <c r="B12" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="83"/>
+      <c r="C12" s="77"/>
       <c r="D12" s="7" t="s">
         <v>180</v>
       </c>
@@ -5313,11 +5193,11 @@
       <c r="M12" s="90"/>
     </row>
     <row r="13" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="81"/>
+      <c r="A13" s="75"/>
       <c r="B13" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="84"/>
+      <c r="C13" s="78"/>
       <c r="D13" s="7" t="s">
         <v>21</v>
       </c>
@@ -5362,19 +5242,19 @@
       </c>
       <c r="E14" s="43"/>
       <c r="F14" s="43"/>
-      <c r="G14" s="88" t="s">
+      <c r="G14" s="82" t="s">
         <v>87</v>
       </c>
-      <c r="H14" s="88" t="s">
+      <c r="H14" s="82" t="s">
         <v>23</v>
       </c>
       <c r="I14" s="59" t="s">
         <v>83</v>
       </c>
-      <c r="J14" s="88" t="s">
+      <c r="J14" s="82" t="s">
         <v>87</v>
       </c>
-      <c r="K14" s="88" t="s">
+      <c r="K14" s="82" t="s">
         <v>23</v>
       </c>
       <c r="L14" s="44"/>
@@ -5397,19 +5277,19 @@
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
-      <c r="G15" s="76" t="s">
+      <c r="G15" s="72" t="s">
         <v>87</v>
       </c>
-      <c r="H15" s="76" t="s">
+      <c r="H15" s="72" t="s">
         <v>23</v>
       </c>
       <c r="I15" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="J15" s="76" t="s">
+      <c r="J15" s="72" t="s">
         <v>87</v>
       </c>
-      <c r="K15" s="76" t="s">
+      <c r="K15" s="72" t="s">
         <v>23</v>
       </c>
       <c r="L15" s="26"/>
@@ -5432,19 +5312,19 @@
       </c>
       <c r="E16" s="39"/>
       <c r="F16" s="39"/>
-      <c r="G16" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="H16" s="75" t="s">
+      <c r="G16" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="H16" s="71" t="s">
         <v>30</v>
       </c>
       <c r="I16" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="J16" s="75" t="s">
+      <c r="J16" s="71" t="s">
         <v>181</v>
       </c>
-      <c r="K16" s="75" t="s">
+      <c r="K16" s="71" t="s">
         <v>182</v>
       </c>
       <c r="L16" s="40"/>
@@ -5467,19 +5347,19 @@
       </c>
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
-      <c r="G17" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="H17" s="76" t="s">
+      <c r="G17" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="H17" s="72" t="s">
         <v>30</v>
       </c>
       <c r="I17" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="J17" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="K17" s="76" t="s">
+      <c r="J17" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="K17" s="72" t="s">
         <v>30</v>
       </c>
       <c r="L17" s="26"/>
@@ -5502,19 +5382,19 @@
       </c>
       <c r="E18" s="39"/>
       <c r="F18" s="39"/>
-      <c r="G18" s="75" t="s">
-        <v>92</v>
-      </c>
-      <c r="H18" s="75" t="s">
+      <c r="G18" s="71" t="s">
+        <v>92</v>
+      </c>
+      <c r="H18" s="71" t="s">
         <v>30</v>
       </c>
       <c r="I18" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="J18" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="K18" s="75" t="s">
+      <c r="J18" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="K18" s="71" t="s">
         <v>30</v>
       </c>
       <c r="L18" s="40"/>
@@ -5537,19 +5417,19 @@
       </c>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
-      <c r="G19" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="H19" s="76" t="s">
+      <c r="G19" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="H19" s="72" t="s">
         <v>24</v>
       </c>
       <c r="I19" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="J19" s="76" t="s">
+      <c r="J19" s="72" t="s">
         <v>87</v>
       </c>
-      <c r="K19" s="76" t="s">
+      <c r="K19" s="72" t="s">
         <v>23</v>
       </c>
       <c r="L19" s="26"/>
@@ -5572,19 +5452,19 @@
       </c>
       <c r="E20" s="39"/>
       <c r="F20" s="39"/>
-      <c r="G20" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="H20" s="75" t="s">
+      <c r="G20" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="H20" s="71" t="s">
         <v>24</v>
       </c>
       <c r="I20" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="J20" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="K20" s="75" t="s">
+      <c r="J20" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="K20" s="71" t="s">
         <v>26</v>
       </c>
       <c r="L20" s="40"/>
@@ -5607,19 +5487,19 @@
       </c>
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
-      <c r="G21" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="H21" s="76" t="s">
+      <c r="G21" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="H21" s="72" t="s">
         <v>26</v>
       </c>
       <c r="I21" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="J21" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="K21" s="76" t="s">
+      <c r="J21" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="K21" s="72" t="s">
         <v>24</v>
       </c>
       <c r="L21" s="26"/>
@@ -5642,19 +5522,19 @@
       </c>
       <c r="E22" s="39"/>
       <c r="F22" s="39"/>
-      <c r="G22" s="75" t="s">
+      <c r="G22" s="71" t="s">
         <v>87</v>
       </c>
-      <c r="H22" s="75" t="s">
+      <c r="H22" s="71" t="s">
         <v>23</v>
       </c>
       <c r="I22" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="J22" s="75" t="s">
+      <c r="J22" s="71" t="s">
         <v>87</v>
       </c>
-      <c r="K22" s="75" t="s">
+      <c r="K22" s="71" t="s">
         <v>23</v>
       </c>
       <c r="L22" s="40"/>
@@ -5677,19 +5557,19 @@
       </c>
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
-      <c r="G23" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="H23" s="76" t="s">
+      <c r="G23" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="H23" s="72" t="s">
         <v>30</v>
       </c>
       <c r="I23" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="J23" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="K23" s="76" t="s">
+      <c r="J23" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="K23" s="72" t="s">
         <v>30</v>
       </c>
       <c r="L23" s="26"/>
@@ -5712,19 +5592,19 @@
       </c>
       <c r="E24" s="39"/>
       <c r="F24" s="39"/>
-      <c r="G24" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="H24" s="75" t="s">
+      <c r="G24" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="H24" s="71" t="s">
         <v>30</v>
       </c>
       <c r="I24" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="J24" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="K24" s="75" t="s">
+      <c r="J24" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="K24" s="71" t="s">
         <v>30</v>
       </c>
       <c r="L24" s="40"/>
@@ -5747,19 +5627,19 @@
       </c>
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
-      <c r="G25" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="H25" s="76" t="s">
+      <c r="G25" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="H25" s="72" t="s">
         <v>30</v>
       </c>
       <c r="I25" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="J25" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="K25" s="76" t="s">
+      <c r="J25" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="K25" s="72" t="s">
         <v>30</v>
       </c>
       <c r="L25" s="26"/>
@@ -5782,19 +5662,19 @@
       </c>
       <c r="E26" s="39"/>
       <c r="F26" s="39"/>
-      <c r="G26" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="H26" s="75" t="s">
+      <c r="G26" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="H26" s="71" t="s">
         <v>24</v>
       </c>
       <c r="I26" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="J26" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="K26" s="75" t="s">
+      <c r="J26" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="K26" s="71" t="s">
         <v>30</v>
       </c>
       <c r="L26" s="40"/>
@@ -5817,19 +5697,19 @@
       </c>
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
-      <c r="G27" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="H27" s="76" t="s">
+      <c r="G27" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="H27" s="72" t="s">
         <v>30</v>
       </c>
       <c r="I27" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="J27" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="K27" s="76" t="s">
+      <c r="J27" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="K27" s="72" t="s">
         <v>30</v>
       </c>
       <c r="L27" s="26"/>
@@ -5852,19 +5732,19 @@
       </c>
       <c r="E28" s="39"/>
       <c r="F28" s="39"/>
-      <c r="G28" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="H28" s="75" t="s">
+      <c r="G28" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="H28" s="71" t="s">
         <v>24</v>
       </c>
       <c r="I28" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="J28" s="75" t="s">
+      <c r="J28" s="71" t="s">
         <v>87</v>
       </c>
-      <c r="K28" s="75" t="s">
+      <c r="K28" s="71" t="s">
         <v>23</v>
       </c>
       <c r="L28" s="40"/>
@@ -5887,19 +5767,19 @@
       </c>
       <c r="E29" s="60"/>
       <c r="F29" s="60"/>
-      <c r="G29" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="H29" s="76" t="s">
+      <c r="G29" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="H29" s="72" t="s">
         <v>24</v>
       </c>
       <c r="I29" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="J29" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="K29" s="76" t="s">
+      <c r="J29" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="K29" s="72" t="s">
         <v>30</v>
       </c>
       <c r="L29" s="26"/>
@@ -5922,19 +5802,19 @@
       </c>
       <c r="E30" s="39"/>
       <c r="F30" s="39"/>
-      <c r="G30" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="H30" s="75" t="s">
+      <c r="G30" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="H30" s="71" t="s">
         <v>30</v>
       </c>
       <c r="I30" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="J30" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="K30" s="75" t="s">
+      <c r="J30" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="K30" s="71" t="s">
         <v>30</v>
       </c>
       <c r="L30" s="40"/>
@@ -5957,19 +5837,19 @@
       </c>
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
-      <c r="G31" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="H31" s="76" t="s">
+      <c r="G31" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="H31" s="72" t="s">
         <v>30</v>
       </c>
       <c r="I31" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="J31" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="K31" s="76" t="s">
+      <c r="J31" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="K31" s="72" t="s">
         <v>30</v>
       </c>
       <c r="L31" s="26"/>
@@ -5992,19 +5872,19 @@
       </c>
       <c r="E32" s="39"/>
       <c r="F32" s="39"/>
-      <c r="G32" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="H32" s="75" t="s">
+      <c r="G32" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="H32" s="71" t="s">
         <v>24</v>
       </c>
       <c r="I32" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="J32" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="K32" s="75" t="s">
+      <c r="J32" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="K32" s="71" t="s">
         <v>30</v>
       </c>
       <c r="L32" s="40"/>
@@ -6027,19 +5907,19 @@
       </c>
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
-      <c r="G33" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="H33" s="76" t="s">
+      <c r="G33" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="H33" s="72" t="s">
         <v>30</v>
       </c>
       <c r="I33" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="J33" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="K33" s="76" t="s">
+      <c r="J33" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="K33" s="72" t="s">
         <v>30</v>
       </c>
       <c r="L33" s="26"/>
@@ -6062,19 +5942,19 @@
       </c>
       <c r="E34" s="39"/>
       <c r="F34" s="39"/>
-      <c r="G34" s="75" t="s">
+      <c r="G34" s="71" t="s">
         <v>87</v>
       </c>
-      <c r="H34" s="75" t="s">
+      <c r="H34" s="71" t="s">
         <v>23</v>
       </c>
       <c r="I34" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="J34" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="K34" s="75" t="s">
+      <c r="J34" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="K34" s="71" t="s">
         <v>30</v>
       </c>
       <c r="L34" s="40"/>
@@ -6097,19 +5977,19 @@
       </c>
       <c r="E35" s="60"/>
       <c r="F35" s="60"/>
-      <c r="G35" s="76" t="s">
+      <c r="G35" s="72" t="s">
         <v>87</v>
       </c>
-      <c r="H35" s="76" t="s">
+      <c r="H35" s="72" t="s">
         <v>23</v>
       </c>
       <c r="I35" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="J35" s="76" t="s">
+      <c r="J35" s="72" t="s">
         <v>87</v>
       </c>
-      <c r="K35" s="76" t="s">
+      <c r="K35" s="72" t="s">
         <v>23</v>
       </c>
       <c r="L35" s="26"/>
@@ -6132,19 +6012,19 @@
       </c>
       <c r="E36" s="39"/>
       <c r="F36" s="39"/>
-      <c r="G36" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="H36" s="75" t="s">
+      <c r="G36" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="H36" s="71" t="s">
         <v>24</v>
       </c>
       <c r="I36" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="J36" s="75" t="s">
+      <c r="J36" s="71" t="s">
         <v>87</v>
       </c>
-      <c r="K36" s="75" t="s">
+      <c r="K36" s="71" t="s">
         <v>23</v>
       </c>
       <c r="L36" s="40"/>
@@ -6167,19 +6047,19 @@
       </c>
       <c r="E37" s="7"/>
       <c r="F37" s="7"/>
-      <c r="G37" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="H37" s="76" t="s">
+      <c r="G37" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="H37" s="72" t="s">
         <v>24</v>
       </c>
       <c r="I37" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="J37" s="76" t="s">
+      <c r="J37" s="72" t="s">
         <v>87</v>
       </c>
-      <c r="K37" s="76" t="s">
+      <c r="K37" s="72" t="s">
         <v>23</v>
       </c>
       <c r="L37" s="26"/>
@@ -6202,19 +6082,19 @@
       </c>
       <c r="E38" s="39"/>
       <c r="F38" s="39"/>
-      <c r="G38" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="H38" s="75" t="s">
+      <c r="G38" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="H38" s="71" t="s">
         <v>30</v>
       </c>
       <c r="I38" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="J38" s="75" t="s">
+      <c r="J38" s="71" t="s">
         <v>87</v>
       </c>
-      <c r="K38" s="75" t="s">
+      <c r="K38" s="71" t="s">
         <v>23</v>
       </c>
       <c r="L38" s="40"/>
@@ -6237,19 +6117,19 @@
       </c>
       <c r="E39" s="7"/>
       <c r="F39" s="7"/>
-      <c r="G39" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="H39" s="76" t="s">
+      <c r="G39" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="H39" s="72" t="s">
         <v>24</v>
       </c>
       <c r="I39" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="J39" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="K39" s="76" t="s">
+      <c r="J39" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="K39" s="72" t="s">
         <v>30</v>
       </c>
       <c r="L39" s="26"/>
@@ -6272,19 +6152,19 @@
       </c>
       <c r="E40" s="48"/>
       <c r="F40" s="48"/>
-      <c r="G40" s="77" t="s">
-        <v>91</v>
-      </c>
-      <c r="H40" s="77" t="s">
+      <c r="G40" s="83" t="s">
+        <v>91</v>
+      </c>
+      <c r="H40" s="83" t="s">
         <v>30</v>
       </c>
       <c r="I40" s="48" t="s">
         <v>92</v>
       </c>
-      <c r="J40" s="77" t="s">
-        <v>91</v>
-      </c>
-      <c r="K40" s="77" t="s">
+      <c r="J40" s="83" t="s">
+        <v>91</v>
+      </c>
+      <c r="K40" s="83" t="s">
         <v>30</v>
       </c>
       <c r="L40" s="49"/>
@@ -6307,19 +6187,19 @@
       </c>
       <c r="E41" s="31"/>
       <c r="F41" s="31"/>
-      <c r="G41" s="78" t="s">
+      <c r="G41" s="84" t="s">
         <v>87</v>
       </c>
-      <c r="H41" s="78" t="s">
+      <c r="H41" s="84" t="s">
         <v>23</v>
       </c>
       <c r="I41" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="J41" s="78" t="s">
-        <v>91</v>
-      </c>
-      <c r="K41" s="78" t="s">
+      <c r="J41" s="84" t="s">
+        <v>91</v>
+      </c>
+      <c r="K41" s="84" t="s">
         <v>30</v>
       </c>
       <c r="L41" s="32"/>
@@ -6342,19 +6222,19 @@
       </c>
       <c r="E42" s="39"/>
       <c r="F42" s="39"/>
-      <c r="G42" s="75" t="s">
+      <c r="G42" s="71" t="s">
         <v>83</v>
       </c>
-      <c r="H42" s="75" t="s">
+      <c r="H42" s="71" t="s">
         <v>38</v>
       </c>
       <c r="I42" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="J42" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="K42" s="75" t="s">
+      <c r="J42" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="K42" s="71" t="s">
         <v>30</v>
       </c>
       <c r="L42" s="40"/>
@@ -6377,19 +6257,19 @@
       </c>
       <c r="E43" s="7"/>
       <c r="F43" s="7"/>
-      <c r="G43" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="H43" s="76" t="s">
+      <c r="G43" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="H43" s="72" t="s">
         <v>24</v>
       </c>
       <c r="I43" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="J43" s="76" t="s">
+      <c r="J43" s="72" t="s">
         <v>87</v>
       </c>
-      <c r="K43" s="76" t="s">
+      <c r="K43" s="72" t="s">
         <v>23</v>
       </c>
       <c r="L43" s="26"/>
@@ -6412,19 +6292,19 @@
       </c>
       <c r="E44" s="39"/>
       <c r="F44" s="39"/>
-      <c r="G44" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="H44" s="75" t="s">
+      <c r="G44" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="H44" s="71" t="s">
         <v>26</v>
       </c>
       <c r="I44" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="J44" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="K44" s="75" t="s">
+      <c r="J44" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="K44" s="71" t="s">
         <v>30</v>
       </c>
       <c r="L44" s="40"/>
@@ -6447,19 +6327,19 @@
       </c>
       <c r="E45" s="7"/>
       <c r="F45" s="7"/>
-      <c r="G45" s="76" t="s">
+      <c r="G45" s="72" t="s">
         <v>181</v>
       </c>
-      <c r="H45" s="76" t="s">
+      <c r="H45" s="72" t="s">
         <v>182</v>
       </c>
       <c r="I45" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="J45" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="K45" s="76" t="s">
+      <c r="J45" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="K45" s="72" t="s">
         <v>30</v>
       </c>
       <c r="L45" s="26"/>
@@ -6482,19 +6362,19 @@
       </c>
       <c r="E46" s="39"/>
       <c r="F46" s="39"/>
-      <c r="G46" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="H46" s="75" t="s">
+      <c r="G46" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="H46" s="71" t="s">
         <v>30</v>
       </c>
       <c r="I46" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="J46" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="K46" s="75" t="s">
+      <c r="J46" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="K46" s="71" t="s">
         <v>30</v>
       </c>
       <c r="L46" s="40"/>
@@ -6517,19 +6397,19 @@
       </c>
       <c r="E47" s="7"/>
       <c r="F47" s="7"/>
-      <c r="G47" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="H47" s="76" t="s">
+      <c r="G47" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="H47" s="72" t="s">
         <v>24</v>
       </c>
       <c r="I47" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="J47" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="K47" s="76" t="s">
+      <c r="J47" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="K47" s="72" t="s">
         <v>30</v>
       </c>
       <c r="L47" s="26"/>
@@ -6552,19 +6432,19 @@
       </c>
       <c r="E48" s="39"/>
       <c r="F48" s="39"/>
-      <c r="G48" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="H48" s="75" t="s">
+      <c r="G48" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="H48" s="71" t="s">
         <v>30</v>
       </c>
       <c r="I48" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="J48" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="K48" s="75" t="s">
+      <c r="J48" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="K48" s="71" t="s">
         <v>30</v>
       </c>
       <c r="L48" s="40"/>
@@ -6587,19 +6467,19 @@
       </c>
       <c r="E49" s="7"/>
       <c r="F49" s="7"/>
-      <c r="G49" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="H49" s="76" t="s">
+      <c r="G49" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="H49" s="72" t="s">
         <v>26</v>
       </c>
       <c r="I49" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="J49" s="76" t="s">
+      <c r="J49" s="72" t="s">
         <v>87</v>
       </c>
-      <c r="K49" s="76" t="s">
+      <c r="K49" s="72" t="s">
         <v>23</v>
       </c>
       <c r="L49" s="26"/>
@@ -6622,19 +6502,19 @@
       </c>
       <c r="E50" s="39"/>
       <c r="F50" s="39"/>
-      <c r="G50" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="H50" s="75" t="s">
+      <c r="G50" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="H50" s="71" t="s">
         <v>24</v>
       </c>
       <c r="I50" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="J50" s="75" t="s">
+      <c r="J50" s="71" t="s">
         <v>87</v>
       </c>
-      <c r="K50" s="75" t="s">
+      <c r="K50" s="71" t="s">
         <v>23</v>
       </c>
       <c r="L50" s="40"/>
@@ -6657,19 +6537,19 @@
       </c>
       <c r="E51" s="7"/>
       <c r="F51" s="7"/>
-      <c r="G51" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="H51" s="76" t="s">
+      <c r="G51" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="H51" s="72" t="s">
         <v>24</v>
       </c>
       <c r="I51" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="J51" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="K51" s="76" t="s">
+      <c r="J51" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="K51" s="72" t="s">
         <v>30</v>
       </c>
       <c r="L51" s="26"/>
@@ -6692,19 +6572,19 @@
       </c>
       <c r="E52" s="39"/>
       <c r="F52" s="39"/>
-      <c r="G52" s="75" t="s">
+      <c r="G52" s="71" t="s">
         <v>90</v>
       </c>
-      <c r="H52" s="75" t="s">
+      <c r="H52" s="71" t="s">
         <v>71</v>
       </c>
       <c r="I52" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="J52" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="K52" s="75" t="s">
+      <c r="J52" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="K52" s="71" t="s">
         <v>30</v>
       </c>
       <c r="L52" s="40"/>
@@ -6727,19 +6607,19 @@
       </c>
       <c r="E53" s="7"/>
       <c r="F53" s="7"/>
-      <c r="G53" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="H53" s="76" t="s">
+      <c r="G53" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="H53" s="72" t="s">
         <v>30</v>
       </c>
       <c r="I53" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="J53" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="K53" s="76" t="s">
+      <c r="J53" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="K53" s="72" t="s">
         <v>30</v>
       </c>
       <c r="L53" s="26"/>
@@ -6762,19 +6642,19 @@
       </c>
       <c r="E54" s="39"/>
       <c r="F54" s="39"/>
-      <c r="G54" s="75" t="s">
+      <c r="G54" s="71" t="s">
         <v>181</v>
       </c>
-      <c r="H54" s="75" t="s">
+      <c r="H54" s="71" t="s">
         <v>182</v>
       </c>
       <c r="I54" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="J54" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="K54" s="75" t="s">
+      <c r="J54" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="K54" s="71" t="s">
         <v>30</v>
       </c>
       <c r="L54" s="40"/>
@@ -6797,19 +6677,19 @@
       </c>
       <c r="E55" s="7"/>
       <c r="F55" s="7"/>
-      <c r="G55" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="H55" s="76" t="s">
+      <c r="G55" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="H55" s="72" t="s">
         <v>24</v>
       </c>
       <c r="I55" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="J55" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="K55" s="76" t="s">
+      <c r="J55" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="K55" s="72" t="s">
         <v>30</v>
       </c>
       <c r="L55" s="26"/>
@@ -6832,19 +6712,19 @@
       </c>
       <c r="E56" s="39"/>
       <c r="F56" s="39"/>
-      <c r="G56" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="H56" s="75" t="s">
+      <c r="G56" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="H56" s="71" t="s">
         <v>26</v>
       </c>
       <c r="I56" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="J56" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="K56" s="75" t="s">
+      <c r="J56" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="K56" s="71" t="s">
         <v>30</v>
       </c>
       <c r="L56" s="40"/>
@@ -6867,19 +6747,19 @@
       </c>
       <c r="E57" s="7"/>
       <c r="F57" s="7"/>
-      <c r="G57" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="H57" s="76" t="s">
+      <c r="G57" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="H57" s="72" t="s">
         <v>24</v>
       </c>
       <c r="I57" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="J57" s="76" t="s">
+      <c r="J57" s="72" t="s">
         <v>82</v>
       </c>
-      <c r="K57" s="76" t="s">
+      <c r="K57" s="72" t="s">
         <v>25</v>
       </c>
       <c r="L57" s="26"/>
@@ -6902,19 +6782,19 @@
       </c>
       <c r="E58" s="39"/>
       <c r="F58" s="39"/>
-      <c r="G58" s="75" t="s">
+      <c r="G58" s="71" t="s">
         <v>83</v>
       </c>
-      <c r="H58" s="75" t="s">
+      <c r="H58" s="71" t="s">
         <v>38</v>
       </c>
       <c r="I58" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="J58" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="K58" s="75" t="s">
+      <c r="J58" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="K58" s="71" t="s">
         <v>30</v>
       </c>
       <c r="L58" s="40"/>
@@ -6937,19 +6817,19 @@
       </c>
       <c r="E59" s="7"/>
       <c r="F59" s="7"/>
-      <c r="G59" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="H59" s="76" t="s">
+      <c r="G59" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="H59" s="72" t="s">
         <v>26</v>
       </c>
       <c r="I59" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="J59" s="76" t="s">
+      <c r="J59" s="72" t="s">
         <v>184</v>
       </c>
-      <c r="K59" s="76" t="s">
+      <c r="K59" s="72" t="s">
         <v>185</v>
       </c>
       <c r="L59" s="26"/>
@@ -6962,25 +6842,27 @@
         <v>47</v>
       </c>
       <c r="B60" s="24"/>
-      <c r="C60" s="50"/>
+      <c r="C60" s="50" t="s">
+        <v>191</v>
+      </c>
       <c r="D60" s="39" t="s">
         <v>92</v>
       </c>
       <c r="E60" s="39"/>
       <c r="F60" s="39"/>
-      <c r="G60" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="H60" s="75" t="s">
+      <c r="G60" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="H60" s="71" t="s">
         <v>26</v>
       </c>
       <c r="I60" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="J60" s="75" t="s">
+      <c r="J60" s="71" t="s">
         <v>87</v>
       </c>
-      <c r="K60" s="75" t="s">
+      <c r="K60" s="71" t="s">
         <v>23</v>
       </c>
       <c r="L60" s="52"/>
@@ -7129,6 +7011,93 @@
     <row r="69" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="97">
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="A6:A13"/>
+    <mergeCell ref="C6:C13"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="J48:K48"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="J53:K53"/>
+    <mergeCell ref="J54:K54"/>
+    <mergeCell ref="J51:K51"/>
+    <mergeCell ref="J52:K52"/>
+    <mergeCell ref="J49:K49"/>
+    <mergeCell ref="J50:K50"/>
+    <mergeCell ref="J59:K59"/>
+    <mergeCell ref="J60:K60"/>
+    <mergeCell ref="J57:K57"/>
+    <mergeCell ref="J58:K58"/>
+    <mergeCell ref="J55:K55"/>
+    <mergeCell ref="J56:K56"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="M6:M13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="G49:H49"/>
     <mergeCell ref="G57:H57"/>
     <mergeCell ref="G58:H58"/>
     <mergeCell ref="G59:H59"/>
@@ -7139,137 +7108,50 @@
     <mergeCell ref="G54:H54"/>
     <mergeCell ref="G55:H55"/>
     <mergeCell ref="G56:H56"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="M6:M13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="J59:K59"/>
-    <mergeCell ref="J60:K60"/>
-    <mergeCell ref="J57:K57"/>
-    <mergeCell ref="J58:K58"/>
-    <mergeCell ref="J55:K55"/>
-    <mergeCell ref="J56:K56"/>
-    <mergeCell ref="J53:K53"/>
-    <mergeCell ref="J54:K54"/>
-    <mergeCell ref="J51:K51"/>
-    <mergeCell ref="J52:K52"/>
-    <mergeCell ref="J49:K49"/>
-    <mergeCell ref="J50:K50"/>
-    <mergeCell ref="J47:K47"/>
-    <mergeCell ref="J48:K48"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="J46:K46"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="A6:A13"/>
-    <mergeCell ref="C6:C13"/>
-    <mergeCell ref="J14:K14"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A6:C6">
-    <cfRule type="expression" dxfId="11" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="10" stopIfTrue="1">
       <formula>B$5="1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="11" stopIfTrue="1">
       <formula>B$7="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="12" stopIfTrue="1">
       <formula>B$7="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7">
-    <cfRule type="expression" dxfId="8" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="26" priority="7" stopIfTrue="1">
       <formula>B$5="1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="8" stopIfTrue="1">
       <formula>B$7="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="9" stopIfTrue="1">
       <formula>B$7="土"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="D6:L7">
+    <cfRule type="expression" dxfId="23" priority="1" stopIfTrue="1">
+      <formula>D$5="1"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="22" priority="2" stopIfTrue="1">
+      <formula>D$7="日"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="21" priority="3" stopIfTrue="1">
+      <formula>D$7="土"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="M6">
-    <cfRule type="expression" dxfId="5" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="20" priority="4" stopIfTrue="1">
       <formula>N$5="1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="5" stopIfTrue="1">
       <formula>N$7="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="6" stopIfTrue="1">
       <formula>N$7="土"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D6:L7">
-    <cfRule type="expression" dxfId="2" priority="1" stopIfTrue="1">
-      <formula>D$5="1"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
-      <formula>D$7="日"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
-      <formula>D$7="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7361,11 +7243,11 @@
       </c>
     </row>
     <row r="6" spans="1:26" ht="25.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="79"/>
+      <c r="A6" s="73"/>
       <c r="B6" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="82" t="s">
+      <c r="C6" s="76" t="s">
         <v>167</v>
       </c>
       <c r="D6" s="8">
@@ -7383,7 +7265,7 @@
       <c r="H6" s="8">
         <v>15</v>
       </c>
-      <c r="I6" s="85" t="s">
+      <c r="I6" s="79" t="s">
         <v>167</v>
       </c>
       <c r="J6" s="8">
@@ -7404,7 +7286,7 @@
       <c r="O6" s="25">
         <v>30</v>
       </c>
-      <c r="P6" s="85" t="s">
+      <c r="P6" s="79" t="s">
         <v>167</v>
       </c>
       <c r="Q6" s="8">
@@ -7439,11 +7321,11 @@
       </c>
     </row>
     <row r="7" spans="1:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="80"/>
+      <c r="A7" s="74"/>
       <c r="B7" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="83"/>
+      <c r="C7" s="77"/>
       <c r="D7" s="7" t="s">
         <v>8</v>
       </c>
@@ -7459,7 +7341,7 @@
       <c r="H7" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="I7" s="86"/>
+      <c r="I7" s="80"/>
       <c r="J7" s="7" t="s">
         <v>8</v>
       </c>
@@ -7478,7 +7360,7 @@
       <c r="O7" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="P7" s="86"/>
+      <c r="P7" s="80"/>
       <c r="Q7" s="7" t="s">
         <v>176</v>
       </c>
@@ -7507,11 +7389,11 @@
       <c r="Z7" s="90"/>
     </row>
     <row r="8" spans="1:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="80"/>
+      <c r="A8" s="74"/>
       <c r="B8" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="83"/>
+      <c r="C8" s="77"/>
       <c r="D8" s="7">
         <v>68</v>
       </c>
@@ -7525,7 +7407,7 @@
         <v>60</v>
       </c>
       <c r="H8" s="7"/>
-      <c r="I8" s="86"/>
+      <c r="I8" s="80"/>
       <c r="J8" s="7">
         <v>90</v>
       </c>
@@ -7542,7 +7424,7 @@
       <c r="O8" s="26">
         <v>59</v>
       </c>
-      <c r="P8" s="86"/>
+      <c r="P8" s="80"/>
       <c r="Q8" s="7">
         <v>12</v>
       </c>
@@ -7567,11 +7449,11 @@
       <c r="Z8" s="90"/>
     </row>
     <row r="9" spans="1:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="80"/>
+      <c r="A9" s="74"/>
       <c r="B9" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="83"/>
+      <c r="C9" s="77"/>
       <c r="D9" s="17">
         <v>14</v>
       </c>
@@ -7587,7 +7469,7 @@
       <c r="H9" s="17">
         <v>10</v>
       </c>
-      <c r="I9" s="86"/>
+      <c r="I9" s="80"/>
       <c r="J9" s="17">
         <v>18</v>
       </c>
@@ -7604,7 +7486,7 @@
       <c r="O9" s="36">
         <v>12</v>
       </c>
-      <c r="P9" s="86"/>
+      <c r="P9" s="80"/>
       <c r="Q9" s="7">
         <v>6</v>
       </c>
@@ -7629,11 +7511,11 @@
       <c r="Z9" s="90"/>
     </row>
     <row r="10" spans="1:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="80"/>
+      <c r="A10" s="74"/>
       <c r="B10" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="83"/>
+      <c r="C10" s="77"/>
       <c r="D10" s="7" t="s">
         <v>13</v>
       </c>
@@ -7647,7 +7529,7 @@
         <v>13</v>
       </c>
       <c r="H10" s="7"/>
-      <c r="I10" s="86"/>
+      <c r="I10" s="80"/>
       <c r="J10" s="7" t="s">
         <v>13</v>
       </c>
@@ -7664,7 +7546,7 @@
       <c r="O10" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="P10" s="86"/>
+      <c r="P10" s="80"/>
       <c r="Q10" s="7" t="s">
         <v>179</v>
       </c>
@@ -7689,11 +7571,11 @@
       <c r="Z10" s="90"/>
     </row>
     <row r="11" spans="1:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="80"/>
+      <c r="A11" s="74"/>
       <c r="B11" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="C11" s="83"/>
+      <c r="C11" s="77"/>
       <c r="D11" s="7" t="s">
         <v>94</v>
       </c>
@@ -7709,7 +7591,7 @@
       <c r="H11" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="I11" s="86"/>
+      <c r="I11" s="80"/>
       <c r="J11" s="7" t="s">
         <v>97</v>
       </c>
@@ -7726,7 +7608,7 @@
       <c r="O11" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="P11" s="86"/>
+      <c r="P11" s="80"/>
       <c r="Q11" s="7"/>
       <c r="R11" s="7"/>
       <c r="S11" s="7"/>
@@ -7739,11 +7621,11 @@
       <c r="Z11" s="90"/>
     </row>
     <row r="12" spans="1:26" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="80"/>
+      <c r="A12" s="74"/>
       <c r="B12" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="83"/>
+      <c r="C12" s="77"/>
       <c r="D12" s="7" t="s">
         <v>17</v>
       </c>
@@ -7759,7 +7641,7 @@
       <c r="H12" s="18">
         <v>0.6875</v>
       </c>
-      <c r="I12" s="86"/>
+      <c r="I12" s="80"/>
       <c r="J12" s="7" t="s">
         <v>17</v>
       </c>
@@ -7778,7 +7660,7 @@
       <c r="O12" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="P12" s="86"/>
+      <c r="P12" s="80"/>
       <c r="Q12" s="7" t="s">
         <v>180</v>
       </c>
@@ -7803,11 +7685,11 @@
       <c r="Z12" s="90"/>
     </row>
     <row r="13" spans="1:26" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="81"/>
+      <c r="A13" s="75"/>
       <c r="B13" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="84"/>
+      <c r="C13" s="78"/>
       <c r="D13" s="7" t="s">
         <v>21</v>
       </c>
@@ -7823,7 +7705,7 @@
       <c r="H13" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="I13" s="87"/>
+      <c r="I13" s="81"/>
       <c r="J13" s="7" t="s">
         <v>21</v>
       </c>
@@ -7842,7 +7724,7 @@
       <c r="O13" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="P13" s="87"/>
+      <c r="P13" s="81"/>
       <c r="Q13" s="7" t="s">
         <v>21</v>
       </c>
@@ -7898,17 +7780,17 @@
       <c r="I14" s="42" t="s">
         <v>154</v>
       </c>
-      <c r="J14" s="88" t="s">
+      <c r="J14" s="82" t="s">
         <v>88</v>
       </c>
-      <c r="K14" s="88" t="s">
+      <c r="K14" s="82" t="s">
         <v>25</v>
       </c>
       <c r="L14" s="43"/>
-      <c r="M14" s="88" t="s">
+      <c r="M14" s="82" t="s">
         <v>82</v>
       </c>
-      <c r="N14" s="88" t="s">
+      <c r="N14" s="82" t="s">
         <v>23</v>
       </c>
       <c r="O14" s="44" t="s">
@@ -7922,19 +7804,19 @@
       </c>
       <c r="R14" s="43"/>
       <c r="S14" s="43"/>
-      <c r="T14" s="88" t="s">
+      <c r="T14" s="82" t="s">
         <v>87</v>
       </c>
-      <c r="U14" s="88" t="s">
+      <c r="U14" s="82" t="s">
         <v>23</v>
       </c>
       <c r="V14" s="59" t="s">
         <v>83</v>
       </c>
-      <c r="W14" s="88" t="s">
+      <c r="W14" s="82" t="s">
         <v>87</v>
       </c>
-      <c r="X14" s="88" t="s">
+      <c r="X14" s="82" t="s">
         <v>23</v>
       </c>
       <c r="Y14" s="44"/>
@@ -7968,19 +7850,19 @@
       <c r="I15" s="19" t="s">
         <v>155</v>
       </c>
-      <c r="J15" s="76" t="s">
+      <c r="J15" s="72" t="s">
         <v>82</v>
       </c>
-      <c r="K15" s="76" t="s">
+      <c r="K15" s="72" t="s">
         <v>28</v>
       </c>
       <c r="L15" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="M15" s="76" t="s">
+      <c r="M15" s="72" t="s">
         <v>82</v>
       </c>
-      <c r="N15" s="76" t="s">
+      <c r="N15" s="72" t="s">
         <v>25</v>
       </c>
       <c r="O15" s="26" t="s">
@@ -7994,19 +7876,19 @@
       </c>
       <c r="R15" s="7"/>
       <c r="S15" s="7"/>
-      <c r="T15" s="76" t="s">
+      <c r="T15" s="72" t="s">
         <v>87</v>
       </c>
-      <c r="U15" s="76" t="s">
+      <c r="U15" s="72" t="s">
         <v>23</v>
       </c>
       <c r="V15" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="W15" s="76" t="s">
+      <c r="W15" s="72" t="s">
         <v>87</v>
       </c>
-      <c r="X15" s="76" t="s">
+      <c r="X15" s="72" t="s">
         <v>23</v>
       </c>
       <c r="Y15" s="26"/>
@@ -8040,17 +7922,17 @@
       <c r="I16" s="38" t="s">
         <v>166</v>
       </c>
-      <c r="J16" s="75" t="s">
+      <c r="J16" s="71" t="s">
         <v>87</v>
       </c>
-      <c r="K16" s="75" t="s">
+      <c r="K16" s="71" t="s">
         <v>23</v>
       </c>
       <c r="L16" s="39"/>
-      <c r="M16" s="75" t="s">
+      <c r="M16" s="71" t="s">
         <v>87</v>
       </c>
-      <c r="N16" s="75" t="s">
+      <c r="N16" s="71" t="s">
         <v>23</v>
       </c>
       <c r="O16" s="40" t="s">
@@ -8064,19 +7946,19 @@
       </c>
       <c r="R16" s="39"/>
       <c r="S16" s="39"/>
-      <c r="T16" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="U16" s="75" t="s">
+      <c r="T16" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="U16" s="71" t="s">
         <v>30</v>
       </c>
       <c r="V16" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="W16" s="75" t="s">
+      <c r="W16" s="71" t="s">
         <v>181</v>
       </c>
-      <c r="X16" s="75" t="s">
+      <c r="X16" s="71" t="s">
         <v>182</v>
       </c>
       <c r="Y16" s="40"/>
@@ -8110,17 +7992,17 @@
       <c r="I17" s="19" t="s">
         <v>156</v>
       </c>
-      <c r="J17" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="K17" s="76" t="s">
+      <c r="J17" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="K17" s="72" t="s">
         <v>24</v>
       </c>
       <c r="L17" s="7"/>
-      <c r="M17" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="N17" s="76" t="s">
+      <c r="M17" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="N17" s="72" t="s">
         <v>24</v>
       </c>
       <c r="O17" s="26" t="s">
@@ -8134,19 +8016,19 @@
       </c>
       <c r="R17" s="7"/>
       <c r="S17" s="7"/>
-      <c r="T17" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="U17" s="76" t="s">
+      <c r="T17" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="U17" s="72" t="s">
         <v>30</v>
       </c>
       <c r="V17" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="W17" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="X17" s="76" t="s">
+      <c r="W17" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="X17" s="72" t="s">
         <v>30</v>
       </c>
       <c r="Y17" s="26"/>
@@ -8180,17 +8062,17 @@
       <c r="I18" s="38" t="s">
         <v>157</v>
       </c>
-      <c r="J18" s="75" t="s">
+      <c r="J18" s="71" t="s">
         <v>87</v>
       </c>
-      <c r="K18" s="75" t="s">
+      <c r="K18" s="71" t="s">
         <v>23</v>
       </c>
       <c r="L18" s="39"/>
-      <c r="M18" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="N18" s="75" t="s">
+      <c r="M18" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="N18" s="71" t="s">
         <v>24</v>
       </c>
       <c r="O18" s="40" t="s">
@@ -8204,19 +8086,19 @@
       </c>
       <c r="R18" s="39"/>
       <c r="S18" s="39"/>
-      <c r="T18" s="75" t="s">
-        <v>92</v>
-      </c>
-      <c r="U18" s="75" t="s">
+      <c r="T18" s="71" t="s">
+        <v>92</v>
+      </c>
+      <c r="U18" s="71" t="s">
         <v>30</v>
       </c>
       <c r="V18" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="W18" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="X18" s="75" t="s">
+      <c r="W18" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="X18" s="71" t="s">
         <v>30</v>
       </c>
       <c r="Y18" s="40"/>
@@ -8250,17 +8132,17 @@
       <c r="I19" s="19" t="s">
         <v>158</v>
       </c>
-      <c r="J19" s="76" t="s">
+      <c r="J19" s="72" t="s">
         <v>86</v>
       </c>
-      <c r="K19" s="76" t="s">
+      <c r="K19" s="72" t="s">
         <v>34</v>
       </c>
       <c r="L19" s="7"/>
-      <c r="M19" s="76" t="s">
+      <c r="M19" s="72" t="s">
         <v>82</v>
       </c>
-      <c r="N19" s="76" t="s">
+      <c r="N19" s="72" t="s">
         <v>28</v>
       </c>
       <c r="O19" s="26" t="s">
@@ -8274,19 +8156,19 @@
       </c>
       <c r="R19" s="7"/>
       <c r="S19" s="7"/>
-      <c r="T19" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="U19" s="76" t="s">
+      <c r="T19" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="U19" s="72" t="s">
         <v>24</v>
       </c>
       <c r="V19" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="W19" s="76" t="s">
+      <c r="W19" s="72" t="s">
         <v>87</v>
       </c>
-      <c r="X19" s="76" t="s">
+      <c r="X19" s="72" t="s">
         <v>23</v>
       </c>
       <c r="Y19" s="26"/>
@@ -8320,17 +8202,17 @@
       <c r="I20" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="J20" s="75" t="s">
+      <c r="J20" s="71" t="s">
         <v>87</v>
       </c>
-      <c r="K20" s="75" t="s">
+      <c r="K20" s="71" t="s">
         <v>23</v>
       </c>
       <c r="L20" s="39"/>
-      <c r="M20" s="75" t="s">
+      <c r="M20" s="71" t="s">
         <v>87</v>
       </c>
-      <c r="N20" s="75" t="s">
+      <c r="N20" s="71" t="s">
         <v>23</v>
       </c>
       <c r="O20" s="40" t="s">
@@ -8344,19 +8226,19 @@
       </c>
       <c r="R20" s="39"/>
       <c r="S20" s="39"/>
-      <c r="T20" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="U20" s="75" t="s">
+      <c r="T20" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="U20" s="71" t="s">
         <v>24</v>
       </c>
       <c r="V20" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="W20" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="X20" s="75" t="s">
+      <c r="W20" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="X20" s="71" t="s">
         <v>26</v>
       </c>
       <c r="Y20" s="40"/>
@@ -8390,17 +8272,17 @@
       <c r="I21" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="J21" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="K21" s="76" t="s">
+      <c r="J21" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="K21" s="72" t="s">
         <v>24</v>
       </c>
       <c r="L21" s="7"/>
-      <c r="M21" s="76" t="s">
+      <c r="M21" s="72" t="s">
         <v>87</v>
       </c>
-      <c r="N21" s="76" t="s">
+      <c r="N21" s="72" t="s">
         <v>23</v>
       </c>
       <c r="O21" s="26" t="s">
@@ -8414,19 +8296,19 @@
       </c>
       <c r="R21" s="7"/>
       <c r="S21" s="7"/>
-      <c r="T21" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="U21" s="76" t="s">
+      <c r="T21" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="U21" s="72" t="s">
         <v>26</v>
       </c>
       <c r="V21" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="W21" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="X21" s="76" t="s">
+      <c r="W21" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="X21" s="72" t="s">
         <v>24</v>
       </c>
       <c r="Y21" s="26"/>
@@ -8460,17 +8342,17 @@
       <c r="I22" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="J22" s="75" t="s">
+      <c r="J22" s="71" t="s">
         <v>82</v>
       </c>
-      <c r="K22" s="75" t="s">
+      <c r="K22" s="71" t="s">
         <v>25</v>
       </c>
       <c r="L22" s="39"/>
-      <c r="M22" s="75" t="s">
+      <c r="M22" s="71" t="s">
         <v>83</v>
       </c>
-      <c r="N22" s="75" t="s">
+      <c r="N22" s="71" t="s">
         <v>38</v>
       </c>
       <c r="O22" s="40" t="s">
@@ -8484,19 +8366,19 @@
       </c>
       <c r="R22" s="39"/>
       <c r="S22" s="39"/>
-      <c r="T22" s="75" t="s">
+      <c r="T22" s="71" t="s">
         <v>87</v>
       </c>
-      <c r="U22" s="75" t="s">
+      <c r="U22" s="71" t="s">
         <v>23</v>
       </c>
       <c r="V22" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="W22" s="75" t="s">
+      <c r="W22" s="71" t="s">
         <v>87</v>
       </c>
-      <c r="X22" s="75" t="s">
+      <c r="X22" s="71" t="s">
         <v>23</v>
       </c>
       <c r="Y22" s="40"/>
@@ -8530,19 +8412,19 @@
       <c r="I23" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="J23" s="76" t="s">
+      <c r="J23" s="72" t="s">
         <v>87</v>
       </c>
-      <c r="K23" s="76" t="s">
+      <c r="K23" s="72" t="s">
         <v>23</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="M23" s="76" t="s">
+      <c r="M23" s="72" t="s">
         <v>83</v>
       </c>
-      <c r="N23" s="76" t="s">
+      <c r="N23" s="72" t="s">
         <v>38</v>
       </c>
       <c r="O23" s="26" t="s">
@@ -8556,19 +8438,19 @@
       </c>
       <c r="R23" s="7"/>
       <c r="S23" s="7"/>
-      <c r="T23" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="U23" s="76" t="s">
+      <c r="T23" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="U23" s="72" t="s">
         <v>30</v>
       </c>
       <c r="V23" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="W23" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="X23" s="76" t="s">
+      <c r="W23" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="X23" s="72" t="s">
         <v>30</v>
       </c>
       <c r="Y23" s="26"/>
@@ -8602,17 +8484,17 @@
       <c r="I24" s="38" t="s">
         <v>112</v>
       </c>
-      <c r="J24" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="K24" s="75" t="s">
+      <c r="J24" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="K24" s="71" t="s">
         <v>24</v>
       </c>
       <c r="L24" s="39"/>
-      <c r="M24" s="75" t="s">
+      <c r="M24" s="71" t="s">
         <v>82</v>
       </c>
-      <c r="N24" s="75" t="s">
+      <c r="N24" s="71" t="s">
         <v>25</v>
       </c>
       <c r="O24" s="40" t="s">
@@ -8626,19 +8508,19 @@
       </c>
       <c r="R24" s="39"/>
       <c r="S24" s="39"/>
-      <c r="T24" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="U24" s="75" t="s">
+      <c r="T24" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="U24" s="71" t="s">
         <v>30</v>
       </c>
       <c r="V24" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="W24" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="X24" s="75" t="s">
+      <c r="W24" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="X24" s="71" t="s">
         <v>30</v>
       </c>
       <c r="Y24" s="40"/>
@@ -8672,17 +8554,17 @@
       <c r="I25" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="J25" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="K25" s="76" t="s">
+      <c r="J25" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="K25" s="72" t="s">
         <v>30</v>
       </c>
       <c r="L25" s="7"/>
-      <c r="M25" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="N25" s="76" t="s">
+      <c r="M25" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="N25" s="72" t="s">
         <v>30</v>
       </c>
       <c r="O25" s="26" t="s">
@@ -8696,19 +8578,19 @@
       </c>
       <c r="R25" s="7"/>
       <c r="S25" s="7"/>
-      <c r="T25" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="U25" s="76" t="s">
+      <c r="T25" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="U25" s="72" t="s">
         <v>30</v>
       </c>
       <c r="V25" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="W25" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="X25" s="76" t="s">
+      <c r="W25" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="X25" s="72" t="s">
         <v>30</v>
       </c>
       <c r="Y25" s="26"/>
@@ -8742,19 +8624,19 @@
       <c r="I26" s="38" t="s">
         <v>114</v>
       </c>
-      <c r="J26" s="75" t="s">
+      <c r="J26" s="71" t="s">
         <v>87</v>
       </c>
-      <c r="K26" s="75" t="s">
+      <c r="K26" s="71" t="s">
         <v>23</v>
       </c>
       <c r="L26" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="M26" s="75" t="s">
+      <c r="M26" s="71" t="s">
         <v>87</v>
       </c>
-      <c r="N26" s="75" t="s">
+      <c r="N26" s="71" t="s">
         <v>23</v>
       </c>
       <c r="O26" s="40" t="s">
@@ -8768,19 +8650,19 @@
       </c>
       <c r="R26" s="39"/>
       <c r="S26" s="39"/>
-      <c r="T26" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="U26" s="75" t="s">
+      <c r="T26" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="U26" s="71" t="s">
         <v>24</v>
       </c>
       <c r="V26" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="W26" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="X26" s="75" t="s">
+      <c r="W26" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="X26" s="71" t="s">
         <v>30</v>
       </c>
       <c r="Y26" s="40"/>
@@ -8814,17 +8696,17 @@
       <c r="I27" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="J27" s="76" t="s">
+      <c r="J27" s="72" t="s">
         <v>89</v>
       </c>
-      <c r="K27" s="76" t="s">
+      <c r="K27" s="72" t="s">
         <v>44</v>
       </c>
       <c r="L27" s="7"/>
-      <c r="M27" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="N27" s="76" t="s">
+      <c r="M27" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="N27" s="72" t="s">
         <v>24</v>
       </c>
       <c r="O27" s="26" t="s">
@@ -8838,19 +8720,19 @@
       </c>
       <c r="R27" s="7"/>
       <c r="S27" s="7"/>
-      <c r="T27" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="U27" s="76" t="s">
+      <c r="T27" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="U27" s="72" t="s">
         <v>30</v>
       </c>
       <c r="V27" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="W27" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="X27" s="76" t="s">
+      <c r="W27" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="X27" s="72" t="s">
         <v>30</v>
       </c>
       <c r="Y27" s="26"/>
@@ -8884,19 +8766,19 @@
       <c r="I28" s="38" t="s">
         <v>116</v>
       </c>
-      <c r="J28" s="75" t="s">
+      <c r="J28" s="71" t="s">
         <v>87</v>
       </c>
-      <c r="K28" s="75" t="s">
+      <c r="K28" s="71" t="s">
         <v>23</v>
       </c>
       <c r="L28" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="M28" s="75" t="s">
+      <c r="M28" s="71" t="s">
         <v>82</v>
       </c>
-      <c r="N28" s="75" t="s">
+      <c r="N28" s="71" t="s">
         <v>25</v>
       </c>
       <c r="O28" s="40" t="s">
@@ -8910,19 +8792,19 @@
       </c>
       <c r="R28" s="39"/>
       <c r="S28" s="39"/>
-      <c r="T28" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="U28" s="75" t="s">
+      <c r="T28" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="U28" s="71" t="s">
         <v>24</v>
       </c>
       <c r="V28" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="W28" s="75" t="s">
+      <c r="W28" s="71" t="s">
         <v>87</v>
       </c>
-      <c r="X28" s="75" t="s">
+      <c r="X28" s="71" t="s">
         <v>23</v>
       </c>
       <c r="Y28" s="40"/>
@@ -8956,17 +8838,17 @@
       <c r="I29" s="19" t="s">
         <v>159</v>
       </c>
-      <c r="J29" s="76" t="s">
+      <c r="J29" s="72" t="s">
         <v>87</v>
       </c>
-      <c r="K29" s="76" t="s">
+      <c r="K29" s="72" t="s">
         <v>23</v>
       </c>
       <c r="L29" s="7"/>
-      <c r="M29" s="76" t="s">
+      <c r="M29" s="72" t="s">
         <v>87</v>
       </c>
-      <c r="N29" s="76" t="s">
+      <c r="N29" s="72" t="s">
         <v>23</v>
       </c>
       <c r="O29" s="26" t="s">
@@ -8980,19 +8862,19 @@
       </c>
       <c r="R29" s="60"/>
       <c r="S29" s="60"/>
-      <c r="T29" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="U29" s="76" t="s">
+      <c r="T29" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="U29" s="72" t="s">
         <v>24</v>
       </c>
       <c r="V29" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="W29" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="X29" s="76" t="s">
+      <c r="W29" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="X29" s="72" t="s">
         <v>30</v>
       </c>
       <c r="Y29" s="26"/>
@@ -9026,17 +8908,17 @@
       <c r="I30" s="38" t="s">
         <v>160</v>
       </c>
-      <c r="J30" s="75" t="s">
+      <c r="J30" s="71" t="s">
         <v>87</v>
       </c>
-      <c r="K30" s="75" t="s">
+      <c r="K30" s="71" t="s">
         <v>23</v>
       </c>
       <c r="L30" s="39"/>
-      <c r="M30" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="N30" s="75" t="s">
+      <c r="M30" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="N30" s="71" t="s">
         <v>26</v>
       </c>
       <c r="O30" s="40" t="s">
@@ -9050,19 +8932,19 @@
       </c>
       <c r="R30" s="39"/>
       <c r="S30" s="39"/>
-      <c r="T30" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="U30" s="75" t="s">
+      <c r="T30" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="U30" s="71" t="s">
         <v>30</v>
       </c>
       <c r="V30" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="W30" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="X30" s="75" t="s">
+      <c r="W30" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="X30" s="71" t="s">
         <v>30</v>
       </c>
       <c r="Y30" s="40"/>
@@ -9096,17 +8978,17 @@
       <c r="I31" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="J31" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="K31" s="76" t="s">
+      <c r="J31" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="K31" s="72" t="s">
         <v>24</v>
       </c>
       <c r="L31" s="7"/>
-      <c r="M31" s="76" t="s">
+      <c r="M31" s="72" t="s">
         <v>82</v>
       </c>
-      <c r="N31" s="76" t="s">
+      <c r="N31" s="72" t="s">
         <v>28</v>
       </c>
       <c r="O31" s="26" t="s">
@@ -9120,19 +9002,19 @@
       </c>
       <c r="R31" s="7"/>
       <c r="S31" s="7"/>
-      <c r="T31" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="U31" s="76" t="s">
+      <c r="T31" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="U31" s="72" t="s">
         <v>30</v>
       </c>
       <c r="V31" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="W31" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="X31" s="76" t="s">
+      <c r="W31" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="X31" s="72" t="s">
         <v>30</v>
       </c>
       <c r="Y31" s="26"/>
@@ -9166,17 +9048,17 @@
       <c r="I32" s="38" t="s">
         <v>163</v>
       </c>
-      <c r="J32" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="K32" s="75" t="s">
+      <c r="J32" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="K32" s="71" t="s">
         <v>24</v>
       </c>
       <c r="L32" s="39"/>
-      <c r="M32" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="N32" s="75" t="s">
+      <c r="M32" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="N32" s="71" t="s">
         <v>24</v>
       </c>
       <c r="O32" s="40" t="s">
@@ -9190,19 +9072,19 @@
       </c>
       <c r="R32" s="39"/>
       <c r="S32" s="39"/>
-      <c r="T32" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="U32" s="75" t="s">
+      <c r="T32" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="U32" s="71" t="s">
         <v>24</v>
       </c>
       <c r="V32" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="W32" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="X32" s="75" t="s">
+      <c r="W32" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="X32" s="71" t="s">
         <v>30</v>
       </c>
       <c r="Y32" s="40"/>
@@ -9236,17 +9118,17 @@
       <c r="I33" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="J33" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="K33" s="76" t="s">
+      <c r="J33" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="K33" s="72" t="s">
         <v>24</v>
       </c>
       <c r="L33" s="7"/>
-      <c r="M33" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="N33" s="76" t="s">
+      <c r="M33" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="N33" s="72" t="s">
         <v>24</v>
       </c>
       <c r="O33" s="26" t="s">
@@ -9260,19 +9142,19 @@
       </c>
       <c r="R33" s="7"/>
       <c r="S33" s="7"/>
-      <c r="T33" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="U33" s="76" t="s">
+      <c r="T33" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="U33" s="72" t="s">
         <v>30</v>
       </c>
       <c r="V33" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="W33" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="X33" s="76" t="s">
+      <c r="W33" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="X33" s="72" t="s">
         <v>30</v>
       </c>
       <c r="Y33" s="26"/>
@@ -9306,17 +9188,17 @@
       <c r="I34" s="38" t="s">
         <v>121</v>
       </c>
-      <c r="J34" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="K34" s="75" t="s">
+      <c r="J34" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="K34" s="71" t="s">
         <v>24</v>
       </c>
       <c r="L34" s="39"/>
-      <c r="M34" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="N34" s="75" t="s">
+      <c r="M34" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="N34" s="71" t="s">
         <v>24</v>
       </c>
       <c r="O34" s="40" t="s">
@@ -9330,19 +9212,19 @@
       </c>
       <c r="R34" s="39"/>
       <c r="S34" s="39"/>
-      <c r="T34" s="75" t="s">
+      <c r="T34" s="71" t="s">
         <v>87</v>
       </c>
-      <c r="U34" s="75" t="s">
+      <c r="U34" s="71" t="s">
         <v>23</v>
       </c>
       <c r="V34" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="W34" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="X34" s="75" t="s">
+      <c r="W34" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="X34" s="71" t="s">
         <v>30</v>
       </c>
       <c r="Y34" s="40"/>
@@ -9376,17 +9258,17 @@
       <c r="I35" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="J35" s="76" t="s">
+      <c r="J35" s="72" t="s">
         <v>82</v>
       </c>
-      <c r="K35" s="76" t="s">
+      <c r="K35" s="72" t="s">
         <v>25</v>
       </c>
       <c r="L35" s="7"/>
-      <c r="M35" s="76" t="s">
+      <c r="M35" s="72" t="s">
         <v>87</v>
       </c>
-      <c r="N35" s="76" t="s">
+      <c r="N35" s="72" t="s">
         <v>23</v>
       </c>
       <c r="O35" s="26" t="s">
@@ -9400,19 +9282,19 @@
       </c>
       <c r="R35" s="60"/>
       <c r="S35" s="60"/>
-      <c r="T35" s="76" t="s">
+      <c r="T35" s="72" t="s">
         <v>87</v>
       </c>
-      <c r="U35" s="76" t="s">
+      <c r="U35" s="72" t="s">
         <v>23</v>
       </c>
       <c r="V35" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="W35" s="76" t="s">
+      <c r="W35" s="72" t="s">
         <v>87</v>
       </c>
-      <c r="X35" s="76" t="s">
+      <c r="X35" s="72" t="s">
         <v>23</v>
       </c>
       <c r="Y35" s="26"/>
@@ -9446,17 +9328,17 @@
       <c r="I36" s="38" t="s">
         <v>123</v>
       </c>
-      <c r="J36" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="K36" s="75" t="s">
+      <c r="J36" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="K36" s="71" t="s">
         <v>24</v>
       </c>
       <c r="L36" s="39"/>
-      <c r="M36" s="75" t="s">
+      <c r="M36" s="71" t="s">
         <v>82</v>
       </c>
-      <c r="N36" s="75" t="s">
+      <c r="N36" s="71" t="s">
         <v>25</v>
       </c>
       <c r="O36" s="40" t="s">
@@ -9470,19 +9352,19 @@
       </c>
       <c r="R36" s="39"/>
       <c r="S36" s="39"/>
-      <c r="T36" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="U36" s="75" t="s">
+      <c r="T36" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="U36" s="71" t="s">
         <v>24</v>
       </c>
       <c r="V36" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="W36" s="75" t="s">
+      <c r="W36" s="71" t="s">
         <v>87</v>
       </c>
-      <c r="X36" s="75" t="s">
+      <c r="X36" s="71" t="s">
         <v>23</v>
       </c>
       <c r="Y36" s="40"/>
@@ -9516,17 +9398,17 @@
       <c r="I37" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="J37" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="K37" s="76" t="s">
+      <c r="J37" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="K37" s="72" t="s">
         <v>24</v>
       </c>
       <c r="L37" s="7"/>
-      <c r="M37" s="76" t="s">
+      <c r="M37" s="72" t="s">
         <v>87</v>
       </c>
-      <c r="N37" s="76" t="s">
+      <c r="N37" s="72" t="s">
         <v>23</v>
       </c>
       <c r="O37" s="26" t="s">
@@ -9540,19 +9422,19 @@
       </c>
       <c r="R37" s="7"/>
       <c r="S37" s="7"/>
-      <c r="T37" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="U37" s="76" t="s">
+      <c r="T37" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="U37" s="72" t="s">
         <v>24</v>
       </c>
       <c r="V37" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="W37" s="76" t="s">
+      <c r="W37" s="72" t="s">
         <v>87</v>
       </c>
-      <c r="X37" s="76" t="s">
+      <c r="X37" s="72" t="s">
         <v>23</v>
       </c>
       <c r="Y37" s="26"/>
@@ -9586,17 +9468,17 @@
       <c r="I38" s="38" t="s">
         <v>124</v>
       </c>
-      <c r="J38" s="75" t="s">
+      <c r="J38" s="71" t="s">
         <v>87</v>
       </c>
-      <c r="K38" s="75" t="s">
+      <c r="K38" s="71" t="s">
         <v>23</v>
       </c>
       <c r="L38" s="39"/>
-      <c r="M38" s="75" t="s">
+      <c r="M38" s="71" t="s">
         <v>87</v>
       </c>
-      <c r="N38" s="75" t="s">
+      <c r="N38" s="71" t="s">
         <v>23</v>
       </c>
       <c r="O38" s="40" t="s">
@@ -9610,19 +9492,19 @@
       </c>
       <c r="R38" s="39"/>
       <c r="S38" s="39"/>
-      <c r="T38" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="U38" s="75" t="s">
+      <c r="T38" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="U38" s="71" t="s">
         <v>30</v>
       </c>
       <c r="V38" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="W38" s="75" t="s">
+      <c r="W38" s="71" t="s">
         <v>87</v>
       </c>
-      <c r="X38" s="75" t="s">
+      <c r="X38" s="71" t="s">
         <v>23</v>
       </c>
       <c r="Y38" s="40"/>
@@ -9656,17 +9538,17 @@
       <c r="I39" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="J39" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="K39" s="76" t="s">
+      <c r="J39" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="K39" s="72" t="s">
         <v>24</v>
       </c>
       <c r="L39" s="7"/>
-      <c r="M39" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="N39" s="76" t="s">
+      <c r="M39" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="N39" s="72" t="s">
         <v>24</v>
       </c>
       <c r="O39" s="26" t="s">
@@ -9680,19 +9562,19 @@
       </c>
       <c r="R39" s="7"/>
       <c r="S39" s="7"/>
-      <c r="T39" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="U39" s="76" t="s">
+      <c r="T39" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="U39" s="72" t="s">
         <v>24</v>
       </c>
       <c r="V39" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="W39" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="X39" s="76" t="s">
+      <c r="W39" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="X39" s="72" t="s">
         <v>30</v>
       </c>
       <c r="Y39" s="26"/>
@@ -9726,19 +9608,19 @@
       <c r="I40" s="47" t="s">
         <v>127</v>
       </c>
-      <c r="J40" s="77" t="s">
-        <v>91</v>
-      </c>
-      <c r="K40" s="77" t="s">
+      <c r="J40" s="83" t="s">
+        <v>91</v>
+      </c>
+      <c r="K40" s="83" t="s">
         <v>30</v>
       </c>
       <c r="L40" s="48" t="s">
         <v>81</v>
       </c>
-      <c r="M40" s="77" t="s">
-        <v>91</v>
-      </c>
-      <c r="N40" s="77" t="s">
+      <c r="M40" s="83" t="s">
+        <v>91</v>
+      </c>
+      <c r="N40" s="83" t="s">
         <v>24</v>
       </c>
       <c r="O40" s="49" t="s">
@@ -9752,19 +9634,19 @@
       </c>
       <c r="R40" s="48"/>
       <c r="S40" s="48"/>
-      <c r="T40" s="77" t="s">
-        <v>91</v>
-      </c>
-      <c r="U40" s="77" t="s">
+      <c r="T40" s="83" t="s">
+        <v>91</v>
+      </c>
+      <c r="U40" s="83" t="s">
         <v>30</v>
       </c>
       <c r="V40" s="48" t="s">
         <v>92</v>
       </c>
-      <c r="W40" s="77" t="s">
-        <v>91</v>
-      </c>
-      <c r="X40" s="77" t="s">
+      <c r="W40" s="83" t="s">
+        <v>91</v>
+      </c>
+      <c r="X40" s="83" t="s">
         <v>30</v>
       </c>
       <c r="Y40" s="49"/>
@@ -9798,17 +9680,17 @@
       <c r="I41" s="30" t="s">
         <v>128</v>
       </c>
-      <c r="J41" s="78" t="s">
+      <c r="J41" s="84" t="s">
         <v>87</v>
       </c>
-      <c r="K41" s="78" t="s">
+      <c r="K41" s="84" t="s">
         <v>23</v>
       </c>
       <c r="L41" s="31"/>
-      <c r="M41" s="78" t="s">
-        <v>91</v>
-      </c>
-      <c r="N41" s="78" t="s">
+      <c r="M41" s="84" t="s">
+        <v>91</v>
+      </c>
+      <c r="N41" s="84" t="s">
         <v>24</v>
       </c>
       <c r="O41" s="32" t="s">
@@ -9822,19 +9704,19 @@
       </c>
       <c r="R41" s="31"/>
       <c r="S41" s="31"/>
-      <c r="T41" s="78" t="s">
+      <c r="T41" s="84" t="s">
         <v>87</v>
       </c>
-      <c r="U41" s="78" t="s">
+      <c r="U41" s="84" t="s">
         <v>23</v>
       </c>
       <c r="V41" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="W41" s="78" t="s">
-        <v>91</v>
-      </c>
-      <c r="X41" s="78" t="s">
+      <c r="W41" s="84" t="s">
+        <v>91</v>
+      </c>
+      <c r="X41" s="84" t="s">
         <v>30</v>
       </c>
       <c r="Y41" s="32"/>
@@ -9868,17 +9750,17 @@
       <c r="I42" s="38" t="s">
         <v>129</v>
       </c>
-      <c r="J42" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="K42" s="75" t="s">
+      <c r="J42" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="K42" s="71" t="s">
         <v>26</v>
       </c>
       <c r="L42" s="39"/>
-      <c r="M42" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="N42" s="75" t="s">
+      <c r="M42" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="N42" s="71" t="s">
         <v>24</v>
       </c>
       <c r="O42" s="40" t="s">
@@ -9892,19 +9774,19 @@
       </c>
       <c r="R42" s="39"/>
       <c r="S42" s="39"/>
-      <c r="T42" s="75" t="s">
+      <c r="T42" s="71" t="s">
         <v>83</v>
       </c>
-      <c r="U42" s="75" t="s">
+      <c r="U42" s="71" t="s">
         <v>38</v>
       </c>
       <c r="V42" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="W42" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="X42" s="75" t="s">
+      <c r="W42" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="X42" s="71" t="s">
         <v>30</v>
       </c>
       <c r="Y42" s="40"/>
@@ -9938,19 +9820,19 @@
       <c r="I43" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="J43" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="K43" s="76" t="s">
+      <c r="J43" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="K43" s="72" t="s">
         <v>26</v>
       </c>
       <c r="L43" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="M43" s="76" t="s">
+      <c r="M43" s="72" t="s">
         <v>82</v>
       </c>
-      <c r="N43" s="76" t="s">
+      <c r="N43" s="72" t="s">
         <v>25</v>
       </c>
       <c r="O43" s="26" t="s">
@@ -9964,19 +9846,19 @@
       </c>
       <c r="R43" s="7"/>
       <c r="S43" s="7"/>
-      <c r="T43" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="U43" s="76" t="s">
+      <c r="T43" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="U43" s="72" t="s">
         <v>24</v>
       </c>
       <c r="V43" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="W43" s="76" t="s">
+      <c r="W43" s="72" t="s">
         <v>87</v>
       </c>
-      <c r="X43" s="76" t="s">
+      <c r="X43" s="72" t="s">
         <v>23</v>
       </c>
       <c r="Y43" s="26"/>
@@ -10010,17 +9892,17 @@
       <c r="I44" s="38" t="s">
         <v>146</v>
       </c>
-      <c r="J44" s="75" t="s">
+      <c r="J44" s="71" t="s">
         <v>82</v>
       </c>
-      <c r="K44" s="75" t="s">
+      <c r="K44" s="71" t="s">
         <v>25</v>
       </c>
       <c r="L44" s="39"/>
-      <c r="M44" s="75" t="s">
+      <c r="M44" s="71" t="s">
         <v>83</v>
       </c>
-      <c r="N44" s="75" t="s">
+      <c r="N44" s="71" t="s">
         <v>38</v>
       </c>
       <c r="O44" s="40" t="s">
@@ -10034,19 +9916,19 @@
       </c>
       <c r="R44" s="39"/>
       <c r="S44" s="39"/>
-      <c r="T44" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="U44" s="75" t="s">
+      <c r="T44" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="U44" s="71" t="s">
         <v>26</v>
       </c>
       <c r="V44" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="W44" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="X44" s="75" t="s">
+      <c r="W44" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="X44" s="71" t="s">
         <v>30</v>
       </c>
       <c r="Y44" s="40"/>
@@ -10080,17 +9962,17 @@
       <c r="I45" s="19" t="s">
         <v>147</v>
       </c>
-      <c r="J45" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="K45" s="76" t="s">
+      <c r="J45" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="K45" s="72" t="s">
         <v>24</v>
       </c>
       <c r="L45" s="7"/>
-      <c r="M45" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="N45" s="76" t="s">
+      <c r="M45" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="N45" s="72" t="s">
         <v>24</v>
       </c>
       <c r="O45" s="26" t="s">
@@ -10104,19 +9986,19 @@
       </c>
       <c r="R45" s="7"/>
       <c r="S45" s="7"/>
-      <c r="T45" s="76" t="s">
+      <c r="T45" s="72" t="s">
         <v>181</v>
       </c>
-      <c r="U45" s="76" t="s">
+      <c r="U45" s="72" t="s">
         <v>182</v>
       </c>
       <c r="V45" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="W45" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="X45" s="76" t="s">
+      <c r="W45" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="X45" s="72" t="s">
         <v>30</v>
       </c>
       <c r="Y45" s="26"/>
@@ -10150,17 +10032,17 @@
       <c r="I46" s="38" t="s">
         <v>131</v>
       </c>
-      <c r="J46" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="K46" s="75" t="s">
+      <c r="J46" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="K46" s="71" t="s">
         <v>24</v>
       </c>
       <c r="L46" s="39"/>
-      <c r="M46" s="75" t="s">
+      <c r="M46" s="71" t="s">
         <v>87</v>
       </c>
-      <c r="N46" s="75" t="s">
+      <c r="N46" s="71" t="s">
         <v>23</v>
       </c>
       <c r="O46" s="40" t="s">
@@ -10174,19 +10056,19 @@
       </c>
       <c r="R46" s="39"/>
       <c r="S46" s="39"/>
-      <c r="T46" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="U46" s="75" t="s">
+      <c r="T46" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="U46" s="71" t="s">
         <v>30</v>
       </c>
       <c r="V46" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="W46" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="X46" s="75" t="s">
+      <c r="W46" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="X46" s="71" t="s">
         <v>30</v>
       </c>
       <c r="Y46" s="40"/>
@@ -10220,17 +10102,17 @@
       <c r="I47" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="J47" s="76" t="s">
+      <c r="J47" s="72" t="s">
         <v>87</v>
       </c>
-      <c r="K47" s="76" t="s">
+      <c r="K47" s="72" t="s">
         <v>23</v>
       </c>
       <c r="L47" s="7"/>
-      <c r="M47" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="N47" s="76" t="s">
+      <c r="M47" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="N47" s="72" t="s">
         <v>24</v>
       </c>
       <c r="O47" s="26" t="s">
@@ -10244,19 +10126,19 @@
       </c>
       <c r="R47" s="7"/>
       <c r="S47" s="7"/>
-      <c r="T47" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="U47" s="76" t="s">
+      <c r="T47" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="U47" s="72" t="s">
         <v>24</v>
       </c>
       <c r="V47" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="W47" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="X47" s="76" t="s">
+      <c r="W47" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="X47" s="72" t="s">
         <v>30</v>
       </c>
       <c r="Y47" s="26"/>
@@ -10290,17 +10172,17 @@
       <c r="I48" s="38" t="s">
         <v>148</v>
       </c>
-      <c r="J48" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="K48" s="75" t="s">
+      <c r="J48" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="K48" s="71" t="s">
         <v>24</v>
       </c>
       <c r="L48" s="39"/>
-      <c r="M48" s="75" t="s">
+      <c r="M48" s="71" t="s">
         <v>87</v>
       </c>
-      <c r="N48" s="75" t="s">
+      <c r="N48" s="71" t="s">
         <v>66</v>
       </c>
       <c r="O48" s="40" t="s">
@@ -10314,19 +10196,19 @@
       </c>
       <c r="R48" s="39"/>
       <c r="S48" s="39"/>
-      <c r="T48" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="U48" s="75" t="s">
+      <c r="T48" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="U48" s="71" t="s">
         <v>30</v>
       </c>
       <c r="V48" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="W48" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="X48" s="75" t="s">
+      <c r="W48" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="X48" s="71" t="s">
         <v>30</v>
       </c>
       <c r="Y48" s="40"/>
@@ -10360,17 +10242,17 @@
       <c r="I49" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="J49" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="K49" s="76" t="s">
+      <c r="J49" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="K49" s="72" t="s">
         <v>24</v>
       </c>
       <c r="L49" s="7"/>
-      <c r="M49" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="N49" s="76" t="s">
+      <c r="M49" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="N49" s="72" t="s">
         <v>24</v>
       </c>
       <c r="O49" s="26" t="s">
@@ -10384,19 +10266,19 @@
       </c>
       <c r="R49" s="7"/>
       <c r="S49" s="7"/>
-      <c r="T49" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="U49" s="76" t="s">
+      <c r="T49" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="U49" s="72" t="s">
         <v>26</v>
       </c>
       <c r="V49" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="W49" s="76" t="s">
+      <c r="W49" s="72" t="s">
         <v>87</v>
       </c>
-      <c r="X49" s="76" t="s">
+      <c r="X49" s="72" t="s">
         <v>23</v>
       </c>
       <c r="Y49" s="26"/>
@@ -10430,17 +10312,17 @@
       <c r="I50" s="38" t="s">
         <v>134</v>
       </c>
-      <c r="J50" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="K50" s="75" t="s">
+      <c r="J50" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="K50" s="71" t="s">
         <v>24</v>
       </c>
       <c r="L50" s="39"/>
-      <c r="M50" s="75" t="s">
+      <c r="M50" s="71" t="s">
         <v>83</v>
       </c>
-      <c r="N50" s="75" t="s">
+      <c r="N50" s="71" t="s">
         <v>38</v>
       </c>
       <c r="O50" s="40" t="s">
@@ -10454,19 +10336,19 @@
       </c>
       <c r="R50" s="39"/>
       <c r="S50" s="39"/>
-      <c r="T50" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="U50" s="75" t="s">
+      <c r="T50" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="U50" s="71" t="s">
         <v>24</v>
       </c>
       <c r="V50" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="W50" s="75" t="s">
+      <c r="W50" s="71" t="s">
         <v>87</v>
       </c>
-      <c r="X50" s="75" t="s">
+      <c r="X50" s="71" t="s">
         <v>23</v>
       </c>
       <c r="Y50" s="40"/>
@@ -10500,17 +10382,17 @@
       <c r="I51" s="19" t="s">
         <v>149</v>
       </c>
-      <c r="J51" s="76" t="s">
+      <c r="J51" s="72" t="s">
         <v>83</v>
       </c>
-      <c r="K51" s="76" t="s">
+      <c r="K51" s="72" t="s">
         <v>38</v>
       </c>
       <c r="L51" s="7"/>
-      <c r="M51" s="76" t="s">
+      <c r="M51" s="72" t="s">
         <v>83</v>
       </c>
-      <c r="N51" s="76" t="s">
+      <c r="N51" s="72" t="s">
         <v>38</v>
       </c>
       <c r="O51" s="26" t="s">
@@ -10524,19 +10406,19 @@
       </c>
       <c r="R51" s="7"/>
       <c r="S51" s="7"/>
-      <c r="T51" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="U51" s="76" t="s">
+      <c r="T51" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="U51" s="72" t="s">
         <v>24</v>
       </c>
       <c r="V51" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="W51" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="X51" s="76" t="s">
+      <c r="W51" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="X51" s="72" t="s">
         <v>30</v>
       </c>
       <c r="Y51" s="26"/>
@@ -10570,19 +10452,19 @@
       <c r="I52" s="38" t="s">
         <v>150</v>
       </c>
-      <c r="J52" s="75" t="s">
+      <c r="J52" s="71" t="s">
         <v>90</v>
       </c>
-      <c r="K52" s="75" t="s">
+      <c r="K52" s="71" t="s">
         <v>71</v>
       </c>
       <c r="L52" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="M52" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="N52" s="75" t="s">
+      <c r="M52" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="N52" s="71" t="s">
         <v>24</v>
       </c>
       <c r="O52" s="40" t="s">
@@ -10596,19 +10478,19 @@
       </c>
       <c r="R52" s="39"/>
       <c r="S52" s="39"/>
-      <c r="T52" s="75" t="s">
+      <c r="T52" s="71" t="s">
         <v>90</v>
       </c>
-      <c r="U52" s="75" t="s">
+      <c r="U52" s="71" t="s">
         <v>71</v>
       </c>
       <c r="V52" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="W52" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="X52" s="75" t="s">
+      <c r="W52" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="X52" s="71" t="s">
         <v>30</v>
       </c>
       <c r="Y52" s="40"/>
@@ -10642,19 +10524,19 @@
       <c r="I53" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="J53" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="K53" s="76" t="s">
+      <c r="J53" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="K53" s="72" t="s">
         <v>26</v>
       </c>
       <c r="L53" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="M53" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="N53" s="76" t="s">
+      <c r="M53" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="N53" s="72" t="s">
         <v>24</v>
       </c>
       <c r="O53" s="26" t="s">
@@ -10668,19 +10550,19 @@
       </c>
       <c r="R53" s="7"/>
       <c r="S53" s="7"/>
-      <c r="T53" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="U53" s="76" t="s">
+      <c r="T53" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="U53" s="72" t="s">
         <v>30</v>
       </c>
       <c r="V53" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="W53" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="X53" s="76" t="s">
+      <c r="W53" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="X53" s="72" t="s">
         <v>30</v>
       </c>
       <c r="Y53" s="26"/>
@@ -10714,17 +10596,17 @@
       <c r="I54" s="38" t="s">
         <v>152</v>
       </c>
-      <c r="J54" s="75" t="s">
+      <c r="J54" s="71" t="s">
         <v>83</v>
       </c>
-      <c r="K54" s="75" t="s">
+      <c r="K54" s="71" t="s">
         <v>38</v>
       </c>
       <c r="L54" s="39"/>
-      <c r="M54" s="75" t="s">
+      <c r="M54" s="71" t="s">
         <v>82</v>
       </c>
-      <c r="N54" s="75" t="s">
+      <c r="N54" s="71" t="s">
         <v>25</v>
       </c>
       <c r="O54" s="40" t="s">
@@ -10738,19 +10620,19 @@
       </c>
       <c r="R54" s="39"/>
       <c r="S54" s="39"/>
-      <c r="T54" s="75" t="s">
+      <c r="T54" s="71" t="s">
         <v>181</v>
       </c>
-      <c r="U54" s="75" t="s">
+      <c r="U54" s="71" t="s">
         <v>182</v>
       </c>
       <c r="V54" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="W54" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="X54" s="75" t="s">
+      <c r="W54" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="X54" s="71" t="s">
         <v>30</v>
       </c>
       <c r="Y54" s="40"/>
@@ -10784,17 +10666,17 @@
       <c r="I55" s="19" t="s">
         <v>153</v>
       </c>
-      <c r="J55" s="76" t="s">
+      <c r="J55" s="72" t="s">
         <v>87</v>
       </c>
-      <c r="K55" s="76" t="s">
+      <c r="K55" s="72" t="s">
         <v>23</v>
       </c>
       <c r="L55" s="7"/>
-      <c r="M55" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="N55" s="76" t="s">
+      <c r="M55" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="N55" s="72" t="s">
         <v>24</v>
       </c>
       <c r="O55" s="26" t="s">
@@ -10808,19 +10690,19 @@
       </c>
       <c r="R55" s="7"/>
       <c r="S55" s="7"/>
-      <c r="T55" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="U55" s="76" t="s">
+      <c r="T55" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="U55" s="72" t="s">
         <v>24</v>
       </c>
       <c r="V55" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="W55" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="X55" s="76" t="s">
+      <c r="W55" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="X55" s="72" t="s">
         <v>30</v>
       </c>
       <c r="Y55" s="26"/>
@@ -10854,17 +10736,17 @@
       <c r="I56" s="38" t="s">
         <v>173</v>
       </c>
-      <c r="J56" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="K56" s="75" t="s">
+      <c r="J56" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="K56" s="71" t="s">
         <v>26</v>
       </c>
       <c r="L56" s="39"/>
-      <c r="M56" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="N56" s="75" t="s">
+      <c r="M56" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="N56" s="71" t="s">
         <v>24</v>
       </c>
       <c r="O56" s="40" t="s">
@@ -10878,19 +10760,19 @@
       </c>
       <c r="R56" s="39"/>
       <c r="S56" s="39"/>
-      <c r="T56" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="U56" s="75" t="s">
+      <c r="T56" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="U56" s="71" t="s">
         <v>26</v>
       </c>
       <c r="V56" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="W56" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="X56" s="75" t="s">
+      <c r="W56" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="X56" s="71" t="s">
         <v>30</v>
       </c>
       <c r="Y56" s="40"/>
@@ -10924,19 +10806,19 @@
       <c r="I57" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="J57" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="K57" s="76" t="s">
+      <c r="J57" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="K57" s="72" t="s">
         <v>24</v>
       </c>
       <c r="L57" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="M57" s="76" t="s">
+      <c r="M57" s="72" t="s">
         <v>82</v>
       </c>
-      <c r="N57" s="76" t="s">
+      <c r="N57" s="72" t="s">
         <v>25</v>
       </c>
       <c r="O57" s="26" t="s">
@@ -10950,19 +10832,19 @@
       </c>
       <c r="R57" s="7"/>
       <c r="S57" s="7"/>
-      <c r="T57" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="U57" s="76" t="s">
+      <c r="T57" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="U57" s="72" t="s">
         <v>24</v>
       </c>
       <c r="V57" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="W57" s="76" t="s">
+      <c r="W57" s="72" t="s">
         <v>82</v>
       </c>
-      <c r="X57" s="76" t="s">
+      <c r="X57" s="72" t="s">
         <v>25</v>
       </c>
       <c r="Y57" s="26"/>
@@ -10996,17 +10878,17 @@
       <c r="I58" s="38" t="s">
         <v>169</v>
       </c>
-      <c r="J58" s="75" t="s">
+      <c r="J58" s="71" t="s">
         <v>82</v>
       </c>
-      <c r="K58" s="75" t="s">
+      <c r="K58" s="71" t="s">
         <v>28</v>
       </c>
       <c r="L58" s="39"/>
-      <c r="M58" s="75" t="s">
+      <c r="M58" s="71" t="s">
         <v>83</v>
       </c>
-      <c r="N58" s="75" t="s">
+      <c r="N58" s="71" t="s">
         <v>78</v>
       </c>
       <c r="O58" s="40" t="s">
@@ -11020,19 +10902,19 @@
       </c>
       <c r="R58" s="39"/>
       <c r="S58" s="39"/>
-      <c r="T58" s="75" t="s">
+      <c r="T58" s="71" t="s">
         <v>83</v>
       </c>
-      <c r="U58" s="75" t="s">
+      <c r="U58" s="71" t="s">
         <v>38</v>
       </c>
       <c r="V58" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="W58" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="X58" s="75" t="s">
+      <c r="W58" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="X58" s="71" t="s">
         <v>30</v>
       </c>
       <c r="Y58" s="40"/>
@@ -11066,17 +10948,17 @@
       <c r="I59" s="19" t="s">
         <v>165</v>
       </c>
-      <c r="J59" s="76" t="s">
+      <c r="J59" s="72" t="s">
         <v>83</v>
       </c>
-      <c r="K59" s="76" t="s">
+      <c r="K59" s="72" t="s">
         <v>38</v>
       </c>
       <c r="L59" s="7"/>
-      <c r="M59" s="76" t="s">
+      <c r="M59" s="72" t="s">
         <v>82</v>
       </c>
-      <c r="N59" s="76" t="s">
+      <c r="N59" s="72" t="s">
         <v>25</v>
       </c>
       <c r="O59" s="26" t="s">
@@ -11090,19 +10972,19 @@
       </c>
       <c r="R59" s="7"/>
       <c r="S59" s="7"/>
-      <c r="T59" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="U59" s="76" t="s">
+      <c r="T59" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="U59" s="72" t="s">
         <v>26</v>
       </c>
       <c r="V59" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="W59" s="76" t="s">
+      <c r="W59" s="72" t="s">
         <v>184</v>
       </c>
-      <c r="X59" s="76" t="s">
+      <c r="X59" s="72" t="s">
         <v>185</v>
       </c>
       <c r="Y59" s="26"/>
@@ -11122,11 +11004,11 @@
       <c r="G60" s="51"/>
       <c r="H60" s="51"/>
       <c r="I60" s="50"/>
-      <c r="J60" s="71"/>
-      <c r="K60" s="72"/>
+      <c r="J60" s="85"/>
+      <c r="K60" s="86"/>
       <c r="L60" s="51"/>
-      <c r="M60" s="71"/>
-      <c r="N60" s="72"/>
+      <c r="M60" s="85"/>
+      <c r="N60" s="86"/>
       <c r="O60" s="52"/>
       <c r="P60" s="66"/>
       <c r="Q60" s="39" t="s">
@@ -11134,19 +11016,19 @@
       </c>
       <c r="R60" s="39"/>
       <c r="S60" s="39"/>
-      <c r="T60" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="U60" s="75" t="s">
+      <c r="T60" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="U60" s="71" t="s">
         <v>26</v>
       </c>
       <c r="V60" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="W60" s="75" t="s">
+      <c r="W60" s="71" t="s">
         <v>87</v>
       </c>
-      <c r="X60" s="75" t="s">
+      <c r="X60" s="71" t="s">
         <v>23</v>
       </c>
       <c r="Y60" s="52"/>
@@ -11164,11 +11046,11 @@
       <c r="G61" s="31"/>
       <c r="H61" s="31"/>
       <c r="I61" s="30"/>
-      <c r="J61" s="73"/>
-      <c r="K61" s="74"/>
+      <c r="J61" s="87"/>
+      <c r="K61" s="88"/>
       <c r="L61" s="31"/>
-      <c r="M61" s="73"/>
-      <c r="N61" s="74"/>
+      <c r="M61" s="87"/>
+      <c r="N61" s="88"/>
       <c r="O61" s="32"/>
       <c r="P61" s="65"/>
       <c r="Q61" s="32"/>
@@ -11194,11 +11076,11 @@
       <c r="G62" s="51"/>
       <c r="H62" s="51"/>
       <c r="I62" s="50"/>
-      <c r="J62" s="71"/>
-      <c r="K62" s="72"/>
+      <c r="J62" s="85"/>
+      <c r="K62" s="86"/>
       <c r="L62" s="51"/>
-      <c r="M62" s="71"/>
-      <c r="N62" s="72"/>
+      <c r="M62" s="85"/>
+      <c r="N62" s="86"/>
       <c r="O62" s="52"/>
       <c r="P62" s="66"/>
       <c r="Q62" s="52"/>
@@ -11224,11 +11106,11 @@
       <c r="G63" s="31"/>
       <c r="H63" s="31"/>
       <c r="I63" s="30"/>
-      <c r="J63" s="73"/>
-      <c r="K63" s="74"/>
+      <c r="J63" s="87"/>
+      <c r="K63" s="88"/>
       <c r="L63" s="31"/>
-      <c r="M63" s="73"/>
-      <c r="N63" s="74"/>
+      <c r="M63" s="87"/>
+      <c r="N63" s="88"/>
       <c r="O63" s="32"/>
       <c r="P63" s="65"/>
       <c r="Q63" s="32"/>
@@ -11254,11 +11136,11 @@
       <c r="G64" s="51"/>
       <c r="H64" s="51"/>
       <c r="I64" s="50"/>
-      <c r="J64" s="71"/>
-      <c r="K64" s="72"/>
+      <c r="J64" s="85"/>
+      <c r="K64" s="86"/>
       <c r="L64" s="51"/>
-      <c r="M64" s="71"/>
-      <c r="N64" s="72"/>
+      <c r="M64" s="85"/>
+      <c r="N64" s="86"/>
       <c r="O64" s="52"/>
       <c r="P64" s="66"/>
       <c r="Q64" s="52"/>
@@ -11284,11 +11166,11 @@
       <c r="G65" s="31"/>
       <c r="H65" s="31"/>
       <c r="I65" s="30"/>
-      <c r="J65" s="73"/>
-      <c r="K65" s="74"/>
+      <c r="J65" s="87"/>
+      <c r="K65" s="88"/>
       <c r="L65" s="31"/>
-      <c r="M65" s="73"/>
-      <c r="N65" s="74"/>
+      <c r="M65" s="87"/>
+      <c r="N65" s="88"/>
       <c r="O65" s="32"/>
       <c r="P65" s="65"/>
       <c r="Q65" s="32"/>
@@ -11328,17 +11210,17 @@
       <c r="I66" s="38" t="s">
         <v>163</v>
       </c>
-      <c r="J66" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="K66" s="75" t="s">
+      <c r="J66" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="K66" s="71" t="s">
         <v>24</v>
       </c>
       <c r="L66" s="39"/>
-      <c r="M66" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="N66" s="75" t="s">
+      <c r="M66" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="N66" s="71" t="s">
         <v>24</v>
       </c>
       <c r="O66" s="40" t="s">
@@ -11421,96 +11303,97 @@
     <row r="69" spans="1:26" ht="15" thickTop="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="205">
-    <mergeCell ref="T14:U14"/>
-    <mergeCell ref="W14:X14"/>
-    <mergeCell ref="T15:U15"/>
-    <mergeCell ref="W15:X15"/>
-    <mergeCell ref="T16:U16"/>
-    <mergeCell ref="W16:X16"/>
-    <mergeCell ref="T17:U17"/>
-    <mergeCell ref="W17:X17"/>
-    <mergeCell ref="T18:U18"/>
-    <mergeCell ref="W18:X18"/>
-    <mergeCell ref="T19:U19"/>
-    <mergeCell ref="W19:X19"/>
-    <mergeCell ref="T20:U20"/>
-    <mergeCell ref="W20:X20"/>
-    <mergeCell ref="T21:U21"/>
-    <mergeCell ref="W21:X21"/>
-    <mergeCell ref="T22:U22"/>
-    <mergeCell ref="W22:X22"/>
-    <mergeCell ref="T23:U23"/>
-    <mergeCell ref="W23:X23"/>
-    <mergeCell ref="T24:U24"/>
-    <mergeCell ref="W24:X24"/>
-    <mergeCell ref="T25:U25"/>
-    <mergeCell ref="W25:X25"/>
-    <mergeCell ref="T26:U26"/>
-    <mergeCell ref="W26:X26"/>
-    <mergeCell ref="T27:U27"/>
-    <mergeCell ref="W27:X27"/>
-    <mergeCell ref="T28:U28"/>
-    <mergeCell ref="W28:X28"/>
-    <mergeCell ref="T29:U29"/>
-    <mergeCell ref="W29:X29"/>
-    <mergeCell ref="T30:U30"/>
-    <mergeCell ref="W30:X30"/>
-    <mergeCell ref="T31:U31"/>
-    <mergeCell ref="W31:X31"/>
-    <mergeCell ref="T32:U32"/>
-    <mergeCell ref="W32:X32"/>
-    <mergeCell ref="T33:U33"/>
-    <mergeCell ref="W33:X33"/>
-    <mergeCell ref="T34:U34"/>
-    <mergeCell ref="W34:X34"/>
-    <mergeCell ref="T35:U35"/>
-    <mergeCell ref="W35:X35"/>
-    <mergeCell ref="T36:U36"/>
-    <mergeCell ref="W36:X36"/>
-    <mergeCell ref="T37:U37"/>
-    <mergeCell ref="W37:X37"/>
-    <mergeCell ref="T38:U38"/>
-    <mergeCell ref="W38:X38"/>
-    <mergeCell ref="T39:U39"/>
-    <mergeCell ref="W39:X39"/>
-    <mergeCell ref="T40:U40"/>
-    <mergeCell ref="W40:X40"/>
-    <mergeCell ref="T41:U41"/>
-    <mergeCell ref="W41:X41"/>
-    <mergeCell ref="T42:U42"/>
-    <mergeCell ref="W42:X42"/>
-    <mergeCell ref="T43:U43"/>
-    <mergeCell ref="W43:X43"/>
-    <mergeCell ref="T44:U44"/>
-    <mergeCell ref="W44:X44"/>
-    <mergeCell ref="T45:U45"/>
-    <mergeCell ref="W45:X45"/>
-    <mergeCell ref="T46:U46"/>
-    <mergeCell ref="W46:X46"/>
-    <mergeCell ref="T47:U47"/>
-    <mergeCell ref="W47:X47"/>
-    <mergeCell ref="T48:U48"/>
-    <mergeCell ref="W48:X48"/>
-    <mergeCell ref="T49:U49"/>
-    <mergeCell ref="W49:X49"/>
-    <mergeCell ref="T50:U50"/>
-    <mergeCell ref="W50:X50"/>
-    <mergeCell ref="T51:U51"/>
-    <mergeCell ref="W51:X51"/>
-    <mergeCell ref="T52:U52"/>
-    <mergeCell ref="W52:X52"/>
-    <mergeCell ref="T53:U53"/>
-    <mergeCell ref="W53:X53"/>
-    <mergeCell ref="T54:U54"/>
-    <mergeCell ref="W54:X54"/>
-    <mergeCell ref="T55:U55"/>
-    <mergeCell ref="W55:X55"/>
-    <mergeCell ref="T56:U56"/>
-    <mergeCell ref="W56:X56"/>
-    <mergeCell ref="T57:U57"/>
-    <mergeCell ref="W57:X57"/>
-    <mergeCell ref="T58:U58"/>
-    <mergeCell ref="W58:X58"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="J57:K57"/>
+    <mergeCell ref="J58:K58"/>
+    <mergeCell ref="J59:K59"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="J50:K50"/>
+    <mergeCell ref="J51:K51"/>
+    <mergeCell ref="J52:K52"/>
+    <mergeCell ref="J53:K53"/>
+    <mergeCell ref="J54:K54"/>
+    <mergeCell ref="J55:K55"/>
+    <mergeCell ref="J56:K56"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="J48:K48"/>
+    <mergeCell ref="J49:K49"/>
+    <mergeCell ref="J66:K66"/>
+    <mergeCell ref="M66:N66"/>
+    <mergeCell ref="M65:N65"/>
+    <mergeCell ref="M64:N64"/>
+    <mergeCell ref="M63:N63"/>
+    <mergeCell ref="M43:N43"/>
+    <mergeCell ref="M44:N44"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="M46:N46"/>
+    <mergeCell ref="M47:N47"/>
+    <mergeCell ref="M62:N62"/>
+    <mergeCell ref="M61:N61"/>
+    <mergeCell ref="M60:N60"/>
+    <mergeCell ref="C6:C13"/>
+    <mergeCell ref="I6:I13"/>
+    <mergeCell ref="Z6:Z13"/>
+    <mergeCell ref="A6:A13"/>
+    <mergeCell ref="M54:N54"/>
+    <mergeCell ref="M48:N48"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="M49:N49"/>
+    <mergeCell ref="M50:N50"/>
+    <mergeCell ref="M51:N51"/>
+    <mergeCell ref="M52:N52"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="M29:N29"/>
     <mergeCell ref="T59:U59"/>
     <mergeCell ref="W59:X59"/>
     <mergeCell ref="T60:U60"/>
@@ -11535,162 +11418,161 @@
     <mergeCell ref="M23:N23"/>
     <mergeCell ref="M24:N24"/>
     <mergeCell ref="M25:N25"/>
-    <mergeCell ref="C6:C13"/>
-    <mergeCell ref="I6:I13"/>
-    <mergeCell ref="Z6:Z13"/>
-    <mergeCell ref="A6:A13"/>
-    <mergeCell ref="M54:N54"/>
-    <mergeCell ref="M48:N48"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="M49:N49"/>
-    <mergeCell ref="M50:N50"/>
-    <mergeCell ref="M51:N51"/>
-    <mergeCell ref="M52:N52"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="M35:N35"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="J66:K66"/>
-    <mergeCell ref="M66:N66"/>
-    <mergeCell ref="M65:N65"/>
-    <mergeCell ref="M64:N64"/>
-    <mergeCell ref="M63:N63"/>
-    <mergeCell ref="M43:N43"/>
-    <mergeCell ref="M44:N44"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="M46:N46"/>
-    <mergeCell ref="M47:N47"/>
-    <mergeCell ref="M62:N62"/>
-    <mergeCell ref="M61:N61"/>
-    <mergeCell ref="M60:N60"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="J57:K57"/>
-    <mergeCell ref="J58:K58"/>
-    <mergeCell ref="J59:K59"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="J50:K50"/>
-    <mergeCell ref="J51:K51"/>
-    <mergeCell ref="J52:K52"/>
-    <mergeCell ref="J53:K53"/>
-    <mergeCell ref="J54:K54"/>
-    <mergeCell ref="J55:K55"/>
-    <mergeCell ref="J56:K56"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="J46:K46"/>
-    <mergeCell ref="J47:K47"/>
-    <mergeCell ref="J48:K48"/>
-    <mergeCell ref="J49:K49"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="T54:U54"/>
+    <mergeCell ref="W54:X54"/>
+    <mergeCell ref="T55:U55"/>
+    <mergeCell ref="W55:X55"/>
+    <mergeCell ref="T56:U56"/>
+    <mergeCell ref="W56:X56"/>
+    <mergeCell ref="T57:U57"/>
+    <mergeCell ref="W57:X57"/>
+    <mergeCell ref="T58:U58"/>
+    <mergeCell ref="W58:X58"/>
+    <mergeCell ref="T49:U49"/>
+    <mergeCell ref="W49:X49"/>
+    <mergeCell ref="T50:U50"/>
+    <mergeCell ref="W50:X50"/>
+    <mergeCell ref="T51:U51"/>
+    <mergeCell ref="W51:X51"/>
+    <mergeCell ref="T52:U52"/>
+    <mergeCell ref="W52:X52"/>
+    <mergeCell ref="T53:U53"/>
+    <mergeCell ref="W53:X53"/>
+    <mergeCell ref="T44:U44"/>
+    <mergeCell ref="W44:X44"/>
+    <mergeCell ref="T45:U45"/>
+    <mergeCell ref="W45:X45"/>
+    <mergeCell ref="T46:U46"/>
+    <mergeCell ref="W46:X46"/>
+    <mergeCell ref="T47:U47"/>
+    <mergeCell ref="W47:X47"/>
+    <mergeCell ref="T48:U48"/>
+    <mergeCell ref="W48:X48"/>
+    <mergeCell ref="T39:U39"/>
+    <mergeCell ref="W39:X39"/>
+    <mergeCell ref="T40:U40"/>
+    <mergeCell ref="W40:X40"/>
+    <mergeCell ref="T41:U41"/>
+    <mergeCell ref="W41:X41"/>
+    <mergeCell ref="T42:U42"/>
+    <mergeCell ref="W42:X42"/>
+    <mergeCell ref="T43:U43"/>
+    <mergeCell ref="W43:X43"/>
+    <mergeCell ref="T34:U34"/>
+    <mergeCell ref="W34:X34"/>
+    <mergeCell ref="T35:U35"/>
+    <mergeCell ref="W35:X35"/>
+    <mergeCell ref="T36:U36"/>
+    <mergeCell ref="W36:X36"/>
+    <mergeCell ref="T37:U37"/>
+    <mergeCell ref="W37:X37"/>
+    <mergeCell ref="T38:U38"/>
+    <mergeCell ref="W38:X38"/>
+    <mergeCell ref="T29:U29"/>
+    <mergeCell ref="W29:X29"/>
+    <mergeCell ref="T30:U30"/>
+    <mergeCell ref="W30:X30"/>
+    <mergeCell ref="T31:U31"/>
+    <mergeCell ref="W31:X31"/>
+    <mergeCell ref="T32:U32"/>
+    <mergeCell ref="W32:X32"/>
+    <mergeCell ref="T33:U33"/>
+    <mergeCell ref="W33:X33"/>
+    <mergeCell ref="T24:U24"/>
+    <mergeCell ref="W24:X24"/>
+    <mergeCell ref="T25:U25"/>
+    <mergeCell ref="W25:X25"/>
+    <mergeCell ref="T26:U26"/>
+    <mergeCell ref="W26:X26"/>
+    <mergeCell ref="T27:U27"/>
+    <mergeCell ref="W27:X27"/>
+    <mergeCell ref="T28:U28"/>
+    <mergeCell ref="W28:X28"/>
+    <mergeCell ref="T19:U19"/>
+    <mergeCell ref="W19:X19"/>
+    <mergeCell ref="T20:U20"/>
+    <mergeCell ref="W20:X20"/>
+    <mergeCell ref="T21:U21"/>
+    <mergeCell ref="W21:X21"/>
+    <mergeCell ref="T22:U22"/>
+    <mergeCell ref="W22:X22"/>
+    <mergeCell ref="T23:U23"/>
+    <mergeCell ref="W23:X23"/>
+    <mergeCell ref="T14:U14"/>
+    <mergeCell ref="W14:X14"/>
+    <mergeCell ref="T15:U15"/>
+    <mergeCell ref="W15:X15"/>
+    <mergeCell ref="T16:U16"/>
+    <mergeCell ref="W16:X16"/>
+    <mergeCell ref="T17:U17"/>
+    <mergeCell ref="W17:X17"/>
+    <mergeCell ref="T18:U18"/>
+    <mergeCell ref="W18:X18"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A6:F6 I6:N6 Z6:IV6">
-    <cfRule type="expression" dxfId="35" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="10" stopIfTrue="1">
       <formula>B$5="1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="11" stopIfTrue="1">
       <formula>B$7="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="12" stopIfTrue="1">
       <formula>B$7="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7 D7:H7 J7:O7 AA7:IV7">
-    <cfRule type="expression" dxfId="32" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="7" stopIfTrue="1">
       <formula>B$5="1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="8" stopIfTrue="1">
       <formula>B$7="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="9" stopIfTrue="1">
       <formula>B$7="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6:H6">
-    <cfRule type="expression" dxfId="29" priority="58" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="58" stopIfTrue="1">
       <formula>I$5="1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="59" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="59" stopIfTrue="1">
       <formula>I$7="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="60" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="60" stopIfTrue="1">
       <formula>I$7="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O6">
-    <cfRule type="expression" dxfId="26" priority="46" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="46" stopIfTrue="1">
       <formula>X$5="1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="47" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="47" stopIfTrue="1">
       <formula>X$7="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="48" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="48" stopIfTrue="1">
       <formula>X$7="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P6">
-    <cfRule type="expression" dxfId="23" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="1" stopIfTrue="1">
       <formula>Q$5="1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="2" stopIfTrue="1">
       <formula>Q$7="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="3" stopIfTrue="1">
       <formula>Q$7="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q6:Y7">
-    <cfRule type="expression" dxfId="20" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="4" stopIfTrue="1">
       <formula>Q$5="1"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="5" stopIfTrue="1">
       <formula>Q$7="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
       <formula>Q$7="土"</formula>
     </cfRule>
   </conditionalFormatting>
